--- a/D4 unemployment 2021.xlsx
+++ b/D4 unemployment 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cozzieae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0753F1F-A5D9-4678-8D5F-C4918B2308A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C96B97-5B06-4B63-ACFC-0E5BB03E00D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,41 +18,162 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v6.0" hidden="1">DETAILLAUS!$A$1</definedName>
-    <definedName name="_xlchart.v6.1" hidden="1">DETAILLAUS!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v6.10" hidden="1">DETAILLAUS!$F$1</definedName>
-    <definedName name="_xlchart.v6.11" hidden="1">DETAILLAUS!$F$2:$F$101</definedName>
-    <definedName name="_xlchart.v6.12" hidden="1">DETAILLAUS!$F:$F</definedName>
-    <definedName name="_xlchart.v6.13" hidden="1">DETAILLAUS!$A$1</definedName>
-    <definedName name="_xlchart.v6.14" hidden="1">DETAILLAUS!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v6.15" hidden="1">DETAILLAUS!$F$1</definedName>
-    <definedName name="_xlchart.v6.16" hidden="1">DETAILLAUS!$F$2:$F$101</definedName>
-    <definedName name="_xlchart.v6.17" hidden="1">DETAILLAUS!$A$1</definedName>
-    <definedName name="_xlchart.v6.18" hidden="1">DETAILLAUS!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v6.19" hidden="1">DETAILLAUS!$E$1</definedName>
-    <definedName name="_xlchart.v6.2" hidden="1">DETAILLAUS!$B$1</definedName>
-    <definedName name="_xlchart.v6.20" hidden="1">DETAILLAUS!$E$2:$E$101</definedName>
-    <definedName name="_xlchart.v6.21" hidden="1">DETAILLAUS!$A$1</definedName>
-    <definedName name="_xlchart.v6.22" hidden="1">DETAILLAUS!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v6.23" hidden="1">DETAILLAUS!$F$1</definedName>
-    <definedName name="_xlchart.v6.24" hidden="1">DETAILLAUS!$F$2:$F$101</definedName>
-    <definedName name="_xlchart.v6.3" hidden="1">DETAILLAUS!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v6.4" hidden="1">DETAILLAUS!$C$1</definedName>
-    <definedName name="_xlchart.v6.5" hidden="1">DETAILLAUS!$C$2:$C$101</definedName>
-    <definedName name="_xlchart.v6.6" hidden="1">DETAILLAUS!$D$1</definedName>
-    <definedName name="_xlchart.v6.7" hidden="1">DETAILLAUS!$D$2:$D$101</definedName>
-    <definedName name="_xlchart.v6.8" hidden="1">DETAILLAUS!$E$1</definedName>
-    <definedName name="_xlchart.v6.9" hidden="1">DETAILLAUS!$E$2:$E$101</definedName>
+    <definedName name="_xlchart.v6.1" hidden="1">DETAILLAUS!$A$2:$A$102</definedName>
+    <definedName name="_xlchart.v6.10" hidden="1">DETAILLAUS!$A$15</definedName>
+    <definedName name="_xlchart.v6.100" hidden="1">DETAILLAUS!$C$1</definedName>
+    <definedName name="_xlchart.v6.101" hidden="1">DETAILLAUS!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v6.102" hidden="1">DETAILLAUS!$D$1</definedName>
+    <definedName name="_xlchart.v6.103" hidden="1">DETAILLAUS!$D$2:$D$101</definedName>
+    <definedName name="_xlchart.v6.104" hidden="1">DETAILLAUS!$E$1</definedName>
+    <definedName name="_xlchart.v6.105" hidden="1">DETAILLAUS!$E$2:$E$101</definedName>
+    <definedName name="_xlchart.v6.106" hidden="1">DETAILLAUS!$F$1</definedName>
+    <definedName name="_xlchart.v6.107" hidden="1">DETAILLAUS!$F$2:$F$101</definedName>
+    <definedName name="_xlchart.v6.108" hidden="1">DETAILLAUS!$F:$F</definedName>
+    <definedName name="_xlchart.v6.109" hidden="1">DETAILLAUS!$A$1</definedName>
+    <definedName name="_xlchart.v6.11" hidden="1">DETAILLAUS!$A$16</definedName>
+    <definedName name="_xlchart.v6.110" hidden="1">DETAILLAUS!$A$2:$A$102</definedName>
+    <definedName name="_xlchart.v6.111" hidden="1">DETAILLAUS!$I$1</definedName>
+    <definedName name="_xlchart.v6.112" hidden="1">DETAILLAUS!$I$2:$I$102</definedName>
+    <definedName name="_xlchart.v6.113" hidden="1">DETAILLAUS!$A$1</definedName>
+    <definedName name="_xlchart.v6.114" hidden="1">DETAILLAUS!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v6.115" hidden="1">DETAILLAUS!$F$1</definedName>
+    <definedName name="_xlchart.v6.116" hidden="1">DETAILLAUS!$F$2:$F$101</definedName>
+    <definedName name="_xlchart.v6.117" hidden="1">DETAILLAUS!$A$1</definedName>
+    <definedName name="_xlchart.v6.118" hidden="1">DETAILLAUS!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v6.119" hidden="1">DETAILLAUS!$E$1</definedName>
+    <definedName name="_xlchart.v6.12" hidden="1">DETAILLAUS!$A$17</definedName>
+    <definedName name="_xlchart.v6.120" hidden="1">DETAILLAUS!$E$2:$E$101</definedName>
+    <definedName name="_xlchart.v6.121" hidden="1">DETAILLAUS!$A$1</definedName>
+    <definedName name="_xlchart.v6.122" hidden="1">DETAILLAUS!$A$2:$A$102</definedName>
+    <definedName name="_xlchart.v6.123" hidden="1">DETAILLAUS!$J$1</definedName>
+    <definedName name="_xlchart.v6.124" hidden="1">DETAILLAUS!$J$2:$J$102</definedName>
+    <definedName name="_xlchart.v6.13" hidden="1">DETAILLAUS!$A$18</definedName>
+    <definedName name="_xlchart.v6.14" hidden="1">DETAILLAUS!$A$19</definedName>
+    <definedName name="_xlchart.v6.15" hidden="1">DETAILLAUS!$A$1:$A$11</definedName>
+    <definedName name="_xlchart.v6.16" hidden="1">DETAILLAUS!$A$20</definedName>
+    <definedName name="_xlchart.v6.17" hidden="1">DETAILLAUS!$A$21</definedName>
+    <definedName name="_xlchart.v6.18" hidden="1">DETAILLAUS!$A$22</definedName>
+    <definedName name="_xlchart.v6.19" hidden="1">DETAILLAUS!$A$23</definedName>
+    <definedName name="_xlchart.v6.2" hidden="1">DETAILLAUS!$J$1</definedName>
+    <definedName name="_xlchart.v6.20" hidden="1">DETAILLAUS!$A$24</definedName>
+    <definedName name="_xlchart.v6.21" hidden="1">DETAILLAUS!$A$25</definedName>
+    <definedName name="_xlchart.v6.22" hidden="1">DETAILLAUS!$A$26</definedName>
+    <definedName name="_xlchart.v6.23" hidden="1">DETAILLAUS!$A$27</definedName>
+    <definedName name="_xlchart.v6.24" hidden="1">DETAILLAUS!$A$28</definedName>
+    <definedName name="_xlchart.v6.25" hidden="1">DETAILLAUS!$A$29</definedName>
+    <definedName name="_xlchart.v6.26" hidden="1">DETAILLAUS!$A$30</definedName>
+    <definedName name="_xlchart.v6.27" hidden="1">DETAILLAUS!$A$31</definedName>
+    <definedName name="_xlchart.v6.28" hidden="1">DETAILLAUS!$A$32</definedName>
+    <definedName name="_xlchart.v6.29" hidden="1">DETAILLAUS!$A$33</definedName>
+    <definedName name="_xlchart.v6.3" hidden="1">DETAILLAUS!$J$2:$J$102</definedName>
+    <definedName name="_xlchart.v6.30" hidden="1">DETAILLAUS!$A$34</definedName>
+    <definedName name="_xlchart.v6.31" hidden="1">DETAILLAUS!$A$35</definedName>
+    <definedName name="_xlchart.v6.32" hidden="1">DETAILLAUS!$A$36</definedName>
+    <definedName name="_xlchart.v6.33" hidden="1">DETAILLAUS!$A$37</definedName>
+    <definedName name="_xlchart.v6.34" hidden="1">DETAILLAUS!$A$38</definedName>
+    <definedName name="_xlchart.v6.35" hidden="1">DETAILLAUS!$A$39</definedName>
+    <definedName name="_xlchart.v6.36" hidden="1">DETAILLAUS!$A$40</definedName>
+    <definedName name="_xlchart.v6.37" hidden="1">DETAILLAUS!$A$41</definedName>
+    <definedName name="_xlchart.v6.38" hidden="1">DETAILLAUS!$A$42</definedName>
+    <definedName name="_xlchart.v6.39" hidden="1">DETAILLAUS!$A$43</definedName>
+    <definedName name="_xlchart.v6.4" hidden="1">DETAILLAUS!$A$100</definedName>
+    <definedName name="_xlchart.v6.40" hidden="1">DETAILLAUS!$A$44</definedName>
+    <definedName name="_xlchart.v6.41" hidden="1">DETAILLAUS!$A$45</definedName>
+    <definedName name="_xlchart.v6.42" hidden="1">DETAILLAUS!$A$46</definedName>
+    <definedName name="_xlchart.v6.43" hidden="1">DETAILLAUS!$A$47</definedName>
+    <definedName name="_xlchart.v6.44" hidden="1">DETAILLAUS!$A$48</definedName>
+    <definedName name="_xlchart.v6.45" hidden="1">DETAILLAUS!$A$49</definedName>
+    <definedName name="_xlchart.v6.46" hidden="1">DETAILLAUS!$A$50</definedName>
+    <definedName name="_xlchart.v6.47" hidden="1">DETAILLAUS!$A$51</definedName>
+    <definedName name="_xlchart.v6.48" hidden="1">DETAILLAUS!$A$52</definedName>
+    <definedName name="_xlchart.v6.49" hidden="1">DETAILLAUS!$A$53</definedName>
+    <definedName name="_xlchart.v6.5" hidden="1">DETAILLAUS!$A$101</definedName>
+    <definedName name="_xlchart.v6.50" hidden="1">DETAILLAUS!$A$54</definedName>
+    <definedName name="_xlchart.v6.51" hidden="1">DETAILLAUS!$A$55</definedName>
+    <definedName name="_xlchart.v6.52" hidden="1">DETAILLAUS!$A$56</definedName>
+    <definedName name="_xlchart.v6.53" hidden="1">DETAILLAUS!$A$57</definedName>
+    <definedName name="_xlchart.v6.54" hidden="1">DETAILLAUS!$A$58</definedName>
+    <definedName name="_xlchart.v6.55" hidden="1">DETAILLAUS!$A$59</definedName>
+    <definedName name="_xlchart.v6.56" hidden="1">DETAILLAUS!$A$60</definedName>
+    <definedName name="_xlchart.v6.57" hidden="1">DETAILLAUS!$A$61</definedName>
+    <definedName name="_xlchart.v6.58" hidden="1">DETAILLAUS!$A$62</definedName>
+    <definedName name="_xlchart.v6.59" hidden="1">DETAILLAUS!$A$63</definedName>
+    <definedName name="_xlchart.v6.6" hidden="1">DETAILLAUS!$A$102</definedName>
+    <definedName name="_xlchart.v6.60" hidden="1">DETAILLAUS!$A$64</definedName>
+    <definedName name="_xlchart.v6.61" hidden="1">DETAILLAUS!$A$65</definedName>
+    <definedName name="_xlchart.v6.62" hidden="1">DETAILLAUS!$A$66</definedName>
+    <definedName name="_xlchart.v6.63" hidden="1">DETAILLAUS!$A$67</definedName>
+    <definedName name="_xlchart.v6.64" hidden="1">DETAILLAUS!$A$68</definedName>
+    <definedName name="_xlchart.v6.65" hidden="1">DETAILLAUS!$A$69</definedName>
+    <definedName name="_xlchart.v6.66" hidden="1">DETAILLAUS!$A$70</definedName>
+    <definedName name="_xlchart.v6.67" hidden="1">DETAILLAUS!$A$71</definedName>
+    <definedName name="_xlchart.v6.68" hidden="1">DETAILLAUS!$A$72</definedName>
+    <definedName name="_xlchart.v6.69" hidden="1">DETAILLAUS!$A$73</definedName>
+    <definedName name="_xlchart.v6.7" hidden="1">DETAILLAUS!$A$12</definedName>
+    <definedName name="_xlchart.v6.70" hidden="1">DETAILLAUS!$A$74</definedName>
+    <definedName name="_xlchart.v6.71" hidden="1">DETAILLAUS!$A$75</definedName>
+    <definedName name="_xlchart.v6.72" hidden="1">DETAILLAUS!$A$76</definedName>
+    <definedName name="_xlchart.v6.73" hidden="1">DETAILLAUS!$A$77</definedName>
+    <definedName name="_xlchart.v6.74" hidden="1">DETAILLAUS!$A$78</definedName>
+    <definedName name="_xlchart.v6.75" hidden="1">DETAILLAUS!$A$79</definedName>
+    <definedName name="_xlchart.v6.76" hidden="1">DETAILLAUS!$A$80</definedName>
+    <definedName name="_xlchart.v6.77" hidden="1">DETAILLAUS!$A$81</definedName>
+    <definedName name="_xlchart.v6.78" hidden="1">DETAILLAUS!$A$82</definedName>
+    <definedName name="_xlchart.v6.79" hidden="1">DETAILLAUS!$A$83</definedName>
+    <definedName name="_xlchart.v6.8" hidden="1">DETAILLAUS!$A$13</definedName>
+    <definedName name="_xlchart.v6.80" hidden="1">DETAILLAUS!$A$84</definedName>
+    <definedName name="_xlchart.v6.81" hidden="1">DETAILLAUS!$A$85</definedName>
+    <definedName name="_xlchart.v6.82" hidden="1">DETAILLAUS!$A$86</definedName>
+    <definedName name="_xlchart.v6.83" hidden="1">DETAILLAUS!$A$87</definedName>
+    <definedName name="_xlchart.v6.84" hidden="1">DETAILLAUS!$A$88</definedName>
+    <definedName name="_xlchart.v6.85" hidden="1">DETAILLAUS!$A$89</definedName>
+    <definedName name="_xlchart.v6.86" hidden="1">DETAILLAUS!$A$90</definedName>
+    <definedName name="_xlchart.v6.87" hidden="1">DETAILLAUS!$A$91</definedName>
+    <definedName name="_xlchart.v6.88" hidden="1">DETAILLAUS!$A$92</definedName>
+    <definedName name="_xlchart.v6.89" hidden="1">DETAILLAUS!$A$93</definedName>
+    <definedName name="_xlchart.v6.9" hidden="1">DETAILLAUS!$A$14</definedName>
+    <definedName name="_xlchart.v6.90" hidden="1">DETAILLAUS!$A$94</definedName>
+    <definedName name="_xlchart.v6.91" hidden="1">DETAILLAUS!$A$95</definedName>
+    <definedName name="_xlchart.v6.92" hidden="1">DETAILLAUS!$A$96</definedName>
+    <definedName name="_xlchart.v6.93" hidden="1">DETAILLAUS!$A$97</definedName>
+    <definedName name="_xlchart.v6.94" hidden="1">DETAILLAUS!$A$98</definedName>
+    <definedName name="_xlchart.v6.95" hidden="1">DETAILLAUS!$A$99</definedName>
+    <definedName name="_xlchart.v6.96" hidden="1">DETAILLAUS!$A$1</definedName>
+    <definedName name="_xlchart.v6.97" hidden="1">DETAILLAUS!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v6.98" hidden="1">DETAILLAUS!$B$1</definedName>
+    <definedName name="_xlchart.v6.99" hidden="1">DETAILLAUS!$B$2:$B$101</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="100">
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="200">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -63,7 +184,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
         </ext>
       </extLst>
     </bk>
@@ -77,7 +212,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
         </ext>
       </extLst>
     </bk>
@@ -91,7 +240,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="37"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="42"/>
         </ext>
       </extLst>
     </bk>
@@ -105,7 +268,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="49"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="51"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="56"/>
         </ext>
       </extLst>
     </bk>
@@ -119,7 +296,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="63"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="65"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="70"/>
         </ext>
       </extLst>
     </bk>
@@ -133,7 +324,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="77"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="79"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="84"/>
         </ext>
       </extLst>
     </bk>
@@ -147,7 +352,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="91"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="93"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="98"/>
         </ext>
       </extLst>
     </bk>
@@ -161,7 +380,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="105"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="107"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="112"/>
         </ext>
       </extLst>
     </bk>
@@ -175,7 +408,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="119"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="121"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="126"/>
         </ext>
       </extLst>
     </bk>
@@ -189,7 +436,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="133"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="135"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="140"/>
         </ext>
       </extLst>
     </bk>
@@ -203,7 +464,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="147"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="149"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="154"/>
         </ext>
       </extLst>
     </bk>
@@ -217,7 +492,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="161"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="163"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="168"/>
         </ext>
       </extLst>
     </bk>
@@ -231,7 +520,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="175"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="177"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="182"/>
         </ext>
       </extLst>
     </bk>
@@ -245,7 +548,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="189"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="191"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="196"/>
         </ext>
       </extLst>
     </bk>
@@ -259,7 +576,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="203"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="206"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="211"/>
         </ext>
       </extLst>
     </bk>
@@ -273,7 +604,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="218"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="220"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="225"/>
         </ext>
       </extLst>
     </bk>
@@ -287,7 +632,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="232"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="234"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="239"/>
         </ext>
       </extLst>
     </bk>
@@ -301,7 +660,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="246"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="248"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="253"/>
         </ext>
       </extLst>
     </bk>
@@ -315,7 +688,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="260"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="262"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="267"/>
         </ext>
       </extLst>
     </bk>
@@ -329,7 +716,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="274"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="276"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="281"/>
         </ext>
       </extLst>
     </bk>
@@ -343,7 +744,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="288"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="290"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="295"/>
         </ext>
       </extLst>
     </bk>
@@ -357,7 +772,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="302"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="304"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="309"/>
         </ext>
       </extLst>
     </bk>
@@ -371,7 +800,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="316"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="318"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="323"/>
         </ext>
       </extLst>
     </bk>
@@ -385,7 +828,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="330"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="332"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="337"/>
         </ext>
       </extLst>
     </bk>
@@ -399,7 +856,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="344"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="346"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="350"/>
         </ext>
       </extLst>
     </bk>
@@ -413,7 +884,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="357"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="359"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="364"/>
         </ext>
       </extLst>
     </bk>
@@ -427,7 +912,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="371"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="373"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="378"/>
         </ext>
       </extLst>
     </bk>
@@ -441,7 +940,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="385"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="387"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="392"/>
         </ext>
       </extLst>
     </bk>
@@ -455,7 +968,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="399"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="401"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="406"/>
         </ext>
       </extLst>
     </bk>
@@ -469,7 +996,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="413"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="415"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="420"/>
         </ext>
       </extLst>
     </bk>
@@ -483,7 +1024,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="427"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="429"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="434"/>
         </ext>
       </extLst>
     </bk>
@@ -497,7 +1052,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="441"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="443"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="447"/>
         </ext>
       </extLst>
     </bk>
@@ -511,7 +1080,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="454"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="456"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="461"/>
         </ext>
       </extLst>
     </bk>
@@ -525,7 +1108,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="468"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="470"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="475"/>
         </ext>
       </extLst>
     </bk>
@@ -539,7 +1136,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="482"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="484"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="489"/>
         </ext>
       </extLst>
     </bk>
@@ -553,7 +1164,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="496"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="498"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="503"/>
         </ext>
       </extLst>
     </bk>
@@ -567,7 +1192,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="510"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="512"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="517"/>
         </ext>
       </extLst>
     </bk>
@@ -581,7 +1220,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="524"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="526"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="531"/>
         </ext>
       </extLst>
     </bk>
@@ -595,7 +1248,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="538"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="540"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="545"/>
         </ext>
       </extLst>
     </bk>
@@ -609,7 +1276,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="552"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="554"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="559"/>
         </ext>
       </extLst>
     </bk>
@@ -623,7 +1304,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="566"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="568"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="573"/>
         </ext>
       </extLst>
     </bk>
@@ -637,7 +1332,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="580"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="582"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="586"/>
         </ext>
       </extLst>
     </bk>
@@ -651,7 +1360,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="593"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="595"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="600"/>
         </ext>
       </extLst>
     </bk>
@@ -665,7 +1388,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="607"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="609"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="614"/>
         </ext>
       </extLst>
     </bk>
@@ -679,7 +1416,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="621"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="623"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="628"/>
         </ext>
       </extLst>
     </bk>
@@ -693,7 +1444,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="635"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="637"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="642"/>
         </ext>
       </extLst>
     </bk>
@@ -707,7 +1472,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="649"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="651"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="656"/>
         </ext>
       </extLst>
     </bk>
@@ -721,7 +1500,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="663"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="665"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="670"/>
         </ext>
       </extLst>
     </bk>
@@ -735,7 +1528,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="677"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="679"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="684"/>
         </ext>
       </extLst>
     </bk>
@@ -749,318 +1556,637 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="691"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="693"/>
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="698"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="100">
+  <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-    <bk>
-      <rc t="1" v="3"/>
-    </bk>
-    <bk>
-      <rc t="1" v="4"/>
-    </bk>
-    <bk>
-      <rc t="1" v="5"/>
-    </bk>
-    <bk>
-      <rc t="1" v="6"/>
-    </bk>
-    <bk>
-      <rc t="1" v="7"/>
-    </bk>
-    <bk>
-      <rc t="1" v="8"/>
-    </bk>
-    <bk>
-      <rc t="1" v="9"/>
-    </bk>
-    <bk>
-      <rc t="1" v="10"/>
-    </bk>
-    <bk>
-      <rc t="1" v="11"/>
-    </bk>
-    <bk>
-      <rc t="1" v="12"/>
-    </bk>
-    <bk>
-      <rc t="1" v="13"/>
-    </bk>
-    <bk>
-      <rc t="1" v="14"/>
-    </bk>
-    <bk>
-      <rc t="1" v="15"/>
-    </bk>
-    <bk>
-      <rc t="1" v="16"/>
-    </bk>
-    <bk>
-      <rc t="1" v="17"/>
-    </bk>
-    <bk>
-      <rc t="1" v="18"/>
-    </bk>
-    <bk>
-      <rc t="1" v="19"/>
-    </bk>
-    <bk>
-      <rc t="1" v="20"/>
-    </bk>
-    <bk>
-      <rc t="1" v="21"/>
-    </bk>
-    <bk>
-      <rc t="1" v="22"/>
-    </bk>
-    <bk>
-      <rc t="1" v="23"/>
-    </bk>
-    <bk>
-      <rc t="1" v="24"/>
-    </bk>
-    <bk>
-      <rc t="1" v="25"/>
-    </bk>
-    <bk>
-      <rc t="1" v="26"/>
-    </bk>
-    <bk>
-      <rc t="1" v="27"/>
-    </bk>
-    <bk>
-      <rc t="1" v="28"/>
-    </bk>
-    <bk>
-      <rc t="1" v="29"/>
-    </bk>
-    <bk>
-      <rc t="1" v="30"/>
-    </bk>
-    <bk>
-      <rc t="1" v="31"/>
-    </bk>
-    <bk>
-      <rc t="1" v="32"/>
-    </bk>
-    <bk>
-      <rc t="1" v="33"/>
-    </bk>
-    <bk>
-      <rc t="1" v="34"/>
-    </bk>
-    <bk>
-      <rc t="1" v="35"/>
-    </bk>
-    <bk>
-      <rc t="1" v="36"/>
-    </bk>
-    <bk>
-      <rc t="1" v="37"/>
-    </bk>
-    <bk>
-      <rc t="1" v="38"/>
-    </bk>
-    <bk>
-      <rc t="1" v="39"/>
-    </bk>
-    <bk>
-      <rc t="1" v="40"/>
-    </bk>
-    <bk>
-      <rc t="1" v="41"/>
-    </bk>
-    <bk>
-      <rc t="1" v="42"/>
-    </bk>
-    <bk>
-      <rc t="1" v="43"/>
-    </bk>
-    <bk>
-      <rc t="1" v="44"/>
-    </bk>
-    <bk>
-      <rc t="1" v="45"/>
-    </bk>
-    <bk>
-      <rc t="1" v="46"/>
-    </bk>
-    <bk>
-      <rc t="1" v="47"/>
-    </bk>
-    <bk>
-      <rc t="1" v="48"/>
-    </bk>
-    <bk>
-      <rc t="1" v="49"/>
-    </bk>
-    <bk>
-      <rc t="1" v="50"/>
-    </bk>
-    <bk>
-      <rc t="1" v="51"/>
-    </bk>
-    <bk>
-      <rc t="1" v="52"/>
-    </bk>
-    <bk>
-      <rc t="1" v="53"/>
-    </bk>
-    <bk>
-      <rc t="1" v="54"/>
-    </bk>
-    <bk>
-      <rc t="1" v="55"/>
-    </bk>
-    <bk>
-      <rc t="1" v="56"/>
-    </bk>
-    <bk>
-      <rc t="1" v="57"/>
-    </bk>
-    <bk>
-      <rc t="1" v="58"/>
-    </bk>
-    <bk>
-      <rc t="1" v="59"/>
-    </bk>
-    <bk>
-      <rc t="1" v="60"/>
-    </bk>
-    <bk>
-      <rc t="1" v="61"/>
-    </bk>
-    <bk>
-      <rc t="1" v="62"/>
-    </bk>
-    <bk>
-      <rc t="1" v="63"/>
-    </bk>
-    <bk>
-      <rc t="1" v="64"/>
-    </bk>
-    <bk>
-      <rc t="1" v="65"/>
-    </bk>
-    <bk>
-      <rc t="1" v="66"/>
-    </bk>
-    <bk>
-      <rc t="1" v="67"/>
-    </bk>
-    <bk>
-      <rc t="1" v="68"/>
-    </bk>
-    <bk>
-      <rc t="1" v="69"/>
-    </bk>
-    <bk>
-      <rc t="1" v="70"/>
-    </bk>
-    <bk>
-      <rc t="1" v="71"/>
-    </bk>
-    <bk>
-      <rc t="1" v="72"/>
-    </bk>
-    <bk>
-      <rc t="1" v="73"/>
-    </bk>
-    <bk>
-      <rc t="1" v="74"/>
-    </bk>
-    <bk>
-      <rc t="1" v="75"/>
-    </bk>
-    <bk>
-      <rc t="1" v="76"/>
-    </bk>
-    <bk>
-      <rc t="1" v="77"/>
-    </bk>
-    <bk>
-      <rc t="1" v="78"/>
-    </bk>
-    <bk>
-      <rc t="1" v="79"/>
-    </bk>
-    <bk>
-      <rc t="1" v="80"/>
-    </bk>
-    <bk>
-      <rc t="1" v="81"/>
-    </bk>
-    <bk>
-      <rc t="1" v="82"/>
-    </bk>
-    <bk>
-      <rc t="1" v="83"/>
-    </bk>
-    <bk>
-      <rc t="1" v="84"/>
-    </bk>
-    <bk>
-      <rc t="1" v="85"/>
-    </bk>
-    <bk>
-      <rc t="1" v="86"/>
-    </bk>
-    <bk>
-      <rc t="1" v="87"/>
-    </bk>
-    <bk>
-      <rc t="1" v="88"/>
-    </bk>
-    <bk>
-      <rc t="1" v="89"/>
-    </bk>
-    <bk>
-      <rc t="1" v="90"/>
-    </bk>
-    <bk>
-      <rc t="1" v="91"/>
-    </bk>
-    <bk>
-      <rc t="1" v="92"/>
-    </bk>
-    <bk>
-      <rc t="1" v="93"/>
-    </bk>
-    <bk>
-      <rc t="1" v="94"/>
-    </bk>
-    <bk>
-      <rc t="1" v="95"/>
-    </bk>
-    <bk>
-      <rc t="1" v="96"/>
-    </bk>
-    <bk>
-      <rc t="1" v="97"/>
-    </bk>
-    <bk>
-      <rc t="1" v="98"/>
-    </bk>
-    <bk>
-      <rc t="1" v="99"/>
+  </cellMetadata>
+  <valueMetadata count="200">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
+    </bk>
+    <bk>
+      <rc t="2" v="16"/>
+    </bk>
+    <bk>
+      <rc t="2" v="17"/>
+    </bk>
+    <bk>
+      <rc t="2" v="18"/>
+    </bk>
+    <bk>
+      <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
+    </bk>
+    <bk>
+      <rc t="2" v="21"/>
+    </bk>
+    <bk>
+      <rc t="2" v="22"/>
+    </bk>
+    <bk>
+      <rc t="2" v="23"/>
+    </bk>
+    <bk>
+      <rc t="2" v="24"/>
+    </bk>
+    <bk>
+      <rc t="2" v="25"/>
+    </bk>
+    <bk>
+      <rc t="2" v="26"/>
+    </bk>
+    <bk>
+      <rc t="2" v="27"/>
+    </bk>
+    <bk>
+      <rc t="2" v="28"/>
+    </bk>
+    <bk>
+      <rc t="2" v="29"/>
+    </bk>
+    <bk>
+      <rc t="2" v="30"/>
+    </bk>
+    <bk>
+      <rc t="2" v="31"/>
+    </bk>
+    <bk>
+      <rc t="2" v="32"/>
+    </bk>
+    <bk>
+      <rc t="2" v="33"/>
+    </bk>
+    <bk>
+      <rc t="2" v="34"/>
+    </bk>
+    <bk>
+      <rc t="2" v="35"/>
+    </bk>
+    <bk>
+      <rc t="2" v="36"/>
+    </bk>
+    <bk>
+      <rc t="2" v="37"/>
+    </bk>
+    <bk>
+      <rc t="2" v="38"/>
+    </bk>
+    <bk>
+      <rc t="2" v="39"/>
+    </bk>
+    <bk>
+      <rc t="2" v="40"/>
+    </bk>
+    <bk>
+      <rc t="2" v="41"/>
+    </bk>
+    <bk>
+      <rc t="2" v="42"/>
+    </bk>
+    <bk>
+      <rc t="2" v="43"/>
+    </bk>
+    <bk>
+      <rc t="2" v="44"/>
+    </bk>
+    <bk>
+      <rc t="2" v="45"/>
+    </bk>
+    <bk>
+      <rc t="2" v="46"/>
+    </bk>
+    <bk>
+      <rc t="2" v="47"/>
+    </bk>
+    <bk>
+      <rc t="2" v="48"/>
+    </bk>
+    <bk>
+      <rc t="2" v="49"/>
+    </bk>
+    <bk>
+      <rc t="2" v="50"/>
+    </bk>
+    <bk>
+      <rc t="2" v="51"/>
+    </bk>
+    <bk>
+      <rc t="2" v="52"/>
+    </bk>
+    <bk>
+      <rc t="2" v="53"/>
+    </bk>
+    <bk>
+      <rc t="2" v="54"/>
+    </bk>
+    <bk>
+      <rc t="2" v="55"/>
+    </bk>
+    <bk>
+      <rc t="2" v="56"/>
+    </bk>
+    <bk>
+      <rc t="2" v="57"/>
+    </bk>
+    <bk>
+      <rc t="2" v="58"/>
+    </bk>
+    <bk>
+      <rc t="2" v="59"/>
+    </bk>
+    <bk>
+      <rc t="2" v="60"/>
+    </bk>
+    <bk>
+      <rc t="2" v="61"/>
+    </bk>
+    <bk>
+      <rc t="2" v="62"/>
+    </bk>
+    <bk>
+      <rc t="2" v="63"/>
+    </bk>
+    <bk>
+      <rc t="2" v="64"/>
+    </bk>
+    <bk>
+      <rc t="2" v="65"/>
+    </bk>
+    <bk>
+      <rc t="2" v="66"/>
+    </bk>
+    <bk>
+      <rc t="2" v="67"/>
+    </bk>
+    <bk>
+      <rc t="2" v="68"/>
+    </bk>
+    <bk>
+      <rc t="2" v="69"/>
+    </bk>
+    <bk>
+      <rc t="2" v="70"/>
+    </bk>
+    <bk>
+      <rc t="2" v="71"/>
+    </bk>
+    <bk>
+      <rc t="2" v="72"/>
+    </bk>
+    <bk>
+      <rc t="2" v="73"/>
+    </bk>
+    <bk>
+      <rc t="2" v="74"/>
+    </bk>
+    <bk>
+      <rc t="2" v="75"/>
+    </bk>
+    <bk>
+      <rc t="2" v="76"/>
+    </bk>
+    <bk>
+      <rc t="2" v="77"/>
+    </bk>
+    <bk>
+      <rc t="2" v="78"/>
+    </bk>
+    <bk>
+      <rc t="2" v="79"/>
+    </bk>
+    <bk>
+      <rc t="2" v="80"/>
+    </bk>
+    <bk>
+      <rc t="2" v="81"/>
+    </bk>
+    <bk>
+      <rc t="2" v="82"/>
+    </bk>
+    <bk>
+      <rc t="2" v="83"/>
+    </bk>
+    <bk>
+      <rc t="2" v="84"/>
+    </bk>
+    <bk>
+      <rc t="2" v="85"/>
+    </bk>
+    <bk>
+      <rc t="2" v="86"/>
+    </bk>
+    <bk>
+      <rc t="2" v="87"/>
+    </bk>
+    <bk>
+      <rc t="2" v="88"/>
+    </bk>
+    <bk>
+      <rc t="2" v="89"/>
+    </bk>
+    <bk>
+      <rc t="2" v="90"/>
+    </bk>
+    <bk>
+      <rc t="2" v="91"/>
+    </bk>
+    <bk>
+      <rc t="2" v="92"/>
+    </bk>
+    <bk>
+      <rc t="2" v="93"/>
+    </bk>
+    <bk>
+      <rc t="2" v="94"/>
+    </bk>
+    <bk>
+      <rc t="2" v="95"/>
+    </bk>
+    <bk>
+      <rc t="2" v="96"/>
+    </bk>
+    <bk>
+      <rc t="2" v="97"/>
+    </bk>
+    <bk>
+      <rc t="2" v="98"/>
+    </bk>
+    <bk>
+      <rc t="2" v="99"/>
+    </bk>
+    <bk>
+      <rc t="2" v="100"/>
+    </bk>
+    <bk>
+      <rc t="2" v="101"/>
+    </bk>
+    <bk>
+      <rc t="2" v="102"/>
+    </bk>
+    <bk>
+      <rc t="2" v="103"/>
+    </bk>
+    <bk>
+      <rc t="2" v="104"/>
+    </bk>
+    <bk>
+      <rc t="2" v="105"/>
+    </bk>
+    <bk>
+      <rc t="2" v="106"/>
+    </bk>
+    <bk>
+      <rc t="2" v="107"/>
+    </bk>
+    <bk>
+      <rc t="2" v="108"/>
+    </bk>
+    <bk>
+      <rc t="2" v="109"/>
+    </bk>
+    <bk>
+      <rc t="2" v="110"/>
+    </bk>
+    <bk>
+      <rc t="2" v="111"/>
+    </bk>
+    <bk>
+      <rc t="2" v="112"/>
+    </bk>
+    <bk>
+      <rc t="2" v="113"/>
+    </bk>
+    <bk>
+      <rc t="2" v="114"/>
+    </bk>
+    <bk>
+      <rc t="2" v="115"/>
+    </bk>
+    <bk>
+      <rc t="2" v="116"/>
+    </bk>
+    <bk>
+      <rc t="2" v="117"/>
+    </bk>
+    <bk>
+      <rc t="2" v="118"/>
+    </bk>
+    <bk>
+      <rc t="2" v="119"/>
+    </bk>
+    <bk>
+      <rc t="2" v="120"/>
+    </bk>
+    <bk>
+      <rc t="2" v="121"/>
+    </bk>
+    <bk>
+      <rc t="2" v="122"/>
+    </bk>
+    <bk>
+      <rc t="2" v="123"/>
+    </bk>
+    <bk>
+      <rc t="2" v="124"/>
+    </bk>
+    <bk>
+      <rc t="2" v="125"/>
+    </bk>
+    <bk>
+      <rc t="2" v="126"/>
+    </bk>
+    <bk>
+      <rc t="2" v="127"/>
+    </bk>
+    <bk>
+      <rc t="2" v="128"/>
+    </bk>
+    <bk>
+      <rc t="2" v="129"/>
+    </bk>
+    <bk>
+      <rc t="2" v="130"/>
+    </bk>
+    <bk>
+      <rc t="2" v="131"/>
+    </bk>
+    <bk>
+      <rc t="2" v="132"/>
+    </bk>
+    <bk>
+      <rc t="2" v="133"/>
+    </bk>
+    <bk>
+      <rc t="2" v="134"/>
+    </bk>
+    <bk>
+      <rc t="2" v="135"/>
+    </bk>
+    <bk>
+      <rc t="2" v="136"/>
+    </bk>
+    <bk>
+      <rc t="2" v="137"/>
+    </bk>
+    <bk>
+      <rc t="2" v="138"/>
+    </bk>
+    <bk>
+      <rc t="2" v="139"/>
+    </bk>
+    <bk>
+      <rc t="2" v="140"/>
+    </bk>
+    <bk>
+      <rc t="2" v="141"/>
+    </bk>
+    <bk>
+      <rc t="2" v="142"/>
+    </bk>
+    <bk>
+      <rc t="2" v="143"/>
+    </bk>
+    <bk>
+      <rc t="2" v="144"/>
+    </bk>
+    <bk>
+      <rc t="2" v="145"/>
+    </bk>
+    <bk>
+      <rc t="2" v="146"/>
+    </bk>
+    <bk>
+      <rc t="2" v="147"/>
+    </bk>
+    <bk>
+      <rc t="2" v="148"/>
+    </bk>
+    <bk>
+      <rc t="2" v="149"/>
+    </bk>
+    <bk>
+      <rc t="2" v="150"/>
+    </bk>
+    <bk>
+      <rc t="2" v="151"/>
+    </bk>
+    <bk>
+      <rc t="2" v="152"/>
+    </bk>
+    <bk>
+      <rc t="2" v="153"/>
+    </bk>
+    <bk>
+      <rc t="2" v="154"/>
+    </bk>
+    <bk>
+      <rc t="2" v="155"/>
+    </bk>
+    <bk>
+      <rc t="2" v="156"/>
+    </bk>
+    <bk>
+      <rc t="2" v="157"/>
+    </bk>
+    <bk>
+      <rc t="2" v="158"/>
+    </bk>
+    <bk>
+      <rc t="2" v="159"/>
+    </bk>
+    <bk>
+      <rc t="2" v="160"/>
+    </bk>
+    <bk>
+      <rc t="2" v="161"/>
+    </bk>
+    <bk>
+      <rc t="2" v="162"/>
+    </bk>
+    <bk>
+      <rc t="2" v="163"/>
+    </bk>
+    <bk>
+      <rc t="2" v="164"/>
+    </bk>
+    <bk>
+      <rc t="2" v="165"/>
+    </bk>
+    <bk>
+      <rc t="2" v="166"/>
+    </bk>
+    <bk>
+      <rc t="2" v="167"/>
+    </bk>
+    <bk>
+      <rc t="2" v="168"/>
+    </bk>
+    <bk>
+      <rc t="2" v="169"/>
+    </bk>
+    <bk>
+      <rc t="2" v="170"/>
+    </bk>
+    <bk>
+      <rc t="2" v="171"/>
+    </bk>
+    <bk>
+      <rc t="2" v="172"/>
+    </bk>
+    <bk>
+      <rc t="2" v="173"/>
+    </bk>
+    <bk>
+      <rc t="2" v="174"/>
+    </bk>
+    <bk>
+      <rc t="2" v="175"/>
+    </bk>
+    <bk>
+      <rc t="2" v="176"/>
+    </bk>
+    <bk>
+      <rc t="2" v="177"/>
+    </bk>
+    <bk>
+      <rc t="2" v="178"/>
+    </bk>
+    <bk>
+      <rc t="2" v="179"/>
+    </bk>
+    <bk>
+      <rc t="2" v="180"/>
+    </bk>
+    <bk>
+      <rc t="2" v="181"/>
+    </bk>
+    <bk>
+      <rc t="2" v="182"/>
+    </bk>
+    <bk>
+      <rc t="2" v="183"/>
+    </bk>
+    <bk>
+      <rc t="2" v="184"/>
+    </bk>
+    <bk>
+      <rc t="2" v="185"/>
+    </bk>
+    <bk>
+      <rc t="2" v="186"/>
+    </bk>
+    <bk>
+      <rc t="2" v="187"/>
+    </bk>
+    <bk>
+      <rc t="2" v="188"/>
+    </bk>
+    <bk>
+      <rc t="2" v="189"/>
+    </bk>
+    <bk>
+      <rc t="2" v="190"/>
+    </bk>
+    <bk>
+      <rc t="2" v="191"/>
+    </bk>
+    <bk>
+      <rc t="2" v="192"/>
+    </bk>
+    <bk>
+      <rc t="2" v="193"/>
+    </bk>
+    <bk>
+      <rc t="2" v="194"/>
+    </bk>
+    <bk>
+      <rc t="2" v="195"/>
+    </bk>
+    <bk>
+      <rc t="2" v="196"/>
+    </bk>
+    <bk>
+      <rc t="2" v="197"/>
+    </bk>
+    <bk>
+      <rc t="2" v="198"/>
+    </bk>
+    <bk>
+      <rc t="2" v="199"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="15">
   <si>
     <t>Area Name</t>
   </si>
@@ -1093,6 +2219,18 @@
   </si>
   <si>
     <t>Additional information regarding the LAUS program including data for other states and geographical areas can be accessed on the Bureau of Labor Statistics website at https://www.bls.gov/lau/</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>% Not Seeking Work</t>
+  </si>
+  <si>
+    <t>Total Not Seeking Work (Total Population-Employed-Unemployed per Labor Bureau)</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +2288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1164,6 +2302,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,12 +2433,12 @@
         </cx:lvl>
       </cx:strDim>
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v6.14</cx:f>
-        <cx:nf>_xlchart.v6.13</cx:nf>
+        <cx:f>_xlchart.v6.114</cx:f>
+        <cx:nf>_xlchart.v6.113</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v6.16</cx:f>
-        <cx:nf>_xlchart.v6.15</cx:nf>
+        <cx:f>_xlchart.v6.116</cx:f>
+        <cx:nf>_xlchart.v6.115</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1333,7 +2476,7 @@
         <cx:series layoutId="regionMap" uniqueId="{D8D8E026-4ECF-4C96-B24E-22B49493EC63}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v6.15</cx:f>
+              <cx:f>_xlchart.v6.115</cx:f>
               <cx:v>Unemployment Rate(%)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2982,12 +4125,12 @@
         </cx:lvl>
       </cx:strDim>
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v6.18</cx:f>
-        <cx:nf>_xlchart.v6.17</cx:nf>
+        <cx:f>_xlchart.v6.118</cx:f>
+        <cx:nf>_xlchart.v6.117</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v6.20</cx:f>
-        <cx:nf>_xlchart.v6.19</cx:nf>
+        <cx:f>_xlchart.v6.120</cx:f>
+        <cx:nf>_xlchart.v6.119</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3025,8 +4168,3394 @@
         <cx:series layoutId="regionMap" uniqueId="{24775B35-87DD-476B-B799-D268A65A04CE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v6.19</cx:f>
+              <cx:f>_xlchart.v6.119</cx:f>
               <cx:v>Unemployed</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:geography cultureLanguage="en-US" cultureRegion="US" attribution="Powered by Bing">
+              <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
+                <cx:binary>fJpLk6Q6tqX/yrEzbtUBIUAqu9UDHo477vHOjHxMsDiRmRIIPUAIEL/+7sgqu9aD7h4klm7gOOix
+11rfjv963//5Pv58m//Y1ajdP9/3f/0plsX+86+/3Lv4qd7cP1T/Phtnfi3/eDfqL/PrV//+868f
+89vWa/4XjmLy17t4m5ef+5//+7/gbvynqd6Wt1ov/RKe/M85PP90flzc//fs/+PkHz9/3+ZTsD//
+9efbD9XrqnfL3L8vf/7n1OXHv/7ESRbHf/7x1/95k/+cvn9T8M17My/ij/JtNmOv3/4vX/355pZ/
+/Yny9B8kxVlOaJbmGGdp9ucf28/fpyj5R4LjjETwwhmhJKF//qE/bvuvP5PsHymlcUJTGiUYvgbf
+csb/PpX8Ay6NKcMJS6OYpcn/DNKjGQM3+n+G5T+f/9BePZpeLw5uHGP85x/23xd+vGhKWExwkrA8
+zTCNoyRP4Pz72zNMBVwf/69c7pOaRzec+yglTbbbzykNXRMNa60t9k9DkosnPmytVvHYRAuPq8RG
+yTP8qi2kOnybKlvKTWfPFk2sPhzWp/5A+rYFK4rtIOnj2hWU2/Ux8/zEuR5eDJppMfabujlv7Zdk
+vmOxLGUfHd87r3Wl2Tbd40Xbqzy0LPjgQrH0cf40sYOVIe3USy59JXnGyxB3yTPFKJwWHONranp2
+zdbFn+Ip6yospvRkdzUUJrj9fWHoTtAYwZNn45XobDwfe6eaNQ7b12ieq871+7ee2gJNS1rbeVya
+QWXmSwh4LyaRr5dkNO2uuP+8h4wXAgV755dj+ewU9YWxS1pZarMii2LxWfOxUunYjOpQV7eb+3A8
+hU6Qy0qnN5YzXQ1SNvG0jyfVp/Q2ZIdoZo9O21Zbs8T3SdJ/YVbsdZ6JajrUemPqtlIZrq7DVQeD
+9RotczXaLLkM7PhkMpXUKF3nKsvIT7TR2hj4ucgdrpLHlBdy3LdiWistrDjrY3v2cmV1jl+2HJc9
+J+qko9idEHGmQeY2OM9eo+vwFLFUP3K/f+02tZ3UPq51UMNWhtmbM2vkxteT25wuWKzP+77Gj2Rf
+n/W8xvfKD3uRqVE0DF4BZzdEx7SwcqoXg3S5zJE6h4Xi1uU9KzyZh9fO04r0h35EdBYFmWJztuQH
+7KPpLAdFznnIooeedWPVmeSTk6ib69zVOxXugWKFyzzt7IXZlRVzivfG4mU/pTA5p4WJhkRhPWUs
+mi/jPqGSDxIVWoWxQsPkz4s0okA2Fdd4Q7+Mi/62KArnwKfkKUItX7vkEmPNbqln9rLDTcux65N6
+iTLeJtj3Be2nsVqTHp1QN7Bmyaguh5Ulj4nVtGCrcmWXjN/nJJI3+3HIj+XaybU/C+3tNZIjrHtR
+RswlreqkaXP2fIw5vqP9ju+SJFWVG4msejK8yN6eelhZLe0CrbYhtJR0w2OfoDKbaPa0JyEUsdDw
+0U19OavZF/AYY82ivqv55LbCkrA/DlypSqE8b9EawfQrXyLT55U4kK8WE151wKhaYcjLvD+mZug+
+5nTzxdANR4NVYookZOsp97aO7eCLT9uu/XWfxd9Jt4yXeTpMkWZLqekwViaaaUkn1Bz5PJ/D8bz1
+y3WabP6YR0qXKv54/YBFoRMzn3c0HdVC6NIsH4vVdktfGZ2RysVW1mGV9Npv8kskyPzIDH7JuGz7
+LknuMKevAnXmOm6icu6QxZpx81WZuMlnp0sNFfgO9s6XdOE9VK44P8Xj8XTsOFyiPIXF3Q9X3Vlx
+SlAiaqHNWKW+yxq/SFsNg8gLH61HEYWRVt0oYaMRKBOzsVm1jTu+T/p+uhsS0Qyz/k7INFWGmqGN
+ptLtnxEb64X0/s7gIS7CPNML80ONomRpBe1DlbLjVe/aPuTElHlsotJt+9pGB/tK2dI3h85VMaTq
+W9x1lclId5ooMt/6ISlClJ/8lNg7rhZ9n7F9f7Z9rMoxt+KWhyMrJiqWktA4LzOdZiVByj8s+Yyf
+iIwe8LToB7rlT8chUTmbg0MBz9b7iXWFolP+97aKejLphdvhlW/8qKmytNaVWYfhElyXFj6W/WXN
+c1c5lbN6nPu+6YXoix6j4TxY9Hc6mO1l6PCDGdMTEYm/y6KMlcM4mxp0yNyyOXnSwX+JAlT++GeU
+C/xgYfXXIuqje8fSodA0RwXfV99wduCS+xn0fiVdOztckil/433HXpMudPdkjttZJlu12247+wEt
+xTao/ZYphE8hStkpO4aTyqP98RDUfB/SjTzkCfocouSq5sx/NnntcEeSIs5pheNhPUWL/zX0zJ9Q
+hH0hnRG3VE8gHtHRn5Uk4TpR+XXs4xfe7+hKO1GtcpSf5vBu1+7BC0w/Dwh9Vbm/WpsP1SEz0Uq8
+uQILj0ucwtAqlYPSHtN8j4VqeVjhwxa+H5H+HjK4clVKnPw8sQtPNSs5D640/dKfGaz4aunY/MTQ
+JSHJD24Ee534lJ6PiD/2dLSll1S8DEHicgv98x7JqdEz/NMDulMiqdSedFVs2XolDotzP+mvnUin
+cpPKtFaKtVzpoZr9QEOzdtafsnnATSbw2R2p+eRHn5Taqb3JYsMeaLKeozjPT/mcL2W6ptGNTXYp
+DFpoQ49sq/NdHReuo62igsTFHDS/3xAjd9Jk33EcVfGa4c9bbPa2H+LHo1e8nEmWPhNYQ3zbTpmJ
+13bp4q70KU4bUGpb4RGxapvwLxzCm/Iyfg3xNVo1ew3j9gzG6O3QQpdTcKwm0n3mKxO2WCLvbseE
+aivpmyBhaw3avlrXojhhVTZZUzpm5R0m8fXfQpKH4SIoBVUc8rgm0xydZwea6P2CwQMscSXnydaC
+OPXIxnEuDvyGpyh9klsUX8ZoSm5YJv1pmECpBZl4QZym53nxUTHHwnwy/XDUjIKsezwnhTJhPo+J
+M9cZJ8PFKB4XXoY26kZ6hu1e6G57z8bnsTu667R3Q7PEdCjmScbPcuRVvqzsmkymWbeZtS7d5jZP
+Hrgn0fOy3O/O8iuJ+3YOxlysXJLCG3Rd9+44xSJzReqse3KsuzIoQDfTJb4UUsnGzS67rVq02RQt
+5WBVXuTj+HM6JnAFSIvSb0+TgpVtudufeeRfFofST3O8FOOSRaWOp+hEF96g3Cw3NXwfk0hf6BJ+
+zFFqas26pRZLXIqeDnf70fticbOF55FcNyEyvljp2DUwz8Uqufq+kYyecHSUduO0zCSO7vsR1r6x
+sz6LsEcnmOmkpvwbZdxBaTTe1cmC+GU7hrg8KKtWQ/3Dmnkwj8N268IUn7ut44WbU1IROtFiXrG4
+Zan56ee9O5k9PmViGQtHiL64jc6PCUJfNiPmK5lelhyZl6H5bSNkZLLyiJ8HpeNTNE2y2qTXX9ep
+9juUNnQ8xql8zwewHQS7aiI2v6PgCyvL7dyIYxJFzr7p9BkJsj2QjrylRPhGHeeITq6M4sE9xTgr
+9mXJr3QcTxOEn1vEi4WM+jqu4VeSJuK2dDwvND9AFPI+KVm/8GLQSl6X2Fa+70KtYyvArQ3LowKr
+tZON13zwj+BZ1U3BKJZZvh8FIXw8i0TKMkIiFGvC49OYZ68KO1cgeURnZdKjxLlMi32NlqtMx3JN
+TF+S0fBzoOEzcb5vEtx9ytHcn5cp6pt02B4EeLdCz8dFW9+VxwJ7foEnyjD6NPgWd3T+mk8W7lDZ
+dZgeLNF1wrcnhvvpIm0b+8GcI0m6isUhalPcmg+HPQ1ZXIGROap5trrosnV/VsS+CsIK6VN7oasC
+7bTHs4x1EfUi3Jl+Lna+74+G69InfXxxO0kuaGc1y+haJQhM+LwZV69ORicx6h9ag+R2KOlvUoex
+6IM1hVhycr/Q1YPaZUcDqUsVFCUTxAyUnxw9TDl8KIqT6xc1D+Ty2wzB8xbW7LReF/viem8/UgB+
+OLgtu+1gt1xuW+FH2zczti/53vGyj/vhNInxSSoy3MH5dsxoXGXSjCWSWJV9esx1vK1JoUmYyt+m
+bMu3/TYIbmBI8FTYZWDXaFPfB7OoYkZ6vE1+mC6rjnSVo17e0k3XGjJRzfJga5pNoWaYJWe/D0OR
+rbIeJg4/tY/py5zQqcpMYHUEalmnoatxGZvtOWEhvp9zSE8fJ/uVCngsWxzKhkZ3qN5Zqp45Q7B3
+oRyLLFouhjNThtX6YgKzffKpPsBiTCO4SnZBCRhf34OnRnNS0l6Z865gVU6I9I1I8Dlf6J1m81bC
+nV0VR2tNA9W18d9XDA4rhRxQZGlUD2T/lVNLK8dAU8dFvhMcwYZM7Frk1sJWkQKVmmSu5C45qu2Y
++4YxOlcg92s5IdWObL1gHoYSeAS+NzYejsJMojsnCMMSEHiqRj58HSTldefoCBILZQCmrnbj65BN
+x4M7cFotB50vyyTLQ/ABEtS2nbM5JhXG/J5tWn+Krf7KZnDAZmVnDoaxwjvU+i7s4kr2/UVF2dqY
+JaLN2CUrhCtQuh0CSzTa/Kx8/+lwMpS9nM0pzbOp8GynVf5iM+dLbA+ootIrEPBsBjfdzU2O0NqM
+Q/jChim+75Z8LEfXbRX7WJYzNkW8JWurpLyzwX7pBctg+WlfUJ30V6vDN6fWo1xJMNfBdNmJun0A
+bNDBhPbyq2eUFCvL+kr6w51Wmt2lGOk23QxslM7kpzEbeEt2edWYTJd4Sn/EdF7rvdNdaXimC92P
+6LzzbgNddUkVViNhkqrfgbunQZbdol5CkDDia/zLgH+p10EMteDre0gtTPfIinQi9LZA+CyFI/By
+aqJnn/XsFm2w1XoV+WILiJ/mKY8qK/VQSLnSygiVnAKmrhQzPTtn9ZnETFR9HuVnaTEYuzi7k3Fv
+7hBJ2iwHt0L6LjrFxHNRuPS9T/ayiyZT443jJnTLfM4aFjveCAlyv0DdPnVkesvS8O6OywK583y4
+nd3ZVfal0ZrdTR262F2687wPSeXzZH+O8Z7BHIbtGqyDWL5AEbZuLDQ+uru9W79DcoULxrVrD7p8
+ofmaXSxOl8fZPOp+a0DFl4cO9KghgHKqycK4ALRqfFIlx8hux7bm5ZLBXkzTZTxFs4yriO8MYNzx
+kw5HXO3TPoAVhxA2BHobMYo/ZTxLbj09xqbP7VRKyKagHvpZdPMlSfHyMI7UFOvCRZNRWTGq3GXW
+97vB5Ia3fLz0unNTmWs0gkV3tHDhcHXMQPyMU32juqFvEBl3cOpqK0Kq4/tosSfE9mpRonsVsWt8
+ZOWJD8xXcQJuB3hbWrLjdjDV9NLKe0gES+PZiAs78qim/WHLJdC5zBIclfGHBO4zjm4dGz5n87Lf
+bAw6F+T5CPNjUEu4qnErj6Fzn7JQKJcsZS5Yege5oxkWTR+XPXq2I/rgOa9yB9MVZTS7eN4Z8EQK
+iqqIx4oNcvpiusLG3VqCXB7N1KW+Nm6D+jLj9ZxDzFRabBd00KdYufjR0O+r8xBYN/NoY3WK3cJq
+c6i0QiAHlzhJytmTKzk0OgcdtlLhbD9JC5AqJ4jBNu4vIb7zEIfverl9HRfkXid6ADDQfy8I9S9k
+7L92w6quvBPffyvWMKqiczqv43jSJ3OgzyuAmCPO5hchob4kc3In8REVwi9rA0UOX6CsgGV/Svgy
+vookEVXIqy1h8G5zWGzBVaP6FT9sEdlK4zreGFjky2mLxNRmxp0pi+NPR5AFBJHozBAsatDqe/zx
+tjtKIkjNpL+wYVuaROTTpQ9NvoPf41sczlu3pAXhYOemAQNrivmv7MjD4zhm5yhB7nkHC4jDs0q9
+/TYgU9FlAHaUSH6i+whsiphrqodfA5mju1SkdarEVBBAvJch1qRgOwaI4SJxn9WEeXqZ9lC4bChd
+NzVKbOji+kNe+z3RJZdsOfF9yu+0Meg8Uf9i2AbPP8vosqr5nOJEN6tgHUDEwVQkiP5u3FLc2FGO
+BQ97KNlOyN9+5cVELjbd3NfYsYLEQDULqOQPRO3iPA4dWHyXV9QgdheZH3Rfmn2fQjm7hVYiYt8E
+gtGiwGdKMHu84KBuj07Fz9Eh+yLxkGbA2WyP03dKDnPaknmq5kS3pOvMTSmUPgshqsFFX8S6JN85
++tp1yF/7JG1ZnHWXDOf8OtCxhZfZHjJHLgBy54YMNDqPPdR5UHFUIYQAxqjoCQ2pKGyfr/dbvF6G
+cQOam1D5ov3UsEMbqJp2r9cO1qz5gLXJ5p7TfgaYSdcRPK3I62PAujREQ7GI9KuTT3sWDkAp2TtO
+xNauKNcPhBigkdunnsv8gWwXDgz9xkCXcbx159TtqnRZgGjDiC6ODCkI4vtQK0o74I0eKJbO4UeG
+0bd7h7aSb3IvEefo3CPw1toHftKyo6Vdt67Ai+On1K5x8ZtYrIfXhdpy1aDekAKA/lKvHKnTNM/y
+ZHvDmhy2+mGAledKPBoUnk0CaXzMyL3f/foaGDhl0Of7jdD3NTXsRQ4xe7EECMEObIKSxy1DoYxj
+xD6Q83ByKrsgH/ES0W56EelSIDB3dxuXX9wIsRfKZV8q4AxPwEdKsxtZb8euLjt4PcD6vDAmJGct
+twpBg6ANceAFSpQo+kk1dMPfMFDzYvBZDc2d/kuW2zOV8+uUvq/rsX0QDlqtUfQrk2wAZAn4g3Jw
+zmJnlzyTU2vsdJ9lGxhbp8enYTcv2bHkDbiv/TIGcg9Wh194JMWZCTEUYjXu1o0IlaPBQFwnnF1W
+hFnpfdym3MzAgmdSdOswn9FazDTX4I9AKwYMvQin3d+r7bNyswg0J8SPu0rUiSL9RhEuxCF502PT
+guIEsMNQkvFIdbvseTiPMy7lCHqUZQAVeL41A8/v82hy7TqXu4+Swg2AjeX4jI6kSCTb2/jjEP3Y
+e0CDSoYzzlfbLn36EgFCOS1d9x1NO6qJgTLpY1OAuT/KbAbiiuAipIeopV6cg6JROU/bULg1egAH
+kpw2Mvs2d2QqqUdz6Rwy59RPdbaAfOXOi4IBvSr6gYHzz/yD5+Cqd0FP6cACYKO+3hOztZ7zrd0X
+oNswbMBuZ1nks3iEWFHNU4qaRJH7iLP0FA3ZvfOZbLZjeiIdhsA7mrFAipv693PKNTvgfVPI2OMy
+llEC48/M59ybu4HwuNynrBpXup/BUkNxNTgt4z41FY8SUb4vULTbzIWpHcKxNSrIyzQdrv194GDX
+pcmjS5gADm6bdLXi9WqX7pSu8ouZxx/WmB5qEb8ply2t7iE6Jun4Kzf+qD33DmIxzYHT6KUSi5wK
+GfJm26f3PQWxhsaRQfI2zOzb0X0VQ6dafOTkbEhXpCh3bf5x4DKYgouAq0Rr20aIugIQmK/IxxL5
+fQDkuxQM+i8VYmFtSWpk0/n1JvEwt2HHW23E9vci2HziWL7k4INKsHuuCOGjL0HMhUS05FptEBpW
+SIRxDDOt5bMOc1dkvU4r10dF5rMW6KA5rbDe20OpW6B70oDVTXYOizfUEkJWsWO51f0BDgNp9jef
+xh+GHM1i80/HMP7sInSKzMqheQONDFDJDNbKJSDh2jjh4oRF9NpF+dpiMpsirOF7KgBSWlaBCxwb
+t6NHt9P4EuxWHBTHAG4UakO0+6LjuwPsBhMx6c9RcpDKR5Er+oz4lu6PsHJBAk1659Gk24wM6kRc
+dzWbF2U82KMBPgGLh/PXlaz4szmWuBAyP6dQBC75lPsTt6Y7HTZ8ZmOSVL97JIcz8zXRH791f4v7
+EN0j6uU3apZqQOA+0tyh1sbpJ4F2fIpQnrSRDq9427M66hdU7DQl0MbgjUQb1GzPydeQYQHpseVx
+R6pEAuUGYhWi0kL7BLJMRksi2AKLwPI6TndVe8OTYgJO3/up3T4Owdn5BFHz+d/rEu8LVNCEFYhk
+n0m/3s0h/6TYj3R5nXvxjILoisNPbzmLNyAXzBdaZw9URWl5ePlrj0JF2BKqDCGowizKCkzoBbAw
+KpxbsrGQ3QJ9HZKcrc5xi+DLAusP4AhznOkl/xDjMukNmCJYlGNBgCGeMg+5/R1sCsuSmjkXVz0i
+t20kz0Acy9GPU4sIe6PYfo/6FTavvq4SDHD2srvHg+/foR0NpSC3EHC29SvS9ot7p+JexZmvUXeL
+3MCL1X+Eavx5jtwLybMWbYBlwvpsqa8U3isBklB2wIIy76so9nMxKfZZzqLuEP0s4NI2F3G9JYM8
+p6y3IL92O28HKtV+z6cpuUB3w7dKYBjiTBOAdB46Qh4c7wGEbJoaoYFoQ5O5zJbeFfS2LRAHpzhM
+RRrME5V7XGLoJKkqxYpVEFijQsmTODgHdick0Hf+LPEENELHvlRO3hNU4AMkPPQvHPAT2BdOSgay
+w5PtqESyQuv4YNEH0ojaPNWFDZmqnd9/DCk0APXZiqWi8wzIAGl4e8ErGxJ1mQ9yFnPKGg6BKM6W
+7ZyEsfSCk3P8UXtGDhoVDaT1k92BomF0zlFScjyesoHp87qBbttpgpiUsB9KIFdjfoBnVniDkA/o
+C/hAibIBQiVjd32WfwVDzKu9mx4oFIzWW9qDw07jM5951PRx4tqxC9+gMwERY6B9mQYOe6OLhiv0
+UHjtTDSBU9pIy+ykTkeIbmtHih38JDA8HzU8Me2Riq5VE9jqPSe8yPb9i4rZekpoeLUfX+u4A8Gb
+YHYcegKH4IEwdw8R1J/fcvf7YD9qO+kHXQ8pfZwicd2xgPfrjCtmYqfWJePLlKZQYrsEDLERcbUS
+XkOtmyCrYMiF49oa6FB/PO3UwbgLfsDW1uoB/mphKlUHps94fh9FcAvGW0v8g10O2WQSNro04Y1u
+tuY99NEWPUNo/lDpjyf//b9tfFv7Dhe523G5G/QVGpimjLR63Z8SPZYZDKy1bjoFML4W7AzgWdqV
+WLtmnObSkrUYVP4MerXV8zI9MzOQE4TSo00jD02AOO6BnOV3bI/3ch3WLzhXb55ne9mH7SjRCPZX
+YUwgISd/sw93ktYsgfKcaGiqUcIqBPa0lSambZev+jJvrCQ4Thofb69pCpoB5dwURyeBxzM5F/NI
+VKHsROqR0qFMx4FXI+tAusawlgKtrB1j/Gsi6YWkwDH3I2l+6zYALH9B7i2J0CfS7w/iY6XQpLty
+np2nmDw7+DucJnd5V9pFHkDLoIuQr+HBu3FvuuH03+ycaW/cOpetf5FySYqTgMYFWlLNLpen2HG+
+CBkcTdQsSqJ+/V2VM+WMb7/A7Q8NNHDgY8dVZZcsknuv9ay9EAlzspU77nfPbipS3N79bTkuJx+K
+0ImTbOP8nj/4fdXBkUiwFcvlBn/JESDA/JRO8wWV7T26NR1r0febKpBexPP6m6DYINArxwHhIlKr
+edFYSZ1tHUpHd555ux9fSmLZYR2ciurZx18uneoNJ2/D3KF6avIhwk6X7PIJYt6cJI89WsCw1EN/
+gSLaJzlalkHvE1ZXYWDa5TjbZWdMh13wKsz5qkm35VNXeDaqs+we+0QCWREyhoCzraFstxQ7I02H
+g+3nZDOUPCxGpUOItyCDKkKwgL1d73fJTpSD2ac0VxEUOx4xz9vaSpAD0cMWRBDkgkq/5kaXB0JR
+xCh3mWCJnPpcQ00AcWPz+TKmgABQmJjefkqK+jPBnziU2rlIUDvE4Df8cJ66j7VkH70iMv4oTqT1
+vZAUn2sKhKVxI2gB7c2HRZRXYoQOUY3OOqpNFnnTQ8PmAzoeilMyLAIybXnusw3OxzoOysXDYaCm
+GJXzczBzt6f2K6HefqAsOfgtWJjORHVAxV1R4OKNqux3tFJFmHbFk4Jhux+c3ZdTQo+zeEuaxIPT
+lh4Eesmol2aMguZb3yTmQ1BDXhmqAxuy8mOw6wKTRgUqyP3Ma75dffEWtIPcFMOgwtGFUO+TU54V
+eSjXRUdT3h78gTYbvIF0SyQEMi7KEOIyi2GAltEYqDrkC1nChMtn3AQRXyEIZUPL0B8BDEiLWFyd
++SSoLvls0j0bH8gEdMfr68iVOQo8nmJRRTVJP/koWK92yhcZlEFM8MVcqHDNU7czo8aGm1hIjaSX
+Wy+dscCrQyDkDIeIJriccwql6bHvi/QABMtFIBmGW1tMd6katm3JwiqgXyHfizttVYVW6jyudIyn
+tPV2cw65zg4Q3Y25UDTYopIyHtJ0hw2q2OumFRFa6Q+VPbSGfE36GdqEvxS7PAjAJJGm3SWi3iUQ
+hrBboUohRWzWs6ZZmARq2qjVnZalRwGiXOj1/RAtHNSWz4GNMd7ETZ/UsdByjUahxj3z1dt0XjdL
+Dv2vr5IpdJzTqJEFzPI1XjYEBto2KfhH1j/5yu8PdgajkC8Fv/pXIH9Af2zIIKuQQuRqfGAuZX0P
+uEJvVWl6GMpAGCq9L7mH46jcQHxEByVWG8GVQRtvYTqObobfOMPuqvlpIdduDYROk+8KZdKTJM0H
+tci4kjYIsQuqboJBkhcZug7mQ7PApuFxmE1DWX0O5t6F5PqLiTaows65G1YnfJ8PXRflGfuqoQd3
+5OSJpd6kWflk2o6eXCMiv/PQ303lEHYeimQccwrIDHCwPnQyi4qit3Gddg/o8nBIE9NFbb5uKHex
+ya07cAMOqB/oRnhzmFVzHeVrdV9BKIj9fPqsevG4jv0UQeaP27Y4JBep/QqiKWwj6I6RCeyB9NlW
+86U/NgPbSEfK/WjrAKQM2xbJDPdQtKHh/rBdSly7lM4PXp8GUYa7oy3FEcaoibqk3RXco7uE1gex
+kDYCZ1nGqWIuTAf6BdavH8lW+fFQVBBi2HJHiqKKlwd0OP1R5GsExiTfcr1+7PJpCpukGyF6LR9k
+c06DoYd/wz+b2e9iPSuytTnWedVMr4B/qqtHl4SFCU4wgr2d6auNxlO2Ri8Pfb1YVHoLMKTrq8yS
+8G3XtJDaQDmNjVGQgg6F77X3sqrvCjMGR/g3MuaJ+9aQbNn7tTz7OqhDtBADCsch9lmGg7ds+Jal
+2aWcuzBJRr63wPMqM92ktaahz6curHG3tl07x8RrYDTDt4jTFecvhJSwnatN6qWvPbuvx3p931a7
+FXcUn1Faz4zRbV40bTQonEWiItB61UzChQQ34Mb8GJ74sqlWFk61/FAbZyM9WIAuy2NaFWjuBcui
+Zcjh7lbXu2FQcOENi0QC0m4e1w0hxZOV9EXDPqr4CH0FmKimTYY1996AQ9wC0UCbjvsDEJk/3PuZ
+zk6wqc4zwMOwMzLfBoyetExesqBJYjuqbZEu+Uny/lhWIttfVfxxkABjbOpHBer/1evjlcIxqtzc
+YH/Iyg24rLuuNZdELcOWUtw2mvcJ4L7O23ZVfqz6ObvtW/da3C6Wf/ENlqtr6/ft2MHlnYKPOQ/Y
+Ngu6sMqMAwZHrzJkdTIrWot6GrEmQINN4Yjm7Zj6xabtTiOs+JzhXA5ghaGez58TIQsUHiyNTAqd
+k4jxONfXlbighsbel8EKvlboHbHTeGrle63UeCDXyl1dq+vvH376UqFxko7LWORtc/RcV0LkMOFc
+VakJ/auw8P0D/fWz/+q/VVAxwhGN5xoYHmcawm3STPVxKoiKyII+00lLt7rXjwQtYdkkDrTRuEv6
+cj4WxTgfv3+W/frZ9y//6t++P+S3Z/zVQzhf0CzkwsYDpyV2mo6FxdBnlywo9Cal6xKRZgSZ55I1
+9gbIM9labOqsf89n/jW1aX/Ji3zeJLJUIe/0qdYZ1BFJ6i0HjhxJPIpPwExHPw9RK4Ehao+aTRAE
+HWxXO0ItnKfiBnfeDlss2y4ONYkNsuUye104ZhWPa+FICKIUTiVkDgGrNuQ2P6X4vsvAHYNjiey6
+h9iWfPxISxqcufmGPXOJGoJtzg5ObGQ37gQP5pDRT2nh29glQxrXM1QkWmCX9BVKKBtCfKfHJmGv
+GlvHIZFxvfgfW5bcuTRRO4UW/mpie3b+zFpJT0k+xnSECSoVdCE3O1yeSx8UPjRDH/DjBKKISR2y
+a0UpE+/ZVt/IEFSPM30dqXuDuJrFK0nep90oIaq7nT+M7bEpyyK0C7iatWc86vWubC3fJjM6+3lp
+vq6uOKN2wTFIhmfw0NClV2wFTptblAsbjY4ozKgqNzm1D1US6cl7AEXkx3hT7+de7tCl53gE6SPG
+8i8DBIqwcPmyXYKp2rNeP9Ve5mOpzS6mNh8j9MsXf61etZ0flwqFAxE5Kp4qMGB6OMSWND3pzPq7
+fF3F0fc7cZysFkfe6CfjUYuaFx3dUi3jVS5aYrU4vV36/tZY6x27QNkosXKGMfy1E1i4Y4cXbAbf
+OzZLASHrPoUC26mxPzXLhcGrDrFp2n5jcNDEeVVmoWuCepMt1f3q7GMW6AH2OpviflJr6NFFHWXV
+NaF2VbcZRM0PBeyWMoecOgdmV2IXxG8HLb2q3C7oCTaUgB10FpiTC5rNWFbznl97vKlpS/gHYxKl
+PViJoMG1oGnFTlytL2gUw3UM6CYN5mzfJv2xbUsw3wvdf3//tL/4UkFCWcgt3HIomU6i865eVFne
+icW/K2Zwb9kzT0ABadISYAkQliFKP9gC9Q6D/PT9hQJx40u8J2+G5JxJbztCM5iyXu7BbbjQrNBi
+A0VT0Hw6OY4e21VLMO+7bJr2kxM7XxAH04rBVW9OZS6wnd0WdXFsKoufO0HTd6FKlYw8kRxV5+HG
+QT0MxhXdfxlsUeS99hl6Qa4G0KnzFLkW5Zspl7DIz1rQl3ERdeQHyaehpTd+IXejUa9rbT4s/QSm
+cWn2ak5e/SRL4GIX9nHys5CsJDvarEJXA8uM+xzIs+kgFSUfaGfJVvkFxP3cvZZt6+D4Q4+aCq/c
+JEWCPyzJyGMjujdSqV2flcWDBcgQkk5GxWx2c8nzhzqDs2VX86y0Cs6eQb2O9mGj4EjBmtbFpSqL
+PfGSbOs1PDsXowwOS52TXVBBdZn5TbME3t7mPRzHPoAk1Akw3tmFWop25pNkpryp1081+CLXqYcF
+Uk4Kx7EF1LEdXHZvrl3UrJoGyhS4BQ3nAb5jEcNQe9IGOoexhYqGq+vQtMHnAukD0Fy23lBt3JFd
+b79RQKoPBlz2tF6HCPbyKWMt6vsS6hZBRRolqDN2ST3cZqmEb9UWL0Xb+mEwF3WMNEV3XNWIU6xy
+6Yrdj2H/o7KKihQcsJVwHdyyMQivRKsLArQ0IsX2j1M2m+bXKciXo2+X+acPQbtC8WfQDdq8P9d0
+mnYUToT2AQWZ7lCbtTgmIyOwEdr7iYrDeDU0vn+wLQAVQTwCbjB5XspFhsgdtKESud340/K1Io2K
+dADUubPrCSVTU15PkHKMOUuf6gqFIpITczhBsD5KSyA7XT+szQSJcISzaIe8PlKWP68tHlsNE041
+yeyJ1demp//K8rKGuIrngABAY3Xd0yRh3wKtx2jO+TPvlzDHrbEPOh+e59SfNfim17aFg9cCNKuT
+5aW/OtiNLsuYzOVX4FLZYdItuUwD6HdlOcTA3HsGr1itSX4HyHiMFo/P6C5Kvp0HOeDUXOADkKKJ
+Wl3bGHJcdlq9bw56PToJfpJDLi/BCEu7Xmn/pttNHRkxpRGfKU4V/8NsYRQTAhhLzDq/lLy7gX5u
+diAyatRl9lzht++DunlIlPi8DP5jyrP11WuaU6Dm5a3y83NwN4s1e+0reNqrJ3I4OC3oZF0MMVy7
+Z5a5qFjFvJ0KKPgOkYE1g4kasDb/wGzw6s+i/+qGF5U1kanJXTpyiW5pFjGv/W+JAoxaNKkXFr0u
+NsnE0BvWALZ8ZFFimqUZNO/krVw5OOpxjTIHDDBt1vrsFBDRnq7Bo7oi4EHT6490PoztcDcS8SC7
+3MaiT8vDoPVWV917aFQwrsw1LVCtW5Bxn0Rxx5c8e6p7Chk9F3EOUx8rAzub6opPzPTpSSSgKcfR
+t1tU2e1BpIBKyqZ5bMDItQkZwBcPBO1s9zADG+WBP33Ro55xlAT9U5u1xwKVbSjqB+nseJPQddM5
+Wh+LnCZgBQB2ua5NkYChCEXh7ygz1R5SDQ2WubfANzd1WuyacubfWJcddA/kG8273OYzLlRgfXGx
+mtIDtkK74yAsHpH5Qp+LTNObSPd09dr9igo3VulqT2kmkJix9K4XQLWXHraikvKG2Wbnmrk7T5m/
+3llps13JMkjAkNvOWpL7Ebg08OWhPqddCXe1gJg69URjT7f0dWBrvs1Lpo7qalN8/1ChJzyWL3M2
+tue6LNpz1edyo1uoqz99CSF/N4zcRT5qFcfX+U6P2YfMIeNVaTg8tmUPhU5E7AcTeKoubzfG664x
+kcCLymyMEk8o7HdLuRHL2EdlIsfDqIYPSq3lTSqu17yFcsNLym+60nsvLAs20AHqzZh9o0pej0j3
+DDtoQo+6gofkoKUF7GCbwG5CydqGQ1sCcjXrcchEcjuBB/DNfMwzV97px1mWQIhEXUe6sQAkgsVE
+fU03wwwcE+ENlMSMQ0tqEZppsBnvvarWG514Jvoh5/gXkUFB/hwYFMgzMsQGmUJ4ELHFHwODNktM
+3o55sZdsQIhnHdh5GskxZ2Nwj8u1tdCmjiX36zGEbrOR3A04xeH8rzVCKSilALMblxsQLcXzNGgU
+uJVhx7zMvT3wlaqKtKzKcG79n6NQvslY1PTKxGk77OWSF0eHEh7EgJFPowkGZD8sPfklOPyGMgIh
+gawb6EnZnrXJq6n9+TwEXXFg1r+0yZqef/ugq3rYm9Q+pbSDr8VRJ00g4IhTcoW/NrSbltAHq4Lk
+X1xGLv58GbVP4XdxpX1cSv77yzhnCESsbEz346y+tlNKX21fTFHpFzpE6EZC4ZjyD+uH1g1gfpTx
+Y8j4/gNoRwEcxDQHy43/AP91uCi+bsEsIMDCK8RfIHY/YuEijGPVE3GDdyiDPgRfkt4tZSFjXPth
+00j5xdB+OAIOzu4ZYohALrKPpjdgipa1eqb5Use84RBOeaYi4J/JraL2oBfXnYCE3o0MOT0+dIcR
+vjPqs4E+aw7//J9vNx+x2z/mUwNfowRkEjFZpa751R/yqbVvkyYDF7C3LImXupo2Mhl27dzg7RbM
+oZQURQTiaDxNBChrNm0L3AO72bf5AfLwbVIH5CaDQ6Gc6fffA2yFGLu9SEWwqeA3Rl9FW6UXvemW
+1b2vlvx2IdUSJyVYRi+pXr2imB69mZ/A8Pzze8PP/cs3J/EGJXBhyq/f//HNOaRY62kF9i6NOQAv
+hXy6nRs//5i1AyKQadNhKeEPAfeKb/1uWMLWy73PuqM4uxoUwb1p97wQZlNrmK3wT6cQkSnyvg/E
+HKu+gtSN2yoc1gbwChzbS+or88NnpchuFfPHW2eLOvRYOX6ZsEVK4uoXOSb9Vu8A/yxHpHLp7doM
+dZymRL0mbXWoONy4eiHPZCxeczbl71Hd2J1BAmbPlWUPBiB4CBYJIObsJBB17wWqj3xEVKIMbZHz
+TY+eI2qagEYdfJO9M/Ig/ZgilnZi2V2v2Rp2KdWPOPSOQMttNHcmu2kDmd2imcWGkCBL2RdLchq6
++mUa5PQ2wexK+Pixsc6BcQcKysTDOIFjKJXoQipG/thCy9+11VIfNRrq2KMIklYdcD5lJ/mhW5oL
+7Vfxhq11D/UzOUm5IFCbJ0k4Wp0+FQk3G0uFvEXMDokLr9ojdJnjnIAGmW1xbvfb1UNEZd4Oazu8
+IvYGcHw4YO0ivzsH4w0rkHLhE46juW8/1EoGYQBIASwWPxaZqPaj37udGIFiTgVTIKtGf2NQZmRJ
+Q1//+S70/7wTCaWoUH7ACFH0jysMBk/u+cjk7gMIpnsCdNmHtHlW04uZ2F2ukhJIZC83EBPZydCy
+geRXpnsg9Oj49Txu+qvnmBP2uRLQeTm8u50i8MmJE3B6nYvXAPEONiApYK9U/TrqUI1DFVUOGuTQ
+643fBNDvk+wVYBugDaijEa/WMxnxSKNnsa/gVf6Lt309p+AaISH/S/AdNAVSb9LnyqeE/mFj8UTn
+rZapbL+q5pKXjl2Yy9NIGi+/TYU9VTWr9nVaPzUsACY/EfuEjubizRYNZj/Yu4EjYzkpBvdHpGcv
+MfIqVvrAZJBZbifQ32k1gRy8gpDr8oki/Rf6HhKAaVG8xyJq4wCeWNkPt9LPjqwRe8jR5dYsCfxp
+1YnYsEpsO7Eb4H/FK+ysf3EJqPzznx4TCbgIJPIeUB8p5gz8uP+oibRIBHfZfmLtdHEm1Wfb+/DL
+2AepxvF+TWV27NL8i+JgN3jevsx5EvcqXbZSEQhyVdC+mvIyTvTRuBIUc8X8p0qlPOxqA903X06i
+66eXIH9NgCncTfP0uVsI2bPOIefmcfLsFyoGkYKVNhTIq7jmMvoJ8H3Y2FljnmsYb5c171+8dMyj
+PCmL4+D19jFQxySp2ycLRSjuqqXdW9vcmZbMlx4W8s2Suo+aDBMw02o7tA50uJDPgyvEZWScX7Bf
+fjA8J7FkFLcpZk88gB/ybzBr4JZ1VqA1rBAPmb2zRaooWlMuNvm8tpcBVk08Onb+zpZgzz4MBi3/
+RBYNPKRbH1pBH7Rtm5Pt+gffH/XNAiDqoUIz2AYriGPwkjt4rSevaZE5Get8p61AmmLVO7sGp5F0
+sApmkmPL0/eC2nLnyZFE2ZjyzewBSEVMMW05CHTV6hsmBg/QEvCXBWjZFvrHV+UCskGaugwRAauj
+2ZrkzlT0AsXB7IrJ9JtWgyQe6rTf5GjfN4RWXbxoBfiOeuU2Z2V9R3K7B3IKfC9HX56sELsFTctw
+zebiBKZ7CKUH0VxkOtnQjrIdH0tsBc8orlD/GSh6Xobg8/BZ0BbK1+qAcq3TK1H+sFszQChIRqL2
+swg4tjUmKUwF+oZ+zb51ht2B2zxTIFuXuYI4ypEw1QBzwg5t111vbLCRSvibxUFwyR0tYa3XYAEV
+aAuXkyfkzJt7ky15NEs8M0skavVVP4MUC32Fvg+EqbyprIPB0ybe+3/eWSgL/ry1KKa4pJpTLgP+
+hxI5ox6EoUl5O7ipS3QNEV6MSpIIRDcL3cq/TmiiH+q2SGJHB7NpFa+Pc0Y/TrVKMT0Bwp1XYK5E
+EwTL3eCx7GADHGtVFjyJQOf7HiMLtpOa6d735ctYk2hpXXUWjRguo/OA7nXTEPqZGW+DxIsCoRs0
+eHdLVmZ3V7vvHgUpshWUqU1eg/pNYM5rwoqdnsYxrMYJz0shpyyqNjiF/PIsG8APk5htPCMqfRa8
+gm3eUApnuPkE2xxKtW7ONsta0P24H3NB1S0zYxf5Mh+22dwXoaOIbldufKlmpu7mMt/4SJtdc3rb
+KjtWnh2+KDcc8gD0LfXuGPsM+WLaew3c8qbYrigibhUqXJwk87zH8BDwJ7KIZ2zIm3nCT0mZFPCl
+knXvy/RurAsgN2jBYM25A+ZeiPh7Dl6oky8h65mkXfcVFJvQyDl4Roz2XLoO0yn4fb2CuULh7R8z
+ESAOOKpuj/h8hmRC4G84Ytjh2tX+paxRmgNMugGHGVGvRbGBoFdvQMbMiCadZJ2SLTD2K9R2JSEA
+V4N3EU8FkjdQvnQVTwlYzKJs1n2gy+42Bw+yYmzFhqcI44GSLNKi+hKUAAOCgoW0T9iJKWQVv9+x
+/+en4Tk/N3U/zYX50rQwLtPs5+k5v375f5+aCv/9x/U5v/3jdfzOb1+df5nb84+P2r011xk5wx8f
+9LtXxi/z8293He3zuy/+NOfnxyE8/9Vv/v2YHxzzb99HAF2rAEqIj7YCx+Lfj/r5z3po6r9+0i9D
+fgLM5AH0qTXCJZjr8uOQH4IhP4RTKgG2Mg3O8rchP+Id8urYHALOYeOoQP025Ie/0wQn8/VE9tFs
+Y2jPLxfhd39MTEb6+esfh/zo6yn+Y6WjBRNUEzTtgaYa7/f3p3wikVzoRjvtHUTesMVusC0wdOUO
+t5286WFiHQbE1G5L7YgJSdV+VkOSoc1iADIxMSjy05VvS99elDe4u6SevrnR5UfFsuk0TxgdwAbY
+IIipHuu2MnflAiisVxOSDXUA8rtQV19rbrCzLBJmrJ5mIEjALRdqn0dNrtZJ4279sqtuJQbxHHUA
++wtGxGM7dxItbu7uq3YVr0jErMDPM7kz1Pph0jNzKovJbScj22M2rwa9nzobjGyxOYNCu4BagLd+
+U3ViuE68wZtfM6ix3N27ufK2NJcPncMUj35OZdRU/Q2akjtixwIwyYwQm36U/qLCpcvIDXIADZgb
+sDo92NSgIpHFbKSthHz0OXH8Xrv5WzJQFA0UAXnPH4uYeuoJugXBLJMJUeg5RSk9NXL2HgZ04stH
+D/S6uxcNz+f0p775//eS/h+4WLGA/2Gxmk/Vp/rL21+s1+vC//TTUK7gHQZ8QX2R1w4AaxLf+nko
+lwreCX5dLRINEcN58cN6le8YR2RXCyECotGv/7ZexXUoF15S+IQp9BT631mvf2rItCBoSwKC/yGc
+SOi1vPhBFfAJfCLODEIgAnDeJu9RmX3u7PRJDUjkTevwoc+818lOkF0gjoe6MmSTFSlmZNUIPflK
+fMGAGqCStowwGAshB7ZF0s7bYHDC/NZP3ee8WNylztXo7zIEvnuXPwFSIWY7dLCS0k6lz2RoCf9Q
+yALJsLWY4N7x9ZuhU+0OKwDoYevmXFTQcINi+99yGv2Pu3UFhbzz97fuoX/7+mbMn+7c70/7+c7V
+5J1EXDUQEpKxEkpDLftlnBx9dz1NfEl8gROI4Uz7bZocwUM1gaovKfWviu0v0+Qwnk5DXVA4tTBU
+zhfBv3Pj6qtm+buDBkwMCTCZTnIfA8H+eOPS0VOGQiXYlwQJfxj28El7Z3IO4k97UPLLVt9xV8L4
+xGSBGNlrTLyYUNHpRKowAW8nU5TtiLbndbvlRvnVgz8a2sQupW/Gs706O4h6RVRJ3QwPLaY5LIfC
+8mrCGAjtiQgF2pMs0+ZbnRSlfxJyhYBZUTrDm9fZGYs+j7JsvEdmjO6kWNLneUAj0SCEGuqOfBmU
+A4nf2RsxwEYSfu3iCmNGwJ0icxh0Njn3sgAwABEMsJcGAMZNF2OgUIqpJ92xXeQzTmIN8zNPMPwK
+5irQREj701LfYIWCj2rQcuaNVgh8iJuyT/XRL5PPCER+neF7hAFeP0wBLmJIm0QWdU5WdGx9AHdk
+yLZNk7Rx4+lnoP5w4jFG64xZEeBf6seuxagJnOo4ZacU4A4asC3T7U6k7Sdwa489LUHbB8PX/12s
+PxWFWCV/v1jDt08WowDGP61WLvG8X84Z+Y5LKNZ4Pap8jfmKv65Wpd5hdiNV+I+gKvvd8EfxDlIc
+p1iuPx1OWMm/LVeIEQENeMBxP1+ryX+jLqT62of+uF4DyuD2w4TAa2ET+GNhCIYqN8sylvt+Xif2
+NZ0RvBkQFeVo8pG1m9RIYjFDekwtoHv0/W7ju7mMVAr+cPVW8skMOVCjFIlT2E6cd08l89CXD5wc
+y6Us72la013vgm+TB+kYrZDd1mZ6zydVXaYGokdL9bUyypHJa4PbgfUI7mRLcguSW2GMFZn7bTdB
++17AND9W0v/slxZcXjN8W1rxWOdQXiAnYcKGZYicYVpkKGCu05J81snAI0jykcvbb4lB5JYvwRsC
+xJ+4GnaUIhI4ephX0447mgGBRJX6Prd1iSSMdQghThcMydilXoL84BQmC2y+usBwrAoY8oLZTfBg
+9q5bnjGihx2mhpOPQOo7ZJJX+8aFf4d0+bojyAJifloSZ1xPySvraLddWiPlhyWvEAOVo+G7VXOv
+PCddhxE6rLlUBmu7yJGnW2cJwIoB8K0BQgPqBVc0gwxDsinMW43pa4gew5Tc02k5BrADMf0Jvlia
+sn0zzbdOIw+8lA8YwPLWLm6/TJCoEDLowEsNT7gamBxE6ykmTQBVaglubaJSOG2IqJP+Jmf6tkXc
+CuGzByW8G01HwHfQveza7DGY4ICsDzYbv59CWZujq9VLgd3H9ON7VzVxwUqgNsul6D3MmtOh3xZP
+KUgb5x7a9gzJ7LHu1g8QgpD9ByjE1G3PUKa08luN7AvLp1frilgVmN8C/SRUCkLkhMI77zHVIpUn
+n6C18Bdx7i1+qmUjAozdZyTQMKKoOc7N8g2Zg2M+yUtJMbQEpHuBiUTuzgEtmS3ujHa8900ABChZ
+Hqjn6V2DUYHlpoSLFAORhatdlXWMaZIVAqKufMwohZvRIuaSmfSjnYPbpYSFMSy1CtkMPm1aiUB+
+e/AbhUhaK7P0J6X+f2t6iVL67/fa/zRvy6f661v/F5stnvhLaUTfYb8UKDsY/CGOIvfXzVbTd9ea
+XPKfG22JgvqH2ogLVFKYRKSQiLqaH79ttgo4AqaW4PvYrOFM/hubLbvOD/7dZovAFIHZK4S8/ir/
+j70z643byrr2L6LB+ZCXTdZcqtI83hCybHMeDmfy178PlbitpJ0AvvguPsBoIGhYqUhWFffZZ++1
+nsWNn69/6OpzPA9aMg7mTg/UK2Nw9mMjTxEyG0Vzdmh/WNfZ6UWpVXeGan6LHesrEJoXtW6v1Nm+
+yWSDp5hrpI+V7ArYBIA4mQHYVQDs4WBw9khrCn0DDSHj6t5DXxbxOYp1OBFjeAQHmN9oVgGfN0GN
+WTGrWNczezdH4ljJlKZMPUh0qxG8QxrWGzYPL0Fv7Hrc+e0Q3dRVjHJUB4hmbcM5B+jyohTd1yRs
+Uy8rwuNYamtNsXBcYEPs5M6QeX8FVGal5vK2Tq3VPLPikuGxHVGkhPoJjxVOGw13IDaA5sC4ca1D
+KeqkvXOaaJU79rF2deZjeA3HaZ9E8HyVfmdF7a7M5gsr1dbVkN2pozyy3/FDJz5MOLXtqNvPurHn
+NRA1szVbTebMynWlw+Jx8pNbX+R29SI69zJ0awBelq+rkZcFd2XDAD2IN4oiscxgrjXSTerI89TL
+I2LyZzMYjpVZeWB1Q6PxugCObKE96pG71pMZAlhyE4TI6+CxwPn0svYzc/MVwNJHiQjBDrBWvNML
+2fCm7pXVgXQJvs7MFaYEuJ+z8BcX/ZnSL2aMyr2iFiNliNq8umDVYkfeGCXbuoKmWFT4N9uVsXSK
+fdzuXPMZOcj1aBY71quxN04zxfqec8lzsiezE9vMtPeRWa2kjplStEHp55g6dJEdtRLyS2E/ypYD
+PRwfqizYxIGzQv1Q1TCBXJnvatPG1NQCeevmgzTAiCFdSUYwTkFZrbS5vU06DE+O5AirV3psAu5E
+o8eQd2B55/IBqeQGxeh6yNUG9p/ZeBmuOp+5kM+t9DlALxvm1jFK6lNlqWgwDVB0baPz76nBc5CF
+mymGIZbP1b6vLUzVwHYi/RGz4a2umGd90bxYXWt5uBfv8fHzu0R85Vt2+a1pi3z9u+OlctpIev6t
+CvtRObz+ZA66vOpHv8vVD2g5TarB2HPRcnyfq9g0tQI0sc5Ug2vrX6+n3Fj5Q9UwTFP8BXZufaIr
+NV2H0aUQrs6I9FdK8DJs/UsJpt/lf3j/HFfojs5t9y8lGEejXjcmW/04T/J1IbrGTxwBvzoZ4IGh
+oGN7NsSOhwBmOlY5D8HIAthrbctC8Lp0EYXjgLByZt8U6HUdaeOxHfXZZ3Ja+4o+3kNFeWbf9hzO
+XPvYQcb+NE9rs5brUW+hdX1Vo+AIHXQrQiA5Y81IEuMXEru7kjUk5LULrIKbuaTB7OZ+05ZBuR1B
+MAdYNvVerKZReQ77Zpfk7hEImZ8jGvOiusx9NUiObgA1z6zvlHh8qRTx3OXF53hqX6Ua3DkDLDSY
+cGj2G+etke6pV+bDnKW23xnBkKz1Po83Jci3O0dWV/TE+9iQl1ZfPsUSTIk5ubEXyBwbCuQXp7BM
+jw4QskTzeaqqu2GKOs4VK/bSer6T+fzqDspjXoSd35mwI/SnDpiDCF/apDBWthVB58mza1ePNhOl
+7lLPkm+OHe5Eh9cvFs4LW04GT/MBIvReBA1mXGXNv7lvbe0qHuubGI5uUI8TBA3YsfzSot56mzMl
+9eou81N7PEQ9N5eo2U6Ilt2k2Yioug+b7iVPLwbsH3q08LBvm+zVndxNoMiVNcq1Yw0MJzaJ5e4a
+VT/n+kMyXQscerMNAL68mXR5bDC+KNeKwMyFl9Q2x00NQlAk3UaGF0U9rN1QovLT+HlPExrEMa1R
+STE+591O5xWs+VWZYMMe8a8kcj3L2a/T28ZkmdX1eDUDvwin53aqaI6Hsl9Z09AiBozPpijUk6q3
+NbqB/DlQ0dFQlHMfLRawuGn8Ctz0VqM7wJ1UMyV0K8TG6m6oUa7rifE6RYwLm8i9KWWse6UdsgA0
+cP3EtdVv5xDkjwXmy2vC0niIsv4bEoe9BYN4b4aYM1T2UNes4Yq1sJrPTpW0qywvvjhJ7ER+mbkH
+bXLN6xGrxaoqEd9kslwAwpHy/2Zd9f/dgBB9279V4P/AyA2j12L6SR/MC7/3weon+kyxXOxxpOvc
+6/9bhJc+GFORwUpafx9HULp/9MF0uYwJXccw/pxHfO+D7U9oZFhDWSZjCdrgX1pGae7fhw6synSq
+OYsjBu1oT/jRP/bB3ci+DDOm2OGFuZSp84i+H1YQe9MIa6kZzjszO8UZwKTQxlLTjxu0xm5XiccW
+vt8tURX6sZmnXQ1ckBHDOgSa0NojhCnlSbMautzuKFhZ51Lbu5nwYfOvStCJS4iAlYPQ6SDadaP4
+loepH0nMSri4rQrvvTZ11h6ykUHFMLF6zIv3M7yVabvvF6QazcSJ+veZD3z7ta8R0rcYlBX42yvT
+Me6ZjZpbzhdKPVvlc2u66UarUCCa1aWqmseyVFeI91apnt2MVNVBfe3rBoa5CoZs7g6dmI6BjLRX
+7an8GtkzWIK61q5EhKbRHNvuEqL6a2iDh/LUQo1vEoMJgH6uGQZERTtSZuh6bpWFWSTbeJ1ZyuJc
+6fD79k4anjIh7T0o7vgqrFLYkkERKfdOuVDMOVOmXFMendSC1RctjZuGaxr/v6YhredEWlQLNzNe
+sARUSBWnXmrnh6CYmXgqK3BgkKYBoeN7MqyV7LqrvoKbYoltP6Re0TTrVoCq7xkHl6F8y3BxwvTI
+bxqoqqCUMfJmzc4axhsBVp+f7WJMp88uVgBWc62Ips04O7VXIAzARndYrCahjfeAI9Gt7wtsGW6z
+68qnvjJ9s2mXqREnPJMg3TyoDIj0ZPQaECERl4GgLm875gml/iyay6RBgUL4xmw4l4B8n8oc38to
+dCzZtb2RRKdUHY5qbd5ltpZ7YnCI6Qh9abV+MxOBgrM74K8yFfmujwjEcPl96OpmqOb7Np+Qbj1E
+SJ4j9Y40iduoStbOfJFU39D1rXKTLA6B5k6W+8lsz5qZY5WwvLAjs8Gx+P0zRhnGXQiIUbQ2ALvq
+nFTNHoj34+9+9r2fFf86wfVfm+Fn6xbk2P+tpWwDNUO4f5a9HwOFZUtoaK4tWM+rjoV89y+F1NSE
+yeqOplWl1P4YKCwLRBJ/VFb9Gl2o+UsDhWV59Jdmli2hSiNrqRjL2VSKv231swDyRBsV0y7SLSO9
+7oQO3ggIVNfx0AwueEKll6W+axmNmI8Tnh+2Avms+Vraabrh/f4U/fEp4vf6z7Mp/zX/8vUnt6Ll
+3fh+K2I57AhVXcKVLDZtH9QhgpwnU7N489CAcMQuZ+GHA5lhFjMjxJmCWxUfsR8HMh869nm6cHk5
+S71fuRUZyxbiLx8k7kPLQpG9FBsJA0fC3w5kLSv6iZN0l/cC3TVsJk93IcpgMakfSCk455lzFycG
+kOsqWixwAzLsCg5HorzFrKQvWmE/OVOLAVIiEpw79xtNdOHFo8hXWVE/Wnb1zEL6pI7AOesgkJ7I
+5nu7au+wG2DMj3VuIGJT9y2+7vY6LAJCbrBkFRIvSDxeaRzSajM+SGpwkRpXY3ifW8ljn5W3KgQm
+U5XPTSjXZmMeZVquSyu96Qg8cV2BnMXFXzoRqNIPhzCRZEn1TMjVDq9vAS0ltvcLMGXOGbmrg+Wj
+Ie29AUOnFPYbt72tDdLQo60FzMKgrFemJywxxwjPATiEi7mutzUMQyfjv0xQWN7V+7yEJKJFpw6b
+0Cg7doXt3tVLv3fzdWoF93Nv7g1tvA6a8hXTg1fBEXMZv3WYNCLX9puIlcdIVMRMalA6ABktNtNo
+HN0yh3SU+AMjLidLsK1hi0ZMnXE/aF9bIyQ0SltJ+hU9XM38khU93AhCKvAjb/QFVZDYaxyYK1DO
+0sXIb2grxXgKxIWLLMXpIRIpEIHia5XjXVHpS0jAwbvisd/wM64LU4jRT9fIFbpvQNlgr07bcm+7
+nxcd4VDetrwl+iuqRg9IUN+/LTeqrJh9N2EFIioPAc46USEjw8WdhxcZ9NcmkBa8+f0+robofops
+d03l6lbJGPkMi8h4kj2JLRGA1CQ3VgVKh0vXnGr1MMZAyfidjS7nfRNF6hoMVTStCJqoiwujbppH
+3O5o021crnlXXLKc2VXkJyAJI8iHfInZvgzF6wysKAJ/bNRXVnKuaDGEme47RJZDDVGRhYBD4tnE
+eyZkDmQP5E5GqzhIY92OoV/NxddWTBz9A6FJEsJj4wnraiIDJKMdUkrDL41qA6DSm9LoFgk+PCiM
+5fbLUMgR8iaww1FjargjB4q3W9AiKJ7RWLsowapaZetcqbZVGKwK2W4KBBeRku57VcOq0MBeGXFu
+Z4dy5sIrvxVjepnYEB/bczDij+5jBCHxMTPvSrgkITSDVCE+pC9fndngD8YWt3K3nUdjx/ryYFT0
+aNNis2oiXxLK5BSkkcnFzR5zgeZmih3PKzKw6qzA5xYaHhsbHegO31M0FnjF8E7PSIJq83DV6vpb
+XuVnwk5OWQh3J54vi9nxOmdeVXDb9DDGCdqsF7ukBWY+S/XVoIDMtOgcR3Vf0D1WUlx2OHo7Q36T
+TnVRMKsx9HJTAhP1eewjPEvxsSjiNejCU1ngHB/sM5Wux2QvbpO4XsXTDP3IDfcOsMIy1i5CGi8T
+V6kRzAiaEVl3BBIUg3bRG5PfWQ0g19Rc90X2mKiwD430IkMDrWNESGABeKFKdFkH8a5TztxV9lWi
+HGr8AUrPQ2LQBw8t0WsZ78GSPgErqAkmD7j1Rh0aj3vbs8ibi27Mj3ObnlvDOqkkkA2Q+i00Nqu2
+Q+s+hFfKWHyJctz+Ac+i1VSXk+qyBmj0lRqRGFSWr4Ez98cx02avNYlQEMw9eAKSxzrlAz2hD2Yo
+5OY+dd31RBdCZ7Hnl6GNr1qRfJvGFsBhblQPTkZaB5of9nNBBN7ZzCXvuKPvisZNr7HAn6YEAIY2
+JnW+CphyrAjJq+9/9w7vvYONpPOfe4f/9ERZ/uQuz4u+3+U1pqbc2G3Gpq5r0w78uMvrn1RHtQz6
+AIc+1FnWXT9aBy7YKr2GY7iGZZkfhKUMVDVtEYMyF3ifAfxK66Ab/9ODmiY2dH4+l5xK4bwL4T/s
+tFT0ndYMPX7XVs5ucUiYDCAZNfuj2qzYIR2iqLhW2WO4o8R2Hl6nEikzCH12HOaDnKwTUkziwTx8
+HX7C1WqW+WoxmbU6gU0Gc7FSnYH8RHNUgPtB+S4inwrY839Y+I4x6180CpkCrWUgYEUVK13BTtxX
+mDq/2aU4QYJkZXNZVNq9qVfEzgSrys5uZ/glSKaeEPStm4DrdqA860ZzBMbrD5kG9TfyU2fY0tD7
+XZ2uAYL7OtVvcOz7jjVIH5FwFMbHxNI8a2aw5gTIFaI6ZuCbtJbGUV7rX/LZOiUBHjb3q1TEqp/E
+hZzt9YT+YB6sNYA8uIwWkKdoZzfONu9vQ129bQr9VJjOPW/uRleGe0N3b3OMEeyd46umdS80Nb02
+kEx54HAKL42Ds4Sg1lnas2Uo5wFc/LrN0FyYbYuzhpNcreQ64gGux/6yr28ZfB4KvV5xYOch4itb
+ZfcGNgcdhjncF4rjer1dfRlC+RKCzoTNOe/0fNrFVfCSFspWQ9aUORgxCbxJoaSOCA/SjkbDJmAz
+1bdjgPN4cK/7BP7s0O3TMj2Q57IrZP3AIg84XPkgqwnIlXuSSchKkp7OQmuREqTWdCtJAGNu8SM7
+MVinlk4rJDvnsZq+BbqF+uHUJ1DmJ3sFcNXPMOcYSbbWJelWkiGvNV6UiXguCljXCfRxSQJG38iD
+JucN+LpHpQLbP6nogNWeIsd/meSHdmqI0RyaKWaYysGNPuFh0OW+YwFlusVVEJK8JtKXyciflxib
+tDLxuESXTnoT0aAAdz6rZO95XRx+wYCw7XSi5HiRp06IEIC/JQ3vd8bQGwfBkWXoiW3rFgbmqte7
+J3zAEQ7+YuuU8es0Cz7U6RX6FfsEznPYiqEERETV57eM6SEt3HMiW0/PBVPdiTTSHmwKjh27r9Zy
+iUVlG9zR6M2wz+Kiv+j6eq27YfEUORNYMTWH1wH4BFSMkSh3v2v5UsspBP9Wy69e8yx+K/+nmr+/
+7PtFkEEqii70wygKWI4tO7Af6zGWXKiwsNMLZJwfBwoW41eN+x4sHpRf7hLg+/0iaH7i+v99Kmv9
+Sil3GEv87RJoIhtF78A3QCfh8rN9nMqKKRhLibWesSqIaKqHvuvm2o72VqkPJG0QnAUTI7ZnNTuy
+EegGQg5JDvDdeM5ujTohpUcl9IB1wyII65tMfYU3ukSKNKTtLMqxkE4ICh1qMjmE7kqbUoA4Hdon
+Eg/yHuN2WhpfnEEz5zVhbmyci+ROifR7Frt0lKyaydUUQFeF0R/hfpA/qQf8WTC3YEp1boayzbbs
+suUB1EvNZQZiO2I0CsCsntqWm1WYMY2MU/OpV5xjTlwUaxb6eTvBTACwpfRlmRSHpmb35pI1FGby
+iky7c1t1a5QXg1+02cAQkIJqiOpJkp4mnGnTCHejTPXZMqBWmhq4qwQ8REKWa3tjYovLSKNM4K+W
+XU0Db62JJTwU5nA2LfXO1txn6UI5HFRwhqZtP5ajAQ0knewLJ0jkg2K1NfF2aQ/bgZuNG6zTeUx2
+OSk2v5uwd3cP4IB/e3C38BwRcn753yd3ed33J3eZ9+lMArU//QI/nlwU2apJs8U/GOxx/eXB+tCH
+Yd6x/jv5YSb0/cllJuS6aLWZBv2pDP2FxbZGG/iXhxdp0WLh5cdgKskPunz9Qxs29NPAIKSddsJK
+ICzmsXSJXyjLIkaoF9h+OlnRfdTkhonZrbHsMPZKq+QhEQB22IO6g/ZSpDk00zyV0H1ZGLQqm5Lf
+R8Mfbf6/jgj/00Rf/+fTxaP8308XazlKLseBYeM1/qP4/xD1C5MRtCOoHH9OAX98ut5ngDTefP6W
+8+THp2sZNNNVs1TShU6H/kuqfs1EVPe3j5eDq8XGPo7BhcNr+fqHj1cjw0RFJubsksAhwyPMTF/K
+0EagoBvr3gbvH8LJFHN4dsgE3CWuE/qQL5dAU0EDUlUkwBT43h15TJTkLofvCvq7G47SGNek5xCq
+LCUxWCnHAKoSYhaKaPYRY7Ecsm4qg8AnJmNWBjx4ttBRVLtQn2+0fHwTxNlAOYaXX1Q20KkUjIk0
+SLLqm3oGD2uTZFxtMwXpBfd/uFHzVWiCEE51YprnGS5nJ4u30XCeyrrOaGQFDCcEvi51f+VG4Vdi
+tGIu4NmIUiBwTjOhfb4qcVFrKA/IBWPqqMWK36jjkSfqNay1+2B0cqTDpcYSnNlGrEPlMhoQ07qw
+niKwqWBaQXxpMHg7jgZO/mSjTthrrbTVoHdD7f6MhjDDQqqjbrCTxEWTlxJ/t7Ky8Vo62lc7guol
+yXQoF1Etngf6Oeui63roHujq4q6+GEsz30ZDynIPdFijWhcRjllQbwz09KCdd9xuWH9W6VU2t492
+11zauQo4ljyvJFGI3XPvSJFtVoqjwFRnBICpIFqpsfVgpvKzy4rWFAHTnDn9EqQMU0X7gDtyIJDZ
+eooVnYggcxuK+ZuoxnvAhgi0ovIca+ltHCbQdps3g4OO+xYKbmZbE2IYzIndTm1EuM4Nm6VY0iI4
+C0Yc0rYJXduArIWAcd/WxTdw0+V2LmXy8rtCvVeoZXvwz4MIbrB13HZv6f+WqeWF3w9BfAk254um
+65BqFiHAx/bVwFek/cM+DMUXwwETYNQfHojvh6D9SdUZX3BuYRlCsPBLrjntJ+ouizN1se2BU+Ig
+/tsp2FvAYgmvB5qoJjyY41yzgu0x/OQKallVC0e/idvsyuorZpUDGEXGxFScWLgQfDVy260RnrUM
+6qvEtApYBkJu3GBmyFfM7LOhvgBq1NV4GFeSBAZjn+YUdiavVu/6Vq2GRkVo56Iueh9Og5R/nwH3
+kThTIFYzCVCrLIoSUFhYpfZKyOC1V7F+on07kHr+qufV0YCBk+g2z5v7pUrqe7VQ1g2Te0I8Hgvi
+GBfmeRHbd8KIr6oxvgaUAX2wFrvOms/IoB47tsUuuwWdHUNn8+wAwz9p7ENqlXzbuLGvmxzVbiHU
+h8ysX+O6/hqbaYfUzaCHB/FSVsoLa+bJ190WoKbVPZcBaiWEcdUmTevLbjCfpwmd5tj35M/b+luK
+Yd5riGT1p2yKPL1xv0FZ4IEF1eAR3XudLnueOiyHHRML8JhN9Kgm1rz8EPGh74mfcvGBbIx0zAk+
+Zrc0uYbB/pwAm2J2refYrYj2sHDbeKUWxydtGOxD6OgLvmLIDtRtefW7FPzRrNCg/nMp8L7Wbfyz
+doVXfa8D9if6Vo24ID6WzP6WEvH9Gitwu6MTwrb+boP/q8qTTgSSKawhm6vs0id/rwM0wxjksc6y
+7aR5/TX3rL58k7+0K1QoA10RJWXxUJnq8vUP7QpbPmeO+rDY2ZMVsK9wsKRXIYQ+pTITYk+GbDc6
+2PwEF05POA3kwcoc9ySSWxtb0eRpdDFwzFFpXBuDCA9W1kwbLDji4I5z6dFdm17H3WPljJK4voyV
+Spoaa2pdttGlHd0kFYoQTkJb2elJr+5zaMDgjecYkSQKc/ddLzdPpdhpaWaNnrWI67rUcY+k3aCO
+Vph5QiQS2itxYvU2MNmjlm0MBHESCkzdzLzIrWoenxjEjecaDcBGIzf+RhDKuu1s91usZONWJS7a
+vq1G4VyzCXIoOmW5xdjcbUitf5KauMIcBS+6ZCkjovQN3LcEHF+cVbw9hYCR7eaQiCq1/ao104My
+hndwiK7dybir5TT6lsKBnsyrJOJCnFTJTd1bp5w+bIeYSWXnNiP+ryd2XUQKGpNChWqbTUvAyAq7
+V7ZKxXDbxmW+UuCYEJYd+2xiSYQIUlQ1Ux3uDbhYt1PV1mtOr2wdZZmFVn16dmLeRs0aoDCq7jfo
+N/XKSebLGscN2k/DKkma6uavEQA7NDzYl2WfNduhZsmkMAbwmlFeoa03vSG0YBTZkq3noqSc6UB4
+16qn0UCGVIVWSa5Asrbt8k4B5mQHRblqzQjgWB3Dr58kmlBsS8oADygp7XaHCKxcs/S+djMI+xU8
+NowV9UYFR4GSPaIXa9tmT5bbqckZP+rO8DS45efQ7J9qvWm2rpncQJi8dEYH/HO9D/L2QlFxKUiM
+oZpgmtim0ZHL2sCHMF8ZIalzIUDSKFNvCOc8m0TQEnii2+sG5JJiNd/MJCaDNOzPJsYoT0+tzkud
+4POshVdhkz51Y/GSFMNGdkXl4TpZ0szVN8Jse3JoiBwu4Abj5dpwt8RGV6pb1FXfqq5kpK45Ca4n
+0AZGB8KNIU/jV0ZJTtywEehQaTq5H7SSOLUkS+n2xdZEUAp8YrhjkkZAkLvI9MlsFWNJMqxm7wjE
+5HgEl7AaxrlYVeYAgFQ2sJXjwfRaQKPQ1ZRlgcjfOgm3HcFlhNrzhsalQoqiJL+QtNpDYmY3YU28
+2kJbsEcCcIbXGg+Q13X5V7VHVwDuZv37tHg/LZYm6p9Pi/WX8OtbmX/+yYGxvPD7gcGpYFLbNYym
+7wWeL/04MGgJaSbhZ/8xE/04PcFFwCQUZ9YfX/t4YGB+Z+/EUbOYqTBt/cr0ZJFk/e3AoHnF/8AQ
+RbBMWfZlHw8MGxVV0tZatbNTgqefwSO3D0psq+l6gY3vS4dQMKMGIzmTD7RKkiYiTgXDYeEgunQr
+EPt1CZ0HvYnzLegGliNW3yONdqkSmlvtsKmTolMY2qXKXRaOZ0ed6tP7rLBjv7IQaWfmRPrkqKBo
+6FByYz04OGk/HPWwH0mWIIrKKmQAN1XlwCFSQs3ybaNVZ6syX4ZUvU5IMGhtsLChQqIjcej0v32V
+7EYVLkqsEHHupPdlyY1bi9mmqe6hqvq3rnFvQODuNQMRfRNcx8ZAPBtrophlHbQ5G1L8oBQPNZHE
+SZdAqwbVlfWEfNdn+gJPwMndtBrE7Tq/TAWmCBZLQ9Jcz84I5Zp+u8zLx1lzWczVF26akfOibuJc
+B0ha7RK7uoiTfh/Ecm0ITOygodvBuFBn1u29tVXKepVYkqAQ87GqbRT8AW6B5JjM7VtkJKd0mNbJ
+ospM5pOep1hRTbHtTGurDQCnIjjddnhRAocj7mtharHryg5RqlxF7ACzwcXYCnFeX+gWyU5mAzfO
+9FAbyC9SWxycSH81KgIinHhvKuD5JvwdonyA6baPp5EkEvUaGOXByudtWZkrlZIVxyRrDwlY5+C+
+idn7mXGoYaurjuHoPhQTcprcuJkV8xVI9znUsos2jk3uBSmp0Umj8MkoW0SikZZFfGOowzBsy7cc
+MYdxIIA8PgS8ZX5BKhUh51ThGHpluXZnhCmamp2bmBTKtLbI7rQ6y4sEG6ZYjKROyaz5yl+zOv4u
+e+9lT/zrssfLXn8u+uNV32ue80kjTgklvfZfhej3mucg0P84nKMcfp/pwX0C3WEjwgfwwoX4w0zP
+ZA1E/4zq80+H66/UPOMnl2X09+ycFi2+A1LkbzWvKrDoW1pU7KCnk9ocjADd93E4kB5thqe5i++M
+qgH7thjqCEFszEM7LBB8HYNhGoa7Up+faq6maZe8pOG7+OlJlE3pd2q+U0snIJirhdSuxScuphu6
+tBEjNxRQd7i3iuhS15p9kLr7XtMPatMcAoPEMacS3pK/IDT0MYFyqjXy4y28q74ObWAfdEjrglLn
+wow0cF1TknozuO6jcKMR4eqVEM8HnZj01tkEfbeKu+xpmpVi2ZzsAtdZZwN742IgBoaeD7IwwQaL
+28UsX9vGORJLdQwdcYVfFFLi2eqVm5QA6MhiIhUGa2WO9tw7d5YaXfCkX/dmem0q2cFp8r1SRPdg
+CJb4vnI3UONnq9/lTnciamlXCqh/xSxuzFoVbNadTc90IZHs7iule8BasIohYhJp+FnW9h05lInH
+X2fXGxVaxmFTFuG1E+rZDrgWcWaDvlUJ24grjFVSnMsp9FtDIZbSSqhGtm/0yp5miF+Slt/kor8h
+JvOYB+kB9viuJ1rGt2S61QzlNsvt45jAy+wWdr2SkUCIHE+JMz8AaOdluUkUUbnVBKPTjtQMtOmE
+P+HgRe0f+S4xiLab3BMvzLatMcEi2ObakOY56fJdkOW3EYu3Dt2dn2EhZoQ5YSgrCNEr+NYQRPPZ
+iIkKN9HK9xuiwWPcT/ZNGGPAii3lWzAGF3NQHbVRg3wcPFV6ctlCZ4cjmO2NoH2MhfGsMSM4lW17
+K3oJwQUyfKewlotJu5mQdKh1dXaKoV8bDC42bubohxy8V/yWZBlcWj2WhPomHRxls7IuimG4gqoY
+brPYemkc5cGJ+2vRxYkXJO7dGGK8cBuSs1HTtqAf1EtUVw/lWFwVzUBXSTyus/AIe2vvKkDK8MDM
+5KimUCiVcm8FuLLiYSpXVAx0ZH39aoRFuQ71vt9P0RzT+zpXQwICutUp6HJiJjNX7qmzoaHFrXXH
+5YFAT70wCTkJL0Y1fivC7HVsbHRyUDozUqvz5iFf1qUuFxhGvX47dZjB05WUJsvWqLjqNeVB54rr
+ahERjNNIGA92b3anCvtWcVc09t4soUwTC44ceJiIAc0TT0oJ+qxMcj8sx02AEblLqp0UwS5IeWfd
+Fp1b4fAxsGbhEzl3yJv8TY9qbC6UC8gQV0PFAmoKnkpdw2OWzm9pA6yb8A4am9KPW/ESmfqF0Pg5
+2r7epmOzxqE2ebImQoy5EcQ60uwgUiFUw6fsJ7KQXoRB3reMLieJE7pDTnR8FKoXrR1hApk6W+/R
+mxpvZTo+KaThEk+UqUz9KQQz5E03TI/ZWKv7tKi2bLBvsLh4hDYVu3TAIWTVpErksfoO1BoI1TAB
+lOqrTkvtU0NywZXKsPQRAG79+PtQ/eNQ5TT757sErkwek/hnQ2jBC7+fq+KTC1rKQCzxvvP6qKFw
+Pi04N9ZX0Jy5GCxzqR/nqgHYGuOFBhgLDf6HTazxyVlGTlD6ELW/sxt/4S6h4+H4+12CMTfkHkbh
+9I7q+7n7YfiU2W5nm5D8dyW5tzyDYKXJ+WNZpjg5aY9qcYW3crY8W6T2tjCCfA91hDxaPH2N7WVu
+ZhG0mocJRtFMuU5JBcITZt9PI/qvssz7xzAMideo8jt7wuur9ajTJ/su5jrSVUAaikgHhJsTHdwE
+85XlMufSA+veLkOU49h5oywfMRJ3l4iyNsaQfq5DWKjE+2rI0Brdx7nSbkXavZBPMhBJZV1GEiaE
+HNB7LUHwWpnC0uW2Uzr1Ge3iDvDNXRAHL0Ee3w+Zc6kb7V3Rza+M+26FdASDbPLlBIDpHQsiRBjA
+gsAS6yu9Y92XCgNJR1CfSdSZvEE1TLI3m70dOtcpfACke0Ahag1LS+LoD6LJD5GGy6t2teNod8Ry
+aPMl/ZTWkG2YpFZ+1IR4bFwagH5BBozmgOSsGcSisI/3UaJZu36kCqRGFqwHRwkhBPXNAQYk2sD3
+HJ8aVHkhshODOSrGaCDg6+6jmkRkUtXwkA0OWdouhwalyhHA8zD7SM8ALLma3OCuraOnCfNYrA5v
+jUpajgLcRuN8KBV5aJviMlEUf9bKe2TYz1qLL1iS5Mpk3agIeK5V4zafneOgB5fZrIQr19avm3i6
+Sl0SLVOgsQMmgGHeE0+8qRW5rpUYw5zTeKk2sEvAn9aHui8Tcd1F6QvN2osrybUJqn2L5cEe+zdd
+ZaeAB71rwjMH1CrK8601utTLheZTlU/WnBzr/2PvTJbjRrYg+y+9bjzDHMAWQA7MTJLJUaQ2MFKk
+MAXmGV/fByqpJNXUpr02z+xViaLESgRuXHc/Pi2XZp2ds5maESpTBrZD5YU5lJdZEx612NjGGngx
+JbxR8uRuFPbNrHFRXbKtSWZtoPMyX/KHcoFBuOQbxWbCwRAncmUXu/kFWPSdXGjfTCZu08uOPPMB
+OB237WxLodmt1sE1iWc9JQ8fx3z+e/4WhAQsS4m2uZifwno6haz9WBEFsIci3lLU+zjqPS+SF9yI
+wdTLc9/yENi5/SoIT9AM8Jbm2aMk92er/a7RsSFaVKfoRmoOz9NSs81DUMifAKI8N3Ch6G4tvUo4
+xRWWrthhDBwwtWs4iAY90g+9PUe7aZTmsB0jAhaoGdOWS+JRkcrFYEr1StZp2ICKaqzLpCK679kV
+454HCWT+AMdRCebemfaVGOhWKo2rrm8fzSmjouaHU/T8B83rJ/rrTwcSYduVMIYVgDga5i5H5+j7
+cbmhuLRoTmOd7nn7jlESxI3GlZreQBaQ4xAYaf//+Ybrb/gdKvb1G2Ja5pxm4UlDzM/fsKmaKqud
+OSXRMARLgW9eUoraFue5iQ+/X5V/vCr/07Pk9cW/bN1WfNHXN6Wj/49X0OoCt4wv3hG2Xl9voPwr
+VNfVUS6IKX555/35pkSL4aWGcwSUpIOn6Yc3JaxILCBcJWEXfbnU/soN9AvW44fPCbRkXIY0ixA3
+112Sb391HOIB5Hnm07mfaihmFN4+adpKhlA1EAiyZwVdSZdJrxR6UHfRZyqCiRA7oHkSLb3oRSe3
+vV42/jBnpypFylETbiaDFZ7bxm5Ja9ALlGO2ztfaz5guL3yvaoCTCw8UfVOeyZrdM0flCs7R65Cv
+yg41H0Di8IfoDeCzdHbvx14LA6NOL3Ua66Jdrna0GhfGvMHaYvSe0Rcq7m7CY64rH7QMZE2DVhmM
++FxSquoXNfT0QYa72pzal0xJyqtKW3ucLdW5gkZPNMUhipllsMXrEZCbpZenRsklV7p+P1bGp0rM
+HwEax/7ooqwW2cTNgMVRSF8HXObK3Dgq0J2uFf0OQrWyxeVF/ioaXmrwR14WjtDXzKy9iCxuXrFR
+VCel4O41N7Dh+H8kZuq18FV1u0CE6gO8vQ5jJ2XX7qScKG7k6mUNnowqMlyq1m8a3jje0FaXUQ/y
+omndeDPCtkfX7V6rlHr7hLPcriI/asunxdRRAQZrCsZ84kKZ5ZfmQr0yl8nFL0YBAI8cPOM63eR1
+oXhtLT4AcLmWpgsJqEUBcq+nnA77lLM4HPBX5y2kFkfp2HN11uUoY6vcQwSoeIfa1n4GPU3cvFG4
++HTnPGsoYGlcd+tMCR0F/XgZaclH/rg3mageFwmfwx1S/O9D57VtcloybS/aBEO+0t1VZf+hrhDV
+nPlTqSmhZ+ZiK4f0vZfNh8K1ESgceCpJXO9m2b3HXNsprlXv2N+cjYWixwnsoYe6jsVbDJii5GeR
+2HRdzegqhaOgY3AlETVQ6imix2t2H0iZ9ZvRcvbKyBvXgQ1MXqERvkSK3EVxczXB1uCB4FNqObWD
+m6HeTc5k+51Ca/cQuoEM68ynUahkcoNgwOBE4/GSBiFEAkq85V3f649OZlg+pazPAD/QR9lf+Ive
+WIE2pi+8icbVSj95s9lcY+ZlBFBvB72IfSdN+8Bx8FUpab0Edlzpfjgrcote/67pROpsitSiWbzD
+EaHFQIi7eKhjXwhxGELH3HbtnO1scmLwoBKibw53Vgeb7Wwr9K8bn7txUffMwoHTKoKMVzvzNMtT
+NRW3cixeGK0balmrcxEnnxd7bC+aGbxp1bODRtARqnuvQDz0QCiWDA7KQC+3BqNHwTQs6saCE1ld
+pxFgMKdvc8+InPjEpfK66xjH3aW4zAZSjZoSWXuQ45/pLWSxUgNNLVQwBMVYfaRp4LVaMEVNQ3WM
+4xbimdoEw2jkvpvDSU9ybYdV7rdv8v98deYyGvz7hXD/0pCd7Hih/Yzrt1S+7Nt10MGYu442umUx
+avwYkCKjjw+IfJQG0Bs1QmAD+HYdtP6HnZ55kP9ZU1Wr2/67F2FFbusk9y17/cJfIk5pxt+skzzu
+rrMWfOFXIqO/Sk8/XAcrUvfUQswdGpBWvNULXSII5opb+KaWvVdRH4JNtQ5ZaXu5SHmPRbSZRp+s
+fF4uBzrcPB0zTjHwsW4t1oo4LuEWrdGNOg9P/TiQeZoYGWN75pfmghOQo7fAeIAof8tP5XLum4/j
+ANA0QQahwQMOPa4fdJBoFyrhVUXwajPQipq45t6Jm6cRugbilHYIFe1maoybWTqbXpUXeaWBl4v3
+amjsalvuos4+xNTPewN+BA+74btOtzaMKDCFEjdBnryNpXzoi2afz8rDNDvXBNpTgVdeZNgplPVd
+PH6epaYdkr6nspMKZ0KKNZdDcUz1/irJ4zNJxau2jJ/UWHta3JnErD095Zm7p4Mw8USZYP4fae5W
+p/Q5IswdztWjpmj5ZhmrZNNmDSM+7X0UwA2vbbXQYBbejyI+UutBmkafDK/menNVz/q8gvX0jcPf
+E1Z0iQfU7OmRNEYXoD9lki5RggvNnNlmVu6x7Ghu1UIVmjQt4BuK2ZUNbR+Rt0TqYyuNCwXcwlZS
+qBRzrxxr5RXKY9heFjRVlq+LgE6F01bwrtaIFMGxHSdW6UUC5C5cnVJadxEyYPOfxS09284r3jST
+4leSxfpS9qWnjUXo2a2RXNgaZbsNf87fdu0vx44peEj//djxiPP9g569ftG3yVpbgUgYGoXLsP5T
+fQBWbjQVQA9Ypdk6mOv659uhg9uRWxhxSeBMlE6vGIjvh44FNM8iz4kfT13Z7b+wgyK189MNbJ2s
+CV4z2fP9HYZ4jePtx0OnyFsjZbNt7Qu9hDJjLO92oTsY+BRqIMfEJvFuJMUpEZminXrMm8kZLDld
+6HRrbpTENDZJ7JKtthu8yqvbJGtS88x6Ot4oPQ3xtYGoobfxbZUu6k7IlWNmY3DZiGFNW468FDO1
+sykedvBS112NGD1aNdvg6K1lOMSVQa+PjBPxKddKov6FHeYbEQENhk7lF7PxwPSKyWWk37FtwwcF
+tDZQJRpFq3o5NrZ9LbLlNVTKnMfCZOKZk5PrlBwMuDhpVo2BUGR3NqRUP7USBpbc3BfwkA5FPvOP
+jRe1gCgwhgjFRmK/oqw+JagFbZ6/m2xWIDa5BNQzGtprwvJqT4U2bNXMd7uBeYFhyKEPCx5xM320
+ovykuuwLmoj+4WolAyW96TnpaOy6HHm6J5C0LEhhYl4hntqudG/KLCwYxwA7mKEdHuhwcPyiYQPR
+5mT2aSLKTsskb1j89adhiqG0Rnrha43+sdDd/Ky56tgfwsjojKDvW1FcKU26fE5V0o6Fot3bqzdq
+cGyWdIZ5hrTPqp//KnD7iHwA3cehWZqj7ypiF2btkbck2k1tXdEvdUfkX/jaDJYqc7NoY5cOrgMp
+j+wfj5bCCKwNuvTcRNsvWX1rmLRLreV+ecYGK8WnRtLrNl0IJtqFc29Z/aFiH6JWyBtdk34uXBrt
+Fq50rEH0g6HnJFXhVu9qPd9wZwpK9KGtsIetFte8snRRbIXWXfdT9WypebQpKHuN2+Yp5ekLfu8S
+/tgl/OeU5b+8vjSE8P42Zpni+5hFyIk7OhgkuJlrnGQdmL7tEtT/CU48iMbO2iH404nHmMWSnuXT
+V+Dn9+OOYjT+ISwkyyJZYv7ScbeOf39ZJLA/oL7CoBeIPcJfpey0SyNqPPtlH3Xd2aKLLEyTO1uA
+bGnaIMUR7o2Oww0z784xN0XCHQN8M7hdBn5EzBROoFUoe0q/q+PnrHksQyfcunPE19P4yZqC5PeH
+PLXfxfCosPcEysvHu6alc5gfByN0sT6/yYEQPKR5dEdaTPchL4KzaSj8oqhDT0aQpGvOHTqijEuk
+Jyt73vgYwbDUPTj68rnG5KdtYmt0AYn3i/2kt1WPkXwgUxOjr9ZBjQnGm1ccfQvRTtM3S9/bmxhk
+SlmMF6VGOZqrDAYanAb2Ay1BTuWHNhwlzkUbygVR5ySsD0bJ4jRWi2eOmUezwOHejf0mjuxbs5vI
+cVjpjOzILFaqdhsMRj0GTlbtwqZ2IfJI3ZPDRzunnBrShIobL1Gbqxoz/J6JJ9onMFfgXMjmPUyK
+C7bvWEMnhjdP7QxKeYUSPtkpXexNolpXUU1P9/IsNWXTdeBHJMJ3j4bg6dam1J36rrOH0++n/MtT
+7nKz+PehZte8xC/535/x9au+TTUGlyJdZ732RxHMj8+4+T/6Wgx6h/5C7mUjyMCCgWSdOFbq+o8j
+DU83EyoPJR7sX7xHkZn82zNOWJKaCrzj60izGmN+GmlSaTlm1iQXrdJtbSzERVpia2KxxBsud+db
+oY+kk9cQldzUvM9V7uL9CrzNJ7p3U3m10np0OuQDV0wI5Qo+CYq0IxN4TbHXzIdFgjsccbEWDxlW
+PzGNG3gvW0Y9T0vKLdGQrZ5MnlmmgCI+Ki0NqB0h3sG8E+60kU52XEdwEz8WInbAz8xr3ZI8ZYyR
+zb3N1eQ6rGLMC9bRjmFL4JNViuq6z8XVIMc3g/K0qAWshbIPN2s/W9q1VeIAULTy1lXGvYCbkZnl
+ZRd2AUnj3GO6iTw7Uy6pj9kNGf7Zcjmx1r1rxuzK1rIPfR8GyVJeZXF/Sst5m6tQnnpn03KRa0ow
+lHMX9KJHqQq3ocTFlsW32Fcueq3Yd1FzU3TmJmXvFZXzs62YnoKJOncaw9PYGrolBtxI37SKdh6s
+FLf3Z2WxMVkPOHut59ZoNzIJD24uD2DjgzKeNlbaH4vB3Q6qG0Sq+WnSjOO8dKfQVJ/CtsMO0p6b
+2dyVWu73rjhqRXhdhM2uEjBwmgLzAXsAoGPyIouqLRGfAwSrvT5ZG/RUZso2e4Cict3Ywydc/B6t
+1zdhL/zRFYJVcvqxGV0LwhDBtSavL5yovUxr5WKpsuNk6D0gfG2/nlc+xvU3l+kT4WZnJ90JkYMj
+X5u2hSMfKNkBhd4Ei/2SGfZtH1PFQ5CO5W29L0FhkHzwquSh64dz0xOMBAelRd0Wqth+TMpd68yA
+n/m5QhkLLdCgCyZBffKjFPf7yFpWfBhJAla1imGIo3O0AAtpb32FMdNZ9kTNH5U5uWNtv09VFx21
+cYM6s7Yw5C8Wa3l2E3PrUvCJnKy8KZP2TiLygER3VkwnyOSwFQx2dp7qfmYah7HnADaVQNUhvjn6
+BzJRG0qyg95cgkTrd9kMKarsgbqgZGtyW5jVTbcaPrCJ6cA2xGW5KGdogp8c0O2TTG7LXv9AHJOb
+uQwvEmwj+0wfzjoQ+Uku+zTqd9VoPCy6/gyAYge7a95k3USzKYYmuPx7kRX+gAlpHvt9mLyY0XSg
+pRlshw793+bKAJrENLPbVjd8kCs7u4xPtq18mER0M3T5ZqWgOU36YnGfKEfj0NY4g6qk2mqjedK0
+/Nwm00Odsu8X9b0+qDu9VZ5FQvN5T8moCXC7yfQbyZ/V7cyL2akfqgkuZ9udWA4GRSVK31mr/OzQ
+ZMXcbhI7ugYPchjUtQVl5nmOVt4ZOKUlvNSn9sRf9agbyy6Z+8uOXgRyApj4WTw7B8IL/GbHXB0o
+CwQmpRb0mjh+CMQt7qtDVeqBZT4NZhLMeuenEP6NSrtBzHyuBuj8brIHwrzMz0Z7qy3joWgzLwX4
+olMC0UB1ydPFs0TpxdhuWUKxswRaxX/ooq4ulpzMpayueiN9EjldKA5bo3poXkc32ttFc6ljJxB5
+uYM+cNFa5gZd8YOU0Gosi6U8VOoqeQN0EXRKechm/EISfh911dzk4n0WmceGyEwy87iKmOVM3xyM
+JL0zZmO7dMoBfRyWlFQ8t2D1ZTqbAvgpl9beU+kBloOxbVoJtzJ7CuP6ymWWqaXEeVNfjFYKMyHd
+UrEKqNs4ZkN8bfHnmoYETWVWd6xkdtzSrnq2WGqM5Dzf48Y9UtndwqZwOAkIxLFGB/6ivEKKIy6h
+XkNXoFHhBTFqz7Zx52oZrsg3M9YCIrh+K0f26lBWZBEQb7rQZ+O9m+GtA3LRhoZm2dAXBshuDAFN
+aNEfO2yjNj/SNO1bdb9xJVHjySTrkkNBny6rML5WJfudmKBIZWJ4hOfbQg4u2309qwHNT0ezSvGF
+FFfZgvcCOcsroYjngI5nBkGlMO5qV9sr1B6FkG+TiSzG7zHpy5i0Dg7/Pib58XtTZu//sP5Zv+77
+oPSVrP1lp/ztHoQ/d82c0hSzjjs/uY8oeiWLhvlI5WBmwPph8wPBBeeRykqTlfMvX4Wcv49JFiQB
+m5kLsIRFDu7nMWnomsmgri7Gou7OwOhyq9yNGB1xvxytzDnVTfUyp3VI44tmHooG9Qssya42SHvF
+aIXEvVH7cC1FvmXlaRBF07lK9F1YaHtbwLYKNfB8pis7LzUz2mZ0Sgzc/Kq3lNvKbHRKJLqPY8PG
+orDzxQ9D6QSm28dblfZz3nAAPVtZ3w+YlLZayjVspGCE+B11d9EYApA3ETkbypHnorW2htHBZGmt
+A36KxK+15s6VZN2rVIUyGk2E00VxqlrLZyGDv5K7l1EWL6NTs9peLluRsgpvianqftTr2iFNGJu6
+pMnuY1XeiQ7+omb375Y65r4USWDMS7VJ3GUOQEJN0KJVcwODP+GaF6lgOutzomkPqcGOC8Lvrojc
+Hht+Cx4V8XmsnZPWgxg3GOV8fe4+1lPJ3DBSmjXHJJssZYpXcvYbW7dLsQ5vrlpkwKEHaAblrYFh
+KIh1FOo4oWgiKqvrsHdTXIp5v3G4wePAoXkl56eqT4vqVyapjxx1tRzzIM0kCBmIUkdzaUiqKaPt
+NSLdRY6cg8wqrwtq6v2Ga5qfW+3DOMAVKPmU4EU/rk3wvokQ6tUcTPzgiDLT/IWOfJzdevQcfGvb
+zOTn3kJ9tKv2AUIEsIZIvtc2HfIZVuCskmqQmQNc7tl9pHzoNMN2t9U4eWhl/1Gp0vbEg3NWK+SL
+QUN1zComoHrCmz1L9XrKhjsTEDm3E33rVN1ES1lp+bz6r0d8UT4JICcAwZP5s57AL1j095xs8aZ1
+cUUzWxWbpE5v6zG3b5I4sbmzgy7t9eit1NT2ULqZs7Ek4cAKZZg7QHquLDwxNOok7vToLlSMae71
+OBRPuRwHGf8+TL8u0pHU/uMwfZFv/0LY5uu+Habs0tmG/7kTZ/X952ZJIxasoplZ4k/AyfddOhQC
+SN20bnOogr/+8eJJmxfYbYx+BI5XRfBXdun/QDhcEdvrNzLwTxDn//lEjRgQOclmbIMOtdl5Vj4P
+FrX3Tae/oC29qThAPFmuBwAF8SyiKZNC2tK9qhhv40bdV0t7QWwd6jaOaYMhjvb4K3OtborpcOqj
+EO9huoMoImihcofqNFCGgks5He1lU1mJZFFcMIo2EfbxsXIiL+dWwNoq27Gbxu9SjbdgDOZgtJ2G
+hoL50U3Fo4Jpom/Uc1snu3HqPztDv5+F5QSDTFo/rPq7lAYJIPg0kYSTuEsctaLqQN+bjYk9rJhv
+0buNbRG7p6XjG7dUbXutM1yz9L2pRPFsixTrSIaHu6rijnNXjz8b5K63Sj10YmvNerEbitm2L80o
+7HZobOku1vIbzEiaJ1eYIV4YLHARBzuS/J3ilidHhuekTc3AaTiaE3MRzDgFZ7tfyLI9GE52wdWC
+qXbd688s+BexVnetO39ryJ/YvtHQ6LClX3UBxdRea4SCEsFgXJUDsg3apkFMsFqu9GgItNV8ERlQ
+G5JVdrDRH/JViKBvFk0iW+UJaxUqmlWy6Cz3U7+KGHM11sz902JQjYnSYa+aB9WuBVuzvOCIm5Mr
+rLzQDFsThQSpxMrZfw2pfk/528PMFXy1vthHOIRKEDmNSj/BEG1+D3DrAAcI9b/OnMtPQfmPZ86X
+r/t+5qweNwcjGyZk1s8809+mOH1ddKvqnz0o/KtvZw7oVItg1nfc6vd1Ni2uhDshNdnw+SAb/MqJ
+80/qnQaiGEsDGh6H419WXfNSAOFohNgnRTw7PkhRic97lGQ/5kK5iLEb7PuZKqjBoBnNmDpsWFa2
+oT1URwYX9GLA0PPjtpAPcd9DAyqdQ8solDc1S4Y2Y8KgBJXS73K5ZqPyuVPloYvoFXbV6Yq7RO+x
+JLkoXXevNOK6wBh3beJhM87KF8FJ0ZaVBI83odw0zFtnFVlKrPpUKnNOQDcdTriGbypJASh9VonX
+1Ks/bqKmyOWWPDoQk5NV+6pWFQzrtzIgNqpfJDLMUE2k3jeaekUnl7FT7cnEW828wQTzpK06m43g
+1iC8Ecc6mEKOr4h1R2u9Laf6fNuEZe+jofMcKmVAPJ/FOgQnXS3SwEq7ZNfaGr7trj7Wo/FkyOWt
+i7LKi8vorszzO0XRe0rzFFTTXsFENSDMlamibYakn3bc2mgmVFXaXMpuUxVpiDo17x3YROj2+j6O
+JhGEZIUOIGpMv4pgQkN8OPayY0PYjyGOPeXI5eIAa/l6mQR1JLV+p4j4Cam0JPU03CfDeoevkQHj
+Jb6qCguJshMbnJHjYTTDXRrDobCj7Jxbsj/Lmk6uGKw15mKuzl1UPbqdBRRV7T9UysJfY7bJwS3J
+TJ6A1UMh2kujMKyL1pmUbbu6BpWyI02aOUEjiOXjypJ+hcEwX52Gw+o5zFb3YVePHwfsiFbT7evV
+nxgyes/GNO3bgl8zGQU8DccevdotrhWHkdoDi1+QfSrjwbwc9WZ81lYjZKloafv7sPs6YKHs/9eA
+1XTvzXv397W+4Ou+HnZUTLDRZ275oy/6h/lqraBmukKxA/Br/GFI+H7W6VxTidFwiYRX+iNB2kQm
+0HTb+RqyEb/kVdD/1mKCSQKBAAnRpfKaFD7z34+L/dCNjKzDS7+nhh23fIgvPkzGmOB2zX5MtiSX
+bwx4YdRF9rZ1SzRu8rvYbhLcQ+snzNKq2rd6B+ytVUVL48d6vxXdsKsslqpXuR4Zw2ZKxgTJeRb3
+8O55+4bR3pA6/Xfi5BQtxGcjGxUw6GVjH1RtEcNNZ3fT3gbwLo8jMBHQp+Am7NxvYopNPdbpTb6r
+Q0G2cmivLNHuh4h8iSLaapO11uOYhLRhkP1noW8zYhHvnzdDk62LKuwI/XDEJK8r+9mUsNuqWBQb
+yqWdzcCp+upIrVI3GkFFCunmW7aRRwfatajkQzdH/EnG8VVQBUQrxcnBx1UarPXysHjs47VTsORG
+7eYdRW0TrQk4dD0jHV66RTkCn8WtrA8PuS1uapNMyEhEIizFru7yNeyQwLt2Xx1B8qUsW+iodDng
+RdolmruL1HVHgM1LUdTP3KeDMI+BOxXRCuSOnyG0hDiwK2VfVipzZhfF7Hx1EwYdvFPseYpXxma+
+Na3W2dspyOlZB3GXkFbpi3qdb+GMxDLDnmlq4zZZWut2dDIcoUYezQaYFn6cXp5X7m2mk3lpS6Qf
+vLtsHzZKZivXdVjNuLdmEdgU/wxSAwW9OF0Q2VzRo3ahwKKulGwPc18nDjjYu3lWnoyS1tXKKPa9
+QYjGzOkPXzr3wq6nh0iSSOL52fdO987K1cKyZz6YBU0jDcSV7dLPMEVsrdlnFE07bPaWMN7+XzNK
+O1YtQ7xfKn5Kg16Hfl4ZO9ehTKSt99WsbM3Fmi6i2ji7bQenzN2zsrnEsQaEy+WD7LYwC6f6OAhS
+hw3uXBSrwu0MZlLOakOPn6NIPhr08Jk5aqvRxOFaYoZhjqSVMtm4A4vp2bHyUzc5V5z0sHPG+7hc
+bKRlq7rLs3lDx9QOFcyhsbcmyam+tpN6WAt7Kco66o1zPbUT69sRiXdBZsHDA2VrmbkklJqnOQr3
+dT7vcnoMLX0XO8oHoylfw8i6XAbULmTrTOk2up6029+D7ZfBVvvPs/7y5VP595oh5s4/D3rH+J/G
+PVXnELU4nb90CX2bag1qBBzNsEk4/gGw/XGqRdflBOaujPxLfPL7TZrdJDBZqCiUVqtfQpO/MNfq
+q/XtLzYNgAY4YJ3VE4JY/BcrrNAqSv+6Wtm3c583N9qoNPo57sj0oyZSCMIchlsq1J9KR9IbNM6Y
+LOLiE4sbFFhz/BRSPhmHUX+2liXZZHF6ZvG2ULqq75OhjHw3tu4dWpoDoiR06Y3xRu/bAzmKCn98
+c4oq8pVFSh1G7gIwXWz1zsSj6ZnLTC9rLt4NnUX8XGoHfYruh3qYrirSBsFA2Yg3p9VBzIQ0bF27
+cnjMgoh4nM8lE4u+Hr40tnJqo+jzNIqLsqMlOezf44h9VY+SgfucRvusoIvQtSGGDTXmq9LAVK6y
+B9yESa/sRDph0zXu1KEknmmWBS3OYq/qyyuZjbXNtOe9FSH2xumHQifdkeCHFfaLRTesLx2KbwpN
+bTgfo4OQKjwUYipT9DEf449uPDi+VRFUcdvwzpI5FTe5ZnvuDNSPylrFGzVaDxojpYKhw/OWKvKp
+UVkYzs78uYijdpMu2nuaCnLwigrqRDaXtR3KTdjkjZe2ZC8r02Ibl0ZvCDZcrvuMDIq2PEXcdoMu
+rq/5YLBphjWQfcASG9ICGI63qSwHmv2Kh5i1Kr2A537ds9Kza3mLgs5sGo29TW1+e3vqZ6p18nbj
+QHelDYKi03V9S3rjbtLD9D5ZV7uj2mkH01yWg9UjHBa5GyFSxmsRYcXWYIq3pTvsgQC8hgZpIaf1
+kyg8kVQDLkX8E2WqxLninscYCI2E4p2E7k7V63urSz+ZeQErbNX+xpnXLbEPClqWp9bgvpGy/WyF
+8lY0XRA6w6c4d25KW002Vqy/RkZCmHEA+6q77l1tdGeKivgN6F/IcvrEa8ftvClPDy48WqxL1bOw
+V1+jDvHbdWoLAZuuHtcIX4wsuZaG9txN4AGcUM6Epqb7Qs1Yu48jAf1Z/xgRIA5K1vw+GRkFzi3C
+vx6P1Y6r682gapREzlNKhmSmz2i8KevwTbDDRyO1vUUdEz+Zq3tek0dZE39IWQD9XoZ+ndX/04Dj
+v3Qv4+vLP4zqPzhwaG4FhAovHK+d9sOkjqsY7rKqEQ74h/MbQBYpPxsNCR1pLS/8YS/B4pSqOGit
+v2zB+VIn+D3WuZqKYQOutbIGSRqW9evx/kOSoe9E2fNx4LCFmBjMZhtvh3ZAjrckKoATm5vQSo5L
+WjFnxYTLqti+ykO8xkvh1hgUBCYURxy0MsHVnkbLphum4sTdpPLmhsQOzdHhkQHV8WFyPHZNzSEK
+iqMyJR9PPa0gUzn2dd+QQe4pG4E8XKB0GAWE5NZq3qq6P6klt3e3Vj+V00zpSj2KW+B9n9daVL+P
+iQFW1Kt6VZwuSEucvHZRHju9q30jIRLefymcZ/3jFaVWIfNizZsShqDQqsdj3vbilg4ndKGhucsG
+uWyXBSZUrLTRJnaR/YFjB9XYOZ4mdXjUnOTYPzr+xgVnX1dlJMamjB/HujFW9PTNsJeXfqk+hoOr
+Jmc7613tpFnFSMpj7Ihg+SOnd1X+fv7+eP5WLfQ/7srxS/ePDrj1y75dlVcwE2jTVT79+QFc+z5p
+7Vj3ggZq7ZdSz+9XZYYa+Og8uX/Q7X56AFlnY1bj7r1GcH8pS+Su2u1PDyDBp/VgcG2N2C7j2s8P
+IK3OWV+Bp9nT0bsMdBxpxrBTuE0ligoDERsRmEVj7erKHwiaQwtfiQeg6A4RNHVlzj8thfZhbAG8
+ZWl6kc7yzSl5QuLlVQzxXa51V2z2DFbSBUQ44y4uSOkZbVcGaj1QZ67JN6tQomfRK4JpJkbEK91r
+Y6x4dbpwlPHdv2gNBXqDzJGH++ipVGKcUnlOF0bSKTt2iIJrEImchf7EJ37XmQgqZgtcr0qQohDv
+gD/hy6/Ci8ziDjoTQ0aaNNsAnk55hbHMOlFXH+MezaQvzFX5dDkKJuAAQQonCP+RNVDYV5hHd4lt
+QruWEjTzRGVeRGoWorFI6HCLEWjyh5yBhgysA2sDFBQLUYZjdafUKaNRTjfaPVmb6GSJQRm3UxJJ
+bs2TX+XTaWGvpmojjqOIcE7fDyABJucZy8mTVvXs6obwNXFoP37trUZaG52W6OkwLkKmzJbD8hs+
++X++PNLoaP/1SB9egAT946WIL/u26tfpOwMtDl9YgIz8AlT7filaUzyrgZVI+9+M60jN1KGzH4Me
+shYefH+pkuKB3MQdiwAQLotfWfbr5t8eatPi+CAXhIP9y+3o54fasgoj6oXh7iPFWaaDvVgOO5il
+YfPjQHBdjrYxPsyu+jleI+taOzyFcjK83sw+dOzjsYcaN1Ol8yzS9omAaJ9Z6Z9sdblk25LlO0Xa
+6PH1XpZgDA0eaNvJtq6a3xNaPSG5X1rddEKff04BnW8cB9YV+ORy3xA2C0k2+nrIUhco5QPg7hdt
+tIagibsn3apuSyLTZAmX6zZXXxS9mPwwL5oLCxSYz0mWeEpkHlKXeI6tNFeLy6pJJ/CIKU2hRryN
+jjlFPvYMeKbrAPoOk3C2EBUvUnM8TKY8Vr1BayKLIXCa6pWZJ5AjI+lbIrR2nQURhnpa4nNS3MuW
+JPXsTmowFppDpyXR8JQQjl6RtbYEY65dPKzhBk9qidzZgzwxbz3GdW1vgVjRKzpm7AsrqBihe9d2
+Cmtsykq9Fih8AB6k8zGjG16TWUYA6hkjZKgMnqY7tp8OGdC2VG5LtdWh4vLmH/OIVKCZ2zvVjD5o
+1I6xnFOobM1w7cli5FhjVFFtBNmm21CtaXokzQ44G7otuaxrcAJIysO62K/aO5BmNgYZ3eAiSt78
+/7F3JstxI1u2/ZeaIx8ahwMoq1eDAKJnsO+kCYwUKfR9j69/C2Qy1WTetKe5zO5ElyKpJCMcx/fZ
+e21VqS/Tdn4WhtyQLVyxkiGZniQBcGvGjHxiYIhU6xSlDrjc0r/TU0VySppHPYmDTR50L1FZ72VB
+7DOcB1AINAytbMffBnXOzSryzU+tyWulUudNEGrFlvv5p95Qb8OK+/OUNtCtozMih/5qrtXRreoF
+jReYzxGKlWsrfuD20spAmJqm19TWNkt1Ck11daHB2a7NFVQsd1F7uZVmgfJp5pqqcV0lQHZKub7O
+9UjcYbnRarHVuROX3M4HEmB1z/R1APFUTvFyG9bnsUQqzGsuZNauVuebdoDD2XOJ1rMYi2IiadkY
+9XpTTOD/a2kPJP25fsfLRRycd+rqZZmuguWaHmXNq7BG9lLlVo0hZiqRf6bH9lMMUcBVDO76KnQh
+2kSNc7noACOCQLcoA8WiEXSLWqAhG4yLfLDoCM0iKCzKgrFoDBNiA2gn4fYF2OkeY+Ucm5/Dvjxv
+F56cTKZkrQ+8Rjpz8DDl3IaLoDHjSE4XiaNRkkuutdE6WOSPzFavyrj7IhZhxEQhSRapBHNy5nWN
++WhrpEgDABq/B8f3pwztOP8yOO6ml9e/3dqQw/56xFjUYiwxJ54Sxkfk889HDLsX4goEwP+Rs8Iz
+hKQFUQdHt5YM1PePGKmxTjZsSQgLC8uvPGIYM3+aG9mw0AOqMnAY1HAg4P/4iLFiZcCEDZEBoC59
+ZsVr5NOWlqLmqqu+9oFoDzKpbrtM8Zttb6Xw1ot07Fy1xRYdB9Fa2CnIppHBRlGPUdKUzmYqLXoc
+F09Kv2xlM4/LG4buwXGOxiyzfVcryWbyp3irZVOzLxL1sq3U5xodEs1aOzCxXc7qdJURCLxIqkQ8
+yZwDbI2Iqa6iPr9tNeOepbN2U5spx71qR/A04HcYQEcKNjqEqJ6EsSgfcaStyU5eBZLKzhYKPve2
+yG1EHW8GspD+OKLoiBj6SCdu8kXieMMuB3N/lWj2/Uh8i2fQg22GoRfn0WNTd/VqMpzXwgYn4/vi
+ZCr5ib2U7/IddHdWqgKjdr+zoug42Q6xgPrcSA2eforn9PAL8+l2rpSDPXZ3TkR2oui2KaFPeBIP
+aqXdKZru2W194RcpxdK2du5nCPOTc8rbyzy/7EYb0GZ8rdoXJcuf6AEYoU8OlUdcruFjYavzaTKL
+lta8mP3DWLC/EOYliLmHOh6OwugEU3UUP6gdoCvPB9u6N6dcMvdalpmLw2QoYeMNfeOfaNDrNlUr
+CW9Rvbwfq/E+AWAKqRIpcelBUjJQj3l2Rv3vqg6/tJG+j0PnJSxhvoddnqxFYL8YZQ1uxyj2dSKl
+O/gZKXhdf26q6dUyQBi0glNNTdRn0evwNXqwp52+1JGbPYBFv2DgN2+CovmqJ/j8U2k8T9yljq3v
+VGciquqNKGvKVQ0sknvfwHnf1/RmQucJvYLWECyQ5iJDDtohLfBH5bOm7CzgKl5FB6oa5NqWEz25
+CuzeupiJ9JEOjsIRm+tba6GdpsOa/Il1Id5rDZtl9Te/bQEpHWEj2L9tB3+vMZY1BkfNv52mbvo0
+/e00ffucj4Hd+IM/6u8VIT/5q7l+S82ErmiwdP7OlsOimllroau/O6j/OkgXczVbDctk/b1k8X8J
+E28YmAp/vICDoeckZ+jXARuqkiP7ewWMmE+jKbWt7GRk3cZ+Xn4ufSPXCZ007APKgsh0N3ighVcB
+FO9c1x7Dets3I3i3ys1Hf2N04aoLWSL3w84IjYNPlTmvuQtfzddFD9JIJm4F9S4DqKFGoFl9x1VH
+cYx4f9VMJ3ES3sd5dq7b0YWhha4f++zxlCtjEXgb+kFg32KgacZHv4a8ZwynNBaU4eJOqYmrsQeE
+AHkFC4vGhP4gzek0JMq2pZqtRTqeHPsI1eBQF/wLZbNhh3NsfJD0lKOsh9H3YvXVWVRnZfIvamva
+lwRggqZjet21svaMbmAaAqkeh54izXOsdO7U0CDMECSz23gQuI/yTWOTT8kqNwwSr1xEbnuRu6lP
+9+ysPtHScc47+U41pzWyhttn0ZNM5/O613cxkrkzcttuYxVk7EuNli4JqKR54ppz51IhdKGkZCQy
+EFFjd0zqamMg7MvS2pB8BJnSH7hu7dgRBasIjb5uTShM5tGeAg91k042bcNQzPCO9QdNn6qTszJ7
+mROTv/pUCeXGjwkLm9aZJYIVRJqYQpH6MAb9lWBtUzAYjxNb5Fg9V9gmBwh9GluKoaMAdFklpJeq
+yMmGJQdjoJ6iyPfmWLgDBmczT8+HZDwmiuHh1biei3DPfmZVBfi3euNoxw1TKOIhY3vZLrFCHnG8
+kpJlSdAGmyTV7iBNempxhdX/3h5iOA7DSjWW6D/3KsG9jSf3moT03gznA+tpL261LQCHaRU51LMF
+Rrqv08pl33wDLHlfYJxv5mENLew4NYRMCDUqIUBqtdzCkN74Tk0ELaVST4ezfcoG6To9l0S5x7Dv
+WoutQchj1S5Q4syNmxh6N9wtm196mzyNQblW4gTptqILoD7IobzR4P13IxybSrJOT+NzApqPkjk2
+YtG9/LoysAvt0O+d5KZhYRWXwTqV8F/K2asbC/xNAnDgiorV13x54GS2qxTzy5gvoWKcTRRUw5NA
+lA3KzzqCVmZZ11HWkUor70a/d0VlSq7R+W1fO1eTktxg98T4SgkhV1i/wA42yfwasuOd37Y1tWHD
+Xi/wafHFT9R+p3AO46NoUt7uEGSqr8k4box84C58YcT5htqWPW4bsHOVa6nTNjRLL5vFGu4xcVGb
+7IPTYomjT4YhJE7aSwiz17o17wryF30/7dqSU0CzjrVfeWEC/zSFF1E++Fq0DWQFkabfTIA3Uyvd
+57qyTR1ii7z/d3327EO/arkoDknpqtERw5DXQ1Jul2SEE25zq7xV0+EimODcSRARquYVNMLoyysy
+nyndSS8Ho3VtXol6nx87WibUxZ8P4iZQgrNQj449KZM4nB/lKGXrmv6EfbnVA3NPKJ2pqbZkrq3b
+2MDu+vtJ+v4k5fnyL4J2+tq/pk/5yz88TvnEj8fpYq/HYbVIWW+PTj70oX9p1PlBnKHFSy4WrwVN
+9U3TJk0tSFojar/fQP56ppqYxpZ2LahtfHjxC/yCKcDk2//0SEX2MrnRoqvjyOUJ/cMjVYgQtCqM
+250Ra8a1bBtHIGLVwzYzbaVatWH2FEWKvjabTLs2mxgi8USem+6s6b6FEXmjI3Ol647S2q91IAZ7
+VcpJ0TyqqGA+wX65sGr7ruvK/cT6zNUCa7ocFwwOMx5iBBOqmVBdKkLzOqrAmLRm+4jD51LQjuuB
+bHyxoY/ITMs3oF6nhRS4YfEVUMaOd11L1yOB1a1YMCYWPJO+SOinWxAnHawTk0c9tp3+MLYqjYF9
+0gTqjnOMEr5C+Ll532gdShM/gyR7rgeMQr9TfO/CMGGMf31rFGmXPf8T0mT5vD/fGRYFHVLn5k1T
+JMXqqLl/vTPY9qhgrqHlYuZ+m0E/3heC4VTQemfgD9feuakfurDxh0PBpWBDhHS32G9+5X0Bu+Sn
+NwY8E1Ixy1aXZTCcKf7h38+aQypjIIMzVRo2VtoGWjEJrW0Gvdjos/sWmnEPAtuCbuy3KTyeJr9E
++/QwNDyJ2LhNhPSYKag1aKhYAPihLMTkQnuUC0LZX2DKujV8TuIqPAYLaBl1D3YQ7GUbBjNvlbXu
+Nwfa3bZBMnhlXZ1EN2wD2M02DOdKJhsfpnPK3JrDeM6s4q7j0SPsaacZ6WaGBV049pWI22tjrCAM
+NPsUlCjGvMch64g6F/s5yHvmEw2KKZzpvNIgg8bHTq8eiVC2KwGRGh102+sTg6VxOZrQRxzATiNR
+i5XV0g8STjsALR6i9md9zD6jeF45naW6DpTJFBo2GNCGLE7kVXCyGdw2mFf2E/zsCY62bRL9has9
+muqVOSShh43kovPlsVGNm7lnTGhhcmPL8HQmTNOvPhlOddfHVP3C8DaM+pAvUO/FzNhC+Z7K+Qtx
+lT0Fg48jFHArF3zJxKygzhiV27cdvM+iX6vmcIbh9arlK0IED55sAONvu64M5DjKQuRqC4V8DJlb
+VR0yeb8wyuOFVg5GGQsPAc0dvyy8d5ys4MGd+r4OwcjpaoqwX3b8ynPG7SPATYFzJuRejKmQNbwe
+zK+0Bdnk6wgFmNNS+dF0PWR2ucFs62+0VlTQMtETrGFG65FPamI5HhWF5cpHmwFFykukCCC6jyPN
+peFSfaDWlfbQ9qGBbiFR3SutVT0/kRgJ87fuBLnUKNC2lHv9Uq3g4/aay/A6pXMhGylfCDvmEdoY
+8tqw1yPe0RVRAhSCZHxM6G4YtOFCOqURrBXhO/4qHGVwWfbK6Mql9yFaGiBAx3KEL60QlcpUYxTN
+3nZUa1OG0WmKw4zfgYn6o9/5gvbEwD7LO/OpDuaXaeIigOWYEbR6ysP4xY40k7keSK9pnGSKlaGp
+pc4uU9snWvUlM7In0VSnPk/xD3fbjJ5lRTEetEx6WZy9RrNzXqr9yGvHOAvGEo0mxdXUVN7cNuuw
+ZC6e9QqwYHhjZ+Mu7M1NwFTmxOrNSAY1YekhW/0lxvQztuXZHAxbmfg3dTRsWRS7gaE/5237kBn1
+a9oUm35mQOVejDhEuD3OKO5K87O+qgJU8/E8RoIbCTySkTiPTS5dPAWlXm4o3DsvZ3pt7IYvR+VI
+X8MmI7optHPdt2ijFGcDBBQiUgbtrwN90KRhU7xNtfDXXAiPxjSsuD7f0iOzU8dkP4aGlwbTtYj6
+exwPu6JVzmqtv1FM3pKpdFmYkj6Jbi1WBeCFtr02bWerOxWT/jL389ZatkW0OR+5MZ3j99BXExuc
+2eZNno2ejTS06iZxPjfOPmzSc9jjbkl3dBFN5/Reb0Vd7Koo30Zi2k+FfyS9lSdfWjzT+nPPiBNc
+DuhYlduowWTtf0+f79Mn/p5/mT7rp/71735UGGDfHrCI39AS/sSovvNXP3Rx6w8gjCQIPpayjH0f
+j1iQQqD+kb/VN6DQ92hW8Qdauga5XLwJ5nzoF0ZPvtXfHrH82/BFEaekVoKE34+P2KYYRytn6NqZ
+s1NdUwFor4MisvM1dnBrZdVUS6HxjsdhsewDjXT9QFOnNes9loJKyFVZCaIVzpD72ZjK9RxyKEuS
+AIluNuc12YDkLSWQ99lENkn42SFXRHqXzmO8y9La8deZb1E0W1RJy8Hux9V9zq74TJTsFYvceSDO
+zOUcNyalHM4n22qu8mm+4kp5RJqluqra9AktPXTI03+5jfL22i7SnYVxkajFWhu0E3mI89pyNiin
+m0kUR2GVj8S9MfXbBdn7CDG9K7s1KdDzkJPK7OpNW6P9UmeYY6JUC9eKO2OhJAUQi4re8024Pnlz
+J9IZ5k3Boy0JnAsWoeQwldFclWg43IMthRYhLd6qqlNjd6VYIhko8+jhBnhZHcenqgDKXKZwv2kp
+Ahgb6XeyTW/znPv0iHlrxKZf8LOhX4G7zarp5v4yUbor3PG1N5QWLPeKM5RCvNQ818vwubTLnc9K
+cVWTGmZfWm5yWr1M6X+2m/lrXaef5WSyX9XibN1LJ4duKJGUSyq77Mp5isWUrceub7f1AEFh0yHn
+MdfrM6SRvgdttgwa4XgTz1G1ayR750m1biw/OIzsDFamXR5Ea+OBaUxaICRP4RIVgX8+kfjRBGgU
+WVbgqlZN1JTfj9TVaDfrMCgd6fMzx2C6KVqpnugVuyVawiq91zf50EaeNCq0GiWNlWzfdIs2xR36
+6whJdzWEDaIXfHaGl4HWKNE5K7Pot3WJiWbCXbdS4/A66rTMQ/4CM14TaEiNQt3Xtvzi50wAdWWQ
+vxjRL5s6AWlTzmeUHPLTGeS0dvIC8aWBBvRIeA+CZZ7k2XVRWpUbmT1RP3X0tTX3veT3lf7do+b8
+q6HFe+r/qXp7+aSP67wKeZbiU9XCgPmjRQ1E4yJN61zOP07Hv85UImAwZVFtFkyjjgvm+12jRern
+T0bb2yH9C2fqezb1B4+acLCHLmtGvg2J+Z/OVK3xdS3WZ203TbClTfXOArhaCOcLPhfCNLa2UL7u
+yJedtb6PdCbaYTsVRIi0Kl/PmnoskvLKkdGVDPIbtSj3gMOild92MQvLZTwVzb2eKPeg919Z6nzt
+Swob7IkA2IiEDNWxgNgYFxkqOBiloWgZPZOT3xM0RTSm4WW2QbbNRyOpj4PUTymsbafBOI/xxG3I
+HjnLuJ0PzmMnII7UpTcqCMa26iqg9O1ZVBuiXV/yUZxYZl3Eobm2ST55gUa+qeqiE1h+DzT9+ZTP
+mCFI/cCAJSxLBC3o73w4FgRdp1OAlXalFgGWUCWkgyU3UehbkEyy97qihJwESkna8Zd5Upj7F3db
+V59aKyLcr67rJDhpdAmQWiCXTlZ+rUvtTs4Jg6lYLzV7sYlQ2zdY8YLplOBN5XcG73XKzzTSR7mZ
+P3RlcM9DeJeoZYMkaK57XT6CuX6aKcDNo8ltZXjVtem+8WNzrTWVua6d+KIHyEqJNaezfVYvZ301
+0bin1/uqjjh20/q6NpjaaPaeOuwOQ0stK0u5ARqsgHIUhuehXfPIM8eZ3QBVdFZzVjTkfM34QSMr
+1OBQrBpxHZJdQmEkiVydRRriraPcE1p+Lf3+0WDtYMpgXVjsFivdpNhDMVnqgaeZbo2cSZvENO0z
++pje6CIOv+YG4n+nOuqGKuj2eRYW56OIbfFQFNVRUUeYbeSpF59RDW6svayqhWjgk6GezrTBPxDf
+u1ebbBuh2s81CpXQH0Juf5ZGnWSH7acfToqdb2OjWfmQ7qrqRs0Wi3+66lJge6rq1km/t5X+ehLj
+GT2zVBfJnr7DPPpc1QOXknFVNjClMi4kvKhuJD5jp9PO6g5bNVcEpQsExRb2l2rq90lZUxapr/jv
+30zmPbHGa6foQd0shUSJq+GuSYhNZ8VlNLwWieEW7aUBwcLoY0+V2sHEQZnnAW3G+XM6VNu42seG
+cWGqL5OoKK8F+szTRY/Mgz1XZ3qjqfiV7X1emfRqP0g8PY2W4MkuP2OJcFMzvahixyNVvyUp/DAP
+FpREidE6hImOfIww3oabyFrUeutcC+LtoKZPdjgsP889XDMqU6iTd8h60rvCwDO4jVNvkGHIWuAO
+L4Z0F4naqyE064NzaFL/wVRKfgTKMUXjJmdmqNVlGYgLG+9mZ5auZg73Y4KXbRqzr5mOUUjzpxMh
+CayvZda7v+8A73eAf42kuYhsr/V/kKC/5dIQ2kj4Ar5iafqWMmbY/7gHOH9oGDo0BilNw6ayRMa+
+3QN0jNgo0yhhRBgclOMPqY17AA85sCzYbnhU/FoAWedp+qMEjcyGOM5Sl1cr2+KflDZDTB0qCm+p
+BNEl3igtKzEva2OqCu2lLzTWcSCoZK7WltVthJ6fZ0K7F4Xt0aGZsOY1z9pQbDCJZAgFUcCOxtjP
+WnDfYRZbaVpdgLyiEJbOFT0M2nVchjc0pr6oXXNVixYLZ8K7DbxAw4g9QlkyAfVWHesuGO1EIzTV
+NURyiDPKbjmHt8K2rnxgIkNTbcYuqt0B06HbTjY7UyBNczRudR18ec037GzOk3ysn9XK2DZdOy6D
+3W0RYCMRY3wWjta+iZPXTMJZnwZxw4XgEEkh3ELBmpEsB1Q6uKNfqW4BdHVDTeCxlcpLrdIzG9dM
+mJ3kkMtnbuhBCtk0S++twb7WU/BW9JAfA1Vetw1AYnUyL8TUfy3T7Fkm/VejkLQh+rqnAvvKLDym
+k6PRg94NF1qob0gXhuhfrYpiIq6dGLuLBsIzjVhHa2ZMik0edK2964P2os2106zTAxTN7YVSMgCE
+iXWa06ijR4FS7oTCOYCMeZd6ShKjumsXRVpp3jzz0xwTbgBd5BAx9NMF22rcdLMGI9OIJxyeS1/F
+RHOFXzh3PU0WI40WCc0WYdV9AoxVc9poLxOh6HkMIfm13GVU0Z+DTvzka9kmahHr0A9nOjT4llcK
+nRoN3Rp4r8ATqsUj9thdrGletdRwUGtx7hCOy0R9gCtGEHooAD1jdyJ4xlXJp86jDIbTaPZP2G1o
+RDLNXavhp+kCdXL7gTaQqLfPdMUZoEyD2uJeFnlFz8UkE/bnYekTaTEUngpT/eQP+bM9ti6/mcVA
+dHBCsHAmpSRk0KknCemapEMWLbFkk0tOGPY7u9NEYbNIteoqUGLxUoG5dptKBR4paQNKqV+F6Vjc
+4ytC+fRxviZ9fpnl4X7W7ZF+PThv5Irv+3x+aBx1Wpll78GqvZjlolWbIQONzKmUqqtJ7ETAkywo
+k9YzNKveyGne+LZ9IFj3eQYCyd9sj4Wv3hqhrQYHOwifOi3QN4luvdpOkx5Tli+eTMCJtr7kGZZq
+sfh9U3k3RS7H5H+Wf06vX5L0NX/u6oC7yU/1PMunfruvcEjDOkEH0t7ROB9nP5k2diW21BbCzZJ1
++3bwm4Rm+Fdo7xUafLWPg9+kQYPsi02r+mIB+oWbiqb+vGAhFUfUDtibKoy33eiP6g8iva2lcazu
+6qq5xaoAYXkJzqdpWXoNe3IqJP1DGRbpyZExpvfBCNWWawIc4r1C+KO/mYvC1Lb9wj9v3lDogLAI
+B+ed7yaWRe3CMHj52AP5agu7JWsqrzHjdWsU4mYtFgp7DNKOjprSvgwNW5lWzZRG0ElNqrQgVttc
+d0wyZ23VHVgCnSexji7E/Ehw5ox/ISVnc0p9rK9W24zMEEBrxKvaCa4Zoe45inxPkAfySiAxKycs
+Wa7Qt2kW0XMoGXaniBo6Z1LkOivGz5bGJWMQVuh2BgO6MH2cCumMg0CZvnDSL3e1AjeI7CzPjkoG
++hBHPDaOre73owvpolgLMW5SwXBZJt11MNAcGrTztHUmaKsB/ifoBsocALedi3U1DcWd1efVcSjo
++8vLYjqmDTpY3w26G9swvZgXcH3jhTc7x3Ep7c53SmYerFIj8hS25gbHqX3obJV6OkHFfKnRea71
+mEMNPJxbp4m+4NmO7m32zsVZlZXZLTbvJLocHB7Pvw+C94MAmtW/HQRPNT/3v58By2d9LFolPgP2
+qbQ8OsafBREf8x86MIquoKFLfeuBYMj7OAbQLCzOBT5sfnzo2zHAmMYa9k8Dwi8OgBrz5w8DoAMm
+lZJFUn9sgumkWAbE74Kt9WymLIEpauCNopiPXBuc8ylLPzNA7WLJzqvqu+fUaEO3xzizUlu1wTnA
+Wq2p/JGEaP3FkXXtznlcbcwZaZDyYq5zDC3ubDbFKn0bSYqaIuYKXp3qs6/NpuRaCPtgGgEefoX5
+KmhVMjL+zdgmWxYX25pOWSVjFdKZCi3J+Se1da70odsgdNM2J0mOOAiklkKZe50FIMCx6e2NBKCw
+ggt61fZ9t/JT7k51psJJYdhBHkky+xhUpO1AiwzrIfE3XVISdMH5SGJjeGoNwxOkFVY9Vid6rg6F
+RR996OtHC9fcyi6FhmOOfEsijfNqKDWua9FaV4zOjRyT6GvVNR54g3A/EuxH67VSLy7bCjqB3ClR
+ROHNUIC2BozlU7C31qbu1gxTwjSlJPwH6D1LSHSkYwuqBDarb3YHI5gvCjP8VDu0mMELYibUAB5X
+HX3zRGS/Sjp1mGjVRa7ZZJV1bQZDsZ5tWGPkVr7Utp27ZYedaQRojwm8WhXtCIgwuCTg95yBKOCE
+SYFNBP25KAuEjqD62tb9Q2fpEqXBwOA25OdOOF2Hs3MjluhL3rReCcAGSzbFRU7EEaTOgUvt8AOi
+/5WqyIOmRRdRN9HrW5nboWofgyp7NuyBtSYXW9tAw2nbZl+SDt7g66b5K9WAXs+J4kq47BTYFWuQ
+Xe0uGKPYa5v0RhPjg8lIgycN79U8Yxbtx8EDuEJmpLitKiBwgVmAyecZVtjlozrZoM80Wg3hTgBz
+Ccx01fuDwPhVXRohypTKL31V95D9RdxYXhSN+V6Fd/TaGGZx2ZQSaGpqWuU+KOuXRunZDoKppTG8
+WzUD9r/DkCnrIskNZupEbMaAlu+xWwj2Q9V7GVbFlenX9lfcFPNyETE6Hp72oSyNaoPzZxcEGm3b
+cXJqs+aSoATIMYWtq6k12rYNQ6qHRsvfa9wiVKvfd+oEMS13PDXWbtSgtcEPKYpXzdWF73QqW0/V
+WBnmrE90RLWp2A5RZvw+6N+16YXH8p8nPu+pfv3bMf/GcPk45lnccUtfwpYs2e03afjjmOcs1y2C
+Lm9zloGv7PtjXjc44b8vKf52zGvo0rhTkQ5odvy1dd9i5/nplEdcZZFM0JOLvpA/nfKsaeZqhEK1
+TWKf2qu2Li6Yrmq5tnXBDUpp7em8UnLtIrAX/JcDZtiAUb/KqbVPNRGvzL59EtBWjkPbU5hhKdXk
+hWNgmBvdz6ELFnqN/Cfo1UV2bc3pZspiZzP41GV57VzEtGqJkZxebfg4xIdC1y56E9ZfwDvFnQJu
+sp4RgJRe6Xqa2FdOb4/DJX5u9INJUFEKxKwtNqQn+FgDzAYCyDzvq0io1ASU2cau/PrSqNoepssy
+PUVkCvWaXLY1ONlBU2LTo2YgeuVaj9xJcSDjY1e5EliBR4ttPzzwQ4GyHKrdVebozcnPw+GsrNQJ
+UHOOvhhDd7otCDOlq5kkt7rytXnZbHX9QmHVI/VLqDbm2dC3eHZyPEJe40/iiVtYdjGR9Umb9NIg
++1PxG1pzaXzOSQWNQdXQwaErWM7n6KAv4aFhAlX2lieiWG2JFo2WwrzaqtmLnbJRXKthUK/fXs3/
+58v438Frcfm+o2jebgxfCriuURC2P/3xf2+LjP/9z/I5f/2dHz/jf7evxflT9tr8/Jd++By+7p/f
+14P68cMf1m93pavutZ6uXxu4jx93mOVv/v9+8M8b1+1Uvv7f/3p6ySJEjKatoy8to83Pt7EF6PSf
+39aXTw3PyfYpT/75Mz/e3LyDF4HuI2KxvIO/vbkFH8FBik8Nv9b3Vzn5B3Rm/l+T/YPOFRBR8OPN
+zRfkE1hkseU33gCDHz+JH35X335331fco9P97d2NUw/AlQSLwEb4TeT7boZTOughnR+muzw3GlAe
+VGuvLTvqbqYEqrxCtvaYAN7YxjJ88kNUmqJxkqs6sfVdIjJENYCcbl0jE0GYT3fjEKeLrcReq9Eg
+N50Vfx3b6LKR82e7W0S2EYxUBHrOnYMl7JnEzIV+/AA5NFmrMNM2MEGfJiqSoa8H4doOnZMWGtdB
+mutelwfXmZZeJCrzQ5KQbCpiUKrTvJajuaXuEEpruSDr0m1nmAwC6FjEARoRXqDB7LlS0ixCsGsa
+SEfTO+iDmc86gs4yPbDfwF/vrNjruspAjBnWai7mPRiki2XoUmm6ALZyGWjZVqb9mrnkrlLEpS2n
+XWTQsdE1Z1zX5GowJqbX+axPWUao0aEehh5nVIRdfSm40c5EGO8DutEnyWY5w4peE2lrDFju43wr
+BrmgS1eZEp6KnAExjI6mykqAfU7gCmIv8ZDvpqw48538a9cpntaYFzVMPjua91bWcFPUvSzRPSlx
+Adv2RvHbddbFnHesWKTqFTPDZjRflNG05lJ9yktKCHT9S5cFHmE8ul1N/8ZohWfJg2G1O6ygG2zu
+q4Iyj1pB0uKI7NLRjSBnl8/tLtqP8pND+eFWx2A2KaEXKcD3SpLMeeUfVPxuStxtw7FdO7OBFkcv
+ZD2oS8nMZllSmAlNt+Bv8C8oI5pri43fPMTMgI18pTPanfyU0t3hnO5pIBLAIXPlfLKCYwu7dex7
+LywrQIj1Niyh/cYq2oDYNRjeeIEsmze38nfxqO19PI1jTqhEkYC9Rlc4+noq4psaQRHWNFBCnUxd
+yO5pdG3zEgMIZgi5iURM19O0rub8taMISxBbyhCsC4wddgVOau7F3gk0b0SHLFJ909vRLq/5ecPz
+kPG5pV9G0t6rvM5D68mZ5UWESIGxZl3pDd63aZd3Of+pFiICDXBrUTfNAzg6PNxxaYtPiS7uq7BU
+rXWbp/PJNLXhzsn03NmyrrmK4nQt1G5TYCoJ6Rwt0/bQ6NXZRDrDNspTqPRUZoo1FZ40xpP2Wbyw
+1Fx4HVhjW1EoBItddVZPdZUjNbS0vfgQhBuKr4ZW2yhxv8OMvTNAls0shSJTd6OICvC4+0w/HpGr
+hBxlt+nL5izBUqHX3YORfQpiBzAYqHXNePIzY0MDEn0umG7qwLPNyOU+uepH0pdwiDT/fujyjZ3W
+63K6nBq5kX231UJ5ZsrkRA4fEy6Ur6XlqZQ3Ql1Ue2eXK19NvTnaGtIPLX0wBfJ4vCiI8GsCxnNc
+kbYFkUJdsS6zrRrVtzOO0BEwl2JHE8/fidXZfOzxpOij3CQ9JGh7JOUfjZ/MQn5tCGpVBC/cIBD3
+Bt4m+tS7o0IQEkYLzBi+6rWepa+Q6zJW5w2U48Ha4WEBoopfLtKdrTTby6CtXhUiQF2q78oFvuBH
+ifV7h/Y+Vjv/iiVaLB8v/wQxAbb1l4KCtQORUmekZpGG6iV5zP/59OVD7HskBgRtGWvBF30/Wqs6
+/BJy5IuSYi82ko+n71LMyVfE9Y4Iymf/WkfCmxn9J9eHKXVhCmOBO0I8+klBsVReEch6OwcT7kkt
+1dpeiw7XAW3BOD7ZBWfPeWRVrVsN5mhf9LGvBktvh9xFNbE6ch5Jcu00jNl7X+/6ea3YJdzRIuRw
+qxzIdgW2h7zXo62VD5z1rKn/H3vnsRw30i7RJ8IEUPDbRqN9Nz0pcoOgJBIeBe+e/h5IIzPuj1Dc
+rTYzMRqSEkWg6jOZJ+ekeyDty7xkvQV4tmrfB4PVXM97XolhWsmR9MpAU6DAlhxIc13w5mjY6wo1
+AZlqKYkv9Om9RrMR9KCCBgOaRt2FxW0+Ra8SBUjd2wJjXgzf1gDyFxluiRVtCPc5khLLTI9FmFSr
+RkGNCj/o2KeS7lpSzOdWmB1Iz/2UZ6DQW1zOk+B7Hxedi1VmwXkEYsGGaW69cFgO4bFDXjdzTMs+
+GD1IU2STuqr4yDVkrvsaKXzShh8ZZQOgsFW50ZWKgPHUutdG1SCZs7sJlOqY2EqzE7UaQtIMUb73
+tUZs3tz7LD9Vr21JsGvtXNmk2lD6UzZxzmqNeqioSWI8gLW6GTW2MKmdZTd5LeAlKy3fkRPqx6bI
+nyo4wd6i2/PMVh/Rv3EpzfkUrPsGRiwo2Y+/K/IvW3WX1/e/K/J1V2b/MlHlHv9+HgDuxiio6svg
+8utK/ft5sLha8DxbhBt8X7h8m6ji3CIfF/ksAKMvHfqP88D4w8bOwjz1T6v0L5m6CCv4RzUOg5bl
+Du27RmuwtCA/T1QDfDLSydVi5yoGPGVmwEfFbdMN+DKi3LSJ/LzemBkrJu62T5MJgGn9jALsvisc
+UJdJvUl1dZ80iPzN9tYu2nvLKdYBiUT9VD/GDbr0HrXJYkOxy/SsFbOftyTb2qYfG+FDquG+hp6/
+MmJ+e5B9p2EubytbAQ1hHoey9AnzJvuIIM26+FhYxq0Mm6PVFN6AlctjAPBiT0yumiyHTxQ2X2oz
+RxFnGzQyhJzDaOYXIxyIvubVtd+CwoF4FA8k6VpF5KdieJnq1v5goowMtgaZMbtGGDCa6KrhuuIN
+eYCMwUq16bvq1jJgKWW59KKR5KEST3FutCnuiXj4mEZgRamiB4gSboOEi7qgAEERW3Kt6/kHdr/P
+qZJE5xy5IJaN2d7Gs8q2OlBXsid/0oQ07Q+tlW5R/ar8dSKmJdWJuRo+Tq+fy8BLFPNz1ZOuGbMZ
+Gp1AXdsdqGlV6a9cPZ9K9LuIxbZTWdSPZZmYO7yy5i0xUuEBBq52VlMmnT7AC8fdwooabLiNFUWs
+3jNs9+xhLK9+HwxfDwZ2lP/rYKj/FWC4cAK/tenOH3jWWIaDbV5u/KUa+Nam42lj+WJo+p9JvX9Z
+tSzUUY1W/KsIh5PmR6GAJ9O1l1PD5ZYgue4X2vTlyPrLDM5hF4yfFJY0bDWOhWUn+1OXLupJtoMV
+DViZKaN7YJxsLeJ4D2MJSfeoYVYfKhmxHVXgOqxSLbtMMRpkN55fahB6Thtj+3FB1qtjdS7NrgGF
+0DKhrscd/i35Ia6T8GBk2K7m0jVuyzl9j3NiVetq8FpXzOvKCUDLpMegL/dRbNaL8HDYhKa76kNH
+ZeNJ8kfRmh/7aIZzikrQrH07fmJd/XnGMIoJ/BJPFAzTa9JoO40MIScTB9HMHml5m65LN8rYr83Q
+QR2Ci6cfK/YUJtYf5oOJtccWv56HYzCK6Sbp0vkgMDWRDikz3SerRT8n6RC8LIJE01dbUZ5rJeqQ
+HmKVc0ZHPyq1dpPFqee0sNWjqcGBl3weK4PtgdUqSQ0Ocsje7bavvLYzQ38YgC904qO0iKF1tJeu
+L5plUPkp6QVsiUnjP/VXsn0dhnop39b696v69VVFsPDfr+pG1s3URv8YqTGZ+v6uLkU9FBHNtP6t
+qDd5Vxc21D8naozSgEMBJnS4sn9WxZl/uOyjCGL907n6S7AT7Kp/e1WpEJh8s7nlSsHLRTfy86sq
++94Kq7gSuzwecQOaSmyRSGr0KaFmXyr2pXjvvtTxSqgW4xOJCIo3IBxF3Zumpr3X8j7LmG3gs9jn
+vSgvVCfzRhT2xhoyCuEpfqJcueLrn3nysp3ScX9ohAnCJWFhF9bw7/LM9GqBIFU2ZX+Y4tlch105
+bFKmJIjbwmRdWGTK9kOdXrXETCME0mCsLSOVgAjLLzENInapeZPgrp3b5FiqyU2Hfok7PX7KXCWm
+SSH4G43olWkM7ooPJAtWzyRldbq8K638bDkMn3Cqk9rq6OtRm24xVaYo5wjV/P2+fH1fuIn+x/tS
+M4D+96qXz/txueGstngcuUaQaS7P/rfLzfkDfoGpalA0rcXMzdP8req1/kBHyq8zh0YDg3vsL5cb
+y3I0pHwGrDX7l94YErr+9sqww8T84ED75QXlEl5uv59uNyUWZt2Xotk5IKwgxRYKWOfKJj+QNM9R
+olAXbgWsQ1ZEX+Je3fZu68Gi9LPFdAndapnituvlA9HgnFPsZLoefHCjFpqNyzOn+KYRI6LWHxWY
+aFVt+1Gtbwx2uH7Cnqfs1M+jLUDzjFdWr8J8sa6rybw3wvjNccqto/NaSd7PnrGQEU6XMrGOPN9X
+EdatlQ4ev6n0TxOIL4aqk2eEXbUq1flhLpU7gvzIHU1DuDkTYVccDcN+xlN/Jlk6uI4AQxETFekb
+i5zrtdn3Hygvo1WiyYchRJ+0hneDzjzuqofQxjk0y65/T1tuJNS1aHiCUSLZs25GY9ooSnDquvZY
+qMyOyeRbSaXxSyJJd7Ol3BsgIQAOJeQEGIyCsxiITqWjaMTavI7H9j0U7TlSS6M+93YfEkgNdBt1
+RVlyCqgkwOceHjAV5ZIeUiWM4XSqgizdNrkBA6ixaD1Kdt4iLZ8Fo2K1Vz+qo7k2u/itD/Qb3H5v
+YexcUk3eCR1gA64941QOhHRrbvJaKFb/YGC8S/VmI4tmM7udr/Tt7wr4z2HZ/xScb1+BTf9TbMRW
+6vshwa3qom52l5xA/vnlgvw2KtNYUMMO+BqA8vOaarGcuqjAHNTk2FLFX46IpX/lgEB0+MtrKkZ1
+fzsiEB3CdaADR220dOiUAz8fEWnSxIUlem3nluC9KqYtUd29B/O0sXlB6ynFmOS8KGlEsLmB7iZk
+vNwYZBaFwZ3W9Yy1mX1BINT8otNVsCdMi0lY9+chQCCtlNtIAVeIO5thj2/2BWkYvMQywDc4VeXF
+UsHca5F9TNXijsisR7ZmT63VJf6U4pocgjnxjBGE7dipj+AMLtBqb2dn2Am1PkvRb8pC46OmTZCo
+J/SNcFNHIjr1dh9N9WlADGguqsBIWCuFgVyQ2Y9I8S6zUvqdBNvVumuGlc8F2VAU6ONWm4ozQSA3
+QRoRpaKf6yS+7h1918QcddZzvygR+8a5n4b6Au78QUuCp0hBGaIMl2rUUQ7bV/WUnSdSVK3AZKDF
+aC/J5se5kncsUB5m4R7DXjn2WX+taHEMT8vFSh+9GE3woemd2Utj5aK6A8HY8ix6A6R5ueicKnVk
+gke6QR3XkIh1OzU9CebT9RNn1k+5nmV3NS7Z55Ldv+LPZTIk62bUh9vSbrU9KT345021QIbfufom
+DOg9bFICGC5OexWIHMdFwI+zrJHWWN1jU6V7w84Nsq9ltILs9QrsYHqbJzKRC+VUinTYlqwUKLms
+4nkmT+rWSfv6dpJlGm7awnRjrwsb/aEUWpBu5DBDj90UAsPS7wplqVDQHP+vCuX0Vsi4/kdB/+Wz
+vtUn9h/M3zlzLFcH/8Kw6Ud9Yi+OFdbTLkEAdOV/O3yY0mOYdBnxfaXN/Gi+Ce9YShrYSBwcv1if
+iL+X9BhpdMzP0J6WyHlDUFr9fPh0aHGJnM2ZyrnZzLmS1qN2KnBOVEQEo471RtWCVzi3BzTC7jqX
+mFvG8aWQSLqyrtrkOX4W10kVoHktBH8vF1z4djUiBoxuFQLt4HHoNXP7DJdGazjlKVnMzg6T+mSx
+P0+LEXoY58bTluCQAGAyH+umG90MUQBC0hsWM7XelKQma4/tYrNGAFPtwoZBtDX0L3Yrd70zjIgw
+EyBjKqb8lOVeUChPbhzhyVsS+nhlvbSZzgLDiOLkJckCokYUMwfYR81z2GtEVbr5ttQtX63UQ1yV
++Nqt60aL93MbbAd+O2B7KE5MlomK8mxAXs4GOZGGxhfSYUgtmU/OKqwFireYFWfaXenk15N50l0X
+A8Fqat16jRUeSqU+N0mc+Jo2+KkOLzocxHVYJWLVKtEtcNqtUwT9p1YVx4kBhmh12zfrfK9nxklk
+ubIS5oI00aePdV0Xq1xLl2j1ybO7Ym1G3X2pExafpXq5NwqwLj1/SyQv2UdbDUlAWYgpAf0ZPrq6
+OyVNdFRFSMrD/Gyz0Vx1FcYtv7BC5SasEIJL6u9LUmjSvthlDncSflLvZcv4MfkyiTQaDRSIjRsX
+8i/DykB65jK+LIRV3vw+aL62QpQX/90KbV/bt+Yf54zh8knfzhmLOka3bOOrmHo5S761QRYJxd9F
+dsv586MJQkRNCQOfGugVfcqPJoj+iFNpyVCHqUt98ksTPhzCf6tw+A3gElJH0XUJvt7fDhk7SMni
+nAq5M8dWQVWgPieW4vVdD5ghWffDXU813tMkdI30BGM5TevXMp3XBnFcZNv6QeWspllfWfIyzZov
+sqeaEO96QJV7Ksp+g10WLcW0COt2gW0h07hZTGtVcyzlrZ6PrBbgsE43XfJUq+JS5ApmgY1twn+e
+a+JtYSc2zkZtXkuFPAJM3q0hsJAPL0pZP4DZ3Ey99KOo2bqj4av1fAhTJBQGK8Nxeo+79Jk3Y5PI
+YOvWIwLALL235vaWVOHrqnP3wEE2GlBHU0SbiDdQFO3agB2B1/lFHzoy1LN4h+/kHRt88kGvRhg4
+FalmyGzijV302trNBriVrcQAC7Ee6PIimiBH8xGbiPHsNGkToOQwUJ8rWuHJBpGsX1GkqL7jltlV
+HFdB4alZ9KnHBNcjqiO8TU1rr7NiBLLWvM4Mnbc5QJw7IkW6z5LqNKIx7PTpRi2j90rF1K0jN8pL
+T1ce+6jeDAJ5s0yuaaM9VPnH1B6vRUcmc9RZOx2sZuveaW62dtLA4zG8Q+tNUN6kH0PE6K4xXUWm
+CXUoBc6RCtzSTrNpA3kTS5N9LUtJRb+McwukpL3FDboSvfBDY2aqowK+4Pe2jcYf0WhCZ7kf8ZSp
+TZ17Xd+d2rD9CEsIJaKCoxvryTsA3MbrNOPZcN0nRYOnq7URwiVMdE+pZSNp0pmeEmSaBmq6GoV4
+mp2RtbVB+hm5cHUr0kMdqMeyD+4zeK+5Hj46MPfD1GjXVm+ThhxLsXIHZfJjdbg20+ICXv0qyZpT
+5ZgHtY0OkaIoKzuAZIQtfGrss1LYrheVBroXchNAeBFUQdm6V6sY4sdiGTVHkjbG2CBIID//Pke/
+FmzMV/77HD3ICA3+v3SL5uL/+HaUOoAxUC07LCNQBv/cLbJIBemvCexmxhfSH5/17TQ1/+B8+8vc
+6Kd9Cffxl2HSl1LuF5Yl2pct6c+qCo5S/kR0nrpJyQjb+q/1mtplE8TiEGOy3jrbspf6vC7IhgFZ
+Zjpjxikp5zVT1nEdqILUE1lH6yjSP0+O7N/ryMIfOs8InliU6vE6W+yoTSkJY2mOgN/O6lCy8Byy
+i6jEC22DsooDnLLBfIm1/Nh1VElaDHV21I95nV0C4Z47K9pZU3AHl/9+NqclGIOEWoV6Y+OK8RV4
+WsJzjiCpxcKsh5mztcM6605WwO5y32WIneALJ50/9bqFtMvutC08ACCC3Xgqu25VzuVlNMRL7Q4X
+QsgfacyvEImdylHe4cUmpDKbbhFQE3feuR+qMthWEyQJZdClp4z2DpSZ45XMyFl66J7IqcisTEe3
+qNF9lupTGtZ37Zh+rBE+cXR/Eop2rJT0kQzR1zFvNuCZ8UqQsQUWNwR4MGEDTIaI1lp9FlYzg4xT
+NdhCRuN8jNv8MdAG9kXhaGXvvdKN7aNBws2RrT0UuYJhGdMG4p9SpGtqoGJ0aAsc2KV7VA0GbOBB
+or0Fc8PP9MHdOUZXns0GvradlxrqvFL4OqYavCbTQW/5cdaZbfuJGEnGdEe54jQ61nb31LTjxZb2
+U2u7JwsSRrsKbC7XIebJyMviUYksJCvlnbDQrST9hC+jlVjGrQnNrv/7tPly2iyr1P8+bXZvxee3
++t90XLy6348bRzCLXsxmKtMmY4mY+1668b/o8QQTbBg9iDSMn9azi1hLNegEqamWOo1z4EeHyNcB
+hYD068/J1S+cOMaXJJCfTxyH2brLhH1hj6LMRhb2lw4xtEe6Ccabu6gc7rMWppnxrk0LCzplfThv
+TJg6os75b/cYh+GDSoOWJfq6q9V1KIVXwpKZjOQQZcVxqNG8Ws+2jfYKKHzhdAfiYu8zERLCZhKt
+G3vTxCS5calZMG8CRUOcyM4HNZcVuHuD9IlZ1H4PAJL2BnOoetS6eGvZdxUG+FXQdBtyqwiLd2AP
+2gAe9Xm3mOZgH/jq7G7JdVpJN/4UZSFJeNIflehhnJJ1Ng4IshjKcELuSid5r0wgXdI29rPe33Yp
+gmgmzzoQYQ7oVWjpe70YDxoplH3reMDbzmOc7zo4ZDZBe26Rrcd68po4v6vYQAXJTAGBvHNkTB0Z
+XtoxUbfWIHOmycCqJfye6JOpcDa58hTY95oWerm8VHZ5EMHgR2Qodb22YYh5nAzt6PSxn6RIUbAh
+ajUz5Sx/EbRfeRtdR1Xmi9Y9VlTQfZ2BdqnXbO22CZ+jSXkcHZRiUefR3hGwnK/sZDoG87iOg/lW
+KeEuiU+NtDyjdy5z6n5Qh/m5zaeNOj+bU+XRsW8x23lRDz+GphRNB4TQpzBV1xENpVG0O6OyPYyd
+Pq2+p9jWplF03yY/GHEP6IGyEHdOPfld+EWnZvnM1B4KuEvca3T5bq5uuZp3LUrkEdiZomefpgYe
+RJVRDg2fzMm5lbm2n03NE2FwbrP+MszGztQv0USL0CKYMZRFyEw/6uxG67VSwm2m4mhJ95FqA+xc
++OpIaauJ5GES0JrqYqbTGtnBARgf1wR9QuZ6wCmxKFYQ7EkUG5tVizHSCPXzPNcHNJRrpnb6Kol7
+5NSd7/bzvodpP9nKg9VFL1NW+S3pI3M61SgLC69OPgbi3tLQMOLK2Yo+OClzsYWYfuht86NVGh/y
+4Vkx+nDVzOJkVt12zuHm44cbBotJhrubxwDvo3KVFuolCDjtY2Xep03/4kjzGsLKxZmM/qaRthls
+kjk6C1PxEKtfOXXFhXxPgIEP+dWjiVrPSrKduxit0LaziIaMNKA7rEidQm6qSO4l6IlGS9amrX8q
+WIBE9pM6AzbkZ6MF/anQhnWuW7RIhKZZ9imvonXW38hIXadLHN1Y5mi+EWXGAfSlFMGVpuwnN/H1
+bt40swGbfwmjKZlJRLnlK8pJN54zBgdd3FwHU7Yuu3cVHUJvpBsaWJ7U8hQbBGo0GFjjBFKTyU+T
+6GZXXRUZvGHH2kdoxthBHbMs2U9ZcDT1+cTztJcCqdJcIctOuxzIFv7YDLNh/pnwmIPZoIrvkVo2
+WMASD5/vQxFrEKjuSC/buUPoCxKcOX0q62OY3AXlXg2mZ+EWh6gILOLbAPvzkhfS3eW2cZGGL7CP
+1ra9s5x5m7piY4fxddK4x9EcngwsIVOuXISi1usYOYsb18eJuobv+yXDOGU0zw4PkrCoWiLNWyLC
+CV86RjrgmSmGxKE/to7oCDugSSlkcKOl3fXUFcdymAjMRj5X6ru+njeZXd4oQfcpJBkhdd3Higi3
+xekwmMnKifPnDPoz9pszVpXTWNZs+uzMx725saRNzl+6TUOYZ5NaXqUz7s0hXCcDyTqUcV1ElJqu
+vLZQhlcp73Mj4qd0lB+mwd7EZn4j5IsulAsRfJR79n2nKz7wt5vCKrpVVTUYwOSWCUFFy9W9Wom6
+TaTyZvXmapTtStahZ+q44IzuekjNUxmkr26X3SLV/aCXok7XtWtihonoaVvqHiC/2uTuNUd5I67t
+sS2Nm7au/CKEUBIckzBbx0526Rpbe5SBBQb3YZ70wxzRbYWh0/hdFzAj0KzioioiLonE6I6Vi+4Y
+/snsnIhN20YTYuTUXsuQWaM6Dzu3gTJbyn1ft5vfRdLXIul/at23bPn7OMve/jHeor75XiQtuCh+
+9FChvsR1/jzecuC/oi5Hv0qS2dIb/WjJcJox0F5spIv5axG0f6+RcJoxV4c0SsDjkt37SyG8i5Lg
+LxI2lvxL/cbvjo6N3Le/6WIm0eiZLY1uZw8F+Ss6cD38HYtNmyT4cTPY9uz1eQAswMncVt0XhOga
+XlFY/TNqV1BoSrFPRoRdjXa27IiTdzxU8fSQOAQYxAO5iA07ONMJVw4GICPKj05Tv/N+e3Vnv5oi
+78F46nAJ0v0wGjt7cnl6HfJ77LWhqlfmhJBL5M25WE4+lXiPBDqaPt8yuznmobw2S7QHI55+dyoF
+JxFPOOEvwu6wTGXzkrFp04xiKsuVHgxINX4koiYYd5PVPYOYfLEXWRtMvGeOEgk1r3hyVHl2F0Fc
+m8crbAqfI9W6U7XUvetiYXxwyzz08Q1mpxnjyrAzOlsZ179fqK8vFB3Cf3cd2/rtrfi3t4nP+jbh
+WEjLtAga+ogvaR00D9+mxSylWDux8yYWUF2EZj9eJxOBuRDLA/6tr/j+Opl/sERi0UmPAKd5UeH8
+QssBbPsf75Nm2ILOZ1GGujiu/9pyJGbVxhgy5K6bU1QZpfvgihoXVrvVhxsQupsKj4XOOd5oDxOY
+91aFVhW8kvPmker5MI/qbh4i2pBSbgLkoYQKfhgn+6qbousWer9WBsfUHfyZF6SVw73D3gRawQm/
+N0xGZV+a7+jLTq5S+M2g3yJm9gZHXmcgLlSWTTpRsb2IPGFgtQuMzzzsVLYUzdVHotoB8mY7I2uf
+XWF/WIifUep4yeSuk8jaDeUOOv1LjoD17LjTxyYrNplUfRNgJHsi9lmdn5bTqp+xkjbzuXCQszBh
+jXt9RV4jlvCr1IYANxLcVwhuRPFYh2/EkLCCRlueaOfMjPbS7laqkzJG2ZjOIwXSJg4L3wwsD8ok
+bCCw83nHiSSPdZVv8rR7QhR7iqVz0MqrzAxuyn7eIJ7ZDCQ0aalznhTnU9IqvjCUlwxma9NXONPM
+HTsr2pDoLpwZ9rSfXQ2zKO1XMpIijK8z45uZ2T9VNzUBAYZe7QZ85WSf9fwBTan7I2Jwh5XA2ESe
+W5yF0xwGYW6LmagIoqYERjvH/azrmMudT6ka7tvMPrj1vAvhQSwQVdzoq4hCquzkLozGvduWpASQ
+PvmSSb5/POWkHq8zeS7xvpYq+NAI2BnUD6KhzJp/T4yeIY20BcRv7LsOdIlGvMT6J2bont1XVP0S
+ArizlqbxubX14+IbzRgvVTAmmvhcTmwpavsSQ+rLx9xvI3tpd04gASRofxrgzfKXkzbsCthBIPFY
+98RoZmW8aftrVFtt4a5yZ1d3j0yTeWKPMdpfDU4GYg9chI+TYq8DvPpsXREP8RGKoPSe8GQmZGm+
+DOFbQSJlRkJmQZQm4seSHjnSgGurcp03xRpWBjOmdyJx1kGJm6/o/czOoQmK9CQtSCqG/hBU2jE3
+5EaY0U7Y8tZC2jGxyVAtyC6de1Km+RA55cVJw7WYUgs5dLADdn0YtO6oD1HMvAsslDStjYaB2DCv
+zabIVkau740BsYkmu+varaBN5/mTGde4LqGdhkPKj6DUyepsovmubuJ7aYZexv9fLKix8yQL8U6S
+1iGaw+OY8v1Il6tuAibbvkamsYM7sTECYjecOv3sBL0CTrZUXH01uOJaG5rhPnadHUTGU1XGbwTE
++Go5vhrkEQYmIwx2z/D00ObQbc83BdjdlV4YEEQwam+GsXnpDareeApPjUogthrtcFvdB3Z8MYR6
+DtXumvbqc1haftcq5yKs19lkwmHMwd9Fd6IoF21JFBxrgFO5Glq2PzTITkVBgFq8KfPKn9i6EmB8
+4VRaZWG/6LdvkMkLP4tAj7u3v6/Er1ciN8h/X4m71yx+fx3/pcLk037ciYtEDAaIu4CfoM/9uBNZ
+CKgWSlHQ1Qt09K+kElYHCE8XkDY6MoPr8tsYjhKTBAFGdOZX7cf/+05UHYpZc5nAqcIw2P3+LNSQ
+baGE7RBW5LzAAij0/IF3j1FZEUXmTs4M5i0gPI412ytDaT/PhstgQyMoMB7dBbhLyqE9Zf6Us/Ds
+y57lPcCQnYPOIx6MN620a7yITezVLn7etM3XGbzmMY4zQuepJfu22cRO3WxbN6/WKegAr+jYNMy2
+s2bWoHq8giE8NoI8aPBovRreVDRmFUM0YMyirOf9gE7WL8OpXulI5dddPGBAqFP3nhjbPTrSlJVm
+E+6zDkVEroK+i+3Aepe5lD4YLdDJ1RitEXJ0nun07X3S2ekKLdt70nfdSVZ2vhmFAumqH4etUhrR
+bSe68jgy1+G9lMnFieJyZ9qtgh9DjFsZkJ8+qMHoJzkacqM3jFUQF+alMBBVpG3U+mTrDig+mLuU
+Mv6QCSKSWdRdm3anQlEYSEJIcVG6BkASpVQJ6OtSr+aIAweePOB+AhjQEoXjdkW2d52hI0E2Vfx8
+WEaERb0v2e+s7AYmVjskb7FgBRhZ1CX8tMRqGBRnV2kOK8bK7Q7W2Gj7ZiDFOKiSp97FET8kc7cq
+0ODaKYqa1HLQ2juZcYjnSNlquT4+aX1GooPRfmgV2OKtVCZPabqEQdscJPpOdarC4tbt1fXQFh+I
+REdUL6vn0hnZ9TDHrW2XWFDLeY9087UcxVM1yTuUTFeDVpJdD7ImaBQJeiX4MA/WeDtpRDtk9XBb
+4woP2/IyG/F2SpYo4Sp/rBxGxvm8MJ/l2Oxkx9I0EABeq4WHa8vstUwd5kQLyapIOTzHbDnuMe5b
+qfMUGBkU9Yi/ebOKTnVufKiyyETQG+dM2oi00aPoOZ7km4xteiSFmB4rITRJhhWW3+QtrXr++OFT
+gCxGt13GpDYAQ47lh4HsTDMBzxZxOQTcyRKio9dG0yUOXNVTG+0NDi6ZpDr6nxQzodfY0BPrLLwu
+pHjlGXkkwn1j1upDPXd3dppe+sl+tXL9ljUi/qD8Tob1UY9DDfSphcexCh4yNV5Hsbx2BHlwRNQb
+ObFadn5IcvVmYl7cVjXOoPoxtyoMwYzPnXhfU4KxFXhNLPx0+gxcHjoODuNNMZF6rOdb161YD4n1
+OMDssYN1lrrXYsgPWZ49xWWwk3xcYIWnDKi+OrBxN8xtHrs8LCDZOf3Oek5m0DD5zjidcjd9V6do
+7yTBDYnHfuoaT1PveHEd+51pbZmFHuF5oHvs9xgXGWhxn6ntnh7xlLglz66+h7C9cdKMcLH21GNu
+LHL5JMzRmxxG4X3S3JAuechoj7VCXo1a5FtBFW8iiMetXl94+LdIendprxEJpfIVqIcydcdp4OFD
+oXYnxCIHDKu7txFiSi1p9m3jkkbRf9Ii50DwGfsHORxzLX4IGYd6bVYfqFB3A9ksSRweOoSSjWXs
+e6b5iFBuWIO8tBqFDgQzHtnNqICI1bDgzc49cnU2hrJCuqKFPQG+oBWOMrcO3YR0tR3Rt6UGwBZp
+uuXq98X99eJGj/S/Lm6An/Lzv1zcfNqfF/fXJRlzn3+SJB39jyVwAgSB/S8k8UW+bTsCAOFCjuU6
+/XZxm4ifiLNkqcatz5f9pdmQWDgMfxkOsbZjHEqWguHQUX9BIf18cQObk8FMVBvhYLPiRW59NY+T
+5uNnOnMLnacK6aPbJQbIlfkYOs71jIN6pXCYiD65UhtupdbA4jEF7MKnqD3Juh0AKrPJsqqpgT5Q
+PHcJXU68QI5o7T0nFExhnOQ5Is2LF4lw3iKZPgitOXd5+ggMgN0EUYLrUM3uXZt+uu/zB8sF1V+5
+HwyrDf15no+lAm3abRQbfqK77oZZBTajvzMTVdbQMRv2UcExLys4AQ3Bgo2ZbhMjoWOz7UM7dBHk
+PfuOxJ9wF032m9WaZF52KoDWEd1X7gZbzMFyZff9vFb5BxbvpFvTIEZeo4nboomvZ6O+wk/BySv1
+wZdxjturrzfSaXJPDU280+383LSTSei1+uhGyZ0yGjXYnS5Z6yV9WmxUKIdm6eVBlRJC764jFZB7
+bU8DXOp2b5HM4ekj6qZp7DtvsJtLHkl9O1v0gaZLiq0aiLPQm3M7958rYlORR8YQJo3B9MOR6ywu
+p48D0Sa2phDKUQMuhI2AossW/OlRrRU2pM4444BI5nybmrhM0FtdN0F5a7Vqt5LY1Jup2de2sU1U
+iHKgnt7wK1wNefyJx2pCrxlsXLU8p4jRp5QRvVaXQIBHW93yy9BFi/RZZy20gqP94DYkK+Rm/USQ
+z7ObBBlhw8GSI8L9GFRdsB57l1BkZSQ3e7wqQLptbSdjMZfHj/VkVhfVaV9swolWXcF0Y8BYc0Q5
+lXpFVN8ZMTvbvq+h02sEQbKI6Dd6E75qOlSkQgj0vZos94Ns3owBl5/JlUuEdDqikVWgYjlOtnZD
+Wl8WhYO7XUI1Ane+s7KWN0DIJ1ZCoSfRpRw7QBn/x96ZLMeNJF33Vf4XQBmGwLTNRM7JmSIpbmCc
+hCEwz8DTfyek1i+purrMtNemrVoSxRQz4eHhfu+5K2Oq+2CJsOFa45ICNdVedV0SpWWI+2WBMpqP
+y41rlwaaY3AbZQaHqzIu2mK5TbL+uXT1t4xWK8DQx3EyteOmd8qrxnAZRBZVMBDcxy9XoMOnAWEE
+iyBEXkQ85sWdxxvF0LUTfHSNo9OM5xLXA64LSEJZqB10QynOuvAhErmzG3IGQwloU67gLfME5NDb
+ZJCv1RATcRdC8PEkZ2AtbcDtHl6IRAzkJrfkv1ZFXK041sdVFPp3pV0hsR7lrmJPHbB3j7b9Er/a
+zJukkWQ7D/YiDV/xyffmG6OaYYH2SMfSjjaoMEhK9FUHCXlzFXf+/cgaZtXavUt4IhtkuLGo5aJw
+lzSSfE2mutKGLjs30arsrWFrNMUpEeOxJt+zGUIZhAUilz/n2Ldz7F89SvuPhgFL808H2Q+Xkuv8
+hdBCoOZQyJxfhCCwPRDqYlPFysvw9WengNpxAJtFEsZRhiYNYcn3c8z5S91kLZ8kJ8vScTT+zlAW
+S8LfzjGEDSiFXQurMVAA/6uN6ScnI5BgvZBScoNamInWcTFvGZ9Ml844WzdFKLV4jSbNZZbJXET3
+o3HbjCDNWCaSHV5mLs9LY0KlNHczzwyr8UNHWDlhRNbzGEKgwK97NaN2dJTs8WtmhqGkkODP4Zvx
+uXaUTDJRgsmoRDq5oKG00VJ6aCoTJa5E03lsUFtKVJeunlwZdYZorb8OlSwTSyA3LSXVjJVo00e9
+WaDizFFz1qg6W9SdrZJ5YuZ9JaHKYXzKegMlaKYkoT7aUE0HrUtWzTqx8vrT0MRHV6/eIhM1qY2s
+dEBemsM3W+dKcBrOxKorDWqvxKiIUr15yHFbAear2yePpToJnZteaVn9GjEXq9Q+rDizzUAgeJ0R
+vtqOfRnq83ZO3ctYq2+SpN/iWDGBkpZQ7jRn6yGi1UhOrQv71Mw+dCDXvGsjDXkbfMzqHsUYHE5n
+P1ifSFplroZCl7P5hNpnHdfxdZQOpMU1W6E96GHFHSs9JHiTDPS+LTVeOhg5TJoPsjaG4r5hpOgt
+qIGC0hhTY9PYpb2zi6a7tDTkOm2iM18UMiB6gje+Rppoc9c2GQ4AFjWcQ5TJQ05nMdPkW3pGC/1U
+tM+I4g6J1h50h5MqdLcNXi2VG1I4j1XTfspxp9YS9WwRBXCVPkw7fF1Kb8GtSsxtDBo0uW/nL1Z+
+DsVnIwfYQKrI0pk7s+rIOnSgG79rJBakaP6AIlc4RDhW8pt6ZDiJHs8HotzHHUmiIUb2lPxEGTK1
+mK4nQ97CjgsK2CwtzvFCN446Aoiiv+hItxinh8InSUWHjVcw4PZRs5AoUddBlaYPXSf3oXXBx32D
+aC8YUAyZiFtS/1DWeuBb4OCyfm0kJo3OvUeyUSrnbRQRl2qUu9juV1n9LpvmKnEeGlmdTJs5f/VJ
+U2wGeTXlqJiaT3ZfrlL0npoLUJB2zwUcmBWMnzXuVnwkoTPb/COZMuCLF0Gtw3Qh4VXPN1ob4mwP
+/HTaAMdcZ7GDuxiVTXNMvc8qFVrOAyEsWYDvhkAsyLElxjruhwUNg3NFturaFZ8sImAbx0MzwIaS
+nw9amjrsDlGZQnme6M6Sz6R13DY2HyDmu01JRvJoPGqtpA/Lka7EyQs5rhvGXXdIdlSZgBdbGt26
+ypxdlI8krcDaKA6ACskf8EVPMuPUILPXS7wpiHdc76bR+37jVJOwGTmzKwrmvJt2YMQiYkDibvfn
+8Pp2eHH5+ZdLWCn/aZ3I13wfnUKRUVGpNrY0rkt/C01HrmX4eOlgs5iMQ39eJ5qsCwE5g3rmXOGa
+9f9PLpXlBLbVBbD/7cj7nZMLIs3fTi4y0z0OTuIseY3gI9S68aeTq9LKvGsZNu57JMfNdRJHRJYD
+kDpBeaKvJDlGI0HGJUlGGETKxCpcJkki3CUkJwauip6xv6bQUKWU1z2/YuQTdD5RNctiPM5k15QO
+OTkYt259Aym23lXXmQq6ab5G3hS1PHcqD6dRyTgCDdT71M7OCvAzorEwfhjY0pHjs4fZSIaPy8EA
+pQmhCkGeEaC7ZhgPhRffSAhyea59LjxmZrNtKXF2cvLz/j73i0+T4V9GnRY4ofeSV84x44SB0BGA
+W/1AkHhm53szpPPzWLesMtwHlGUbL5x2o8VoyrFPedkHA3ueTtbEm2cbOS7bLnEDjfkOI2V9l1ew
+Pkv4Ao5xWgyvDCpLHEJfHJIpLQO7xpc7RsVLHSG5HIBqgM/ywVMGsoneqza5tXWoPDAHTHKtBvWj
+E9ckEdybMt2QTfrUF2RoSxefv4NpNxbLexkhymxLnf7ZNg4I0N91nYl2n0Dkflvoe9bGNDWbubh0
+Kqyug+iJh+6/lEudB1wU8m2oskp4E5mS1mA8zCEmXxydlo5tmjiW/rNEMLepHYpklqSHIvT0YNCJ
+h9T8V60er+HdXnUadiDRCFZDVbweB7mzNGcf2ay3XNWJh7AzLQ2SVoh1w0iodqG+6Wj9V7U3Wruy
+Cw9plu8AYGerZsqubVito6m9mq581dx5V/fOzbgUt2ObbQmPuqim9jTn3lqnn/dIgO2t4jopK7O/
+/lPNvlYzBZD639XsWBb/YKWz1Rd9L2cuYE1YOsrO8a3f/rEJcv9CLIQkgZImlJ/313ImqII6/DLr
+m6Lop3LmIjWiQqKn+Bpt9FvlzGan9MtACbC2LQSvzcTXpyKzfy1nokpcQcxhSgKpSXxWbDy7YDbW
+lRR0AtNLPNAsk2j80Xf9VWjgRHWkaIPeDK8sxP0KybGrDLpbzd5OHZJT4ZPrhov1jGHiUjeLO1/X
+byFuxeu6b7QA/1fxYcHB9P22nWnH2DE92XpDm6LygCOPZOCeiGAdMxNsK5UaXJMfzIaTepKLNzY3
+X9KxeQolQqZYaowWpvnJaaGa6LF2s6hIYq2mfDqkFOe1RahYDHk2/BphHEPe7cwQPO/XhOMOZkET
+w1LYl8MsigAjDMEPEjsH2SajS2uhPMmpX+xzTMpIADYqOjzosS9n49LsWt7Apw6e/NpBBQFjbNAH
+4zx1E636JC2MsSRSi0/4ZVsqbF3oy6VdMB466mONBrqiDTURRW1j4Z2RkS+bcY6NlRa1t0aM5c3K
+9IcKovFaoyqaTkKv6B8BfvMupbT3g9u8cad5rRtGV1jsnjsRlltXNu6qbgeg2clTN2fPacR8rjTH
+Xd+4DXFu6C5HbYsKzl1jV96OzOVZqAt2Oi7o8nnttxYNsRWfXObjwD3FqVhIlPPCfAMB9M3M6lPU
+W9GuT4uCOxBBfnPXvESRiTMm+QIELhjkFFhgzOUiN7PD2i+EFCDtYAmnYxv1r90SXRYVQjXoUMRd
+wdxfoYKz1kaV3/G0RKtxJtfGycnNGvu7OpXVppvKSz80X1skJNBDw9dsip+G1N//qWLfqhil5X9X
+sfPHP7RkirD7vYZ5f2Hrpatiem0xHvCoId8VXj5p0cA+kW7o35M3f3jYlKXMxfHxH17Bj5YMhRdy
+MIPNuBJl/e5Q3P6voTgZTia+YkBnatmuwqd/bskcL2fF5nX9ftR0onYKYbG0SysNPLYwkWGMdmXY
+qy5qBvDaWs3/OqSWXVk87pvasIF9uSyE+UA/hRWSfuxTZ1fT78zMJSJoHO0gy72ZXEv9y6SFJMMQ
+b9YX5wh1Fbqi11AMiLdgEQlTcUXUOMxKUCRRHbjt8Yf0OjmH1vwRIbZiVwSSn0viXVKXhOiKYpfh
+kAj78kS+8XkAy9m4avPuvixh+JFP9pdaRFfmPN6PpnFpTdpxau0KT3L55LF/S+Kc6bxT3PON9iMQ
+ZBd3My1ffLZtoGaTg32WS8+6mMtdqvzNEYQFlv/XjCAZ51mtaiP5r9Z9Lyf9Iap6CN3xJvXfkZB2
+RCX1t1JYZ3/+4iTZyXR9RrboO2Ulb2U/3be1ezX5RdCHecuWwSTx2mZe2BJ/4DPiWLkMaGGQJ+9W
+bj9NKY7bSVz6RVOvoCyfUt/ZuTFDY+Inoro6MFcHyZ9maw+pN6TgdebPm3Cay1XlaJedWj3687El
+sbIFZ9zXzl2dKc69Oz827Rc7bE+6NwQaIQD5/N7l0KwaSRMNhl1wG/eG9DKskIvXsXdBbB3tIzkq
+hV5vyhy6P+TkqlguiCDZuWbCTZxmLy22Xd+ehsJCuZpdTZmNjTHeaxJ6siQ9ibjJD186H0Mu+REM
+LEzq4ZqpQbrS7foiQioPmvXCLdH/FPUns/RXcUYRnrA9WVFAKB+6yr0e5fBQN7XWr+vxbuynADq0
+HmPGAzRZJvt5GvH6ehdGiNbXnMnt2/pkfqmIgYoABzubA+m+Cf3W6G0k7wYoh2g9FgZjGWqpEu85
+EGK5SXvXc0kSMkampGNJyZ8qPcR/eH8AkzxWeXPw1YaDAHLbzPCNPBizWPXddHSXGxC3+COMLUKG
+faS/cd3CW/XclAvInYyxG5OQjA0yh0/fchdZmv2CwFCKZ13zAlk8VyRP95N8j9vpMxiP227iBeVy
+0w584KPlrvLlqQEPn5HZWoePDU4Gd2H5xE5m7+bcnoyOj6nomFRnzJibjC4j41WmTZWuR78Z2FLr
+7a01L82BUdS7OdnORxvaJ0NEl39OiW+nxL8aEM9J8UZR4FT4WxinmhJ/X5/qf3EjRvH7Izfv+0lB
+GCeSetS3uq2kTSi8f7680yBzSCA6V5NlpZb6PnYGnAWhxgR2hyrfpkH9nW736938V/ehCuCD0UXH
+zWsRLH5/PihCNoZNvZTmXhTafZFIPtMMEJOF2WWppZ/kwDrFY6LFlBnMQCGDqRqIcKEvrcOzAbax
+0HXM+jiJychsU/t5KsW9T3DmsCjXXfLSttVDVLLt0JIr3DAv7IE2fZzuallZ62ScL/Imv8OD9IJi
+cVfGLu69JDrTon6U43gjG+cDAyQPvguiBhnUgqlGYCyylorcNUQpCOaNvrkqOlSawhiTtekwhMwz
+7dR5F2kVtp+sxe4wIbn69HmaEmDYvds24QbNCq6gxc3RopoxnZ0tyHRmfMntdBPZuVet4258TpLh
+NWa4epzwkBIAp60z5qdO430CjmtsWSSt85q8zEX7aOYXa5HZqcgXycIpMtprHSjeaZr09LLJzc81
+jNooEO1L+RVgBf4q/ZwpqlWi+FbFV9QVtj+wVwouwWEAsMfFwXekbQc+8eeh/fbQ0uz879bu4uU9
++UfPsEJLfn9oTZ4xj+bOtkmAQBXI8/yf9g45BOQWBA88g1+XPj8J+FEkImP0fResgNLr/7QrQtvP
+UwydXXd+P/sBVNXfrqhoHlxCKXAh68zeuK/++tTOdtVPpAVoe6NMsX+GGFSYce2dPqS3wiU5R8ZG
+m1uV4sOdJC88bVXkrDOdxDkmfvalKaZ93DROkFUmH7FmYGym+9ez1VS7Kes+RFbWKBF5KHLfCYas
+eYyL/GPsPHJZNIySs/HWVNZtpo+PQNLunDaxV9po7pEYn718QdMWE3+JeAspdPWAc/kmNpJnvR8v
+pFuGm6bx/W0mmxEH8nBdtizPHQepnizc/dRpaLgZomEUVotXVPz0dEmeBLUVqqyWAl51nl/Du7py
+YSDMfXplaPXrGMcLxYlj1x6MN7fQuLGmaPcivSLnQeYXwgdqXYUTE8cSDYQk6xT+NO7VvnpLw+5Y
+yuxx6Hr0Di4oFJOATjMk12c5G2nkrMDf2wS4iXi7mCmhpDEaytrWjqyNs41jk/Gd6xnawWaxD2Vu
+16vYL2/EmGRwEpwGLZzOLrkiogd5RWzcVppNepDgbp3m3drPsMTa2SJWRdi1m2Yw3v3EvJlJgdtq
+XncvTetkFt6VYAAWgLA+MlukJnjDxocD1ZXZvTMJd2cPeni0kUWACpWXrkyNtT9yFU5k2ARhXPMG
+mrivJ5t8Smm9ZyY8A0MzHicrGUlSXbapYd7h3GaNXQ13IYs98BHGFR5ImNwtxbgWJ2cRH41JF2RT
+0Al2cs5i0fx9iiY8copraUbdodXMJ4wsCL6FTsMqjnkfswIy02bNuZYGyaDLm4T3LO6GFy/WnMBt
++ngVJfEVmSb3c4FQxgWPGOlX7TJ/cTVE85XxmM98lu1u0XdxaRAc5rA1zDqzWbV5fOdGItv2NiKD
+yVAxpkDzN8LpbzSJCqHEIUcuAXHtYRzhtE2Th7Kj/So7K13PY1XtltQ/jb5ODI/2EoXtqyVycpeG
+O0wZpMqOSIimVjfIieofayNvgsUuX7WkexisVq6jmvAvYDgvpqOddQ102DyBN+aufggtBw1t2xNr
+71bnPOUkLcbyGmjdoejyfN+yKGTIUTxBsHvuk3QPY8Rftw0xCbHk31fY8+fZ054SseSIcGZ0QDhf
+UoPBZek477oa3TgxolVWw8bKtyrWdVF1kXk++WAI7Enm2nmIW2rL3zLgwPiC7KX2rasGGcyg05bX
+CGM6BDJRNm9spZjx3OJ2QkKDIVVfJYhqkhivSeri3NT0Hu2+I66hQGerRKlxHKXLKQsdesH8KkYp
+V4PS7nRKxTPTcmC4Ht57rb7QMwO3N5LGP6fY11NMESf+5RRLurf4I8v+u/dUX/f9GDOgk/sK0EzY
+uvhF8cAxJkAmI6hnZ/N1TPGj93T+UgsjUBR0mTbUc0a3P3pPljyujkOCcasaLPxO7wlV57+OMSas
+NgFLJoBE5im89J+bT1MH9lK7En937pkbweWsYuecNtoXTUK+KpODWPQPJjFHMzNXtT4cBx2tlAPi
+wQck1uTu1jT7tYy8ey/0V9XEIliz9o1ivDoFq6cp3fQa+SQwyEuCem2syyFkr94yjzbZxH4lT6a/
+XBhWdJdh5CyBOCNC37aJ2JuRDBzALesa/ksB72sEPMwE8CaXs9o4vHZTtetDF4M9FNAlPZSOu3UH
+1Bc2YcYLQafFdUpNIo7zcxflG7H4j/iDnuiHdxXzgSKs10xhDoxh1VB0pVnOMZ5TvAHjp6qbtrPB
+AUZS4qJlr6ItP2m40tzS/lLVRoAVHExAcTTiNmgVZSNeuLCSZtA9mVaq3cfNwEw005lAJIxEriw/
+Kp4Qlm1qoKt6ghrYxA+jOeM6BOesJ9U1/LUT0WdHI3frVYEo3QPRip9n3DB5xH1HcuqWn+q488PW
+uWg7eQ3B4UJ35Asx7zvd7Bgpmf2TkzpBuBg7UCAXXhde1Cl6A1mWu97jG4V1vs4al7sxc3W/DPdZ
+Ju7HlHu8gX+9TLV4I4ZwLSrnUA4S1lIpt+m0fIrofWfDvVy85oHkhmXtaEUw60+RZx96syS21Fdo
+kINotZXeQ07y8iAtn6ZB21Vede8z/ikje1cO/rbJuos87Yk8xd0l0m0F1x66EcXvKJwhMHO5raPy
+Ye6GfV33l2D91uZ4DL3ymFv0GmAv9T6/i3AOzJNzHYYFq3RxjObsrZ9BG2jGmveEHMD6MIbW0R7Z
+yA25wbciLk/aD2hbBoYPCrbSbRKZr81CrGZgUUnd4+QXmwSih0gjlogaaYpDsfN79xLvV2Ca/LVO
+glxdv6rb7k7XuvVcDkCK072E886qEp3ZEH6OOuvY2pBLonD+ApJuHxXTi76Yu6QyD3Vm3g3uXZiQ
+5YPtBLG9PAG4uC/Dli9gCNR3OcwGiLwcpKBx+f/TlpBcNpVwUaK5PvmSBI6iOkAtBto93Jh4EL/+
+lBJKPx++bU1IiKll4ENAjWAdGAdejxg+eX16jxvzuu2NFNdkscsNBjETaDrbb44VKn1LMJzJH8Zo
+fuzscAM14pgjTk9sA3BxBKJDR5Zq+/0Xu/VpuQgF6SArJ50XaCFMwz6qb3vLOeikFCz6F6Z+67QZ
+b6Yef1xWlw9m2B7i0XlIW5I3M3gIS9HhhJxfkV09l574klvXxpJ8JpY86LUJE7d7CdjplBbILir1
+03ZOfZhsNcCdMCY2bTYBm7EuTbc5RVr1wmkalOqn5Npbe3BvciyQmHZWCatTJB4XRoR3mygfRnGk
+as9aswSjQ8yoaTbohPxlNTc699yRpn2mZxlS65C3+e2Cj8XuL2S1PJBblqGPz68TQ75Gfb/GahF4
+tXNGQfqUty8pNNHWsm87gey5D7eVaamFS3XjWE+++VANp3jML2zl/NCZ5Q1Oez85+Bvdct/lEbfg
+9K4dq89u6bEAkXJLkHmQR9bRs8Orto9fxsENKgxAogwvrdg69cA/4FlssA8Ab/ZXfpizkk+nq7GZ
+rxspLywYJP7cXmtyOIxLyKS3AHzGZ7PxpkPKRLRDIzSrW3SLzzCab4hhRYoTrixmmKk243eBd0on
+MRgJ4DLj1Vwe0ma+mGQNCwSFlrmQAeUbh0bm3IIMXKj+ZkFw4+eIMm0PaQ4SzRqITueMfPdPOlNF
+wPNrryGbJWc01xnjuz9x8HDknZuFjyuat5Vluo9tCjE3b3ZJhLrNuYfaenSN4SQ6ri/qWMkwnNL6
+jD7PQopWVgmsixDj6UVam/ca8JZubALf67aiAzFTH6ZUHpfW2df2dNSaMbCbLiB64EtBzB27n41R
+6UHtvLcWGyDD4ivbQGsefKe5tKjJEbQeswTa5s3ARYo1e7fdKBy2ktz/Em2dAsIVmnZLKKhJQw1j
+sm1h/EhnV0Vf+sLlhSMbCP0tQV87NUpN/Ne2zTaVR3T9fDsiYNVhaicz7uA83RWYZN0M4CdybwuE
+UW3icbaWTUeISJaFQZl7KyAGqyzTtk3XrYbu4U9f962v+9f1OcG8XVTmjIr+obP7aYfu/wUxzDJA
+JWJaBP6KmPT7gEL/S/0azouvg4uftaw2ydAY/3UXFaxLQiX7rB+NHUACLgAWU0WlMfJ/p7GDy/H3
+xs42BS8P5D6WTzWq/LWxG7K843FmyOASJ8WIf3HuDPSaaz2k5hvtDJpM955rJwajbPvYFC1OK5wC
+i9sBkLHiwJoY4vWSUAiRLLQojd9hXULshhKl3dUlEe4FBsuV1BYerngmhiLsI1ZXdXEWIw4Hk+dz
+SrSdreWIMn0S6ZbhcRoLbSWEcmHGiXmM/Mp4aItyN6QIZSeRPTsWjYwmWVN5obscZgsRHwocBvDe
+zBNbTin/FuShYijDVdoV1Zadfhu4tXcybO1pEj0HH4jaVWt5xcZ1ZYRzue3OcZfsslh21RFajuvQ
+U8TekyNq/alx5bGK7eQlscjwvWkjP+kfsWM4l1FflhfeWOuAcXvU8LL/3GhkUoUz8O9uSYZdZdl5
+YLRiYZ+m852isNqFiX8eyvStY/F3ZkFsbWoX+ziiI6Q+Vg5lH1PXuptnBKlcsgMv7Fk3dCE11jHr
+bVRH1aERTvRU6Vm4Rg7sPETdeGWSprx1U2HsQZE4Nz1641Mq7Xzj6YN2UfV2vy60RmwopdRBX2MU
+g1Vi28WiPthDUrzKHpZsjTox+FMnvtWJf11QX5Rl8w8ravOnFTWqQSaVLhPMbxYsfuvHitoFJgLO
++psB6+fkHlUjWDlwfDDJ/FXvbqtAXEUMQQ1mI475rRKhQrh+UdkgGrQd/iIXcKul8y1/LRGY/3qI
+poQrJBM3GqCYtfHmaXYDLi1/99GjoQPC3YKAZJ0N5nseethQfamdTa25MLwITw66NrO4Lxbn2tGI
+t8QhS0idZKiPz/q2jQlpQ3kWFIxZ9NK7ZI5OC1C9CCWki5Wkru8Ih9OzXV2ViAAd0IDCP1go8RbD
+oSXrcZNZxQlW8XuYcTdAw0c4xslF0ycWd1OlyYsoxZmz/C6LfQAo6TlDCyjQBNqRtinQCNpoBSNE
+2b7tXmZKQ9iN9/Q/AMsQF8oGUzkK6UeGrRfU7dPUGftEb++0pTwtTXvunKxc64RT0M+2LwhD9z1C
+xtk/xaV70+npdUTrxr2rLnm00d8l5lJ+MkemdTre31WdeWFQJZO2NrsRBXPfdyvYDTDXIqM7FAua
+9L5Aw5wvKf5zt8/vZTWzbh7iGk15LXIcu5PaI2qTFTKo5Lpoqk1jkdPYeGoD6atdpIEvHB9TsMBW
+IFBcBW/L235y211joix2Wwm1W+BfGrLV5JbPDjtK01cus+aG3u7R5Ie6tucYnTy2Ux22t54kGzGW
+bx4r3pou28u8fTrPN8iTt30/7Nqh+mh78nMr5tUwDYldsqDZrd0ei9CSGc12tgq5MUV2Cfaobnd2
+pesxRZxaa6uia6jy26aoNXl53CIBTRJB7ybd2VElu1HF21BlHFRattap7Jbm8+ZT6hNV9C1V/n0T
+trZQRwL3InJlbDi7kzowXHV0hOoQsdVx4pflszYz0giF4J/lMlAbeCdaPdxaFSb8oSoHgMHZdtHs
+mHazuM3SqVi31XBlNzW7a9sJ17gYWDrl3MeRnr7Bk+KCAJYysNPkaHQF11K9iLbgcMO95Pa3br2i
+Xk/2fM04cU/Q86lv2M0jVsOvGHLI/inC34owVet/D+EuX9r4H9o0vua7TIjMYMW59nGoALr+JZ3E
+U95ZZnNwX22ssKqD+y4Twlikq66OtazpUKUZi/3o09QqWQ3nkHYrs9JvFWEVsvRLEabCk0QOgYZi
+jIDGVr//k3LbZDAW22bScqUvTkNbQJIOcRIslamuRPXsdecChoG3KivDDQHGJ/U2iyAQRcIiyiwc
+iA5YZPQY6Y73EGPFNC+krGtltNe5jkwmOWtpRdQRV1ItIHqtPNlTIYJULq8jln4Cmd6WmLuGDDGX
+pMr6PxcoOTISfugT4QJMECOnfLzsErmsG+FfG2b/QkgaAw9YT2Yb3kMF+kizmcgvqzrURfiQASLI
+w+hjVmQC3ULraCtawWjYuA3Lj2YJn2DzU9zLErV5lHeX5JA9GYZ2AlArV6grT27aE5su7EfldG08
+hOiNk8MmqKxRCTTTzaI3b1M66Wtz4BJMDDEYKXIbh2JJdunCirssXDQZsXxYUugMOpgGweWX+cu+
+KvvbuGA+x2JIu2kX9wkPcIkWORfsLqoDWMab1J7OxJpJ4uVishy8L1rvcMlSyIgadkQFQ6JUfvje
+0z7Lso/SnUFxxE5oWyFLcWJZluTayu0qDnoBdKKVIoMLZR88hdkm3EoyaWm3jdRfYGE/9I1+YsX9
+VkPobiF1pxC7W8jdBORgyFcw75wrZgfdm6x5RkcDwO8Q8rdUf5FHbFxPS8/vNZSa7nYgB+FPfflW
+X1gR/0t9+Rj/3/6lKIeP5h/KDF/6o8xQEhRokfXzr+tqwI50bCiaUYrQZOg/8+bEX5bKV6MRY7jx
+q8bEItBN1S2qkyfUl/1OmcEC/19lhkW18Aw0kT7uSlets38qM4mYiWPVlnRvjGW4DefeBCzm5jcZ
+Y0lTXQIneDUX7PK2MQNXuMibcpHxPnOG5Ngkc/FWa+N5WixuLzpmqEVEe8MfHvQ6Olek/N50Vjtf
+x1U8njPYvdtGl+GnajFrKE8jQgzpr7vxo6umO8e66VvrDBvgVMVTvtOSTDuXmg7HWY/wBrrM7Ixm
+2S0tnA6nNORW5P1VwgJjYzD86uKzyVBt44K32haePQQLOt2Nx0gl6Vpr3bfyNh/vZq2/tnw2mhV0
+1dwmh8gaWafGX0rmVj0rsIVQObeTkGVjIsyrOzLoVjXEWMRGJ5PMw9bDEzHkNfA0P7ECF7F0Yl1m
+nbMuo3JNcV2jbfG1Z3s+zUySyE9eh9kei9dG7UgcmZ+SsF1L/2Rl7S6i10qi9rhgh55GTI642602
+3YUM51QLw5/Zuq5zVZvurnE7fHPDrcOsOExMnJkuSJ5sYaPqYBcPZA8mcMg/tHpm42n5r3NuvtPN
+fKJZmnFhpwQ1g9bOrZ1X9wezE49uE16H2he//eLlzJ5D/6KoQiKrUCXOda8x5RPvyyQIS9a2cXrj
+Tfqq8rxza45BNDAv5Q7QDNGmLNs16OZVPTo3zE/IroceDpiMmn/RGCG30hCIuXf2mgUQAE3VSCxz
+5KOM9DcxDsDFy2j1IzacSqBvcwGeNgnH0Wqx8pPFBSRsRlSaGR39HbWP8aE7iXXjjZthch9SYT5o
+YcrUJjrYXbNdDP86NfvNYrYbmTGQH6DxVM1+ksSexEt9V2UuYHWCsuiSe2WkvCBcKDAK/Tr3+Jyq
+fKm9iHwoTs7aLpKNW9jveomB04t2jmiZTXvzda7VVwQeH62F58ER0BRNnIz9vccOIWVasdLa5C6e
+dJ803XIrp/kg3eHZ0fNdnoIP1EfCTbTbOS+hMxlw09NLvAAXhUMz6AM4Z7nS+jDaYgYbFuNYMR8Z
+MO4q2zrMYJZyX6klcFExBd7gXdqB9N62dnrLyU8oTBmItOLX3Pdx4G4UG0zhR3EKIRmXuLMcq99M
+s3NP0h9upP6SNO2dPfNedPouAjQX4abgMw11wUELJi0c/S3EgT7Nb6xqeC5l/B7HAA/Aa2JqaIAL
+ArLhttQyCYF5ikPAKeWl9DP7WLe2c86nrj6GY6YIeHj856kpLpcmjbe63T1lug3eWeSAOyqxKXsb
+RGOcidWfQ+rbIUW5/pdDChwKfJ7qH2NfTL70xyGlk9HLiBHnz3/Ujt/nEUBRUU05ZAkL9OpfYTE/
+emFlwQFL/J+F80+9MHtqYrzJbWDMyPn3e1BUuuv/OqSQ82M9R53vMRFUmq+fD6m0cL20grm17wQt
+cJL2LDdS2JZOfelFLJMmWT3pRfdZb/Xr2NIfRFzjuxX0rTIaDho2eUCNzcaJ5VuV4bKpQpsMYSff
+8K+jhg4RCgw2oRppD0Thpazm8KARM3IBWzJizYwtN1f+XJWEtyIheNlZA51zWXiPset9CB+8RGML
+5qcUgY05zsl6Ksbr2W+PaBX3WelfNpV973bDJWbQfWP8H3vn0Rw3si7RX4QJeLNttG92k2waidog
+aOEKHiiYX/8OqOETNaM7Edprd2PitoZDVZfJL/NkfQoVcebyegnZczO7yW2qrloSyIUhbgUBaGXK
+7tu+uen7AeWvOPR6v+tNF+lCw4GVQfmCG2BzfPYEsG0u3mmpLKsmvC9D9ZjMoShRNkdJtlu+h7w1
+5WLoxoCpcrIL84biAW0jI23bx+O6UNUHZBi48nU7bDNZwFo1ntWee21CQD1s3cu+LaEQsNuQsqQo
+ZhdnFkS2bqcxjo8cBdWmir8atRyeysKJh4s2B/ZQ+pmTefG3iWqiN7Ka9co1yhecU7dyxrd1M8jN
+g+iWTnbsl0mgnBWCR8y2VPtlBGi5NxId3wGaPFUz+RKDt74gtlXv4HXejTNOzp3BciBsxS52DeKo
+M3ZOzgC6ChJdPCPpHEMHOgCkzp5xddSSFr45I+zcmWVnkbYsoNthv1Yusxl4FyB5LZO2pI1xdAHb
+w89eGFprLYvJHMB84YHtMLtuzRmlh3pbbvk53X2k09oYmEZ5cJQkPidYQjetTMAb8KVb9lodnNAS
+XHBvM8IvmmF+iYriCxOMcrUZ9UdfBBs7BIGFnbTtmlE+gyzYgIWeYknLCsyzMziwmBGCYZp4zKTA
+CoLYmXzm6njulXAX6+WDNRMI/+ye33dPLsP/e/e8zBtR9L+43fOpTxsn6sEvC07xiGOkcxysNT+H
+v82/gG7Nt+3ZVo4g8aEfmH/NxExc5zZQcGSH32tff9cHPrvH5weCxjOBTLg7b9FMqD7vmfEkqg70
+BV3JsRyZrKsKKR+ZWnLjkvoJl1VcAKUl3pYNy6iewhJ7NSANI1fvR1yV3JwH3HLl7NQea9BQ8jGh
+PvyyKlyqUcB9wF8XXGDVbzJngBqHul8Z2SrOsbeG/HduS071Ne2rCq/vGL9FlJtoraLbl6VK229c
+KnhIBQ5IJXqw5zxLZ+NtKdgGcWe/xYX5GhqBS2W6t0EU3dQKD+y+o+qlzWzSmeqdGtDboYfszNaj
+x2UNKW3Dz4V5Ru8fB4MvG5zrnWIgQaQgo5mMvwSk8trJuhBzB72jQ5qMJ22LOkxtpwGnSifUZ0iL
+G83AmD8t2QCxUW7IUL10aN4LgJl7DUUWPSBdTjHjXhKEZiHeIhKFE8lCd44Y6jnHQdQROzTIH2Za
++9zOgcRJNa4bEooGLMhFT2YxCp0J1Ag1qpq90Uk1WnO8UWSIykHd3rZF4ZeKxjDcwNqXunSbBtZz
+TVrSnWOT3Ryg5Db5bWy0gChP/NSTsVQbYJeMtLRFlLh7gxzm1Bm7tsaBLxRxGjnilzUALpBLaPGO
+O6680LnAT1pQ0zhnPFUkWvs99zm9Z0DHykPIHcaSE0439Xn+nxZbL6HiZDMOiv0VNxL9aamYBsJZ
+ut1ciyRCLaGYVT3HQ7BRvZgZm3mVK8NL7eRX/MrWjWtdKb11qvWY218IuVi4WC2zJcipZeIBCslZ
+dvRN9BSGtGH6xbTLJ73E1do5mvVHIdW+b2/olv+xvdE+Eb7+YnvjUx/bG1FKXIAGnApESIOi5s9z
+Kp24N39ZGiNuNpifJFKuiRYYCxohvm99H1scRYE2jV4cxd9r53/Lo2hwv/xJIaWTi3E4dYSQcoAX
+q/+cZIc1XKag7Ld5rTJCbW0J2shys6b9Ql8zQwt7NC4S4iJcCSSMcSzIwclKlDC6UkonvPdi65mU
+smatqzG+1awSCnDU65uUDifejXig60C+TtEA3c5V12DqbrwpqjeabKVfGqW3n7Q+vJYlGmw2XOgh
+0Lg4FHcmVkRSmm4QXvw5iN9X6vxX+79X6tV7mdy/V+r8qY+V6syzUSrF1e9m2vlc/XjBoOajvGF6
+gBrwzhD7sVRNmAb8U47c/0e0fCxVcyZhzroYI9f3BNhvyWzvrop/nMbEQehj4ewH9fzeNPdJZhMN
+FCCzztKtSnz9rcW+W/kGoDrEdanvy7zHRSXnvY25U7yw2O46tr2B7U/iXBo6+8g7a4nBfgkCfqmx
+XWKXRxBnA50049SyoRaGuW7YYAs2WiKTV00RXVQOPsvIa/XrqcWgTiERG3SSJ+XKaszaebXCHvFY
+SU+adPeu1x3cTDuGZUUTlFMvmxELIsVii8h1voUjrnynyX2zqQ78ws92nT8BzFzWpgqpqFzFvXGo
+HeUMG/I8NMOFFZv5ooimiBKUdJWY4R333FWOGBBhnHDL9BjrybpX1c3INgL6qrxXGuSxMF+6eXsb
+G/U5behSL5jYJfU6UEzOoVTcZm790KfMBykGplBTmtjzMAPDAsvhLlZMG/K8N1eiNXPbl1bJ7yor
+k9w6Dl3t7hjelwugYw5ekuBo0+wZKfVN65acqF51mppm32n63ksZN2vNzquVk+b1d50b8R+O9bBT
+1HWsxUfoX6OP34TyYSXf2gUFk3XWfk1gvzWB+GYkwSrXp6+uFhDQhRPa9IXj5425zztJn7x2l8Qd
+TsD4FjfOESYXQeNAiGKXa6yMKSclGxT3Xums1JTOhikly6wq9qPd4yiZgJ2qLVmSvKuCtS3tdWkE
+FD0nsMlUgyoz0ZFC1sLpVWiBQfsl9VOQbFRwn8Yh1GBVmCMJZaFyDSgt5MOKnqsEozMgnn1RGAcJ
+9GjV67NfJKhPUZ8AILdnFRFRSrG0eqFG5j4w8cHaFP3khFnXVQn5t6XM3p+keqNJ/Vkdumsp3Msi
+Mh6SMbjTE7yg0MDUK2Gqd4YCStnxyDSL0d2SRn5j4vWaJN690zIAVuAiIxwJv81nkdY1L6ek58eR
+ySP+mHzpGAyfBzwG5HTxx7Yjtrkc0TGqi32NEIkocaCCEMz49ATaeq9agXfQGS0tdGeIeGiRakaC
+x+FrcFspGXZtDK2nxlDE7Sqg9vo6clt4Pt5GhJC0OTUuTSfKkYa9bJlp4dMog0vFk0chsxs3r8uY
+13lxcJvpPs3rG3Iur2nNrTMKssfCU/n99Ya1psftbBaR8P+cC9/PBR4t/3Uu1FUXZ49584uzgU9+
+nA1zaALRiGuCycSXloMfZwMISYguJt1VMz/wJ0aX/RdPMXqCwWdBhni/+3ycDYQJZ64XNwNuAvps
+1vuNyh+g3f+4xzB3ISYIqsJGTZsluJ9fauQriBLbqtjqwOQXpOS1RRLiH40nr71vEn28VYYxeIS8
+M+541+S+ZjflhaUE/alJHSaNAT1tfhVYG/mOnm+2UVu9OlaLEE43oI51o0dX7+Pe2eqk1tuQuauR
+iVeDmWIvID5iLwcDa3UHEvzugpa4+xrAE0p8cGkX1BDEw0PjDuFayJ49xF73cbWVunpQ6BDBFUdj
+HvF8VTZE7upb/tQN3xU8aKMvk+owYBGp2T4nTwVUQXaZoymIOKbe+sLdWmoN4924FHPUDHWtM4al
+TmMjnEVfj+wLR1II2dhr7OmeqFdDl6/1gF4/d9kzj3DhQ3hW7Pd1SFE87g8wDHqorwvNeOxo0IkS
+IpTm19xh4jMW9bEq613N7MQ1OFi6b0kMbSGhaFGNk4UZkBbsMOWnkqSjhkGuu1A09WQFGUlBkDCl
+TsWjNlFRHlA5kEd4E2lqoW41HQHQNCT2otC4jBV57aGeT1m3bfXqotW7fYzQRc3QwlK7dZKIFafS
+dZDpubdBKw930kbUg1VgxmtMOs0qGeUxLaJXql8gyKuXg9FjSZL2SMJshjg226F75mY8IWrl921V
+3FWKe1dohAdDqtbYFyFgNuWT3ZGXkRqBQGhAoN9xqKt2vLBHGpWE01zrGecIG6Ua9bumya9yx65u
+k7qjjHUUqc1ZR3dr5R0Zej3n0tMWTm/ni1INbqOxfWyz/EmQakAy+zYG7S0TjZU6iENYz0MgsjKQ
+lSs/zryD0vETD8pDJt0lEprfenJZ1qLctJNcjwWQCQu4IWwlkjPWwijs2yKJltUAeMPGJxA7pFZ0
+5dC0rz0MHoOiQzofcS+QrVNGu1wUXv7QF+nDpEx3gyoom9UphqjQKyk2THCSJxoh2155aIS87Saj
+XdKN+y0rGxCWWvTwZzP+vhn/p+vx6vXXdc+zk/ljI3b/wt5M1JqgNRFsfIo/NmKPPdpgwGDgrJnn
+DHzq85hB4ykJgBAIzfv2/WMjJiLHmEHFIuO879G/sRFr8z77+Y7Oe5Ihh8cGPZMcPZcj5LNiNhlW
+OLWR0WP0M430stM6lxbcuQOQ7HakUnprWNU36iLs8iTMwGiuC8CDr6acxFJ3k4Rv1Z+l9H0p8Tz7
+j3M9bttfnOh85mMhganjGYUT1v7/JfHx2gNTN2cgXWQJTFNYJ34sJNQHDLdsaHho/15+HwsJxBM0
+IGxbDs6K9ynXbywkFt8/VhKqK+ia2abhEuTU9PnE//Taq20HBhjdO9sg7rGwswVH676T7Qa7BWmY
+ynussUZBxQXsiuxJPU1XZisIm926qcU3xvFvth18K8zisQXqRrDf5ZSn5blimsQDhr60ifFyu2NC
+8DXXALiNzTlPufRHUUgvmxh2kVZ8Tc2IMt8S6iN0oRMk/m/amNeL1uUlZVpjipFIZvswT3Ou/8XM
+eJeEMPNQouN2nrGh7mg8mwL/bCUJa5n+ZHu+G6hXmqslvhvLyU+kfamVxn4ohjfLzvZSEO2aqqfM
+xPRlwWQyB+uYTEIsytA+GKmk5TxT72wn2suJbI5UeH9SQm7E8sEJxBwwfLMrlWdhcjUDnPMaKHE1
+fS0V9ZRODhG+y0Tjqj4d1FjcDIiYtmI8huZ0PUzyLs04/HLnCwbZfc40alFFTrtA+d5RhLBl2Rw9
+rR18JkS8TuVZmP0y0d3TEJQXZtxsZOCEWO958RVetXO1XGJ0COPFZDW3Tp2cFWVaj3JwF603bcck
+AXiVngMMI73anWYJWKI4L4Kadyj+u31nQXIoeQQzKuXiRglynKq8O+vG4p1KF10YGFsDazRZP7kP
+G52Oi4A6RksT+Gsok1BCCMRA/oK+o++XZFppuueMUjsaYQil2bjwNlOZ6QvN47Nd1lwVSXqMQrLf
+XuRuW9ur1nUR7AsaUrsd5ua28qNOOSUZLp/Q1ltAFHh55BQS2VCz8cLIcR+4lWLspt4CiJf1Q3vP
+vzQTW6R6JbgotQ5C01Td2hEB1gD4ot95QAxN3YLJzG2dR6rS7yo2xq9D56Zfqrn5zmJocGHmCcyC
+1rN32ig77D8Bg0zCHWyugEWRRriGlvaxzXOs1N6xtWPATtOykdFuULxnPbOv9UnfJ1NC/FBhWSYX
+ai/uR8KGExAwP6KFcKAPlu8CGIrOKUt8zcEtvzZkPTKHYjxYbnSqkFBUSe1h2A9vGh1ZIGxBSnmq
+pBcEVpde1/vW9C6y0L0zhK0QVnZPXRDuMy0haQdfJjWV2z4E+T7QDBkP8RFhkS+VGGs/7YvR76do
+VTjiUZTPFgTKcETht2J+g1W6ZSuhpr5cNq62x/qwsj3uytHI0Nm0jgGIQ5K/0Hww1PNFtOAhMoOG
+tFb75dQxTFTHV94IXzlqtnmRw1qMXEE4RtMo0OMmrFJTxLBayq2h69P6z2H0/TBC1f6Pw6gQ6S8O
+Iz7z92EEKmp+IKocHajaqjabE/4+jEjycz3hcUfiy0FM/HyrmVFRiOtwnr8bK7jw/DiM0DOYG9oq
+h9L8sd96Xlqckz9fa0ymf6ijPC7fgQL/SHOUVSDmEh5nm9TW0mp6gPMNVDkoS2Z2WWDLT1AL+QaX
+9SKpzemQtYm5nkbNTdah0wUv814zsglLy145kWPfF1a1RaHKCRMl7EKZuI6nYhfFbkb6O2KyKNJr
+M+58u4665ahhJ7bSA12iPob3JY/YExYPFqyzKavMWNSNfumW4VKxxZeK4fkS9smKPrP7MSgeq4FK
+aRkvAmlehm5+P5d1elpKILptHoh4k5Fq3vLB3DnUJaR6/BQU+tGQPVqqt+mm5iUs+muN11gAqVMZ
+usWU3DIyfyh0mtuGYxyaFJGVnJo8ufVu3VKSYIjsGjvahWIGSyiN+5h8eB+8OMaj8IRPFcXB6VMQ
+Mo2f98mCLQlaYsX2iccplDdkHZaSN1akZkfoy0u9mo/vfm92jR8Erq8AgNM0NDwEyCmEOyipZLAm
+bT0V2saVzTLibQkLeWuo6TJLtbferU/9lO08qsvSKd5VXbUpsnqtygKJlM6WQpcXHspA21C/0mFW
+aTT81O0Ar6FewStd1/l14+UzPS9dRYSkI+DYIRWbQVMC39F5vBfNfat615YQx7g1aL45GpG2Cqz+
+S6Yp13pt34MQpIpPX3fuY41Q0ZbkdItsX5UjbEf1QI/Tekha35GgwKr2wbY5m2PPhvUVLjXOAqgo
+PDkF3YJt1z5PnXuTEDOOxloskPTPbkkxgtWfOtiy+FA341ROq666bZKnmlVlBE29tLJ6MYiKqGEA
+Xt+7Szp7GUUY60zi+jHjHwp9CBZrXCWqvZlrR3hiq4m8vORoUvrimKv20i1dv2VEHOYA/oIKPyZC
+a1OdwqzcRsPgi4lov4kHTnUoSNpSJeC///3bj0rkbCOc1g0sl1HLaUZ1F7aB7d5EM5QnOE5HCQOt
+MKadkPa5ddtnWqEWQ6NztyLzV2prOikBCaQXGnJ4gCcGRk9aH5RM3IEisqrOXpnWdV6nl049rvq+
+bM96WZEL4gYh7jTxlKpkqLI3qQ/rigBMHBFgHzxe6dKPHXdtcEkQhQKf8krnGlJUL8JJb9rA3TWl
+tUw0mkUwo888iz8Hw/eD4T/NdefH/KUQZfSLw+GTs86jowZ8HzAXTZtZtD+evK4KkgzFjyzud+zY
+pyevhcdbhW6tEzb5+9z4cTgwkeWxSwuqyVyW2MhvvFS0f50N/GH8FESSScBwS+TH+/xQGQ1RdLEd
+jFuQo4SxbKNvwuvSKRLoEFFQm3JV5glTqahRLXEcEm96y7taV7kFVenoCpJOqtf5hjnW7DDw/PNZ
+aTfd25BE8Z9l9n2Z/acL6Rw/A8XNX36xzD75kLy/oFE6pMTfoUDvLUkfdxCWmUNufF6FM7b9c4Ov
+RRwdwYW/dsx433NOH8uMGgpkcWjitoYniSfxby2zf0Px5hATaQZkbFY2K/fndWbauQkwseu2Mmlr
+X+2DcGk3jORRWrbQ5aqbuKT4mWBitbJq7XEMg4P09AMOJHbbRLtWyumSitjXTNgOuSDtiuqNldK5
+3HkzgDvcotQdr9cErlW8rgcFw38QplcKaW1uKa7jp2QDwT4yICqpi5N2bzFUNcC4ZdZCNeRN1QYI
+o2FCYMhyN7FKFzcJsGGRNIq3kUbsrksTD3/ZljPMlhf/SjRgfRaRpNbPk+PGq6jPaQw6SQMUSQIR
+by2juIWtQ0Gfc352fwXwr8LnTI1D/x4GrKJwrc8BQXoz9v0cGbTn8CDh1GdnjhNGdMIvJqB+FAZ1
+2qIldUgeN2cbz8/qHEhUMuKdc0TRnMOKTeutkzm+GMUB0dNOpSBd2UQVtUD4NdR7qYztXlPD3rca
+SJuKIe6ixmAYqrSUTymbds7lW8Qe4izKL5I5s6/M6X03goxRzIn+es7226nebJw576/NyX9rZgB0
+Kawzc+YCkNuMlkRw271jcUT62TtCoCJxzsTZGhd6or6lZPEX+swc0Frzpg8dLFGCrGZKY5GnyVfX
+i0ASl9QPETIhnq51xqJ0IAIJRtbzrQnS0RB+1cN4vC76yj4rXnGjAqzHMN+MmwlG+4mYvLnObO51
+3URQMwgr0weRRtogDaLtGHMvIsYKDBGyM0WEXiEWlUPBawoeCpaTk15lutPttWa4ZJ5ZQBB0o8uh
+HfEr5fLNsKPxyjAI3Kaalc7OLse3Aj24sJlsrNIpe3L7iNM6HR39ZJDv37l9aV/kVZldtaVerG0V
+HnKVOk3oh3GeqMDvEq3f/tkxv++Y6Gn/+8V2Lp5ef0kRNfjYh4Losr8xESThbhLafB/8fSiI7KV4
+4SmZ0KjNIZXFmfghRWPdZN6nYzJhE2NT/PRom/0inm6SGiUPP9vUf2fDJJ/+z0ebxV5NvIugP1RS
+/E0/b5gWQ7NaqaxyO3rKgfzHru+yTatYe8h/YMziyzBPDrSv+iLLT9INdnRCnJq6bhYjfs7RzUis
+W0dcyjoG5/JUVgkZaQCco5w2fWm9hGp9CiKPJ5iyTih4UPTsrBh82QXGSEe5pgriLJrsmLbOFqns
+vkzUcx/R4TikOzvKt1PNA6Yyg5VFdU4+pbCJacVSBuwGiHIXoxtcDLNZMK6vHLzocef6elBexm7z
+1JqW71KR4OjlWrrQuGirQdMqlkMDrq00h4Oro0KZnli2OQQ5hmGqxZc/rFaJrd7mpvxi5uVzMVK8
+Xg8bxfM2qcvLSvJHRco+rSw/FtZLKtLD2Gd+VALObPGZShS1cdwGZnQj6X7HatqBGVCXPHyhyQ1n
+gkFiwWTg2MzxK9Xhf2i0aZlm8azY4xU0rU09ZltL6V8tFXBW1T7HnbYjwgaF0ljy2GX8yT5QECCD
+3booLOMo1OrkxAy1eIC/CK96dNppN4w9NK2ErBc/yzkP3QsSeNvIMO8Ep1GVpbjizeSo0EOySQuk
+LoMdY8SOu6hUttBkaACR15tsCHN/DGydRyg9H0VJuc5oPpU6bXVtGD0MZXRX5ZBjQT0vjKg+Z1H5
+bMt07/GXUbgFzylsC9hgyKbWTrDVu2rLzrsBW77GRZr5NH7aEMeKhyyJOh8T7Law5LDILHky3fjW
+lKi6SU+IKtBwX0BHhRftXlWW9RrnLlo1RvQON44GGT1IS5pIXDTCrLm3hLOsqvrQkmqrbPNZjc2n
+IdBHZoI89SvVATxHVQox/Su74ZfR6RnqJjVWdHBY54n87HIIhbIzXUmprawf6WwP5+rugnJDTSz6
+IQc9n8a+66jTIlAiStUUcBKunSwdEW6Kpl+idEMaU+7tXL8MLEwsQdNVKxAvL60Tf3PBfS4wQF83
+g3efxXD0C6faTIV57Dryzg15/doIVPhoY6AunJT+uwSBeGWqFdR/3XmVGkNoL4wezchVw31Vl1G3
+bQAYFFdh1jXmlZvE+coIx3WqEoligcR2vg4NqL4hfkO/TRuC2BnxNP3YReRQcmKIWlVcc026yKYK
+nIDGPNpe4rPdG92cAYDywoO3bRPf9DoIMkm7yi1+rnQ6MZuO9EeMVMaeQIjcM9cvNiEmoZUYJNP7
+3nXq8hCZQvfuLDPKtO2EtX26ti13cv68Fr+7bedS0P86lJ5TvO+ksf59kZ8/+XEu8V7EAvL3nfsz
+lGB+LmJgQV4kj/seHfhxLM1FqMQSPc34XnbKzOvjHg+vgP+3zjV/xj4RCfidY2keW/00IMUoAxcW
+ry2mSGZs/3gt1lEeQFOx4IpQARYRmLEjcU0JEvl/zFeyHF74HXT6kVxt4x3JctoMT8ImM7jv/bna
+vF9t+Av6z1XUP/6i02D+0Ica/Y4Yo+GGTsKfoBasH+AUjN2ZJNh0Z/0MFkJJIE7+HSv0Ppf/WD8w
+h/A6fS7m/R25QZuvLf9YQVxsDMRofOBgyP4xGJVgKa2e8MbWjXWSaDw3nNeEARPPuDFYTqqHOhrY
+1H4UzkicAMtkm2dfnHTmPii0yOVwa7CuCHGd5vLbQCHAphY5uJlKa9T9JEbSfFpfrjonU9Zdqw1r
+h3yMTy82W6NZPqMD4rulBX5B9Va7RSE+KHV3zdPSZEO0b2s1NhiUdaQhXDXD6+g99jUa2yjJTbDh
+P9ET4sWLcRwtRkzDNjf6bhFnHXWDOr16XDiTZWu2NIUoznOsddESVG+8aQLlocubJwa81rJJMiAw
+8TiQ6IJqiGHlUUeY42V/AiLBVk+NeZKltKK0OeMjAD1rghcN2NfyttT6Iz9Gv62r6lKlJj4e7Bt7
+4FGMw+qiUOvbalTvBje8GAqx7Vt554zOeXTHW0EGuq7INrcFLqt6QFSceGD6Zhe5FMNU8XJKUuDZ
+VEW48Ximev4645uuzPVho3tQR5qJG1sqi0BrLvWuv9f7YK+Z1Zs5V7OYWc7gt26qTMPSHLXTyhBe
+A+HCaL/i+uXVJrPch36nrvUqwro15YOfV64TEoIs2mr1Z3v4vj2w5f7HIdO10Wv967Ztk09+7BEa
+6Bvd4DAw2c6ZT/Et/FCL9L8YZc1yJRSbWV38yT5BgR92SR45cx2Jxpzrxy7B1wHqNKAaDqLZdPE7
+u4T9712C8hX2HPzyHDeEPH5+/Hi9EhSA90ySnXE4LIqurKz7ZlAzuqgA1VjbXPXKamm4A56BAHxM
+2J/NxMlmK/Y68MhKJh64zzHY5KnByMs9llbmQ+VaqWXwzal6JsyhtRqn6JAJcQCqqi6EB11qmMqE
+MbALBdCxbyZpnLQoXmlj8tgN1SHS7U1gTr3vMTXHd6BUCydrVXqICXRxSb/qXS7jdtfA0o+T+0YD
+iazJ+6Kn3VQRuzGxILirwwnmUAlCntqSSH+riulSQM4nxByC5guKLPZbfIW2Rh1E19VMi+z0brJ6
+k8ZPp1zVFUKZYokVckvv94ZAQworZ6kpKnXXWKx3CAkCgiw+UlpYssH1w7JorsIgT6h9SDLqoCXB
+fdcTd6WHYqN3CGKukhv8cGIYV7nadvwZfp1SxTxpVbcFUW3xmkkGRilcQ12FudfQQARO9OhlNNmz
+YcU+kKxlax4JxPWJ86prauzHysBgnIAZgQZxU6bhMdOVb4PVSSSWbN8b1QW/xdtGWoyBYDVMzvjN
+KaytUQ2Ppa5cDwymUp0nj+QvfzEAelxblUuFdG8e3RgMUTQPwCYmYUbf8nKKtAtwPdUqUqZr+Ec3
+jjOs0sISO+AeG6trH2PRnsapemn0CF7FhD5X1PbGNONw0UHnSBXJlpY9V2414BxUbvSxTPHipmsc
+3sMhKh24s3juF6op39pQVjzWIAqXZfsYVE61duu63lXMMwuwm7Q6dBxYdnCvepKqtYk+Vmmk2j5W
+o/1o6QrZysRZJmZDDUSAm2T40/z0902b/eJ/b4I3AA9+Kf+YfOzjmu3+NY9j/p6ufL5mA+WxybPh
+UOSy/ffe+KH+YBKDamB5tgUZ8TvY9WMDNP9CovmR9kVk/40NUPdmOfzzNYmbPJN/hG+POxs4WAZK
+n8cyoTpMfPVlvrWaUAICFVERnYy6bgk+NLq5osRZPUYOHWNuP5SXpiSqR/8RcP2VHiejs2+MGr1I
+zIDaFZxP7RgUWrhvyfGdKzjXW23IqQCUCdeKsM1VayNqGOi7eiiocNaiCuONWmaka2hNVcnsFAQt
+UjnKpWH36bFV6bKR4ObJ42TxQtASULbyq9KgDrjT+FV1gi/T0J74j9tDlrjXlOigDNCzhwZSfmXU
+L/Q+aYe4yO+nnu73uHEB5Df9zeQ6h2Aagfk7xk1Jh9RSzy17IeABLcap4Qk+osooFLLKJLptYvPa
+KByCF+rDKDAcUFl4TGoQ7tGEpI0lCZ/0dOzD9rJr6ztT2AynkpsQCct06ovQDg4WRYNugg4se/08
+6S1C7Kjj7HHgnw0d3B0IYl1NvH6qx30c6Mspo8xgKLwXLoQvodW8pZpx2TRo7H1vnvtpumwK8ZC3
+9tnTg6fG7jZOgazeQlaklAOnFLY1E6NOvGts5QV2C0XcmbvWaqBsMhe9L9J4GWbSjwi6+bbVoR3o
+N8LWx41aR6/h4OxiZcboG7AZei6sUOAXU2VsJq94al2EpXy0feYTCIHxsJms0Fs0o3sn6c/y+w4n
+UT/Uay/Rb4HYXXcav9M4Sw66iSwUqXMjn53ARqJf3iKLnBQDhGASNr4zK/xdMp37xEJTado3Xg0o
+hgkLgX9hLXB+aQSX2xgf0qiF9wbLqTSb88iimcqRWpu648TQ+IBRuEthaveGjnTpjOFi4HqMs4OQ
+lHCOrozWYZNfDNbgj0l1X0j7qFZWexxr7WGq+i9ULe7KuAWpryeXiRU+qFDKx6A8EFi9iCzlzQCr
+P3sZ77hux3gEunVQoq1NRryEw7SWkXcDPDT0G63fpS3qVytIk4UY+z2R3eQJQYzKPCWmsUoynfZI
+UBoRapnlJXdR1AOLowt7rjQrOEY4q8mHOw1oLGDFWtpcRExNF5SPCyZQQCgVscUW1y01YFVpZh90
+Q7mpFQ4xWQ9IbtneqeJDFgxnomjnKSOE7ijeziTjnlSC7zFpwBxuU9BZJxpu/Glw9rFNt3aGhQ0J
+0VmMbXzWQfl0Vr9Su+lc0hBaY29xunSrlUy1ytq+9abgMVLVrROJZaF092ow3pGyOERTgrEC32U2
+OedCVPpCcfOtcLujFMOWQhocE9XekHz/gjy6S5UUCKvYO2Z2HcXFNQUzB7Xvt7gZdiRpqGYLV01u
+8RAQl7W8DTv7bNX2SS3yYxkFhxo/a172MZELuap6gxXPuAke0LrDjpSKemubMR7WTnz1EGd7OkSk
+3t0UZn1BU2pKj2K0JvZ+XXWo2R1cea+AD/Ln6fD96cCw4j9OzeeiFTgaOCL/UZg4Dzk+jk36cw1w
+dCoH02yRn1PfP6YmUDCIMX2aQP84N/HLqx560TxN4TM/Tk2bWQniFArV+zzld07NuV3x51OT+TI5
+rjlcbpClAqv386nZYNfXFddstqVGtqSCabUo6SbxHQqol63G4k6LMs42PC68R2HosDLxyy6m7FtL
+PKj2ngaaV2p6/eL6m0DS7bMvxQBoO7yu68q3gWOo8yTli2e/WMOzYuBQY5+Z4H/Hd+qMmkxuBkOy
+D7Z+k1Jjndwr0wnLkq/rb1bJSLagLeyrotIQMD119W2C484yzlFwHad7Nb2yp50bKMu0RmCo+gXQ
+H5cZx6Tt0/TKVIHpuF/xM/kDKaQ+erOo0v0/9s5kOW5j26JfhBfom2kB1Vex7ycIUqISfQ8kgK9/
+C5JpSbauIzRXOK4nvEUXq5CZJ8/Ze234ekp4bVUXs3VImyvXPU/jM2kZyuTT8E5ruDnI+7AhNmjM
+C/oL4k7iBJvDDBOQ6kcgmFMUrWr6Zk8vRMitivlxwEobdVxAjE+5h8FTv00F0xNitorYJGvtJWTI
+VNe3uXEc7XtcZoiO7gqMYJ39hvaLsGLWerIqjDeNGFc1vlLFa4osJHsT+rTzTMB1GmT3V73juoCO
+jGET7q1lNr/KWpyl+iEazk1zR9xHYbNDghpmuLCIe+crszypYEDsjhQYa1M2j7G296Ttp9XNoNd+
+m/CzCIk6/KXceXbluVdOgp24E58r5a7SH8fozVIEEu23Ut9bE+EhJGdVd3F6qfY3jn2y413cvzry
+s0Ee16j1m3x6SUbwxy9Ze20mb7p2t+TlxgkQnv6cx9GqDJVdNd0MDoe8cemEJF2mh5AhciPfe+dp
+NnNyb/i4lXZVDIJv8wTQDen9PCm+ghbLSV/s4qasr/JBMkN6so3A7EdYyzfMU9T4UkGQN1UvQ92t
+u6oPBMB4Dy8gnldsBatChUNK9FphlEvICkPoU1U9uzZa/rjjE3sr+bJyR8Jg4UZj+kJ5sjhi3dto
+eqAqRIjhz7jGUuZcRfw62/dyAt5XfAnxeovpnsg4wP98Oe7DZLsr2mj83iYYdU6WytfUN7KgfAJy
+/cxeW85rm8C9Gh5767qn8Yu+ORjVcK/XbwOHfEEgTKaZ28l8XsiBnXElInU/GA+xfJbt51xAK7mJ
+xsWy5flJXrMSDyZ0585l9IQ3kGzDlL9W5xstb8L+JqYbILM0ECWJ7ByGRlLvcx6OihmSO9736cMQ
+Rb6lPtZjxXhkr/Ip0H9cOyzyuR2D0LscsqdGRfVakTvXvCsg8fIdnm2yngXpLX1yOzvvsvgyc+0L
+Md6pxXOWvk6KDvUqYQ54whZZle8tX1wOVatAcqrVbwbom6RYJ9HLyNcrCOqICU7q2r2ZXdnOtgS5
+FfYHWWlHWnS+Xdzy+wYdGV8Ctgu3YvXJqy81cz7EyXmmOInhnffD3ZSVF4V8Keaj0XvHsP08eTcE
+6fkJYt4EHYyCSU5WRzfivZ9jMhzb7OiGydqBLuuJUzk9a2EYNJgBY/u2JEK2SJlKYoDoPFB+8GJM
+NLhmQsZSD649gaqN/AKtacHolLUsoc8O7JUjHzj5yvygjUfkh9M6yV4xnm+7/qGzYeYosz9Bnu2K
+i7RmdMeXrnnVBnDwdiRAxvPi3VR0zM1eYn6cj8e0ei0FVDYrmBVk7sVedk9Rd5uaN7C2AsEThQEx
+Trk7518qUniEcx/lEwjE94nwJoe7Qt7syonQnvdGEA2eleuhf3cGbdcrKfJjzC5BbjtBVodPHtCb
+m6GViHd6/d7qw6dBKTAeFpq5GYB8QQtY/kV5lYzhxk2yIKmkTR8ZHZByUUX6Iv0hCUYW+8iYjvOi
+FEoqvyans0+Lc6GBMXSadWGXe0Qna82Ra1F4d6o3HyZieRvTDPpFeTQv5KQq2Tl5vRYjrlm+NSjM
+xwUN0PaL61EFkdjn+zx+89iucnXaDpjeJf6MT4NXmVczMqfUQshqNFLdI2DKobvx19todjzlthZt
+oFVfZJ4EtWqSrTbeNNN0BnnPqhRBM9FvQZDbWQMOWUqxGPsM2Z84ZHdkY9LXudPEowZVmdDNlaZ8
+rrEZaO6DUJXtyF7UDDthu5soh/vWWfUrptOLpvRKP29iGs4jyKcBnKo26ccEzc3GQeoFFeKO8uCz
+l0ycyqixe52k+mgiy7RlnLRGH7a0vDMEaassNknqmmTCVWAYy+JZHWBJ/anzvtV5lD3/Ued1r0U2
+/aLK41Uf7WEmjRYqFs1w/6mNYYiEXJTcwR/mS9+rPFQPMH9cW/0LX/Z3nYfOEJUrP/477uI3uiP0
+nP9d51HmqYbKNdZiFLm0j39w13G647Ysh3Fn5aLZ25bSsXd4VC0ONUSeq0+8e+CGrV37ZeOl72Rr
+Fmco/fa1ESrazljyUkQ9XcYycx7qJUvFQGrxJJFQ7OcGz9Rg8Ph5S/oK0OEEEQOJLABpaSEvKS2O
+zL+YGuFwUWpPm34Jc2m87FNuh6dhiXlJBatQX6Jf6iUEpl/iYPQ4H/12iYjRyIqJl9AYb4mPCRGK
+YEvSCn2X1kI1FLqGMsMLMWzNNtMDWOllUCi0W/Qm0QINAYhfD8JeSUbzPo6UBzs1XqAUxr7AGW+E
+PfCYFDO/64HFrCX+LCkpWNpCAWNM9541LnaRDN+niI1FL3B+GVH8ltdV5Jf8yWu7mj95CX9/bnS7
+khR0cmqnFGw5gMR2es6t6M6rCuSVVXGZtV0Ditnc0vttVoXW3llhW+7idnidbJP2c02GmlUA3CzG
+8FaLimt1Nm/5S5CepOalbsy3nTM8oDN5MMz2XEqg794QywOoGbbakXQ1XC0IAEUUKJX2qThpuU07
+aEA81+ASVwzu97KO1JNljM4Ku9etNUwnrUcEkcbmVZU3pwKAm193mbOin3UzSuaCkEavtSwjD61q
+YagQ3xD0eneyTCrzSqUYIN7sNtacs5A8KX1mVwccV9PGa/TsT0TqXz1apkP/tQuV6Xv7i12IV/2w
+CyG1+3tcjaDu467JLrT4mVxUEMA5Fi3ET1IINicd2y0Thm8D8I/bJlIIEOxYfx0HHzBnze/cNhcV
+4E8tWvRnNFUdnXhURlXwzn7ehOY5HTyvinXuC5250ZJQ689VMbbZhd1CQTpkZoJUpwhbCBJKWVj9
+JYrDZDzLJjFEuzLzOr4EOzNP2z/n2rdzjev+fzxRffOrXLalR/D9gTKRZ6qa/dUF95NPTyWMF/qA
+ikIG5g/6hJ8eKF6AGwPhuv7z1JMHihkpzCNOPEQTvxW69O/MJdgHEAxggxEJpSMU+Pl56sphGEal
+t3aqTuCqWaXEUtOS5K5uGXdhVFJst2Pvd7UKgaMi48bsEloUVkxxLcyEsg8twZQgyYOlgR9JV/e5
+ASfd8CDU9wv/RDEUuUL7mfqdqe6yTrrrpEE37mZ6FlQo/na2GzV+7CGiEOokqbGNmL6yp4NKr56F
+pkxB3bikoU/FHYFmez0sPL8wnctGlBsv18ddD3z4NlHq+rpu43QLl/aJ8EWV4B9y2ipRv6QEhXMp
+SAoYSs5NGArvQh/EPrNglRmVdZEvN5MyArQk7anwC3V4CS2ahYZw+5rAHCUer5xIkhCiDH1ZvDR5
+pnEiCt27MqbBfheoMLhHdqBOtNqUdHy04kEdy/iGU9GZgqK3+40ZphlnuVN6ryAA10aH/lorlAdU
+mw9133B2ddeiJQzIkkQG2SUYmLkyVqarP6ilvVWccvTdzn3IECHeS9QkOxLU9l3mkZvJwFaUWlb/
+qVb/OifY1v9jVcvX+Fd6J170saoNwCFw/RZ/yVcCCPv0h5aBpAzLIK79q1qO/fl7pQoGEE0Txg/E
+SF83go8zwoIVCO+cYETuGV/lD79RqXIU/OuQMDiLtMVbZRlMyjiofqxU6WaPaObaaO8YIZAi7Jnp
+oyFESpQPhO/R7YNIm5/qPuUW6xLkoFrx525UMgh2A9c+jQbhNNPnnrOGTAnVDBTQQwuz9p0WXrue
+dO1LrdKC4Xr9FMMBWtkSAFKq1wwKdJg3Lqph3xrgoIt5fg9T7Oxd42wZTTGlt0GfuyKJ/CQjYbTR
+nLemEVDrXBNlkiDZtSJ2TDOr27hu7dUsp7uhNJ+xypbbMnLmTW/Fey9t7Weo6IbveOGW6prNaRoN
+gEMhZtOq2Usld/zRVUr2FeuYG6mzhMjeT3CwIWA7Z8fAT+N0SoInhvum1EZicVH6MofacOF+a1P7
+NVNapCBgfwEEtLcWscorlAuM0hrvUvZztSl75TDGVOSj03RrB+FDNrrn1I3oo5EIBH+gum1DpAKE
+ECybpA6+M24OSU3Dgnxr7Pgawct6fcmkixQvT/G4Rsg8qBz1k63Jl66Yb4iPqP189OguQu+DOqdd
+DyVeUFpadxrQJkgV3pspZ9pEwvJWbFp9oLNDLH2V5FhLen+hXj46WUczyRyZAXVXViFxKWeRc6lx
+uq1kw0y206fST4xawRUsX1TL6oPGrW7afnjIFUPFCW2xJ6nquLW9MQxIDKE3NeabTHGvmmE+emAD
++bxNQjVhhSQW+13kTPecfamvp+7kE5dGKkVjyc9J3e2skg5o6GT0OLPR3gubx0r3hsofKu1qiNGc
+Yx48R3ptbUhJwdCrLSnZsCwwwzZ3it7otL4Jn0UVHzi6+Tg6pbG249g5qPaYBZnUaWIPmp9rg4rG
+YqIpGVHl66FZ+VUZkxtutevZrZ/qpLt0luPLGSd6VApvIVF5ODnXXofB4YNhKu9XVncSoniVBpPr
+JrWOVtJfyShS/XEMn+LKFcFYhBa2rTJdObN4xF5tBYObip1ltnKVqNURwGG8tpIou7BihB/0TuqD
+50BvMLU+XEMf1pDCxdW67kR3mpTqPIY2R1inCQR0dgS1BVVLlZNS0jPgRnXibsu4yNYu72XTq1BH
+MijbQVxLmI55ebLT7l4m08zKgi1vDgIlTw72BCs5rvN+iC40BbaKW2MXDlWp+tOMiSuNXI/oVVAh
+3tSftFK5NkYveh+7aNjCvY1vREQz0xO1vfVGT3sz8udEL66TqXzNAXZwwbIkJk17kyPKW/Vt1axz
+MzpPdSMwQtVW4HoMZWcumXxO46cGlbkfq0kG1Z/Hf6iJavSs6QJs4ZXXeU99az86AuGPq+XRidRz
+gg2y+26QeONVnHMt4TNmaZ2VMo53KFrKM9sYCSJ1tC9CRqRK2n0iyiDzsZzBt6ymgsEs1YnTbWUS
+0kZ34nSVh+QfF+ElL+Dx1/Q/gpi/DlEEcv/7EL0D9NxO2fBKB/8XVy5e+3GW6v+H9MxTrcVw9Ffq
+1PezVLXgKXG3sjzN8X5WD8Oq9zg3kaYvtTMn8PfjVCXldPEVo+b7ajD9jeMUePS/jlMOeTJOCU5F
+3qzq/2j8OCP9J8XqPAyTg5CM7RWz3NVtF3+uVIH7n4gOtkUOUHZ1EDxxe2WobVDmNinhkg55uLEA
+BFUJEVf9pUUTQXGH28mNtot/iUELY7cWu2NBh3c4SzKoqmI6YRFdm068HplvZ/WL6eWbvOsOuRDH
+AcysZedBRi8qclu4sPaXZryw1Z5uKTqaqkZDWAZRhTxeTNuahx7ozqZqzi69bfyWa3cmXQ4uwzR1
+N33j+SpUgYYF4hn1MU7pgdawSiHZhzI/qqG3djN5TDtj46jp3hXDGnQPLedqRRjBykRRbCTloVdJ
+gtAIBI28YI5SBjygcvvmXmj1WrE/J5G8Se3sBrorlFt9C9F6bWXmXenpG6vb531x60lxKyVnoyj3
+rVpvNcp0xyr2WVFv69BYq2UOG9g81WzsWuqcaIT7ZTd/Tl2JMIF5J+/EbkyY9iAjG2xoSnZMQnE5
+lPq2MOyjQNkkU1CDKtcdVCHpwNyPyY+c24NVs8OWxa62OxxjdNs47fXKOElbhx+CUhGWUlVel5hx
+4yTzmylZW5GzEZx4oegvFdJdFaVbTRZJhtHrnI1U8QPMQmdrdAJ0d+GHinrrRcBz9OmKx31dOMSo
+krKiIynJkZuaUb8NKX3C8jMNuYPe1LtqYMAA/EGb5a4S6NAT6ph4snf0ItcmDpqwlAEqBwYo5RZK
+B0M6YUzmzdCH8hAJt12rQDXZzvWDYYLxt4NwLPWHxM0uOEoDIzyWgoETYMO+Mq8jMTxYWvzFtJ/q
+JaupEbkfux4wrdazRmtrVnqTIswQT71HqvQyWVbdM2Fyl8Aan1DwbucivVfHaN3V1YbL9WVJcAxh
+Lxu9HXeohraDDGUw0OpchW70APf43OTR1WQ0a2V27qsmOTWT+hppFja8/L6c5D4T6Ewn45CX41Fz
+XL9OKs5znEdBJIvnWAzQoKplfN5wgyzbx2QY98NkrRt+UJs3aVr5eizXZRYdjbk6LmOi2E2PVLFB
+loZ7bQ43Akha4uBOco1NL8iXSKZ74TgB9mPsTsqhdO0rr56PUa/toPTujDG6IsJhy8F8TXCsl7rr
+ZdzUZtO6G4yztGyISXH10In6sq6Kba9UAkJxvsJXsJ2H4TW09K03dI8Nn1if9Me4FUfFS541tzyT
+4IrPvAgMaR3tJj3WXfllZFhRpsN2phBPSdy1ixKnZReUhHPPpdy2lnZKoHnz31g3tnXZ9YXpV3gi
+V1kCSRraDWqBTyiOSXGhVJ88HGINcZ3uzp3HV8UcDvGcbEpdZ7Ze3Chz/YQd/FSm7TZW6EOO5iYS
+8jyWDEND4ry9cjN21X7E0C1pOzdMI0cPNCr2MVCu29K1wLcku9Gd3oxK2WYW/5NviWWt0vTcu1tT
++6SX9rFTjMDLoXVCKFsJnS1KhY2j149J76wZnp8wQtxNuK9j4thwne5iRr8DrMMUT/rEVFbk9sMw
+RlRGMuSW0w1Y6QiRG89WanBz7ldpI1e6WgObMXaamBiXnzPF2kh3DExFOZuqtyHqnJxRruvS29Sd
+ce3oAD2jje4qm+w1OnlJszec4p5tkAEUyi2GeiJFB2EQWCpKsMz0JpavzOB5GZoCI7i+Ci2q4bbe
+lEm+7VWJAFj1Za2/yGzCWA5AnQy6ppg+gxncwtry//ThvvbhrP/0ud1NTfOeZf+uM5aX/VVnOIAY
+6cQBufouCfqQEdlgsRabgcU29VUv9P3abi+h6WT20m718Cstgbnf64yvZH3wKn81fn+vtYvC6afe
+LkBm4CtL2hjJZTi+ees/XtuJ+a1TUXfJTpU53PFsWOd1eWXGQ9Al3V2bhlxgyvDkkLxXTeqzN/b3
+hSeOfTHdjTnlda4ETaPjsW0uRpeHO46PQBV3RkGyVl3kuh92qQIrqzjnpn3GvTqz+Lx3vAEQfYr4
+ybMicEuO8TghNs2+Dl7H66hmcZWqRGIx23CmYLLn9DKucILeNWaTbAbsQoGR23t7IXEJxd0MGZky
+YB99/j9inUbmc2wwB3JL8y0aoyQoss7iSMy0W6vwwpXVu+Vjrsfqp9hRVBqG2sxE2zAaiosShB/L
+C5n9na21OJ1sLFXw4mt5AprYMbtR+utKZp+Mse2Tg+tW1jtlfAq9TlgXw6Rlt9xxm3t3JFJ8zWcK
+sE9hMMdFuaPwiudZSt+NJuV55Gg5gcUqfIPoWqQR0KLQAIwmu3kPEHpImhm+HeMpxuRM1SITH1Zk
+9lD6gC0dUsOIdrWnmJvQKJWdKKpdqDKJ3xi1Ja4zGWlybbkK79EjeX0PAHzmhs0d5tEwuIXViWSv
+dx9L07rKMzj7SgRAuGbStWqj6IWMMArIAcUNM3dwU7RV5+HYVS/O1N3qaAWEc+3UT7Oyz1O8tn2+
++rOrfNtVaLn/7yvMfYEW/Bd7Ci/6uLuodO6ANvyFbKDb93FzUZfNZon4wCGL2c79obdPtw8WjYrR
+yDYYI1tchT52FPg3YJlI52W3WaJvfmtYtICNf9pQmBss9lwTMxPeWexVP28oBGvIwklR1Oop0qe4
+0c3qRYsWStqsjyGZTxUuu2am9l8mplM0QyK3WkxHiYFaUXuGK9lgmTG3ACUbBGvF5YhR0S8YxpaT
+i568Vl3fsfMvpJwuCPUladVM0IOICP99rCNKY8irC6flRsDcN2YAbBUzwLk4vu86FY34zLTcXibH
+jqD9FjFMrpapsoUJENclcIg2fzKFsq8IXiVtijl0NRFFp6pJ8SXvmuZUjlaU75WuCWeWCCBTUkrC
+lIiL8NDiyuG6DwNAEQYFtjLJnZLUd5EJh+4wz/ZYHUOvnUIYnEkJngdign73Z+V8Wzk8bP975Ty8
+Fp/ef7FyeNHHabzk4zjgo4g0+Ljaf5zGLm50RBY/Gss/muiL5xwRBtBkY8FDLVipj7VjE/5J39ux
+dca0X30yv3Hrx5P4j8XjaaqxzHvp76EgYYn/vHgkG7A6KXa/g7BwtuMwKMAkLjDaLpw3quJe9zKq
+3o1pJsHGoL6byn74IgZV8wvbru+5s6VIL4Zb1TUeFfpZFKwJOSRavAjnuL/kzUXWDmJjyawPsq7K
+EEVxcgb0CSpo9EZ0b8M8RIGvqSAcsIJMA5jYIr5NS8nSMwbB8di1SK5U/AIIMeKbPrzOFtTDKFEx
+QmaqnsP0ldya7YLVsLunxnAgjeA6mTnNhfPe9/W5k8QG90RGqjh3opkrYusE7uSddHCSaU9+Anf5
+sF8wKTE5oxEoC05Pr7qzizuY6v5oZ9sMRVjq3rfZq4oGU7lR/MxEkQ8VMlWcYJ65groqkcPIOFV9
+F4b5nVXDoiRdYJgOQ89xF3vNztTgJ+XVyrW79SibYAL4ZDlRwD66S+cvcXiXla4PAskvxnwvQuUp
+K4egTvJnTNzHRoxAUGqr8Md82jedvUwsMnqEpX3ozTFbz/Jhcs9lWzbqmnZxfdeTWRD5dYnSEA8A
+eJux9oJcqe4XUU9bypOTN5+SITTp/zfoANVg9toL165GhKvzfQmdd6UV6ZXjxFgxsAbo1nmuow0k
+liu8TzvmrpRD8c5rqS4mZ9NVKupI79ImEMDofNfc1/Rk56Z/+rPlfNtyaLz97y3n8TX91Y7Da37Y
+cThSkWl8P6bx3XlU2hYL/RtElw3q+1ajOjY7DJErENXBIn3fasATLN3FBVT3dQxv/07hby/juJ9t
+d7gU2PAWVwK/75++4yymsk9E0zFs6mrtTp+1AZ11PwLttvXywWjdt7q36an0XunGJ5mVtGeE7C4H
+ZQEltpvW7TZmZZxLBFz3upe8MgOIA44682TgqKeWL2/h5F7QTX2XoXFt9/G7Syw3w5E3xCGBkVbP
+abWw1BCgYsyxynUTZulWHQWNSGGIehVrCZJa6WFodlNbMKag9E2u1NEQcqeRf3KyVCFIvCJPkgDk
+YWsj9D1VbniXZI0JWNfJTlPl4VXDLrGqkwRIrCtSJhFe086r3IRsEIvePFoKmWkr6eSixavkeGOQ
+jIq1avte3boyHHI/9EKVnj0KUrI3ga7dz2RdfobDNsFUq/MOw8WfBfVtQfFI/9eC4k79q/KXV30s
+KWeJ6eYSTCLCP4w5LtEGLDaWDQKFb5DH7wsLjyslMytuIT06rLnvZzjmWEAhgCMXHsDv4cy+KjL/
+sbAWyKhnMERguG7yxn+8UE+m0zvIK1lYQ6NjZ00BvVtxkxm72QsTUj1LHCu9goJZ5PKJ6RHdKDWd
+HrmBjTsndMUu9DL5RVbFrJw5Mmqo/rXe9TGKzrod93YRmde5ZjxRDTs7T4ghQIqpgmX2KACGZazq
+jVyFpz5I2sjYoLRkmDxP03XntMo+MZQrh67eIqyZN57TvY+2PftK4t2W6nxvCCzfIBOiIOu7vdrO
+W1PWdKCPnZbekkq3K4bkxZEsfWe+IGP7shthFbtc9jnOtoaI3ycLphXod2tQN+TVXUpHv6ybku5B
+wvFF3EJHc69qnHXjGtvUNh6YHO+aIt86o3czom9N8ugZ7+q+M5qzUrQPoia4iAW8nULtMg1xAdJz
+nFMIzHxWedi2f1bet9HZQkv/r5XXRlCbul9ePnnlx+ojK4wEUpg6LJifgRqOzfUTHS4Tq+Xo+mo1
+/778VAIpWXpU39/q5L+XnwWhg8KagZuJq45n63fOteWK+49zjSPNc3SPrhtTOu0f2rI0xa1a53O6
+Q9Ck4xLFwnLUettJERkjlI6rZN8sHZNs6Z0MSxelqyxOKabWuzhrRr/MzO7dwrd7Jew6f3ayJjss
+2WnBBD+MPkzbtRe2ZEEHBCBP9x6i7XMxRgTSJ0W81a1c3TfupOwGSxQ4SdU+ulFLHRU273WTLx2q
+qccOWuN1YUAs4XXzwndHwEXF7ewFlrB9SDsAFpzrts2InFI4ePpTRvp52kIK0lxac+jFkmqTDuYG
+RuA2T41rugGOr5TW0TTQTMN6A44258VKyYxT5qCzq2rc4qi7CA9MyHyfKvBC5oyLSNHdikQqphld
+V34qkga/s577JGW1PlpjOtU2yovJad4Mr6QPXZu7Mc9eVGm6F9WghuvRqAvzEYAQlhUlVJj+a04v
+Lv8ciN8OREqz/1qW3WsvXll///CqLtkLf61JYhlMi2fdoylMTQfc+ntLSPs/j4QaAmH/Hkv/UGvS
+69H4Vr4hHhbV8fcjkamxZXCKGcYSzuD9zppEU/6PRQk9lAsy5leXfvJy+v58JtqK6+RzGbo7IYDu
+B8okdMvXlBxjl9g2dnFhdtHBBlbvO1Rw2lqv3XkjW1NbD0rZrTXX/mRCtidvvbuzZT08zVOF07HX
+TT8hLCXhvqWtjNw8ObLF4FX3CybnIJcAuay+MioT2U1y6aDvCAsyAAjptj4PZb7Y7FcEVm5BTtyT
+wPk+Ws2Dppvds4e4Sxi3Lk7XFmKXoyXOJprSL+FsnbNu+GzPNTKZ0Ej3MzvaSkkUYC7K+9Q1J5TP
+gSyxFhqVPMoq9mdnsNd5CU2mzZPDSFoSNnX3vsnxqtbJhKvcnQqF4B3y3aXUe4ABVpvTj9eswGi0
+bVezwvDmyrE/mHF26NR61zLHGSr9eXRqZrsyaIkLnFMzcNvx2Mr5uXHUtWyqdVmjdOnO7dD5hm7d
+mHZDWo4VrQqH3zPYz+FoPpcxYF5d7gsr3Bglq73b9twPJ2HdaNFMDoy67ZLJd8Kn3LK2VRrvhOK9
+JIa9b4xm045WvcpTGuy62MxuC4GHFIgkfyxIlu2qBiGWtRU4PyekThIiUWQFGiAxWbM15T3o4ezS
+W7xWJIpaUsEJisjJG46GsAJFTQ9lHO4cMA4KXQ2rQT47iXUxmcHoPhfCIQywOxLQdyOa3oNyAxa5
+dbGbGBehUhyclBl93dFpk/Xsu5pEpqC9TAq/uYh6mtw5DGT3bBspFGz1GDeRtS7V8WBIxHYt88O0
+3WegoUnYujeYwiYmI2bN2Yo095vBJL1DBG6s7Pr8pcL4oZnZjSgmfZWVNUKzqgwoBR/VGvlgW5N7
+7J1Vhf3TwftXJM6zbY2ntm43Wp1sdYISIVn7kxB+OVsMPfPNMJ09HRjR9KWfHrME9dby6bpxEBoE
+EIMkEl0fmGG7mSwV+JN2VSVijXzhXFXTBpnyA/zxoBHVQ0koZVamB0v2+yYbg3RwrjPHWbcoIjJ7
+/JQuuAxynNo8963RW1d2D+INM3UBUhuIlJZPO9nCR4thbHauuDAzAEq5gmhrBmZNXENMXUtzed3j
+G1qSNPQm6GvlUDgWX0wOE6NeNyCpVqVseVQn78tQlOX6z/nw7Xxgt/yv82Eq3n9xOvCij4qNmDjk
+v4iTHOsrKpEbyfemJ0Jdrkvut3yFRc/0UbHRbvCWW8wvWAaLx20xAzBN+PYbf+d0+Ooe+fnCZCCk
+ovaD0QZyyOHw+vHClCZj15ZqV+70oXh20uppyGmhJ5OcdL8IPW+XTbLrLgH8IFbK5yNjBPEwh7YI
+YmnniEvj+K0p+p5k+kqhhVFp146Vj3t4+7MWLHS4/FavJkKs9Ar8sWa0hTwprpr0p3FiKSWYCNm1
+EFtoVuKP6fBKteRsGkNPg8niTczhhChA3HV2tIMVcc7H5CLytKMeT7t8CbRKSNYWyXSRhPle05Fk
+La1ZqScX4BlJllXbs6O0aJyy0o+i+nqwpq0yz+tUtltjQpgfFdaXODI+h6g21hWBL0HlVmNgF8kc
+NLBTgKt/RRYp7YIvCue53fQ1/oPtqJgLi8EdL+0e77yj8oIuKj61TaQFWNzeNGiSQKpnGpQeJxaj
+6EXdSQZegzwYHa2FJGhA29B70OP1CJmXZwy7DFfkOlGS6PxniX5bopRO/7FE4+yXDrAlSvGjgmNy
+RwwntRvmUcw5y1TtY6inMX3gHy5UEKzgdfGqjzWKgsCkX+jxfVD/LVenvys4ix6j6eDXAnv4NQzj
+d9aori5ywx8XKRvEMjahM8l0j+vfcu36wYcaGl3Y625j70BuPdfCuSh14yRq6wgFYt22Vh2Uahhk
+mVms8yxc03R4HMJoK1DDSVfGxPwimEqR6wXwgK6MVrm0w/S9VMtzFaJlSYv2VsmsfSmn0J/MTvGL
+bD5VMVmQocJRZ0vSk+ZQ3sNmRyRWaIE+UT7NeX0rtTa+BS4uiCkWx9A26LrD4NJm7z0trNe+tj4Z
+FkmDukumoAjRSs8ED+8MSSNyXU2NPQPeYTB6NcsmNvfpYmvp8bdk+FzGxfBiV25xP+pYv93FDBOa
+W3Ds+MOxyaCKONmLcSZaLDSz3V03eGq8mMDdOL2WMU2ePLFe0En7pcNdbLCIQ3Ln5MawZj2wOygl
+ppdutDbqL9rWrNfD2Civcd5eZEBWAo+0sndsP29tVp3hP2TIwLv9WNQNtnqzZqujEbtCGHWoW6X3
+PWcEzBEB1CpqbR+jxWY2WYHetuInsGTJZaoqxhXI4/7NbYxymyT1ZcMOsqvRRzS988U2rMcmHC+n
+MHlEYfkaWdWV9//sXVlv48aa/StB3jXDfRlMAlxJ1GZblpe223khaFnmvu/89XOobsWSTKtuLokM
+CshjOnKJH8UqnvrqLLB7shocc/JxNAc97RbkSKhJsW8AHdJyseZK+Rj7jKDNc1zFADycX20trrmv
+uWjBgXWhwRjee8vixirgayjeZ575rrBg5+MsTNJGnA0Sue5lyNR2dRDF/fko9MMrMCP8ccyW94Xt
+QE4IfwKvhGFlgLb1NJScBcuaG7R84VnfettbTrVRGnNtC0CjJTYDOfbYWhJjJ2xangBdCGsuq4KN
+p5zurQFTbhjBfod1PjfFn6+4dssAdcRTgD9VR5BezR0dFLkpF3LWe5RZEYgQiKeCV4EIe5H4pXbj
+u1SsbkF9AVOkQPyFE8vXfhmh38ZFDeQB/kspQQvR6pcDri6n7Xt4rEb5g1P58HeRRQVnTAU6EPk7
+TgORNs4gJdvfiLn65DrlE1zu4BGTIetctxF77cQFNvKjOXK/xFkB6j/87E28F8xAWIqIhdzxCpb3
+f1brH6s1EMbF1brTUrFlTHwgKknC4Q3oWVyrlmw1lB+ICs0RhmF/Zm2cRhBh58uCHY7WNQuGxMlq
+LSo4+MVaLWHNbpvGf+UYubWnPVmt8SKBXBevBJzztpostO+OV2vZs5oYXxQtKlMsH01V2DA5g7iK
+1LOg0oEIULMcBQ4iuZ1ZmzirWGzlxNE0ZAVELihzoPp0J9lyhRRXGbs/5N/kozqWxkLgK0bEueF1
+gMmsjGDF576gg7B2RuWKY0oQhtiQZV8UvMCwMqT+BHHo6qRKZWECa8HRUwyrUi0PYOUGFlI4Rajr
+UjSxeVRttKAKSDXgmIe1NJzAtTJ5YNXYvJcYuDaCHC7B4cS0YVCEJKAYtkZ8BpGHbFQjE9vL8A8W
+mizk5owbOG3zgf4Nzl4LH35PVbQSpWtLxiY1W6nxNVdC1eS9q+5aDm84x9LM5oGDAxWTctjGwvyv
+ZGZ8+q1irurguwrvDhC7YTB7DXugmewhVY9jNQnqs7CJ1iYY7FyzlNJ1zLk4z5Vg4veixvAGCZFz
+j1tpCfxUlnN2HsRS9WjZDKx+Aj+qv+l1nkyjAKKkskQaQuvDy2upIy8UzwYz3rlj94DV80RmZbM4
+rxdSR4NnIsLIqhIMrJSNHxH+PnWQ6phi48bsLNxYaKx3jOVeW6qy+Gct2K8F0kWG54vRuvh/3l21
+f/WB3GB3jGUA8KjlhsiYawfkBlCntPMdyjWAsz2o+0BurZiewaIPkznAOuC9j94bDqFgvcpi+6Xi
+QEr+S2tBCw9P1gIgN7Tf2hB6FioSkTk/j2KUQndHFlx5HTAEXbyOHf1B8WHGWPkvCvTB47yop4qL
+161t1luO9TasWz5jkZqVcA1iY4WFYombRiI/LbyRxogKrIy5MByLgYXjWWTk4XQULAM/g3GOzUzi
+GrpmxKV+DwoEbgopJrYLzRqMTBUYa00RwrflsnAiNvazp0atohkmcJblYZJnMhSJOj7f3PFluFKd
+bKnaVYacGfBOBA6m1WkIa1L32a7h4cGA2yHh9MliEQaC/IVrva7174yTrsDXGEtVhsgzZTtqypXs
+mFc+w716KTCqwnzPkP3NcdU0guH0POKtuxxdHMEaaUpWp1NuhMahLiUbKNeWlhPPhMa5DnV/5VrO
+ldequn2YkLq2PmNarXcG+isMTt4LKMBjeKjMvQwycDZrkrkIjAgrWc2R+ac6Yu9tFbERJYzlgxj2
+jh4PN5UmmGY2tIZlMLd4ODw2TrkpdbhDCSYCuetJBhOtGElE0JQ2C5uNJzm4JJBk+i+g8y4LF6w4
+ESA0gbt1BYEi7scNDOdnUVR9T/RkGkuwCMx9bEBdxECj3++gq8Y9+br4jPgYa6y2gni3lcabTfFk
+ezD+U5VQcwvkiTPpxKp9AcSbPyQLyypnA+bw7qzAyimaymPdgICugxYqI2taqiNtJMA4LwUpxUwL
+kI4gHYCnzdQv+Vs3CK/50lnmsoOMnmjuxMh6SUFBMms0bCsVxufgBcKrDuy8PLr14YPFOModaMta
+DIr9hKugWoKrIcBdYT+zowo76UDYVlnLcxdMCPsjFzDUT5p1EifvUpawEWxkYJUz4SD+XZUBnj2t
+sfkQC7DahuexgmO94xnwHqDGdBZckKWaVNv1YzMSodHzHCb7hyX/41xRApD5Gk+9tKy8umMNxV8d
+1lDuvxDnwgkyVs8Db/WwhkKnB5EedHAwadpL7o53v2C0Yl2FOm5v0YmV77CG7s8UcZIPaR8DC0/5
+L3lUw1rz0xraGq2AWQs7FaA05Ywkz5QNU8u6rS7gjTABow5SD+Qij6p4rdr89zhkN3kda65izwTB
+vIvi5MnSq3WWBBpskGZ43HBCh/DzSkSsXqTxQfINDd5vcVPP5CyAYVL+GJnyJhltg8KfhSmiuaR6
+kRX+ArHLmK+RBg0gVO6lPG5N4MQoWrhcDjGdt4HODt6N2aQ1mlO4uzh0limvPAhYSQP0kQSwA8IR
+2ty5DZWztWhCboZSxmrqrFUFDLqqMNEbbhahZM10zlrgPbcCHwiA5K20Obg/j7SmZqcF8E3AVjc8
+UuNh73YvJeVMVJBBpZgPKnRmQRBMsQYiO4RbReGTg26xX/CzyMUxhOz9gQOcsYV3B7R3bX4ibKWQ
+o+wJCx1GbLCn57QGshoTshhvNGMFKGQRqYU2AtpgUOxDcZ1w0gyprVetw6MCl8GwXTB8Z27V4jxN
+TDhcIWizvkfQF8Ivfc1Ot21KV5SmSCNRofTD1SjKVWy+1640dwseUOqRH0lTt4a14ejehTVkoY8m
+sctrZYMtFwvFECgNjdRM+TDQQpYH3wECMilZO+KTrqTTEotb1tLyox0XwSZP9bQwzCe+Xb5nrXUl
+YrekuFkxiJNUG2/lN0s+kxaRXeBq0qkpenM35h6j0XUFfKwDK44cFo26aAmVkMaBbDxC00TMdI2P
+qqsiVlcinhe70awiRQJcOoGb2TNyHaSx6CDrs4wQHAE/7wrAuNKzt5yVxmoipdgzIrxazDTB+5ZK
+5QLGijPPwpGvJSoz3ZfHjCVN4xhaS529QfyYhm0LOpiggiKEZYpO1QwbXc1N6hu+eXJL4RX5AAsV
+NpI2rNDtUX3v8DgPhi4KiaI4uK7vlFScNbCozqG8CnLkbSYoPE6sFgYgP1pfQPuw1Ot0I0ComEKb
+VSX1Jo2idx1vajVWEUTGodPgaRn6mpzFX/Ghvg6hdzQLnHrnlqGK+m1g8qsG5yCc6874AEryrIxe
+Ms55wOHFq1MGC9XW30opfXRxdV6ASzVL/yYsrsToyY6/V3J0F3O8Pq4DPBsjGLDy4n2MPIoUPNCM
+Fb7LsXStSwjGxrxyWPcVYrYNlH9wm6mEtd/GwwXJMkj9exaJG2kDcljr4sCHDRhrZvsrNmOegzS+
+kkBwh9NjM4Xschk7OHcDLT1EE0QdsxKLZravQTcDd0D4fOXiHZ6pmekyVzJ8F7HnMVg5ueItfs2A
+Wts0SAQE/7dAqHkDJZsVZUgiTmBioF+VAVQnI8hQc2/KwUq2yjjspZgVV0L1rsTYpKheCJV9KmzQ
+MX9CwvgSGh/4YrMvcaWgFV1o0KfPePfdhfuZHohLXQ3ukWJTToDI0AMHzFPrZFahlyylqiap+Xs4
+Qh6dI7LWGGngC3ckrSCE1wqzfi78pwZbJlb00HtPVizUaVwg5JDtBnOxKN9DPYa1uWpiJgfhWAAT
+Lxyncn5nO/wutIqZ4hc4vQpm2CovLTRrArXUMh/dct7SVLtEVoe4Kkt1tGJAqmBLcZU4uE7GemY8
+95b1/fEo2VXyImmtcJGIi/Clu0hnFokId/wifeAgBIXNIn5ptJnGo1E4Y+xoYtn1S4R1wfQt2PuX
+88Lhbwo9vEMY4ixNlQk80aehDts9T56wEvza9JEWWOw9cgpmaRFr/GiXwUeuqlngQnjaVcFDEkRL
+D0hZlydFW5bN3JRlAX9SZh7i8FqE0XkgvgZIUBwp8Qy9x4lXcdciohNNfgkkM+OjHNgSaUu1tIZd
++QS2GRMnCJcwzbgRRQtwmWsmYZHOAt+FLYh5xZeveakDEusrGAqtkOx0VWOHO+FyHEm6UHU3jIaz
+6CcpbBAAZSgJe1OkNUKh9G9VJqMFdduM/FuQy9cMq16ho7lj4UQ0TmCSqthI7lM4kNcELAkikpri
+R+z7cQIK1oyerSyPn9eweNUDeLkDCbqsDFjOTnSehTKrfNXBUBnLVn0dNexWquolTO5XMOu7tWDJ
+YcrRowMTkKjh5mhHTtgSPE0xm4pueZfFpQbu13Omq9MRAkVCU5nktv+txFLJxSI8Bgt7WoAMluD0
+PKgKEWro+CYu9DnauVnbevuGzIcpgP86kvPvHvqvpVt6Ewd4sgiKm8hRb9k8HMd1qglVMEtqKE0T
+SEP0APb5uW8aCnqpEL5vOT1egNJ9JcOgFwmEszpU1qnrwbgiQEwzbE/VQLjjPP7KkYqrwIoXme/e
+44RlCaH9TAX/RuYmGXB8GEH1Tcvu/L+31f+Yu3BqZIa256fc5bukvt+lObxdDi0szB7vbf+/7V36
+Vz7w9QBHbBiOl9gPytj+ux7raPfj23+QZtr//t148+0A8RpZYm8z7n/bKz/6v/v/RiXHf/+zuM+X
+33ldh39c2LvESLYW0oMyO6t/Xuna8He//fovz/A7RSqgxxwQcnuxv/16erVH+Pry8LsKvva75DDW
+8u23X/cYHce1h3/rNb63Q6xj8BnNA4YPMT68mz53W/YqmI+f6j+9N6n1+ZhckFoS1f536nNbCjzz
+h3GObnl7BN937PHOwMs0yQ5DHQ2P7c4AwyeZ3XVf2mZ372v3jLcOLjcookMMniBEsLS37mGsjzsj
+tzvL3hefB9vQf+24N22vboDhkw7lCHbAA4w9MV6NJMnTw1BHd2aIWToxvLeyS/cutL3P3ndmYvjd
+T80QU3ViJDgx3XVMpzZ3aoBrT7+4M0NM1gnesuWrcbjOo591iNk6sYysK7IXmojDN/ZYIycIa4QP
+bsd0ahnc/W+8FXalxUIFMsTgntGxvLfCj/7X7e2KXWcWDfgWQ4wfern/2rUUtDSs/pefGEXXCq8M
+Mldx5bvki5szyGyFj66d5V2vkPYUpffdmRpJ1/M+xGSdGoX91gmW1CFmazt8x6XDGWCAu5JHXseZ
+GqQkgwyedK5h6hCTVXszd19gglan2ft5maF9WWfWYaSP9b09v+8/Oqzx3O47P8RsnRtpl3QIKeoD
+XPvcyHYdcKbNkux9X+aJ0f3IDDFPMXhQ2J73eTKJzBATdZ7sdl30X2aImTrPbQ97j7fDTf7zgcSB
+y+HfekCCheHZ70Z1GOlo9CEm68JIgl32GejtD8B7PzQLoy7DsOvODDFVF7t2E9+1vOMY6nC/+tz5
+XZJ98cMOMVsXAHqHqzz6VYeYrIv6rWvoIabqMtm9de1qRHaIiboytm7nD4reVf81bBVaQefyC+PY
+QYYPOpZfkR1inl537AlEdojX6fUuCO3kUP7Hg8gOMUWvbbQHvM/NKrACD9/YY4LeGNuORpjYill7
+L103xpvd/SQOMUFvsMHuQHdwrhji0rfTsHN/vbet639ndlvX2wWveWIeLvbjqeGGmKc3dra1OhcZ
+boh5ehMGmRn6Xd1IsTUQ7n+HwrBjSyNyQ0zXtZFah0s8uu1DTNb1rvxlYeAoraMzLnJDTNg1WrRA
+kVEXBN7TSXrf+tsAcX5lxw0aYtbeAqaaHS/W1hWm95VvDN+zt+FhpI/flh/ixbox0hhuGtjbdHzB
+EHN2swdjHYMPMWM3uwSJ2DgT+ry7QZzH4Ut7vEnwBZ2LPT/ElN3YXQCbH2LKbkKv6wcdYq7e44gM
+bMKOxaYNIur9uN/bW8sPu9KlWy1A/+HD1133LzrEXL0PtyA844zPP1zqx3QVhpiu9519WrHVQvS/
+NXmGLnP3xkYYYrY+YIXvvPfCEFP14XIsed8DrYdLaZj9B78Qctd78At5Z73HvpC61HfsfyOMovdX
+XLSg7jv6JSvavmNfMuvsO/YFV77+Q1/wJ+s/eHrZgqn/F1wyk+k/+tdWBL3HvqShHmDwzmV9L/nr
+O/hFDVH/wS+Q6y8P3sVu+v2EBqW1A5xStogf+JP0tcHhV5B1DEH+xIFJ1THET5DwJyjZ86b+1B7s
+v+0y44oApY++8jBO+10/OGatyOHnXTv63PkN+sGI+08+8Lk4wIrLxZ3xveiqDluQy9Wdsc3oqg67
+oIvVHXPd6KoMm7CLlR0x7egqDNu/i4Ud8/zoqgw7z0uVnbMM6SoOG9/LxR1zHKkqrWVKXizthGFJ
+V2nY8V8s7ZzfSVd1aDdcrO6MXUpXcQRYMs6PuK10VUaAJOfMWrqKIyCSc14vXcURQMkpq5iu0giw
+5JzTTFdxBGQyMU4Y1XTVRgAmZ3xuqmprSeGXXnBnbHK6aiNAk3MuO13FEZAJpKxHTHq6SiPgkskR
+j5+uwkiw5FxFQFd1JFxypmGgqzgSLjlRUNBVGgmXfNJv0FUeCZmcq0foqo6ATY61K1QV1upfLgGT
+c+UMXcURkMmJboeuygiwZHqiGqKrNAIsQdb9Ed+GrtIIwOSTYoqu6gjA5EyvRVdtBFwyO1OL0VUc
+AZmcatXoKo2ASk6UcnRVRkAkpzo9mkrbS/0uYZJPKkG6qiOAklONIl2lEVDJuUKSruIIuORMn0lX
+bQRgcqYOpas2Aiw506bSVRsBlnxSxtJVHQGXLM50uXQVR0Amx6pgugojAJNjTTJVhbXC5kuw5EwR
+TVdtBFBypsemqzYCKjlXg9NVHAGVrMIjLTpdlREwyZESnq66CHjkVIdPV2kEOHLmAkBXbQQwcuJB
+QFdlBCRy5oBAV20EMHLqv0BVaRwBjtycuT/QVRwBj9x89p6gqz4CJjl3vqCrOAIm+ey7QVd5BGBy
+c+z6QVdlBGhy7DlCV2EEYNLheEJXfQRw0uG3Qld9BIhy6vZCV2kEhHLqNUNVaa1hzaWGyZnTDV21
+EQDKZ58dusoj4JPNicsPXaUR0MlnjyG6yiOgk1OHI7pKI8CTY38lugojwJNjdye6CiPgknNvKbqK
+I4CSc2cruoojwJL7U18tqmprnbku4ZLPrl50lUeAJieeYnRVRkAl958czegqj4BMzvzU6KqNAEvO
+3dzoKo4ATE695OgqjQBNHrJjJzu6SiOAk4djHz26KiMgk4djFz+6KiPAki4PQaoKFAnY5PHUwZCu
+2gjA5MQ/ka7KCMDkxL2RrsoImOTYO5KuwgiA5BmZgB9ZXXSVRoAjz7COh2vxkfk6XeURIMkzcv9y
+0/g3HZKPnAf//y0MRZGASZ6NI89Qun41AiZ5PnEspas0AihBaUd+qVSVJhHgyKlbK12lEdDIS5s8
+XVO2inC82AaEXupu7c+Cf/kXYk/s7dkiuUUgih3Ah/ZohC/WR15lfrrt/U0Wrx+esj8cYzvMa39U
+Bn+nELl9Z6WdBISTy+OEH/Dg7yru59d9WRqgcbZ7+wWNhKNkvx/TbRvmQdaGyJt2G4L050//xQ/3
+8YT8TbV9PClfVnc6ySJkmLaRw6iEfImkT8A+uf3I1tsZye//BwAA//8=</cx:binary>
+              </cx:geoCache>
+            </cx:geography>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="r" align="min" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="entityId">
+        <cx:lvl ptCount="101">
+          <cx:pt idx="0">10036462</cx:pt>
+          <cx:pt idx="1">10036463</cx:pt>
+          <cx:pt idx="2">10036464</cx:pt>
+          <cx:pt idx="3">10036465</cx:pt>
+          <cx:pt idx="4">10036466</cx:pt>
+          <cx:pt idx="5">10036467</cx:pt>
+          <cx:pt idx="6">10036468</cx:pt>
+          <cx:pt idx="7">10036469</cx:pt>
+          <cx:pt idx="8">10036470</cx:pt>
+          <cx:pt idx="9">10036471</cx:pt>
+          <cx:pt idx="10">10036472</cx:pt>
+          <cx:pt idx="11">10036473</cx:pt>
+          <cx:pt idx="12">10036474</cx:pt>
+          <cx:pt idx="13">10036475</cx:pt>
+          <cx:pt idx="14">10036476</cx:pt>
+          <cx:pt idx="15">10036477</cx:pt>
+          <cx:pt idx="16">10036478</cx:pt>
+          <cx:pt idx="17">10036479</cx:pt>
+          <cx:pt idx="18">10036480</cx:pt>
+          <cx:pt idx="19">10036481</cx:pt>
+          <cx:pt idx="20">10036482</cx:pt>
+          <cx:pt idx="21">10036483</cx:pt>
+          <cx:pt idx="22">10036484</cx:pt>
+          <cx:pt idx="23">10036485</cx:pt>
+          <cx:pt idx="24">10036486</cx:pt>
+          <cx:pt idx="25">10036487</cx:pt>
+          <cx:pt idx="26">10036488</cx:pt>
+          <cx:pt idx="27">10036489</cx:pt>
+          <cx:pt idx="28">10036490</cx:pt>
+          <cx:pt idx="29">10036491</cx:pt>
+          <cx:pt idx="30">10036492</cx:pt>
+          <cx:pt idx="31">10036493</cx:pt>
+          <cx:pt idx="32">10036494</cx:pt>
+          <cx:pt idx="33">10036495</cx:pt>
+          <cx:pt idx="34">10036496</cx:pt>
+          <cx:pt idx="35">10036497</cx:pt>
+          <cx:pt idx="36">10036498</cx:pt>
+          <cx:pt idx="37">10036499</cx:pt>
+          <cx:pt idx="38">10036500</cx:pt>
+          <cx:pt idx="39">10036501</cx:pt>
+          <cx:pt idx="40">10036502</cx:pt>
+          <cx:pt idx="41">10036503</cx:pt>
+          <cx:pt idx="42">10036504</cx:pt>
+          <cx:pt idx="43">10036505</cx:pt>
+          <cx:pt idx="44">10036506</cx:pt>
+          <cx:pt idx="45">10036507</cx:pt>
+          <cx:pt idx="46">10036508</cx:pt>
+          <cx:pt idx="47">10036509</cx:pt>
+          <cx:pt idx="48">10036510</cx:pt>
+          <cx:pt idx="49">10036511</cx:pt>
+          <cx:pt idx="50">10036512</cx:pt>
+          <cx:pt idx="51">10036513</cx:pt>
+          <cx:pt idx="52">10036514</cx:pt>
+          <cx:pt idx="53">10036515</cx:pt>
+          <cx:pt idx="54">10036516</cx:pt>
+          <cx:pt idx="55">10036517</cx:pt>
+          <cx:pt idx="56">10036518</cx:pt>
+          <cx:pt idx="57">10036519</cx:pt>
+          <cx:pt idx="58">10036520</cx:pt>
+          <cx:pt idx="59">10036521</cx:pt>
+          <cx:pt idx="60">10036522</cx:pt>
+          <cx:pt idx="61">10036523</cx:pt>
+          <cx:pt idx="62">10036524</cx:pt>
+          <cx:pt idx="63">10036525</cx:pt>
+          <cx:pt idx="64">10036526</cx:pt>
+          <cx:pt idx="65">10036527</cx:pt>
+          <cx:pt idx="66">10036528</cx:pt>
+          <cx:pt idx="67">10036529</cx:pt>
+          <cx:pt idx="68">10036530</cx:pt>
+          <cx:pt idx="69">10036531</cx:pt>
+          <cx:pt idx="70">10036532</cx:pt>
+          <cx:pt idx="71">10036533</cx:pt>
+          <cx:pt idx="72">10036534</cx:pt>
+          <cx:pt idx="73">10036535</cx:pt>
+          <cx:pt idx="74">10036536</cx:pt>
+          <cx:pt idx="75">10036537</cx:pt>
+          <cx:pt idx="76">10036538</cx:pt>
+          <cx:pt idx="77">10036539</cx:pt>
+          <cx:pt idx="78">10036540</cx:pt>
+          <cx:pt idx="79">10036541</cx:pt>
+          <cx:pt idx="80">10036542</cx:pt>
+          <cx:pt idx="81">10036543</cx:pt>
+          <cx:pt idx="82">10036544</cx:pt>
+          <cx:pt idx="83">10036545</cx:pt>
+          <cx:pt idx="84">10036546</cx:pt>
+          <cx:pt idx="85">10036547</cx:pt>
+          <cx:pt idx="86">10036548</cx:pt>
+          <cx:pt idx="87">10036549</cx:pt>
+          <cx:pt idx="88">10036550</cx:pt>
+          <cx:pt idx="89">10036551</cx:pt>
+          <cx:pt idx="90">10036552</cx:pt>
+          <cx:pt idx="91">10036553</cx:pt>
+          <cx:pt idx="92">10036554</cx:pt>
+          <cx:pt idx="93">10036555</cx:pt>
+          <cx:pt idx="94">10036556</cx:pt>
+          <cx:pt idx="95">10036557</cx:pt>
+          <cx:pt idx="96">10036558</cx:pt>
+          <cx:pt idx="97">10036559</cx:pt>
+          <cx:pt idx="98">10036560</cx:pt>
+          <cx:pt idx="99">10036561</cx:pt>
+          <cx:pt idx="100"/>
+        </cx:lvl>
+      </cx:strDim>
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v6.110</cx:f>
+        <cx:nf>_xlchart.v6.109</cx:nf>
+      </cx:strDim>
+      <cx:numDim type="colorVal">
+        <cx:f>_xlchart.v6.112</cx:f>
+        <cx:nf>_xlchart.v6.111</cx:nf>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Total Not Seeking Work by County</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Total Not Seeking Work by County</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="regionMap" uniqueId="{8E7A0C57-D21F-4115-AACE-45B1F1F84397}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v6.111</cx:f>
+              <cx:v>Total Not Seeking Work (Total Population-Employed-Unemployed per Labor Bureau)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:geography cultureLanguage="en-US" cultureRegion="US" attribution="Powered by Bing">
+              <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
+                <cx:binary>fJpLk6Q6tqX/yrEzbtUBIUAqu9UDHo477vHOjHxMsDiRmRIIPUAIEL/+7sgqu9aD7h4klm7gOOix
+11rfjv963//5Pv58m//Y1ajdP9/3f/0plsX+86+/3Lv4qd7cP1T/Phtnfi3/eDfqL/PrV//+868f
+89vWa/4XjmLy17t4m5ef+5//+7/gbvynqd6Wt1ov/RKe/M85PP90flzc//fs/+PkHz9/3+ZTsD//
+9efbD9XrqnfL3L8vf/7n1OXHv/7ESRbHf/7x1/95k/+cvn9T8M17My/ij/JtNmOv3/4vX/355pZ/
+/Yny9B8kxVlOaJbmGGdp9ucf28/fpyj5R4LjjETwwhmhJKF//qE/bvuvP5PsHymlcUJTGiUYvgbf
+csb/PpX8Ay6NKcMJS6OYpcn/DNKjGQM3+n+G5T+f/9BePZpeLw5uHGP85x/23xd+vGhKWExwkrA8
+zTCNoyRP4Pz72zNMBVwf/69c7pOaRzec+yglTbbbzykNXRMNa60t9k9DkosnPmytVvHYRAuPq8RG
+yTP8qi2kOnybKlvKTWfPFk2sPhzWp/5A+rYFK4rtIOnj2hWU2/Ux8/zEuR5eDJppMfabujlv7Zdk
+vmOxLGUfHd87r3Wl2Tbd40Xbqzy0LPjgQrH0cf40sYOVIe3USy59JXnGyxB3yTPFKJwWHONranp2
+zdbFn+Ip6yospvRkdzUUJrj9fWHoTtAYwZNn45XobDwfe6eaNQ7b12ieq871+7ee2gJNS1rbeVya
+QWXmSwh4LyaRr5dkNO2uuP+8h4wXAgV755dj+ewU9YWxS1pZarMii2LxWfOxUunYjOpQV7eb+3A8
+hU6Qy0qnN5YzXQ1SNvG0jyfVp/Q2ZIdoZo9O21Zbs8T3SdJ/YVbsdZ6JajrUemPqtlIZrq7DVQeD
+9RotczXaLLkM7PhkMpXUKF3nKsvIT7TR2hj4ucgdrpLHlBdy3LdiWistrDjrY3v2cmV1jl+2HJc9
+J+qko9idEHGmQeY2OM9eo+vwFLFUP3K/f+02tZ3UPq51UMNWhtmbM2vkxteT25wuWKzP+77Gj2Rf
+n/W8xvfKD3uRqVE0DF4BZzdEx7SwcqoXg3S5zJE6h4Xi1uU9KzyZh9fO04r0h35EdBYFmWJztuQH
+7KPpLAdFznnIooeedWPVmeSTk6ib69zVOxXugWKFyzzt7IXZlRVzivfG4mU/pTA5p4WJhkRhPWUs
+mi/jPqGSDxIVWoWxQsPkz4s0okA2Fdd4Q7+Mi/62KArnwKfkKUItX7vkEmPNbqln9rLDTcux65N6
+iTLeJtj3Be2nsVqTHp1QN7Bmyaguh5Ulj4nVtGCrcmWXjN/nJJI3+3HIj+XaybU/C+3tNZIjrHtR
+RswlreqkaXP2fIw5vqP9ju+SJFWVG4msejK8yN6eelhZLe0CrbYhtJR0w2OfoDKbaPa0JyEUsdDw
+0U19OavZF/AYY82ivqv55LbCkrA/DlypSqE8b9EawfQrXyLT55U4kK8WE151wKhaYcjLvD+mZug+
+5nTzxdANR4NVYookZOsp97aO7eCLT9uu/XWfxd9Jt4yXeTpMkWZLqekwViaaaUkn1Bz5PJ/D8bz1
+y3WabP6YR0qXKv54/YBFoRMzn3c0HdVC6NIsH4vVdktfGZ2RysVW1mGV9Npv8kskyPzIDH7JuGz7
+LknuMKevAnXmOm6icu6QxZpx81WZuMlnp0sNFfgO9s6XdOE9VK44P8Xj8XTsOFyiPIXF3Q9X3Vlx
+SlAiaqHNWKW+yxq/SFsNg8gLH61HEYWRVt0oYaMRKBOzsVm1jTu+T/p+uhsS0Qyz/k7INFWGmqGN
+ptLtnxEb64X0/s7gIS7CPNML80ONomRpBe1DlbLjVe/aPuTElHlsotJt+9pGB/tK2dI3h85VMaTq
+W9x1lclId5ooMt/6ISlClJ/8lNg7rhZ9n7F9f7Z9rMoxt+KWhyMrJiqWktA4LzOdZiVByj8s+Yyf
+iIwe8LToB7rlT8chUTmbg0MBz9b7iXWFolP+97aKejLphdvhlW/8qKmytNaVWYfhElyXFj6W/WXN
+c1c5lbN6nPu+6YXoix6j4TxY9Hc6mO1l6PCDGdMTEYm/y6KMlcM4mxp0yNyyOXnSwX+JAlT++GeU
+C/xgYfXXIuqje8fSodA0RwXfV99wduCS+xn0fiVdOztckil/433HXpMudPdkjttZJlu12247+wEt
+xTao/ZYphE8hStkpO4aTyqP98RDUfB/SjTzkCfocouSq5sx/NnntcEeSIs5pheNhPUWL/zX0zJ9Q
+hH0hnRG3VE8gHtHRn5Uk4TpR+XXs4xfe7+hKO1GtcpSf5vBu1+7BC0w/Dwh9Vbm/WpsP1SEz0Uq8
+uQILj0ucwtAqlYPSHtN8j4VqeVjhwxa+H5H+HjK4clVKnPw8sQtPNSs5D640/dKfGaz4aunY/MTQ
+JSHJD24Ee534lJ6PiD/2dLSll1S8DEHicgv98x7JqdEz/NMDulMiqdSedFVs2XolDotzP+mvnUin
+cpPKtFaKtVzpoZr9QEOzdtafsnnATSbw2R2p+eRHn5Taqb3JYsMeaLKeozjPT/mcL2W6ptGNTXYp
+DFpoQ49sq/NdHReuo62igsTFHDS/3xAjd9Jk33EcVfGa4c9bbPa2H+LHo1e8nEmWPhNYQ3zbTpmJ
+13bp4q70KU4bUGpb4RGxapvwLxzCm/Iyfg3xNVo1ew3j9gzG6O3QQpdTcKwm0n3mKxO2WCLvbseE
+aivpmyBhaw3avlrXojhhVTZZUzpm5R0m8fXfQpKH4SIoBVUc8rgm0xydZwea6P2CwQMscSXnydaC
+OPXIxnEuDvyGpyh9klsUX8ZoSm5YJv1pmECpBZl4QZym53nxUTHHwnwy/XDUjIKsezwnhTJhPo+J
+M9cZJ8PFKB4XXoY26kZ6hu1e6G57z8bnsTu667R3Q7PEdCjmScbPcuRVvqzsmkymWbeZtS7d5jZP
+Hrgn0fOy3O/O8iuJ+3YOxlysXJLCG3Rd9+44xSJzReqse3KsuzIoQDfTJb4UUsnGzS67rVq02RQt
+5WBVXuTj+HM6JnAFSIvSb0+TgpVtudufeeRfFofST3O8FOOSRaWOp+hEF96g3Cw3NXwfk0hf6BJ+
+zFFqas26pRZLXIqeDnf70fticbOF55FcNyEyvljp2DUwz8Uqufq+kYyecHSUduO0zCSO7vsR1r6x
+sz6LsEcnmOmkpvwbZdxBaTTe1cmC+GU7hrg8KKtWQ/3Dmnkwj8N268IUn7ut44WbU1IROtFiXrG4
+Zan56ee9O5k9PmViGQtHiL64jc6PCUJfNiPmK5lelhyZl6H5bSNkZLLyiJ8HpeNTNE2y2qTXX9ep
+9juUNnQ8xql8zwewHQS7aiI2v6PgCyvL7dyIYxJFzr7p9BkJsj2QjrylRPhGHeeITq6M4sE9xTgr
+9mXJr3QcTxOEn1vEi4WM+jqu4VeSJuK2dDwvND9AFPI+KVm/8GLQSl6X2Fa+70KtYyvArQ3LowKr
+tZON13zwj+BZ1U3BKJZZvh8FIXw8i0TKMkIiFGvC49OYZ68KO1cgeURnZdKjxLlMi32NlqtMx3JN
+TF+S0fBzoOEzcb5vEtx9ytHcn5cp6pt02B4EeLdCz8dFW9+VxwJ7foEnyjD6NPgWd3T+mk8W7lDZ
+dZgeLNF1wrcnhvvpIm0b+8GcI0m6isUhalPcmg+HPQ1ZXIGROap5trrosnV/VsS+CsIK6VN7oasC
+7bTHs4x1EfUi3Jl+Lna+74+G69InfXxxO0kuaGc1y+haJQhM+LwZV69ORicx6h9ag+R2KOlvUoex
+6IM1hVhycr/Q1YPaZUcDqUsVFCUTxAyUnxw9TDl8KIqT6xc1D+Ty2wzB8xbW7LReF/viem8/UgB+
+OLgtu+1gt1xuW+FH2zczti/53vGyj/vhNInxSSoy3MH5dsxoXGXSjCWSWJV9esx1vK1JoUmYyt+m
+bMu3/TYIbmBI8FTYZWDXaFPfB7OoYkZ6vE1+mC6rjnSVo17e0k3XGjJRzfJga5pNoWaYJWe/D0OR
+rbIeJg4/tY/py5zQqcpMYHUEalmnoatxGZvtOWEhvp9zSE8fJ/uVCngsWxzKhkZ3qN5Zqp45Q7B3
+oRyLLFouhjNThtX6YgKzffKpPsBiTCO4SnZBCRhf34OnRnNS0l6Z865gVU6I9I1I8Dlf6J1m81bC
+nV0VR2tNA9W18d9XDA4rhRxQZGlUD2T/lVNLK8dAU8dFvhMcwYZM7Frk1sJWkQKVmmSu5C45qu2Y
++4YxOlcg92s5IdWObL1gHoYSeAS+NzYejsJMojsnCMMSEHiqRj58HSTldefoCBILZQCmrnbj65BN
+x4M7cFotB50vyyTLQ/ABEtS2nbM5JhXG/J5tWn+Krf7KZnDAZmVnDoaxwjvU+i7s4kr2/UVF2dqY
+JaLN2CUrhCtQuh0CSzTa/Kx8/+lwMpS9nM0pzbOp8GynVf5iM+dLbA+ootIrEPBsBjfdzU2O0NqM
+Q/jChim+75Z8LEfXbRX7WJYzNkW8JWurpLyzwX7pBctg+WlfUJ30V6vDN6fWo1xJMNfBdNmJun0A
+bNDBhPbyq2eUFCvL+kr6w51Wmt2lGOk23QxslM7kpzEbeEt2edWYTJd4Sn/EdF7rvdNdaXimC92P
+6LzzbgNddUkVViNhkqrfgbunQZbdol5CkDDia/zLgH+p10EMteDre0gtTPfIinQi9LZA+CyFI/By
+aqJnn/XsFm2w1XoV+WILiJ/mKY8qK/VQSLnSygiVnAKmrhQzPTtn9ZnETFR9HuVnaTEYuzi7k3Fv
+7hBJ2iwHt0L6LjrFxHNRuPS9T/ayiyZT443jJnTLfM4aFjveCAlyv0DdPnVkesvS8O6OywK583y4
+nd3ZVfal0ZrdTR262F2687wPSeXzZH+O8Z7BHIbtGqyDWL5AEbZuLDQ+uru9W79DcoULxrVrD7p8
+ofmaXSxOl8fZPOp+a0DFl4cO9KghgHKqycK4ALRqfFIlx8hux7bm5ZLBXkzTZTxFs4yriO8MYNzx
+kw5HXO3TPoAVhxA2BHobMYo/ZTxLbj09xqbP7VRKyKagHvpZdPMlSfHyMI7UFOvCRZNRWTGq3GXW
+97vB5Ia3fLz0unNTmWs0gkV3tHDhcHXMQPyMU32juqFvEBl3cOpqK0Kq4/tosSfE9mpRonsVsWt8
+ZOWJD8xXcQJuB3hbWrLjdjDV9NLKe0gES+PZiAs78qim/WHLJdC5zBIclfGHBO4zjm4dGz5n87Lf
+bAw6F+T5CPNjUEu4qnErj6Fzn7JQKJcsZS5Yege5oxkWTR+XPXq2I/rgOa9yB9MVZTS7eN4Z8EQK
+iqqIx4oNcvpiusLG3VqCXB7N1KW+Nm6D+jLj9ZxDzFRabBd00KdYufjR0O+r8xBYN/NoY3WK3cJq
+c6i0QiAHlzhJytmTKzk0OgcdtlLhbD9JC5AqJ4jBNu4vIb7zEIfverl9HRfkXid6ADDQfy8I9S9k
+7L92w6quvBPffyvWMKqiczqv43jSJ3OgzyuAmCPO5hchob4kc3In8REVwi9rA0UOX6CsgGV/Svgy
+vookEVXIqy1h8G5zWGzBVaP6FT9sEdlK4zreGFjky2mLxNRmxp0pi+NPR5AFBJHozBAsatDqe/zx
+tjtKIkjNpL+wYVuaROTTpQ9NvoPf41sczlu3pAXhYOemAQNrivmv7MjD4zhm5yhB7nkHC4jDs0q9
+/TYgU9FlAHaUSH6i+whsiphrqodfA5mju1SkdarEVBBAvJch1qRgOwaI4SJxn9WEeXqZ9lC4bChd
+NzVKbOji+kNe+z3RJZdsOfF9yu+0Meg8Uf9i2AbPP8vosqr5nOJEN6tgHUDEwVQkiP5u3FLc2FGO
+BQ97KNlOyN9+5cVELjbd3NfYsYLEQDULqOQPRO3iPA4dWHyXV9QgdheZH3Rfmn2fQjm7hVYiYt8E
+gtGiwGdKMHu84KBuj07Fz9Eh+yLxkGbA2WyP03dKDnPaknmq5kS3pOvMTSmUPgshqsFFX8S6JN85
++tp1yF/7JG1ZnHWXDOf8OtCxhZfZHjJHLgBy54YMNDqPPdR5UHFUIYQAxqjoCQ2pKGyfr/dbvF6G
+cQOam1D5ov3UsEMbqJp2r9cO1qz5gLXJ5p7TfgaYSdcRPK3I62PAujREQ7GI9KuTT3sWDkAp2TtO
+xNauKNcPhBigkdunnsv8gWwXDgz9xkCXcbx159TtqnRZgGjDiC6ODCkI4vtQK0o74I0eKJbO4UeG
+0bd7h7aSb3IvEefo3CPw1toHftKyo6Vdt67Ai+On1K5x8ZtYrIfXhdpy1aDekAKA/lKvHKnTNM/y
+ZHvDmhy2+mGAledKPBoUnk0CaXzMyL3f/foaGDhl0Of7jdD3NTXsRQ4xe7EECMEObIKSxy1DoYxj
+xD6Q83ByKrsgH/ES0W56EelSIDB3dxuXX9wIsRfKZV8q4AxPwEdKsxtZb8euLjt4PcD6vDAmJGct
+twpBg6ANceAFSpQo+kk1dMPfMFDzYvBZDc2d/kuW2zOV8+uUvq/rsX0QDlqtUfQrk2wAZAn4g3Jw
+zmJnlzyTU2vsdJ9lGxhbp8enYTcv2bHkDbiv/TIGcg9Wh194JMWZCTEUYjXu1o0IlaPBQFwnnF1W
+hFnpfdym3MzAgmdSdOswn9FazDTX4I9AKwYMvQin3d+r7bNyswg0J8SPu0rUiSL9RhEuxCF502PT
+guIEsMNQkvFIdbvseTiPMy7lCHqUZQAVeL41A8/v82hy7TqXu4+Swg2AjeX4jI6kSCTb2/jjEP3Y
+e0CDSoYzzlfbLn36EgFCOS1d9x1NO6qJgTLpY1OAuT/KbAbiiuAipIeopV6cg6JROU/bULg1egAH
+kpw2Mvs2d2QqqUdz6Rwy59RPdbaAfOXOi4IBvSr6gYHzz/yD5+Cqd0FP6cACYKO+3hOztZ7zrd0X
+oNswbMBuZ1nks3iEWFHNU4qaRJH7iLP0FA3ZvfOZbLZjeiIdhsA7mrFAipv693PKNTvgfVPI2OMy
+llEC48/M59ybu4HwuNynrBpXup/BUkNxNTgt4z41FY8SUb4vULTbzIWpHcKxNSrIyzQdrv194GDX
+pcmjS5gADm6bdLXi9WqX7pSu8ouZxx/WmB5qEb8ply2t7iE6Jun4Kzf+qD33DmIxzYHT6KUSi5wK
+GfJm26f3PQWxhsaRQfI2zOzb0X0VQ6dafOTkbEhXpCh3bf5x4DKYgouAq0Rr20aIugIQmK/IxxL5
+fQDkuxQM+i8VYmFtSWpk0/n1JvEwt2HHW23E9vci2HziWL7k4INKsHuuCOGjL0HMhUS05FptEBpW
+SIRxDDOt5bMOc1dkvU4r10dF5rMW6KA5rbDe20OpW6B70oDVTXYOizfUEkJWsWO51f0BDgNp9jef
+xh+GHM1i80/HMP7sInSKzMqheQONDFDJDNbKJSDh2jjh4oRF9NpF+dpiMpsirOF7KgBSWlaBCxwb
+t6NHt9P4EuxWHBTHAG4UakO0+6LjuwPsBhMx6c9RcpDKR5Er+oz4lu6PsHJBAk1659Gk24wM6kRc
+dzWbF2U82KMBPgGLh/PXlaz4szmWuBAyP6dQBC75lPsTt6Y7HTZ8ZmOSVL97JIcz8zXRH791f4v7
+EN0j6uU3apZqQOA+0tyh1sbpJ4F2fIpQnrSRDq9427M66hdU7DQl0MbgjUQb1GzPydeQYQHpseVx
+R6pEAuUGYhWi0kL7BLJMRksi2AKLwPI6TndVe8OTYgJO3/up3T4Owdn5BFHz+d/rEu8LVNCEFYhk
+n0m/3s0h/6TYj3R5nXvxjILoisNPbzmLNyAXzBdaZw9URWl5ePlrj0JF2BKqDCGowizKCkzoBbAw
+KpxbsrGQ3QJ9HZKcrc5xi+DLAusP4AhznOkl/xDjMukNmCJYlGNBgCGeMg+5/R1sCsuSmjkXVz0i
+t20kz0Acy9GPU4sIe6PYfo/6FTavvq4SDHD2srvHg+/foR0NpSC3EHC29SvS9ot7p+JexZmvUXeL
+3MCL1X+Eavx5jtwLybMWbYBlwvpsqa8U3isBklB2wIIy76so9nMxKfZZzqLuEP0s4NI2F3G9JYM8
+p6y3IL92O28HKtV+z6cpuUB3w7dKYBjiTBOAdB46Qh4c7wGEbJoaoYFoQ5O5zJbeFfS2LRAHpzhM
+RRrME5V7XGLoJKkqxYpVEFijQsmTODgHdick0Hf+LPEENELHvlRO3hNU4AMkPPQvHPAT2BdOSgay
+w5PtqESyQuv4YNEH0ojaPNWFDZmqnd9/DCk0APXZiqWi8wzIAGl4e8ErGxJ1mQ9yFnPKGg6BKM6W
+7ZyEsfSCk3P8UXtGDhoVDaT1k92BomF0zlFScjyesoHp87qBbttpgpiUsB9KIFdjfoBnVniDkA/o
+C/hAibIBQiVjd32WfwVDzKu9mx4oFIzWW9qDw07jM5951PRx4tqxC9+gMwERY6B9mQYOe6OLhiv0
+UHjtTDSBU9pIy+ykTkeIbmtHih38JDA8HzU8Me2Riq5VE9jqPSe8yPb9i4rZekpoeLUfX+u4A8Gb
+YHYcegKH4IEwdw8R1J/fcvf7YD9qO+kHXQ8pfZwicd2xgPfrjCtmYqfWJePLlKZQYrsEDLERcbUS
+XkOtmyCrYMiF49oa6FB/PO3UwbgLfsDW1uoB/mphKlUHps94fh9FcAvGW0v8g10O2WQSNro04Y1u
+tuY99NEWPUNo/lDpjyf//b9tfFv7Dhe523G5G/QVGpimjLR63Z8SPZYZDKy1bjoFML4W7AzgWdqV
+WLtmnObSkrUYVP4MerXV8zI9MzOQE4TSo00jD02AOO6BnOV3bI/3ch3WLzhXb55ne9mH7SjRCPZX
+YUwgISd/sw93ktYsgfKcaGiqUcIqBPa0lSambZev+jJvrCQ4Thofb69pCpoB5dwURyeBxzM5F/NI
+VKHsROqR0qFMx4FXI+tAusawlgKtrB1j/Gsi6YWkwDH3I2l+6zYALH9B7i2J0CfS7w/iY6XQpLty
+np2nmDw7+DucJnd5V9pFHkDLoIuQr+HBu3FvuuH03+ycaW/cOpetf5FySYqTgMYFWlLNLpen2HG+
+CBkcTdQsSqJ+/V2VM+WMb7/A7Q8NNHDgY8dVZZcsknuv9ay9EAlzspU77nfPbipS3N79bTkuJx+K
+0ImTbOP8nj/4fdXBkUiwFcvlBn/JESDA/JRO8wWV7T26NR1r0febKpBexPP6m6DYINArxwHhIlKr
+edFYSZ1tHUpHd555ux9fSmLZYR2ciurZx18uneoNJ2/D3KF6avIhwk6X7PIJYt6cJI89WsCw1EN/
+gSLaJzlalkHvE1ZXYWDa5TjbZWdMh13wKsz5qkm35VNXeDaqs+we+0QCWREyhoCzraFstxQ7I02H
+g+3nZDOUPCxGpUOItyCDKkKwgL1d73fJTpSD2ac0VxEUOx4xz9vaSpAD0cMWRBDkgkq/5kaXB0JR
+xCh3mWCJnPpcQ00AcWPz+TKmgABQmJjefkqK+jPBnziU2rlIUDvE4Df8cJ66j7VkH70iMv4oTqT1
+vZAUn2sKhKVxI2gB7c2HRZRXYoQOUY3OOqpNFnnTQ8PmAzoeilMyLAIybXnusw3OxzoOysXDYaCm
+GJXzczBzt6f2K6HefqAsOfgtWJjORHVAxV1R4OKNqux3tFJFmHbFk4Jhux+c3ZdTQo+zeEuaxIPT
+lh4Eesmol2aMguZb3yTmQ1BDXhmqAxuy8mOw6wKTRgUqyP3Ma75dffEWtIPcFMOgwtGFUO+TU54V
+eSjXRUdT3h78gTYbvIF0SyQEMi7KEOIyi2GAltEYqDrkC1nChMtn3AQRXyEIZUPL0B8BDEiLWFyd
++SSoLvls0j0bH8gEdMfr68iVOQo8nmJRRTVJP/koWK92yhcZlEFM8MVcqHDNU7czo8aGm1hIjaSX
+Wy+dscCrQyDkDIeIJriccwql6bHvi/QABMtFIBmGW1tMd6katm3JwiqgXyHfizttVYVW6jyudIyn
+tPV2cw65zg4Q3Y25UDTYopIyHtJ0hw2q2OumFRFa6Q+VPbSGfE36GdqEvxS7PAjAJJGm3SWi3iUQ
+hrBboUohRWzWs6ZZmARq2qjVnZalRwGiXOj1/RAtHNSWz4GNMd7ETZ/UsdByjUahxj3z1dt0XjdL
+Dv2vr5IpdJzTqJEFzPI1XjYEBto2KfhH1j/5yu8PdgajkC8Fv/pXIH9Af2zIIKuQQuRqfGAuZX0P
+uEJvVWl6GMpAGCq9L7mH46jcQHxEByVWG8GVQRtvYTqObobfOMPuqvlpIdduDYROk+8KZdKTJM0H
+tci4kjYIsQuqboJBkhcZug7mQ7PApuFxmE1DWX0O5t6F5PqLiTaows65G1YnfJ8PXRflGfuqoQd3
+5OSJpd6kWflk2o6eXCMiv/PQ303lEHYeimQccwrIDHCwPnQyi4qit3Gddg/o8nBIE9NFbb5uKHex
+ya07cAMOqB/oRnhzmFVzHeVrdV9BKIj9fPqsevG4jv0UQeaP27Y4JBep/QqiKWwj6I6RCeyB9NlW
+86U/NgPbSEfK/WjrAKQM2xbJDPdQtKHh/rBdSly7lM4PXp8GUYa7oy3FEcaoibqk3RXco7uE1gex
+kDYCZ1nGqWIuTAf6BdavH8lW+fFQVBBi2HJHiqKKlwd0OP1R5GsExiTfcr1+7PJpCpukGyF6LR9k
+c06DoYd/wz+b2e9iPSuytTnWedVMr4B/qqtHl4SFCU4wgr2d6auNxlO2Ri8Pfb1YVHoLMKTrq8yS
+8G3XtJDaQDmNjVGQgg6F77X3sqrvCjMGR/g3MuaJ+9aQbNn7tTz7OqhDtBADCsch9lmGg7ds+Jal
+2aWcuzBJRr63wPMqM92ktaahz6curHG3tl07x8RrYDTDt4jTFecvhJSwnatN6qWvPbuvx3p931a7
+FXcUn1Faz4zRbV40bTQonEWiItB61UzChQQ34Mb8GJ74sqlWFk61/FAbZyM9WIAuy2NaFWjuBcui
+Zcjh7lbXu2FQcOENi0QC0m4e1w0hxZOV9EXDPqr4CH0FmKimTYY1996AQ9wC0UCbjvsDEJk/3PuZ
+zk6wqc4zwMOwMzLfBoyetExesqBJYjuqbZEu+Uny/lhWIttfVfxxkABjbOpHBer/1evjlcIxqtzc
+YH/Iyg24rLuuNZdELcOWUtw2mvcJ4L7O23ZVfqz6ObvtW/da3C6Wf/ENlqtr6/ft2MHlnYKPOQ/Y
+Ngu6sMqMAwZHrzJkdTIrWot6GrEmQINN4Yjm7Zj6xabtTiOs+JzhXA5ghaGez58TIQsUHiyNTAqd
+k4jxONfXlbighsbel8EKvlboHbHTeGrle63UeCDXyl1dq+vvH376UqFxko7LWORtc/RcV0LkMOFc
+VakJ/auw8P0D/fWz/+q/VVAxwhGN5xoYHmcawm3STPVxKoiKyII+00lLt7rXjwQtYdkkDrTRuEv6
+cj4WxTgfv3+W/frZ9y//6t++P+S3Z/zVQzhf0CzkwsYDpyV2mo6FxdBnlywo9Cal6xKRZgSZ55I1
+9gbIM9labOqsf89n/jW1aX/Ji3zeJLJUIe/0qdYZ1BFJ6i0HjhxJPIpPwExHPw9RK4Ehao+aTRAE
+HWxXO0ItnKfiBnfeDlss2y4ONYkNsuUye104ZhWPa+FICKIUTiVkDgGrNuQ2P6X4vsvAHYNjiey6
+h9iWfPxISxqcufmGPXOJGoJtzg5ObGQ37gQP5pDRT2nh29glQxrXM1QkWmCX9BVKKBtCfKfHJmGv
+GlvHIZFxvfgfW5bcuTRRO4UW/mpie3b+zFpJT0k+xnSECSoVdCE3O1yeSx8UPjRDH/DjBKKISR2y
+a0UpE+/ZVt/IEFSPM30dqXuDuJrFK0nep90oIaq7nT+M7bEpyyK0C7iatWc86vWubC3fJjM6+3lp
+vq6uOKN2wTFIhmfw0NClV2wFTptblAsbjY4ozKgqNzm1D1US6cl7AEXkx3hT7+de7tCl53gE6SPG
+8i8DBIqwcPmyXYKp2rNeP9Ve5mOpzS6mNh8j9MsXf61etZ0flwqFAxE5Kp4qMGB6OMSWND3pzPq7
+fF3F0fc7cZysFkfe6CfjUYuaFx3dUi3jVS5aYrU4vV36/tZY6x27QNkosXKGMfy1E1i4Y4cXbAbf
+OzZLASHrPoUC26mxPzXLhcGrDrFp2n5jcNDEeVVmoWuCepMt1f3q7GMW6AH2OpviflJr6NFFHWXV
+NaF2VbcZRM0PBeyWMoecOgdmV2IXxG8HLb2q3C7oCTaUgB10FpiTC5rNWFbznl97vKlpS/gHYxKl
+PViJoMG1oGnFTlytL2gUw3UM6CYN5mzfJv2xbUsw3wvdf3//tL/4UkFCWcgt3HIomU6i865eVFne
+icW/K2Zwb9kzT0ABadISYAkQliFKP9gC9Q6D/PT9hQJx40u8J2+G5JxJbztCM5iyXu7BbbjQrNBi
+A0VT0Hw6OY4e21VLMO+7bJr2kxM7XxAH04rBVW9OZS6wnd0WdXFsKoufO0HTd6FKlYw8kRxV5+HG
+QT0MxhXdfxlsUeS99hl6Qa4G0KnzFLkW5Zspl7DIz1rQl3ERdeQHyaehpTd+IXejUa9rbT4s/QSm
+cWn2ak5e/SRL4GIX9nHys5CsJDvarEJXA8uM+xzIs+kgFSUfaGfJVvkFxP3cvZZt6+D4Q4+aCq/c
+JEWCPyzJyGMjujdSqV2flcWDBcgQkk5GxWx2c8nzhzqDs2VX86y0Cs6eQb2O9mGj4EjBmtbFpSqL
+PfGSbOs1PDsXowwOS52TXVBBdZn5TbME3t7mPRzHPoAk1Akw3tmFWop25pNkpryp1081+CLXqYcF
+Uk4Kx7EF1LEdXHZvrl3UrJoGyhS4BQ3nAb5jEcNQe9IGOoexhYqGq+vQtMHnAukD0Fy23lBt3JFd
+b79RQKoPBlz2tF6HCPbyKWMt6vsS6hZBRRolqDN2ST3cZqmEb9UWL0Xb+mEwF3WMNEV3XNWIU6xy
+6Yrdj2H/o7KKihQcsJVwHdyyMQivRKsLArQ0IsX2j1M2m+bXKciXo2+X+acPQbtC8WfQDdq8P9d0
+mnYUToT2AQWZ7lCbtTgmIyOwEdr7iYrDeDU0vn+wLQAVQTwCbjB5XspFhsgdtKESud340/K1Io2K
+dADUubPrCSVTU15PkHKMOUuf6gqFIpITczhBsD5KSyA7XT+szQSJcISzaIe8PlKWP68tHlsNE041
+yeyJ1demp//K8rKGuIrngABAY3Xd0yRh3wKtx2jO+TPvlzDHrbEPOh+e59SfNfim17aFg9cCNKuT
+5aW/OtiNLsuYzOVX4FLZYdItuUwD6HdlOcTA3HsGr1itSX4HyHiMFo/P6C5Kvp0HOeDUXOADkKKJ
+Wl3bGHJcdlq9bw56PToJfpJDLi/BCEu7Xmn/pttNHRkxpRGfKU4V/8NsYRQTAhhLzDq/lLy7gX5u
+diAyatRl9lzht++DunlIlPi8DP5jyrP11WuaU6Dm5a3y83NwN4s1e+0reNqrJ3I4OC3oZF0MMVy7
+Z5a5qFjFvJ0KKPgOkYE1g4kasDb/wGzw6s+i/+qGF5U1kanJXTpyiW5pFjGv/W+JAoxaNKkXFr0u
+NsnE0BvWALZ8ZFFimqUZNO/krVw5OOpxjTIHDDBt1vrsFBDRnq7Bo7oi4EHT6490PoztcDcS8SC7
+3MaiT8vDoPVWV917aFQwrsw1LVCtW5Bxn0Rxx5c8e6p7Chk9F3EOUx8rAzub6opPzPTpSSSgKcfR
+t1tU2e1BpIBKyqZ5bMDItQkZwBcPBO1s9zADG+WBP33Ro55xlAT9U5u1xwKVbSjqB+nseJPQddM5
+Wh+LnCZgBQB2ua5NkYChCEXh7ygz1R5SDQ2WubfANzd1WuyacubfWJcddA/kG8273OYzLlRgfXGx
+mtIDtkK74yAsHpH5Qp+LTNObSPd09dr9igo3VulqT2kmkJix9K4XQLWXHraikvKG2Wbnmrk7T5m/
+3llps13JMkjAkNvOWpL7Ebg08OWhPqddCXe1gJg69URjT7f0dWBrvs1Lpo7qalN8/1ChJzyWL3M2
+tue6LNpz1edyo1uoqz99CSF/N4zcRT5qFcfX+U6P2YfMIeNVaTg8tmUPhU5E7AcTeKoubzfG664x
+kcCLymyMEk8o7HdLuRHL2EdlIsfDqIYPSq3lTSqu17yFcsNLym+60nsvLAs20AHqzZh9o0pej0j3
+DDtoQo+6gofkoKUF7GCbwG5CydqGQ1sCcjXrcchEcjuBB/DNfMwzV97px1mWQIhEXUe6sQAkgsVE
+fU03wwwcE+ENlMSMQ0tqEZppsBnvvarWG514Jvoh5/gXkUFB/hwYFMgzMsQGmUJ4ELHFHwODNktM
+3o55sZdsQIhnHdh5GskxZ2Nwj8u1tdCmjiX36zGEbrOR3A04xeH8rzVCKSilALMblxsQLcXzNGgU
+uJVhx7zMvT3wlaqKtKzKcG79n6NQvslY1PTKxGk77OWSF0eHEh7EgJFPowkGZD8sPfklOPyGMgIh
+gawb6EnZnrXJq6n9+TwEXXFg1r+0yZqef/ugq3rYm9Q+pbSDr8VRJ00g4IhTcoW/NrSbltAHq4Lk
+X1xGLv58GbVP4XdxpX1cSv77yzhnCESsbEz346y+tlNKX21fTFHpFzpE6EZC4ZjyD+uH1g1gfpTx
+Y8j4/gNoRwEcxDQHy43/AP91uCi+bsEsIMDCK8RfIHY/YuEijGPVE3GDdyiDPgRfkt4tZSFjXPth
+00j5xdB+OAIOzu4ZYohALrKPpjdgipa1eqb5Use84RBOeaYi4J/JraL2oBfXnYCE3o0MOT0+dIcR
+vjPqs4E+aw7//J9vNx+x2z/mUwNfowRkEjFZpa751R/yqbVvkyYDF7C3LImXupo2Mhl27dzg7RbM
+oZQURQTiaDxNBChrNm0L3AO72bf5AfLwbVIH5CaDQ6Gc6fffA2yFGLu9SEWwqeA3Rl9FW6UXvemW
+1b2vlvx2IdUSJyVYRi+pXr2imB69mZ/A8Pzze8PP/cs3J/EGJXBhyq/f//HNOaRY62kF9i6NOQAv
+hXy6nRs//5i1AyKQadNhKeEPAfeKb/1uWMLWy73PuqM4uxoUwb1p97wQZlNrmK3wT6cQkSnyvg/E
+HKu+gtSN2yoc1gbwChzbS+or88NnpchuFfPHW2eLOvRYOX6ZsEVK4uoXOSb9Vu8A/yxHpHLp7doM
+dZymRL0mbXWoONy4eiHPZCxeczbl71Hd2J1BAmbPlWUPBiB4CBYJIObsJBB17wWqj3xEVKIMbZHz
+TY+eI2qagEYdfJO9M/Ig/ZgilnZi2V2v2Rp2KdWPOPSOQMttNHcmu2kDmd2imcWGkCBL2RdLchq6
++mUa5PQ2wexK+Pixsc6BcQcKysTDOIFjKJXoQipG/thCy9+11VIfNRrq2KMIklYdcD5lJ/mhW5oL
+7Vfxhq11D/UzOUm5IFCbJ0k4Wp0+FQk3G0uFvEXMDokLr9ojdJnjnIAGmW1xbvfb1UNEZd4Oazu8
+IvYGcHw4YO0ivzsH4w0rkHLhE46juW8/1EoGYQBIASwWPxaZqPaj37udGIFiTgVTIKtGf2NQZmRJ
+Q1//+S70/7wTCaWoUH7ACFH0jysMBk/u+cjk7gMIpnsCdNmHtHlW04uZ2F2ukhJIZC83EBPZydCy
+geRXpnsg9Oj49Txu+qvnmBP2uRLQeTm8u50i8MmJE3B6nYvXAPEONiApYK9U/TrqUI1DFVUOGuTQ
+643fBNDvk+wVYBugDaijEa/WMxnxSKNnsa/gVf6Lt309p+AaISH/S/AdNAVSb9LnyqeE/mFj8UTn
+rZapbL+q5pKXjl2Yy9NIGi+/TYU9VTWr9nVaPzUsACY/EfuEjubizRYNZj/Yu4EjYzkpBvdHpGcv
+MfIqVvrAZJBZbifQ32k1gRy8gpDr8oki/Rf6HhKAaVG8xyJq4wCeWNkPt9LPjqwRe8jR5dYsCfxp
+1YnYsEpsO7Eb4H/FK+ysf3EJqPzznx4TCbgIJPIeUB8p5gz8uP+oibRIBHfZfmLtdHEm1Wfb+/DL
+2AepxvF+TWV27NL8i+JgN3jevsx5EvcqXbZSEQhyVdC+mvIyTvTRuBIUc8X8p0qlPOxqA903X06i
+66eXIH9NgCncTfP0uVsI2bPOIefmcfLsFyoGkYKVNhTIq7jmMvoJ8H3Y2FljnmsYb5c171+8dMyj
+PCmL4+D19jFQxySp2ycLRSjuqqXdW9vcmZbMlx4W8s2Suo+aDBMw02o7tA50uJDPgyvEZWScX7Bf
+fjA8J7FkFLcpZk88gB/ybzBr4JZ1VqA1rBAPmb2zRaooWlMuNvm8tpcBVk08Onb+zpZgzz4MBi3/
+RBYNPKRbH1pBH7Rtm5Pt+gffH/XNAiDqoUIz2AYriGPwkjt4rSevaZE5Get8p61AmmLVO7sGp5F0
+sApmkmPL0/eC2nLnyZFE2ZjyzewBSEVMMW05CHTV6hsmBg/QEvCXBWjZFvrHV+UCskGaugwRAauj
+2ZrkzlT0AsXB7IrJ9JtWgyQe6rTf5GjfN4RWXbxoBfiOeuU2Z2V9R3K7B3IKfC9HX56sELsFTctw
+zebiBKZ7CKUH0VxkOtnQjrIdH0tsBc8orlD/GSh6Xobg8/BZ0BbK1+qAcq3TK1H+sFszQChIRqL2
+swg4tjUmKUwF+oZ+zb51ht2B2zxTIFuXuYI4ypEw1QBzwg5t111vbLCRSvibxUFwyR0tYa3XYAEV
+aAuXkyfkzJt7ky15NEs8M0skavVVP4MUC32Fvg+EqbyprIPB0ybe+3/eWSgL/ry1KKa4pJpTLgP+
+hxI5ox6EoUl5O7ipS3QNEV6MSpIIRDcL3cq/TmiiH+q2SGJHB7NpFa+Pc0Y/TrVKMT0Bwp1XYK5E
+EwTL3eCx7GADHGtVFjyJQOf7HiMLtpOa6d735ctYk2hpXXUWjRguo/OA7nXTEPqZGW+DxIsCoRs0
+eHdLVmZ3V7vvHgUpshWUqU1eg/pNYM5rwoqdnsYxrMYJz0shpyyqNjiF/PIsG8APk5htPCMqfRa8
+gm3eUApnuPkE2xxKtW7ONsta0P24H3NB1S0zYxf5Mh+22dwXoaOIbldufKlmpu7mMt/4SJtdc3rb
+KjtWnh2+KDcc8gD0LfXuGPsM+WLaew3c8qbYrigibhUqXJwk87zH8BDwJ7KIZ2zIm3nCT0mZFPCl
+knXvy/RurAsgN2jBYM25A+ZeiPh7Dl6oky8h65mkXfcVFJvQyDl4Roz2XLoO0yn4fb2CuULh7R8z
+ESAOOKpuj/h8hmRC4G84Ytjh2tX+paxRmgNMugGHGVGvRbGBoFdvQMbMiCadZJ2SLTD2K9R2JSEA
+V4N3EU8FkjdQvnQVTwlYzKJs1n2gy+42Bw+yYmzFhqcI44GSLNKi+hKUAAOCgoW0T9iJKWQVv9+x
+/+en4Tk/N3U/zYX50rQwLtPs5+k5v375f5+aCv/9x/U5v/3jdfzOb1+df5nb84+P2r011xk5wx8f
+9LtXxi/z8293He3zuy/+NOfnxyE8/9Vv/v2YHxzzb99HAF2rAEqIj7YCx+Lfj/r5z3po6r9+0i9D
+fgLM5AH0qTXCJZjr8uOQH4IhP4RTKgG2Mg3O8rchP+Id8urYHALOYeOoQP025Ie/0wQn8/VE9tFs
+Y2jPLxfhd39MTEb6+esfh/zo6yn+Y6WjBRNUEzTtgaYa7/f3p3wikVzoRjvtHUTesMVusC0wdOUO
+t5286WFiHQbE1G5L7YgJSdV+VkOSoc1iADIxMSjy05VvS99elDe4u6SevrnR5UfFsuk0TxgdwAbY
+IIipHuu2MnflAiisVxOSDXUA8rtQV19rbrCzLBJmrJ5mIEjALRdqn0dNrtZJ4279sqtuJQbxHHUA
++wtGxGM7dxItbu7uq3YVr0jErMDPM7kz1Pph0jNzKovJbScj22M2rwa9nzobjGyxOYNCu4BagLd+
+U3ViuE68wZtfM6ix3N27ufK2NJcPncMUj35OZdRU/Q2akjtixwIwyYwQm36U/qLCpcvIDXIADZgb
+sDo92NSgIpHFbKSthHz0OXH8Xrv5WzJQFA0UAXnPH4uYeuoJugXBLJMJUeg5RSk9NXL2HgZ04stH
+D/S6uxcNz+f0p775//eS/h+4WLGA/2Gxmk/Vp/rL21+s1+vC//TTUK7gHQZ8QX2R1w4AaxLf+nko
+lwreCX5dLRINEcN58cN6le8YR2RXCyECotGv/7ZexXUoF15S+IQp9BT631mvf2rItCBoSwKC/yGc
+SOi1vPhBFfAJfCLODEIgAnDeJu9RmX3u7PRJDUjkTevwoc+818lOkF0gjoe6MmSTFSlmZNUIPflK
+fMGAGqCStowwGAshB7ZF0s7bYHDC/NZP3ee8WNylztXo7zIEvnuXPwFSIWY7dLCS0k6lz2RoCf9Q
+yALJsLWY4N7x9ZuhU+0OKwDoYevmXFTQcINi+99yGv2Pu3UFhbzz97fuoX/7+mbMn+7c70/7+c7V
+5J1EXDUQEpKxEkpDLftlnBx9dz1NfEl8gROI4Uz7bZocwUM1gaovKfWviu0v0+Qwnk5DXVA4tTBU
+zhfBv3Pj6qtm+buDBkwMCTCZTnIfA8H+eOPS0VOGQiXYlwQJfxj28El7Z3IO4k97UPLLVt9xV8L4
+xGSBGNlrTLyYUNHpRKowAW8nU5TtiLbndbvlRvnVgz8a2sQupW/Gs706O4h6RVRJ3QwPLaY5LIfC
+8mrCGAjtiQgF2pMs0+ZbnRSlfxJyhYBZUTrDm9fZGYs+j7JsvEdmjO6kWNLneUAj0SCEGuqOfBmU
+A4nf2RsxwEYSfu3iCmNGwJ0icxh0Njn3sgAwABEMsJcGAMZNF2OgUIqpJ92xXeQzTmIN8zNPMPwK
+5irQREj701LfYIWCj2rQcuaNVgh8iJuyT/XRL5PPCER+neF7hAFeP0wBLmJIm0QWdU5WdGx9AHdk
+yLZNk7Rx4+lnoP5w4jFG64xZEeBf6seuxagJnOo4ZacU4A4asC3T7U6k7Sdwa489LUHbB8PX/12s
+PxWFWCV/v1jDt08WowDGP61WLvG8X84Z+Y5LKNZ4Pap8jfmKv65Wpd5hdiNV+I+gKvvd8EfxDlIc
+p1iuPx1OWMm/LVeIEQENeMBxP1+ryX+jLqT62of+uF4DyuD2w4TAa2ET+GNhCIYqN8sylvt+Xif2
+NZ0RvBkQFeVo8pG1m9RIYjFDekwtoHv0/W7ju7mMVAr+cPVW8skMOVCjFIlT2E6cd08l89CXD5wc
+y6Us72la013vgm+TB+kYrZDd1mZ6zydVXaYGokdL9bUyypHJa4PbgfUI7mRLcguSW2GMFZn7bTdB
++17AND9W0v/slxZcXjN8W1rxWOdQXiAnYcKGZYicYVpkKGCu05J81snAI0jykcvbb4lB5JYvwRsC
+xJ+4GnaUIhI4ephX0447mgGBRJX6Prd1iSSMdQghThcMydilXoL84BQmC2y+usBwrAoY8oLZTfBg
+9q5bnjGihx2mhpOPQOo7ZJJX+8aFf4d0+bojyAJifloSZ1xPySvraLddWiPlhyWvEAOVo+G7VXOv
+PCddhxE6rLlUBmu7yJGnW2cJwIoB8K0BQgPqBVc0gwxDsinMW43pa4gew5Tc02k5BrADMf0Jvlia
+sn0zzbdOIw+8lA8YwPLWLm6/TJCoEDLowEsNT7gamBxE6ykmTQBVaglubaJSOG2IqJP+Jmf6tkXc
+CuGzByW8G01HwHfQveza7DGY4ICsDzYbv59CWZujq9VLgd3H9ON7VzVxwUqgNsul6D3MmtOh3xZP
+KUgb5x7a9gzJ7LHu1g8QgpD9ByjE1G3PUKa08luN7AvLp1frilgVmN8C/SRUCkLkhMI77zHVIpUn
+n6C18Bdx7i1+qmUjAozdZyTQMKKoOc7N8g2Zg2M+yUtJMbQEpHuBiUTuzgEtmS3ujHa8900ABChZ
+Hqjn6V2DUYHlpoSLFAORhatdlXWMaZIVAqKufMwohZvRIuaSmfSjnYPbpYSFMSy1CtkMPm1aiUB+
+e/AbhUhaK7P0J6X+f2t6iVL67/fa/zRvy6f661v/F5stnvhLaUTfYb8UKDsY/CGOIvfXzVbTd9ea
+XPKfG22JgvqH2ogLVFKYRKSQiLqaH79ttgo4AqaW4PvYrOFM/hubLbvOD/7dZovAFIHZK4S8/ir/
+j70z643byrr2L6LB+ZCXTdZcqtI83hCybHMeDmfy178PlbitpJ0AvvguPsBoIGhYqUhWFffZZ++1
+nsWNn69/6OpzPA9aMg7mTg/UK2Nw9mMjTxEyG0Vzdmh/WNfZ6UWpVXeGan6LHesrEJoXtW6v1Nm+
+yWSDp5hrpI+V7ArYBIA4mQHYVQDs4WBw9khrCn0DDSHj6t5DXxbxOYp1OBFjeAQHmN9oVgGfN0GN
+WTGrWNczezdH4ljJlKZMPUh0qxG8QxrWGzYPL0Fv7Hrc+e0Q3dRVjHJUB4hmbcM5B+jyohTd1yRs
+Uy8rwuNYamtNsXBcYEPs5M6QeX8FVGal5vK2Tq3VPLPikuGxHVGkhPoJjxVOGw13IDaA5sC4ca1D
+KeqkvXOaaJU79rF2deZjeA3HaZ9E8HyVfmdF7a7M5gsr1dbVkN2pozyy3/FDJz5MOLXtqNvPurHn
+NRA1szVbTebMynWlw+Jx8pNbX+R29SI69zJ0awBelq+rkZcFd2XDAD2IN4oiscxgrjXSTerI89TL
+I2LyZzMYjpVZeWB1Q6PxugCObKE96pG71pMZAlhyE4TI6+CxwPn0svYzc/MVwNJHiQjBDrBWvNML
+2fCm7pXVgXQJvs7MFaYEuJ+z8BcX/ZnSL2aMyr2iFiNliNq8umDVYkfeGCXbuoKmWFT4N9uVsXSK
+fdzuXPMZOcj1aBY71quxN04zxfqec8lzsiezE9vMtPeRWa2kjplStEHp55g6dJEdtRLyS2E/ypYD
+PRwfqizYxIGzQv1Q1TCBXJnvatPG1NQCeevmgzTAiCFdSUYwTkFZrbS5vU06DE+O5AirV3psAu5E
+o8eQd2B55/IBqeQGxeh6yNUG9p/ZeBmuOp+5kM+t9DlALxvm1jFK6lNlqWgwDVB0baPz76nBc5CF
+mymGIZbP1b6vLUzVwHYi/RGz4a2umGd90bxYXWt5uBfv8fHzu0R85Vt2+a1pi3z9u+OlctpIev6t
+CvtRObz+ZA66vOpHv8vVD2g5TarB2HPRcnyfq9g0tQI0sc5Ug2vrX6+n3Fj5Q9UwTFP8BXZufaIr
+NV2H0aUQrs6I9FdK8DJs/UsJpt/lf3j/HFfojs5t9y8lGEejXjcmW/04T/J1IbrGTxwBvzoZ4IGh
+oGN7NsSOhwBmOlY5D8HIAthrbctC8Lp0EYXjgLByZt8U6HUdaeOxHfXZZ3Ja+4o+3kNFeWbf9hzO
+XPvYQcb+NE9rs5brUW+hdX1Vo+AIHXQrQiA5Y81IEuMXEru7kjUk5LULrIKbuaTB7OZ+05ZBuR1B
+MAdYNvVerKZReQ77Zpfk7hEImZ8jGvOiusx9NUiObgA1z6zvlHh8qRTx3OXF53hqX6Ua3DkDLDSY
+cGj2G+etke6pV+bDnKW23xnBkKz1Po83Jci3O0dWV/TE+9iQl1ZfPsUSTIk5ubEXyBwbCuQXp7BM
+jw4QskTzeaqqu2GKOs4VK/bSer6T+fzqDspjXoSd35mwI/SnDpiDCF/apDBWthVB58mza1ePNhOl
+7lLPkm+OHe5Eh9cvFs4LW04GT/MBIvReBA1mXGXNv7lvbe0qHuubGI5uUI8TBA3YsfzSot56mzMl
+9eou81N7PEQ9N5eo2U6Ilt2k2Yioug+b7iVPLwbsH3q08LBvm+zVndxNoMiVNcq1Yw0MJzaJ5e4a
+VT/n+kMyXQscerMNAL68mXR5bDC+KNeKwMyFl9Q2x00NQlAk3UaGF0U9rN1QovLT+HlPExrEMa1R
+STE+591O5xWs+VWZYMMe8a8kcj3L2a/T28ZkmdX1eDUDvwin53aqaI6Hsl9Z09AiBozPpijUk6q3
+NbqB/DlQ0dFQlHMfLRawuGn8Ctz0VqM7wJ1UMyV0K8TG6m6oUa7rifE6RYwLm8i9KWWse6UdsgA0
+cP3EtdVv5xDkjwXmy2vC0niIsv4bEoe9BYN4b4aYM1T2UNes4Yq1sJrPTpW0qywvvjhJ7ER+mbkH
+bXLN6xGrxaoqEd9kslwAwpHy/2Zd9f/dgBB9279V4P/AyA2j12L6SR/MC7/3weon+kyxXOxxpOvc
+6/9bhJc+GFORwUpafx9HULp/9MF0uYwJXccw/pxHfO+D7U9oZFhDWSZjCdrgX1pGae7fhw6synSq
+OYsjBu1oT/jRP/bB3ci+DDOm2OGFuZSp84i+H1YQe9MIa6kZzjszO8UZwKTQxlLTjxu0xm5XiccW
+vt8tURX6sZmnXQ1ckBHDOgSa0NojhCnlSbMautzuKFhZ51Lbu5nwYfOvStCJS4iAlYPQ6SDadaP4
+loepH0nMSri4rQrvvTZ11h6ykUHFMLF6zIv3M7yVabvvF6QazcSJ+veZD3z7ta8R0rcYlBX42yvT
+Me6ZjZpbzhdKPVvlc2u66UarUCCa1aWqmseyVFeI91apnt2MVNVBfe3rBoa5CoZs7g6dmI6BjLRX
+7an8GtkzWIK61q5EhKbRHNvuEqL6a2iDh/LUQo1vEoMJgH6uGQZERTtSZuh6bpWFWSTbeJ1ZyuJc
+6fD79k4anjIh7T0o7vgqrFLYkkERKfdOuVDMOVOmXFMendSC1RctjZuGaxr/v6YhredEWlQLNzNe
+sARUSBWnXmrnh6CYmXgqK3BgkKYBoeN7MqyV7LqrvoKbYoltP6Re0TTrVoCq7xkHl6F8y3BxwvTI
+bxqoqqCUMfJmzc4axhsBVp+f7WJMp88uVgBWc62Ips04O7VXIAzARndYrCahjfeAI9Gt7wtsGW6z
+68qnvjJ9s2mXqREnPJMg3TyoDIj0ZPQaECERl4GgLm875gml/iyay6RBgUL4xmw4l4B8n8oc38to
+dCzZtb2RRKdUHY5qbd5ltpZ7YnCI6Qh9abV+MxOBgrM74K8yFfmujwjEcPl96OpmqOb7Np+Qbj1E
+SJ4j9Y40iduoStbOfJFU39D1rXKTLA6B5k6W+8lsz5qZY5WwvLAjs8Gx+P0zRhnGXQiIUbQ2ALvq
+nFTNHoj34+9+9r2fFf86wfVfm+Fn6xbk2P+tpWwDNUO4f5a9HwOFZUtoaK4tWM+rjoV89y+F1NSE
+yeqOplWl1P4YKCwLRBJ/VFb9Gl2o+UsDhWV59Jdmli2hSiNrqRjL2VSKv231swDyRBsV0y7SLSO9
+7oQO3ggIVNfx0AwueEKll6W+axmNmI8Tnh+2Avms+Vraabrh/f4U/fEp4vf6z7Mp/zX/8vUnt6Ll
+3fh+K2I57AhVXcKVLDZtH9QhgpwnU7N489CAcMQuZ+GHA5lhFjMjxJmCWxUfsR8HMh869nm6cHk5
+S71fuRUZyxbiLx8k7kPLQpG9FBsJA0fC3w5kLSv6iZN0l/cC3TVsJk93IcpgMakfSCk455lzFycG
+kOsqWixwAzLsCg5HorzFrKQvWmE/OVOLAVIiEpw79xtNdOHFo8hXWVE/Wnb1zEL6pI7AOesgkJ7I
+5nu7au+wG2DMj3VuIGJT9y2+7vY6LAJCbrBkFRIvSDxeaRzSajM+SGpwkRpXY3ifW8ljn5W3KgQm
+U5XPTSjXZmMeZVquSyu96Qg8cV2BnMXFXzoRqNIPhzCRZEn1TMjVDq9vAS0ltvcLMGXOGbmrg+Wj
+Ie29AUOnFPYbt72tDdLQo60FzMKgrFemJywxxwjPATiEi7mutzUMQyfjv0xQWN7V+7yEJKJFpw6b
+0Cg7doXt3tVLv3fzdWoF93Nv7g1tvA6a8hXTg1fBEXMZv3WYNCLX9puIlcdIVMRMalA6ABktNtNo
+HN0yh3SU+AMjLidLsK1hi0ZMnXE/aF9bIyQ0SltJ+hU9XM38khU93AhCKvAjb/QFVZDYaxyYK1DO
+0sXIb2grxXgKxIWLLMXpIRIpEIHia5XjXVHpS0jAwbvisd/wM64LU4jRT9fIFbpvQNlgr07bcm+7
+nxcd4VDetrwl+iuqRg9IUN+/LTeqrJh9N2EFIioPAc46USEjw8WdhxcZ9NcmkBa8+f0+robofops
+d03l6lbJGPkMi8h4kj2JLRGA1CQ3VgVKh0vXnGr1MMZAyfidjS7nfRNF6hoMVTStCJqoiwujbppH
+3O5o021crnlXXLKc2VXkJyAJI8iHfInZvgzF6wysKAJ/bNRXVnKuaDGEme47RJZDDVGRhYBD4tnE
+eyZkDmQP5E5GqzhIY92OoV/NxddWTBz9A6FJEsJj4wnraiIDJKMdUkrDL41qA6DSm9LoFgk+PCiM
+5fbLUMgR8iaww1FjargjB4q3W9AiKJ7RWLsowapaZetcqbZVGKwK2W4KBBeRku57VcOq0MBeGXFu
+Z4dy5sIrvxVjepnYEB/bczDij+5jBCHxMTPvSrgkITSDVCE+pC9fndngD8YWt3K3nUdjx/ryYFT0
+aNNis2oiXxLK5BSkkcnFzR5zgeZmih3PKzKw6qzA5xYaHhsbHegO31M0FnjF8E7PSIJq83DV6vpb
+XuVnwk5OWQh3J54vi9nxOmdeVXDb9DDGCdqsF7ukBWY+S/XVoIDMtOgcR3Vf0D1WUlx2OHo7Q36T
+TnVRMKsx9HJTAhP1eewjPEvxsSjiNejCU1ngHB/sM5Wux2QvbpO4XsXTDP3IDfcOsMIy1i5CGi8T
+V6kRzAiaEVl3BBIUg3bRG5PfWQ0g19Rc90X2mKiwD430IkMDrWNESGABeKFKdFkH8a5TztxV9lWi
+HGr8AUrPQ2LQBw8t0WsZ78GSPgErqAkmD7j1Rh0aj3vbs8ibi27Mj3ObnlvDOqkkkA2Q+i00Nqu2
+Q+s+hFfKWHyJctz+Ac+i1VSXk+qyBmj0lRqRGFSWr4Ez98cx02avNYlQEMw9eAKSxzrlAz2hD2Yo
+5OY+dd31RBdCZ7Hnl6GNr1qRfJvGFsBhblQPTkZaB5of9nNBBN7ZzCXvuKPvisZNr7HAn6YEAIY2
+JnW+CphyrAjJq+9/9w7vvYONpPOfe4f/9ERZ/uQuz4u+3+U1pqbc2G3Gpq5r0w78uMvrn1RHtQz6
+AIc+1FnWXT9aBy7YKr2GY7iGZZkfhKUMVDVtEYMyF3ifAfxK66Ab/9ODmiY2dH4+l5xK4bwL4T/s
+tFT0ndYMPX7XVs5ucUiYDCAZNfuj2qzYIR2iqLhW2WO4o8R2Hl6nEikzCH12HOaDnKwTUkziwTx8
+HX7C1WqW+WoxmbU6gU0Gc7FSnYH8RHNUgPtB+S4inwrY839Y+I4x6180CpkCrWUgYEUVK13BTtxX
+mDq/2aU4QYJkZXNZVNq9qVfEzgSrys5uZ/glSKaeEPStm4DrdqA860ZzBMbrD5kG9TfyU2fY0tD7
+XZ2uAYL7OtVvcOz7jjVIH5FwFMbHxNI8a2aw5gTIFaI6ZuCbtJbGUV7rX/LZOiUBHjb3q1TEqp/E
+hZzt9YT+YB6sNYA8uIwWkKdoZzfONu9vQ129bQr9VJjOPW/uRleGe0N3b3OMEeyd46umdS80Nb02
+kEx54HAKL42Ds4Sg1lnas2Uo5wFc/LrN0FyYbYuzhpNcreQ64gGux/6yr28ZfB4KvV5xYOch4itb
+ZfcGNgcdhjncF4rjer1dfRlC+RKCzoTNOe/0fNrFVfCSFspWQ9aUORgxCbxJoaSOCA/SjkbDJmAz
+1bdjgPN4cK/7BP7s0O3TMj2Q57IrZP3AIg84XPkgqwnIlXuSSchKkp7OQmuREqTWdCtJAGNu8SM7
+MVinlk4rJDvnsZq+BbqF+uHUJ1DmJ3sFcNXPMOcYSbbWJelWkiGvNV6UiXguCljXCfRxSQJG38iD
+JucN+LpHpQLbP6nogNWeIsd/meSHdmqI0RyaKWaYysGNPuFh0OW+YwFlusVVEJK8JtKXyciflxib
+tDLxuESXTnoT0aAAdz6rZO95XRx+wYCw7XSi5HiRp06IEIC/JQ3vd8bQGwfBkWXoiW3rFgbmqte7
+J3zAEQ7+YuuU8es0Cz7U6RX6FfsEznPYiqEERETV57eM6SEt3HMiW0/PBVPdiTTSHmwKjh27r9Zy
+iUVlG9zR6M2wz+Kiv+j6eq27YfEUORNYMTWH1wH4BFSMkSh3v2v5UsspBP9Wy69e8yx+K/+nmr+/
+7PtFkEEqii70wygKWI4tO7Af6zGWXKiwsNMLZJwfBwoW41eN+x4sHpRf7hLg+/0iaH7i+v99Kmv9
+Sil3GEv87RJoIhtF78A3QCfh8rN9nMqKKRhLibWesSqIaKqHvuvm2o72VqkPJG0QnAUTI7ZnNTuy
+EegGQg5JDvDdeM5ujTohpUcl9IB1wyII65tMfYU3ukSKNKTtLMqxkE4ICh1qMjmE7kqbUoA4Hdon
+Eg/yHuN2WhpfnEEz5zVhbmyci+ROifR7Frt0lKyaydUUQFeF0R/hfpA/qQf8WTC3YEp1boayzbbs
+suUB1EvNZQZiO2I0CsCsntqWm1WYMY2MU/OpV5xjTlwUaxb6eTvBTACwpfRlmRSHpmb35pI1FGby
+iky7c1t1a5QXg1+02cAQkIJqiOpJkp4mnGnTCHejTPXZMqBWmhq4qwQ8REKWa3tjYovLSKNM4K+W
+XU0Db62JJTwU5nA2LfXO1txn6UI5HFRwhqZtP5ajAQ0knewLJ0jkg2K1NfF2aQ/bgZuNG6zTeUx2
+OSk2v5uwd3cP4IB/e3C38BwRcn753yd3ed33J3eZ9+lMArU//QI/nlwU2apJs8U/GOxx/eXB+tCH
+Yd6x/jv5YSb0/cllJuS6aLWZBv2pDP2FxbZGG/iXhxdp0WLh5cdgKskPunz9Qxs29NPAIKSddsJK
+ICzmsXSJXyjLIkaoF9h+OlnRfdTkhonZrbHsMPZKq+QhEQB22IO6g/ZSpDk00zyV0H1ZGLQqm5Lf
+R8Mfbf6/jgj/00Rf/+fTxaP8308XazlKLseBYeM1/qP4/xD1C5MRtCOoHH9OAX98ut5ngDTefP6W
+8+THp2sZNNNVs1TShU6H/kuqfs1EVPe3j5eDq8XGPo7BhcNr+fqHj1cjw0RFJubsksAhwyPMTF/K
+0EagoBvr3gbvH8LJFHN4dsgE3CWuE/qQL5dAU0EDUlUkwBT43h15TJTkLofvCvq7G47SGNek5xCq
+LCUxWCnHAKoSYhaKaPYRY7Ecsm4qg8AnJmNWBjx4ttBRVLtQn2+0fHwTxNlAOYaXX1Q20KkUjIk0
+SLLqm3oGD2uTZFxtMwXpBfd/uFHzVWiCEE51YprnGS5nJ4u30XCeyrrOaGQFDCcEvi51f+VG4Vdi
+tGIu4NmIUiBwTjOhfb4qcVFrKA/IBWPqqMWK36jjkSfqNay1+2B0cqTDpcYSnNlGrEPlMhoQ07qw
+niKwqWBaQXxpMHg7jgZO/mSjTthrrbTVoHdD7f6MhjDDQqqjbrCTxEWTlxJ/t7Ky8Vo62lc7guol
+yXQoF1Etngf6Oeui63roHujq4q6+GEsz30ZDynIPdFijWhcRjllQbwz09KCdd9xuWH9W6VU2t492
+11zauQo4ljyvJFGI3XPvSJFtVoqjwFRnBICpIFqpsfVgpvKzy4rWFAHTnDn9EqQMU0X7gDtyIJDZ
+eooVnYggcxuK+ZuoxnvAhgi0ovIca+ltHCbQdps3g4OO+xYKbmZbE2IYzIndTm1EuM4Nm6VY0iI4
+C0Yc0rYJXduArIWAcd/WxTdw0+V2LmXy8rtCvVeoZXvwz4MIbrB13HZv6f+WqeWF3w9BfAk254um
+65BqFiHAx/bVwFek/cM+DMUXwwETYNQfHojvh6D9SdUZX3BuYRlCsPBLrjntJ+ouizN1se2BU+Ig
+/tsp2FvAYgmvB5qoJjyY41yzgu0x/OQKallVC0e/idvsyuorZpUDGEXGxFScWLgQfDVy260RnrUM
+6qvEtApYBkJu3GBmyFfM7LOhvgBq1NV4GFeSBAZjn+YUdiavVu/6Vq2GRkVo56Iueh9Og5R/nwH3
+kThTIFYzCVCrLIoSUFhYpfZKyOC1V7F+on07kHr+qufV0YCBk+g2z5v7pUrqe7VQ1g2Te0I8Hgvi
+GBfmeRHbd8KIr6oxvgaUAX2wFrvOms/IoB47tsUuuwWdHUNn8+wAwz9p7ENqlXzbuLGvmxzVbiHU
+h8ysX+O6/hqbaYfUzaCHB/FSVsoLa+bJ190WoKbVPZcBaiWEcdUmTevLbjCfpwmd5tj35M/b+luK
+Yd5riGT1p2yKPL1xv0FZ4IEF1eAR3XudLnueOiyHHRML8JhN9Kgm1rz8EPGh74mfcvGBbIx0zAk+
+Zrc0uYbB/pwAm2J2refYrYj2sHDbeKUWxydtGOxD6OgLvmLIDtRtefW7FPzRrNCg/nMp8L7Wbfyz
+doVXfa8D9if6Vo24ID6WzP6WEvH9Gitwu6MTwrb+boP/q8qTTgSSKawhm6vs0id/rwM0wxjksc6y
+7aR5/TX3rL58k7+0K1QoA10RJWXxUJnq8vUP7QpbPmeO+rDY2ZMVsK9wsKRXIYQ+pTITYk+GbDc6
+2PwEF05POA3kwcoc9ySSWxtb0eRpdDFwzFFpXBuDCA9W1kwbLDji4I5z6dFdm17H3WPljJK4voyV
+Spoaa2pdttGlHd0kFYoQTkJb2elJr+5zaMDgjecYkSQKc/ddLzdPpdhpaWaNnrWI67rUcY+k3aCO
+Vph5QiQS2itxYvU2MNmjlm0MBHESCkzdzLzIrWoenxjEjecaDcBGIzf+RhDKuu1s91usZONWJS7a
+vq1G4VyzCXIoOmW5xdjcbUitf5KauMIcBS+6ZCkjovQN3LcEHF+cVbw9hYCR7eaQiCq1/ao104My
+hndwiK7dybir5TT6lsKBnsyrJOJCnFTJTd1bp5w+bIeYSWXnNiP+ryd2XUQKGpNChWqbTUvAyAq7
+V7ZKxXDbxmW+UuCYEJYd+2xiSYQIUlQ1Ux3uDbhYt1PV1mtOr2wdZZmFVn16dmLeRs0aoDCq7jfo
+N/XKSebLGscN2k/DKkma6uavEQA7NDzYl2WfNduhZsmkMAbwmlFeoa03vSG0YBTZkq3noqSc6UB4
+16qn0UCGVIVWSa5Asrbt8k4B5mQHRblqzQjgWB3Dr58kmlBsS8oADygp7XaHCKxcs/S+djMI+xU8
+NowV9UYFR4GSPaIXa9tmT5bbqckZP+rO8DS45efQ7J9qvWm2rpncQJi8dEYH/HO9D/L2QlFxKUiM
+oZpgmtim0ZHL2sCHMF8ZIalzIUDSKFNvCOc8m0TQEnii2+sG5JJiNd/MJCaDNOzPJsYoT0+tzkud
+4POshVdhkz51Y/GSFMNGdkXl4TpZ0szVN8Jse3JoiBwu4Abj5dpwt8RGV6pb1FXfqq5kpK45Ca4n
+0AZGB8KNIU/jV0ZJTtywEehQaTq5H7SSOLUkS+n2xdZEUAp8YrhjkkZAkLvI9MlsFWNJMqxm7wjE
+5HgEl7AaxrlYVeYAgFQ2sJXjwfRaQKPQ1ZRlgcjfOgm3HcFlhNrzhsalQoqiJL+QtNpDYmY3YU28
+2kJbsEcCcIbXGg+Q13X5V7VHVwDuZv37tHg/LZYm6p9Pi/WX8OtbmX/+yYGxvPD7gcGpYFLbNYym
+7wWeL/04MGgJaSbhZ/8xE/04PcFFwCQUZ9YfX/t4YGB+Z+/EUbOYqTBt/cr0ZJFk/e3AoHnF/8AQ
+RbBMWfZlHw8MGxVV0tZatbNTgqefwSO3D0psq+l6gY3vS4dQMKMGIzmTD7RKkiYiTgXDYeEgunQr
+EPt1CZ0HvYnzLegGliNW3yONdqkSmlvtsKmTolMY2qXKXRaOZ0ed6tP7rLBjv7IQaWfmRPrkqKBo
+6FByYz04OGk/HPWwH0mWIIrKKmQAN1XlwCFSQs3ybaNVZ6syX4ZUvU5IMGhtsLChQqIjcej0v32V
+7EYVLkqsEHHupPdlyY1bi9mmqe6hqvq3rnFvQODuNQMRfRNcx8ZAPBtrophlHbQ5G1L8oBQPNZHE
+SZdAqwbVlfWEfNdn+gJPwMndtBrE7Tq/TAWmCBZLQ9Jcz84I5Zp+u8zLx1lzWczVF26akfOibuJc
+B0ha7RK7uoiTfh/Ecm0ITOygodvBuFBn1u29tVXKepVYkqAQ87GqbRT8AW6B5JjM7VtkJKd0mNbJ
+ospM5pOep1hRTbHtTGurDQCnIjjddnhRAocj7mtharHryg5RqlxF7ACzwcXYCnFeX+gWyU5mAzfO
+9FAbyC9SWxycSH81KgIinHhvKuD5JvwdonyA6baPp5EkEvUaGOXByudtWZkrlZIVxyRrDwlY5+C+
+idn7mXGoYaurjuHoPhQTcprcuJkV8xVI9znUsos2jk3uBSmp0Umj8MkoW0SikZZFfGOowzBsy7cc
+MYdxIIA8PgS8ZX5BKhUh51ThGHpluXZnhCmamp2bmBTKtLbI7rQ6y4sEG6ZYjKROyaz5yl+zOv4u
+e+9lT/zrssfLXn8u+uNV32ue80kjTgklvfZfhej3mucg0P84nKMcfp/pwX0C3WEjwgfwwoX4w0zP
+ZA1E/4zq80+H66/UPOMnl2X09+ycFi2+A1LkbzWvKrDoW1pU7KCnk9ocjADd93E4kB5thqe5i++M
+qgH7thjqCEFszEM7LBB8HYNhGoa7Up+faq6maZe8pOG7+OlJlE3pd2q+U0snIJirhdSuxScuphu6
+tBEjNxRQd7i3iuhS15p9kLr7XtMPatMcAoPEMacS3pK/IDT0MYFyqjXy4y28q74ObWAfdEjrglLn
+wow0cF1TknozuO6jcKMR4eqVEM8HnZj01tkEfbeKu+xpmpVi2ZzsAtdZZwN742IgBoaeD7IwwQaL
+28UsX9vGORJLdQwdcYVfFFLi2eqVm5QA6MhiIhUGa2WO9tw7d5YaXfCkX/dmem0q2cFp8r1SRPdg
+CJb4vnI3UONnq9/lTnciamlXCqh/xSxuzFoVbNadTc90IZHs7iule8BasIohYhJp+FnW9h05lInH
+X2fXGxVaxmFTFuG1E+rZDrgWcWaDvlUJ24grjFVSnMsp9FtDIZbSSqhGtm/0yp5miF+Slt/kor8h
+JvOYB+kB9viuJ1rGt2S61QzlNsvt45jAy+wWdr2SkUCIHE+JMz8AaOdluUkUUbnVBKPTjtQMtOmE
+P+HgRe0f+S4xiLab3BMvzLatMcEi2ObakOY56fJdkOW3EYu3Dt2dn2EhZoQ5YSgrCNEr+NYQRPPZ
+iIkKN9HK9xuiwWPcT/ZNGGPAii3lWzAGF3NQHbVRg3wcPFV6ctlCZ4cjmO2NoH2MhfGsMSM4lW17
+K3oJwQUyfKewlotJu5mQdKh1dXaKoV8bDC42bubohxy8V/yWZBlcWj2WhPomHRxls7IuimG4gqoY
+brPYemkc5cGJ+2vRxYkXJO7dGGK8cBuSs1HTtqAf1EtUVw/lWFwVzUBXSTyus/AIe2vvKkDK8MDM
+5KimUCiVcm8FuLLiYSpXVAx0ZH39aoRFuQ71vt9P0RzT+zpXQwICutUp6HJiJjNX7qmzoaHFrXXH
+5YFAT70wCTkJL0Y1fivC7HVsbHRyUDozUqvz5iFf1qUuFxhGvX47dZjB05WUJsvWqLjqNeVB54rr
+ahERjNNIGA92b3anCvtWcVc09t4soUwTC44ceJiIAc0TT0oJ+qxMcj8sx02AEblLqp0UwS5IeWfd
+Fp1b4fAxsGbhEzl3yJv8TY9qbC6UC8gQV0PFAmoKnkpdw2OWzm9pA6yb8A4am9KPW/ESmfqF0Pg5
+2r7epmOzxqE2ebImQoy5EcQ60uwgUiFUw6fsJ7KQXoRB3reMLieJE7pDTnR8FKoXrR1hApk6W+/R
+mxpvZTo+KaThEk+UqUz9KQQz5E03TI/ZWKv7tKi2bLBvsLh4hDYVu3TAIWTVpErksfoO1BoI1TAB
+lOqrTkvtU0NywZXKsPQRAG79+PtQ/eNQ5TT757sErkwek/hnQ2jBC7+fq+KTC1rKQCzxvvP6qKFw
+Pi04N9ZX0Jy5GCxzqR/nqgHYGuOFBhgLDf6HTazxyVlGTlD6ELW/sxt/4S6h4+H4+12CMTfkHkbh
+9I7q+7n7YfiU2W5nm5D8dyW5tzyDYKXJ+WNZpjg5aY9qcYW3crY8W6T2tjCCfA91hDxaPH2N7WVu
+ZhG0mocJRtFMuU5JBcITZt9PI/qvssz7xzAMideo8jt7wuur9ajTJ/su5jrSVUAaikgHhJsTHdwE
+85XlMufSA+veLkOU49h5oywfMRJ3l4iyNsaQfq5DWKjE+2rI0Brdx7nSbkXavZBPMhBJZV1GEiaE
+HNB7LUHwWpnC0uW2Uzr1Ge3iDvDNXRAHL0Ee3w+Zc6kb7V3Rza+M+26FdASDbPLlBIDpHQsiRBjA
+gsAS6yu9Y92XCgNJR1CfSdSZvEE1TLI3m70dOtcpfACke0Ahag1LS+LoD6LJD5GGy6t2teNod8Ry
+aPMl/ZTWkG2YpFZ+1IR4bFwagH5BBozmgOSsGcSisI/3UaJZu36kCqRGFqwHRwkhBPXNAQYk2sD3
+HJ8aVHkhshODOSrGaCDg6+6jmkRkUtXwkA0OWdouhwalyhHA8zD7SM8ALLma3OCuraOnCfNYrA5v
+jUpajgLcRuN8KBV5aJviMlEUf9bKe2TYz1qLL1iS5Mpk3agIeK5V4zafneOgB5fZrIQr19avm3i6
+Sl0SLVOgsQMmgGHeE0+8qRW5rpUYw5zTeKk2sEvAn9aHui8Tcd1F6QvN2osrybUJqn2L5cEe+zdd
+ZaeAB71rwjMH1CrK8601utTLheZTlU/WnBzr/2PvTJbjRrYg+y+9bjzDHMAWQA7MTJLJUaQ2MFKk
+MAXmGV/fByqpJNXUpr02z+xViaLESgRuXHc/Pi2XZp2ds5maESpTBrZD5YU5lJdZEx612NjGGngx
+JbxR8uRuFPbNrHFRXbKtSWZtoPMyX/KHcoFBuOQbxWbCwRAncmUXu/kFWPSdXGjfTCZu08uOPPMB
+OB237WxLodmt1sE1iWc9JQ8fx3z+e/4WhAQsS4m2uZifwno6haz9WBEFsIci3lLU+zjqPS+SF9yI
+wdTLc9/yENi5/SoIT9AM8Jbm2aMk92er/a7RsSFaVKfoRmoOz9NSs81DUMifAKI8N3Ch6G4tvUo4
+xRWWrthhDBwwtWs4iAY90g+9PUe7aZTmsB0jAhaoGdOWS+JRkcrFYEr1StZp2ICKaqzLpCK679kV
+454HCWT+AMdRCebemfaVGOhWKo2rrm8fzSmjouaHU/T8B83rJ/rrTwcSYduVMIYVgDga5i5H5+j7
+cbmhuLRoTmOd7nn7jlESxI3GlZreQBaQ4xAYaf//+Ybrb/gdKvb1G2Ja5pxm4UlDzM/fsKmaKqud
+OSXRMARLgW9eUoraFue5iQ+/X5V/vCr/07Pk9cW/bN1WfNHXN6Wj/49X0OoCt4wv3hG2Xl9voPwr
+VNfVUS6IKX555/35pkSL4aWGcwSUpIOn6Yc3JaxILCBcJWEXfbnU/soN9AvW44fPCbRkXIY0ixA3
+112Sb391HOIB5Hnm07mfaihmFN4+adpKhlA1EAiyZwVdSZdJrxR6UHfRZyqCiRA7oHkSLb3oRSe3
+vV42/jBnpypFylETbiaDFZ7bxm5Ja9ALlGO2ztfaz5guL3yvaoCTCw8UfVOeyZrdM0flCs7R65Cv
+yg41H0Di8IfoDeCzdHbvx14LA6NOL3Ua66Jdrna0GhfGvMHaYvSe0Rcq7m7CY64rH7QMZE2DVhmM
++FxSquoXNfT0QYa72pzal0xJyqtKW3ucLdW5gkZPNMUhipllsMXrEZCbpZenRsklV7p+P1bGp0rM
+HwEax/7ooqwW2cTNgMVRSF8HXObK3Dgq0J2uFf0OQrWyxeVF/ioaXmrwR14WjtDXzKy9iCxuXrFR
+VCel4O41N7Dh+H8kZuq18FV1u0CE6gO8vQ5jJ2XX7qScKG7k6mUNnowqMlyq1m8a3jje0FaXUQ/y
+omndeDPCtkfX7V6rlHr7hLPcriI/asunxdRRAQZrCsZ84kKZ5ZfmQr0yl8nFL0YBAI8cPOM63eR1
+oXhtLT4AcLmWpgsJqEUBcq+nnA77lLM4HPBX5y2kFkfp2HN11uUoY6vcQwSoeIfa1n4GPU3cvFG4
++HTnPGsoYGlcd+tMCR0F/XgZaclH/rg3mageFwmfwx1S/O9D57VtcloybS/aBEO+0t1VZf+hrhDV
+nPlTqSmhZ+ZiK4f0vZfNh8K1ESgceCpJXO9m2b3HXNsprlXv2N+cjYWixwnsoYe6jsVbDJii5GeR
+2HRdzegqhaOgY3AlETVQ6imix2t2H0iZ9ZvRcvbKyBvXgQ1MXqERvkSK3EVxczXB1uCB4FNqObWD
+m6HeTc5k+51Ca/cQuoEM68ynUahkcoNgwOBE4/GSBiFEAkq85V3f649OZlg+pazPAD/QR9lf+Ive
+WIE2pi+8icbVSj95s9lcY+ZlBFBvB72IfSdN+8Bx8FUpab0Edlzpfjgrcote/67pROpsitSiWbzD
+EaHFQIi7eKhjXwhxGELH3HbtnO1scmLwoBKibw53Vgeb7Wwr9K8bn7txUffMwoHTKoKMVzvzNMtT
+NRW3cixeGK0balmrcxEnnxd7bC+aGbxp1bODRtARqnuvQDz0QCiWDA7KQC+3BqNHwTQs6saCE1ld
+pxFgMKdvc8+InPjEpfK66xjH3aW4zAZSjZoSWXuQ45/pLWSxUgNNLVQwBMVYfaRp4LVaMEVNQ3WM
+4xbimdoEw2jkvpvDSU9ybYdV7rdv8v98deYyGvz7hXD/0pCd7Hih/Yzrt1S+7Nt10MGYu442umUx
+avwYkCKjjw+IfJQG0Bs1QmAD+HYdtP6HnZ55kP9ZU1Wr2/67F2FFbusk9y17/cJfIk5pxt+skzzu
+rrMWfOFXIqO/Sk8/XAcrUvfUQswdGpBWvNULXSII5opb+KaWvVdRH4JNtQ5ZaXu5SHmPRbSZRp+s
+fF4uBzrcPB0zTjHwsW4t1oo4LuEWrdGNOg9P/TiQeZoYGWN75pfmghOQo7fAeIAof8tP5XLum4/j
+ANA0QQahwQMOPa4fdJBoFyrhVUXwajPQipq45t6Jm6cRugbilHYIFe1maoybWTqbXpUXeaWBl4v3
+amjsalvuos4+xNTPewN+BA+74btOtzaMKDCFEjdBnryNpXzoi2afz8rDNDvXBNpTgVdeZNgplPVd
+PH6epaYdkr6nspMKZ0KKNZdDcUz1/irJ4zNJxau2jJ/UWHta3JnErD095Zm7p4Mw8USZYP4fae5W
+p/Q5IswdztWjpmj5ZhmrZNNmDSM+7X0UwA2vbbXQYBbejyI+UutBmkafDK/menNVz/q8gvX0jcPf
+E1Z0iQfU7OmRNEYXoD9lki5RggvNnNlmVu6x7Ghu1UIVmjQt4BuK2ZUNbR+Rt0TqYyuNCwXcwlZS
+qBRzrxxr5RXKY9heFjRVlq+LgE6F01bwrtaIFMGxHSdW6UUC5C5cnVJadxEyYPOfxS09284r3jST
+4leSxfpS9qWnjUXo2a2RXNgaZbsNf87fdu0vx44peEj//djxiPP9g569ftG3yVpbgUgYGoXLsP5T
+fQBWbjQVQA9Ypdk6mOv659uhg9uRWxhxSeBMlE6vGIjvh44FNM8iz4kfT13Z7b+wgyK189MNbJ2s
+CV4z2fP9HYZ4jePtx0OnyFsjZbNt7Qu9hDJjLO92oTsY+BRqIMfEJvFuJMUpEZminXrMm8kZLDld
+6HRrbpTENDZJ7JKtthu8yqvbJGtS88x6Ot4oPQ3xtYGoobfxbZUu6k7IlWNmY3DZiGFNW468FDO1
+sykedvBS112NGD1aNdvg6K1lOMSVQa+PjBPxKddKov6FHeYbEQENhk7lF7PxwPSKyWWk37FtwwcF
+tDZQJRpFq3o5NrZ9LbLlNVTKnMfCZOKZk5PrlBwMuDhpVo2BUGR3NqRUP7USBpbc3BfwkA5FPvOP
+jRe1gCgwhgjFRmK/oqw+JagFbZ6/m2xWIDa5BNQzGtprwvJqT4U2bNXMd7uBeYFhyKEPCx5xM320
+ovykuuwLmoj+4WolAyW96TnpaOy6HHm6J5C0LEhhYl4hntqudG/KLCwYxwA7mKEdHuhwcPyiYQPR
+5mT2aSLKTsskb1j89adhiqG0Rnrha43+sdDd/Ky56tgfwsjojKDvW1FcKU26fE5V0o6Fot3bqzdq
+cGyWdIZ5hrTPqp//KnD7iHwA3cehWZqj7ypiF2btkbck2k1tXdEvdUfkX/jaDJYqc7NoY5cOrgMp
+j+wfj5bCCKwNuvTcRNsvWX1rmLRLreV+ecYGK8WnRtLrNl0IJtqFc29Z/aFiH6JWyBtdk34uXBrt
+Fq50rEH0g6HnJFXhVu9qPd9wZwpK9KGtsIetFte8snRRbIXWXfdT9WypebQpKHuN2+Yp5ekLfu8S
+/tgl/OeU5b+8vjSE8P42Zpni+5hFyIk7OhgkuJlrnGQdmL7tEtT/CU48iMbO2iH404nHmMWSnuXT
+V+Dn9+OOYjT+ISwkyyJZYv7ScbeOf39ZJLA/oL7CoBeIPcJfpey0SyNqPPtlH3Xd2aKLLEyTO1uA
+bGnaIMUR7o2Oww0z784xN0XCHQN8M7hdBn5EzBROoFUoe0q/q+PnrHksQyfcunPE19P4yZqC5PeH
+PLXfxfCosPcEysvHu6alc5gfByN0sT6/yYEQPKR5dEdaTPchL4KzaSj8oqhDT0aQpGvOHTqijEuk
+Jyt73vgYwbDUPTj68rnG5KdtYmt0AYn3i/2kt1WPkXwgUxOjr9ZBjQnGm1ccfQvRTtM3S9/bmxhk
+SlmMF6VGOZqrDAYanAb2Ay1BTuWHNhwlzkUbygVR5ySsD0bJ4jRWi2eOmUezwOHejf0mjuxbs5vI
+cVjpjOzILFaqdhsMRj0GTlbtwqZ2IfJI3ZPDRzunnBrShIobL1Gbqxoz/J6JJ9onMFfgXMjmPUyK
+C7bvWEMnhjdP7QxKeYUSPtkpXexNolpXUU1P9/IsNWXTdeBHJMJ3j4bg6dam1J36rrOH0++n/MtT
+7nKz+PehZte8xC/535/x9au+TTUGlyJdZ732RxHMj8+4+T/6Wgx6h/5C7mUjyMCCgWSdOFbq+o8j
+DU83EyoPJR7sX7xHkZn82zNOWJKaCrzj60izGmN+GmlSaTlm1iQXrdJtbSzERVpia2KxxBsud+db
+oY+kk9cQldzUvM9V7uL9CrzNJ7p3U3m10np0OuQDV0wI5Qo+CYq0IxN4TbHXzIdFgjsccbEWDxlW
+PzGNG3gvW0Y9T0vKLdGQrZ5MnlmmgCI+Ki0NqB0h3sG8E+60kU52XEdwEz8WInbAz8xr3ZI8ZYyR
+zb3N1eQ6rGLMC9bRjmFL4JNViuq6z8XVIMc3g/K0qAWshbIPN2s/W9q1VeIAULTy1lXGvYCbkZnl
+ZRd2AUnj3GO6iTw7Uy6pj9kNGf7Zcjmx1r1rxuzK1rIPfR8GyVJeZXF/Sst5m6tQnnpn03KRa0ow
+lHMX9KJHqQq3ocTFlsW32Fcueq3Yd1FzU3TmJmXvFZXzs62YnoKJOncaw9PYGrolBtxI37SKdh6s
+FLf3Z2WxMVkPOHut59ZoNzIJD24uD2DjgzKeNlbaH4vB3Q6qG0Sq+WnSjOO8dKfQVJ/CtsMO0p6b
+2dyVWu73rjhqRXhdhM2uEjBwmgLzAXsAoGPyIouqLRGfAwSrvT5ZG/RUZso2e4Cict3Ywydc/B6t
+1zdhL/zRFYJVcvqxGV0LwhDBtSavL5yovUxr5WKpsuNk6D0gfG2/nlc+xvU3l+kT4WZnJ90JkYMj
+X5u2hSMfKNkBhd4Ei/2SGfZtH1PFQ5CO5W29L0FhkHzwquSh64dz0xOMBAelRd0Wqth+TMpd68yA
+n/m5QhkLLdCgCyZBffKjFPf7yFpWfBhJAla1imGIo3O0AAtpb32FMdNZ9kTNH5U5uWNtv09VFx21
+cYM6s7Yw5C8Wa3l2E3PrUvCJnKy8KZP2TiLygER3VkwnyOSwFQx2dp7qfmYah7HnADaVQNUhvjn6
+BzJRG0qyg95cgkTrd9kMKarsgbqgZGtyW5jVTbcaPrCJ6cA2xGW5KGdogp8c0O2TTG7LXv9AHJOb
+uQwvEmwj+0wfzjoQ+Uku+zTqd9VoPCy6/gyAYge7a95k3USzKYYmuPx7kRX+gAlpHvt9mLyY0XSg
+pRlshw793+bKAJrENLPbVjd8kCs7u4xPtq18mER0M3T5ZqWgOU36YnGfKEfj0NY4g6qk2mqjedK0
+/Nwm00Odsu8X9b0+qDu9VZ5FQvN5T8moCXC7yfQbyZ/V7cyL2akfqgkuZ9udWA4GRSVK31mr/OzQ
+ZMXcbhI7ugYPchjUtQVl5nmOVt4ZOKUlvNSn9sRf9agbyy6Z+8uOXgRyApj4WTw7B8IL/GbHXB0o
+CwQmpRb0mjh+CMQt7qtDVeqBZT4NZhLMeuenEP6NSrtBzHyuBuj8brIHwrzMz0Z7qy3joWgzLwX4
+olMC0UB1ydPFs0TpxdhuWUKxswRaxX/ooq4ulpzMpayueiN9EjldKA5bo3poXkc32ttFc6ljJxB5
+uYM+cNFa5gZd8YOU0Gosi6U8VOoqeQN0EXRKechm/EISfh911dzk4n0WmceGyEwy87iKmOVM3xyM
+JL0zZmO7dMoBfRyWlFQ8t2D1ZTqbAvgpl9beU+kBloOxbVoJtzJ7CuP6ymWWqaXEeVNfjFYKMyHd
+UrEKqNs4ZkN8bfHnmoYETWVWd6xkdtzSrnq2WGqM5Dzf48Y9UtndwqZwOAkIxLFGB/6ivEKKIy6h
+XkNXoFHhBTFqz7Zx52oZrsg3M9YCIrh+K0f26lBWZBEQb7rQZ+O9m+GtA3LRhoZm2dAXBshuDAFN
+aNEfO2yjNj/SNO1bdb9xJVHjySTrkkNBny6rML5WJfudmKBIZWJ4hOfbQg4u2309qwHNT0ezSvGF
+FFfZgvcCOcsroYjngI5nBkGlMO5qV9sr1B6FkG+TiSzG7zHpy5i0Dg7/Pib58XtTZu//sP5Zv+77
+oPSVrP1lp/ztHoQ/d82c0hSzjjs/uY8oeiWLhvlI5WBmwPph8wPBBeeRykqTlfMvX4Wcv49JFiQB
+m5kLsIRFDu7nMWnomsmgri7Gou7OwOhyq9yNGB1xvxytzDnVTfUyp3VI44tmHooG9Qssya42SHvF
+aIXEvVH7cC1FvmXlaRBF07lK9F1YaHtbwLYKNfB8pis7LzUz2mZ0Sgzc/Kq3lNvKbHRKJLqPY8PG
+orDzxQ9D6QSm28dblfZz3nAAPVtZ3w+YlLZayjVspGCE+B11d9EYApA3ETkbypHnorW2htHBZGmt
+A36KxK+15s6VZN2rVIUyGk2E00VxqlrLZyGDv5K7l1EWL6NTs9peLluRsgpvianqftTr2iFNGJu6
+pMnuY1XeiQ7+omb375Y65r4USWDMS7VJ3GUOQEJN0KJVcwODP+GaF6lgOutzomkPqcGOC8Lvrojc
+Hht+Cx4V8XmsnZPWgxg3GOV8fe4+1lPJ3DBSmjXHJJssZYpXcvYbW7dLsQ5vrlpkwKEHaAblrYFh
+KIh1FOo4oWgiKqvrsHdTXIp5v3G4wePAoXkl56eqT4vqVyapjxx1tRzzIM0kCBmIUkdzaUiqKaPt
+NSLdRY6cg8wqrwtq6v2Ga5qfW+3DOMAVKPmU4EU/rk3wvokQ6tUcTPzgiDLT/IWOfJzdevQcfGvb
+zOTn3kJ9tKv2AUIEsIZIvtc2HfIZVuCskmqQmQNc7tl9pHzoNMN2t9U4eWhl/1Gp0vbEg3NWK+SL
+QUN1zComoHrCmz1L9XrKhjsTEDm3E33rVN1ES1lp+bz6r0d8UT4JICcAwZP5s57AL1j095xs8aZ1
+cUUzWxWbpE5v6zG3b5I4sbmzgy7t9eit1NT2ULqZs7Ek4cAKZZg7QHquLDwxNOok7vToLlSMae71
+OBRPuRwHGf8+TL8u0pHU/uMwfZFv/0LY5uu+Habs0tmG/7kTZ/X952ZJIxasoplZ4k/AyfddOhQC
+SN20bnOogr/+8eJJmxfYbYx+BI5XRfBXdun/QDhcEdvrNzLwTxDn//lEjRgQOclmbIMOtdl5Vj4P
+FrX3Tae/oC29qThAPFmuBwAF8SyiKZNC2tK9qhhv40bdV0t7QWwd6jaOaYMhjvb4K3OtborpcOqj
+EO9huoMoImihcofqNFCGgks5He1lU1mJZFFcMIo2EfbxsXIiL+dWwNoq27Gbxu9SjbdgDOZgtJ2G
+hoL50U3Fo4Jpom/Uc1snu3HqPztDv5+F5QSDTFo/rPq7lAYJIPg0kYSTuEsctaLqQN+bjYk9rJhv
+0buNbRG7p6XjG7dUbXutM1yz9L2pRPFsixTrSIaHu6rijnNXjz8b5K63Sj10YmvNerEbitm2L80o
+7HZobOku1vIbzEiaJ1eYIV4YLHARBzuS/J3ilidHhuekTc3AaTiaE3MRzDgFZ7tfyLI9GE52wdWC
+qXbd688s+BexVnetO39ryJ/YvtHQ6LClX3UBxdRea4SCEsFgXJUDsg3apkFMsFqu9GgItNV8ERlQ
+G5JVdrDRH/JViKBvFk0iW+UJaxUqmlWy6Cz3U7+KGHM11sz902JQjYnSYa+aB9WuBVuzvOCIm5Mr
+rLzQDFsThQSpxMrZfw2pfk/528PMFXy1vthHOIRKEDmNSj/BEG1+D3DrAAcI9b/OnMtPQfmPZ86X
+r/t+5qweNwcjGyZk1s8809+mOH1ddKvqnz0o/KtvZw7oVItg1nfc6vd1Ni2uhDshNdnw+SAb/MqJ
+80/qnQaiGEsDGh6H419WXfNSAOFohNgnRTw7PkhRic97lGQ/5kK5iLEb7PuZKqjBoBnNmDpsWFa2
+oT1URwYX9GLA0PPjtpAPcd9DAyqdQ8solDc1S4Y2Y8KgBJXS73K5ZqPyuVPloYvoFXbV6Yq7RO+x
+JLkoXXevNOK6wBh3beJhM87KF8FJ0ZaVBI83odw0zFtnFVlKrPpUKnNOQDcdTriGbypJASh9VonX
+1Ks/bqKmyOWWPDoQk5NV+6pWFQzrtzIgNqpfJDLMUE2k3jeaekUnl7FT7cnEW828wQTzpK06m43g
+1iC8Ecc6mEKOr4h1R2u9Laf6fNuEZe+jofMcKmVAPJ/FOgQnXS3SwEq7ZNfaGr7trj7Wo/FkyOWt
+i7LKi8vorszzO0XRe0rzFFTTXsFENSDMlamibYakn3bc2mgmVFXaXMpuUxVpiDo17x3YROj2+j6O
+JhGEZIUOIGpMv4pgQkN8OPayY0PYjyGOPeXI5eIAa/l6mQR1JLV+p4j4Cam0JPU03CfDeoevkQHj
+Jb6qCguJshMbnJHjYTTDXRrDobCj7Jxbsj/Lmk6uGKw15mKuzl1UPbqdBRRV7T9UysJfY7bJwS3J
+TJ6A1UMh2kujMKyL1pmUbbu6BpWyI02aOUEjiOXjypJ+hcEwX52Gw+o5zFb3YVePHwfsiFbT7evV
+nxgyes/GNO3bgl8zGQU8DccevdotrhWHkdoDi1+QfSrjwbwc9WZ81lYjZKloafv7sPs6YKHs/9eA
+1XTvzXv397W+4Ou+HnZUTLDRZ275oy/6h/lqraBmukKxA/Br/GFI+H7W6VxTidFwiYRX+iNB2kQm
+0HTb+RqyEb/kVdD/1mKCSQKBAAnRpfKaFD7z34+L/dCNjKzDS7+nhh23fIgvPkzGmOB2zX5MtiSX
+bwx4YdRF9rZ1SzRu8rvYbhLcQ+snzNKq2rd6B+ytVUVL48d6vxXdsKsslqpXuR4Zw2ZKxgTJeRb3
+8O55+4bR3pA6/Xfi5BQtxGcjGxUw6GVjH1RtEcNNZ3fT3gbwLo8jMBHQp+Am7NxvYopNPdbpTb6r
+Q0G2cmivLNHuh4h8iSLaapO11uOYhLRhkP1noW8zYhHvnzdDk62LKuwI/XDEJK8r+9mUsNuqWBQb
+yqWdzcCp+upIrVI3GkFFCunmW7aRRwfatajkQzdH/EnG8VVQBUQrxcnBx1UarPXysHjs47VTsORG
+7eYdRW0TrQk4dD0jHV66RTkCn8WtrA8PuS1uapNMyEhEIizFru7yNeyQwLt2Xx1B8qUsW+iodDng
+RdolmruL1HVHgM1LUdTP3KeDMI+BOxXRCuSOnyG0hDiwK2VfVipzZhfF7Hx1EwYdvFPseYpXxma+
+Na3W2dspyOlZB3GXkFbpi3qdb+GMxDLDnmlq4zZZWut2dDIcoUYezQaYFn6cXp5X7m2mk3lpS6Qf
+vLtsHzZKZivXdVjNuLdmEdgU/wxSAwW9OF0Q2VzRo3ahwKKulGwPc18nDjjYu3lWnoyS1tXKKPa9
+QYjGzOkPXzr3wq6nh0iSSOL52fdO987K1cKyZz6YBU0jDcSV7dLPMEVsrdlnFE07bPaWMN7+XzNK
+O1YtQ7xfKn5Kg16Hfl4ZO9ehTKSt99WsbM3Fmi6i2ji7bQenzN2zsrnEsQaEy+WD7LYwC6f6OAhS
+hw3uXBSrwu0MZlLOakOPn6NIPhr08Jk5aqvRxOFaYoZhjqSVMtm4A4vp2bHyUzc5V5z0sHPG+7hc
+bKRlq7rLs3lDx9QOFcyhsbcmyam+tpN6WAt7Kco66o1zPbUT69sRiXdBZsHDA2VrmbkklJqnOQr3
+dT7vcnoMLX0XO8oHoylfw8i6XAbULmTrTOk2up6029+D7ZfBVvvPs/7y5VP595oh5s4/D3rH+J/G
+PVXnELU4nb90CX2bag1qBBzNsEk4/gGw/XGqRdflBOaujPxLfPL7TZrdJDBZqCiUVqtfQpO/MNfq
+q/XtLzYNgAY4YJ3VE4JY/BcrrNAqSv+6Wtm3c583N9qoNPo57sj0oyZSCMIchlsq1J9KR9IbNM6Y
+LOLiE4sbFFhz/BRSPhmHUX+2liXZZHF6ZvG2ULqq75OhjHw3tu4dWpoDoiR06Y3xRu/bAzmKCn98
+c4oq8pVFSh1G7gIwXWz1zsSj6ZnLTC9rLt4NnUX8XGoHfYruh3qYrirSBsFA2Yg3p9VBzIQ0bF27
+cnjMgoh4nM8lE4u+Hr40tnJqo+jzNIqLsqMlOezf44h9VY+SgfucRvusoIvQtSGGDTXmq9LAVK6y
+B9yESa/sRDph0zXu1KEknmmWBS3OYq/qyyuZjbXNtOe9FSH2xumHQifdkeCHFfaLRTesLx2KbwpN
+bTgfo4OQKjwUYipT9DEf449uPDi+VRFUcdvwzpI5FTe5ZnvuDNSPylrFGzVaDxojpYKhw/OWKvKp
+UVkYzs78uYijdpMu2nuaCnLwigrqRDaXtR3KTdjkjZe2ZC8r02Ibl0ZvCDZcrvuMDIq2PEXcdoMu
+rq/5YLBphjWQfcASG9ICGI63qSwHmv2Kh5i1Kr2A537ds9Kza3mLgs5sGo29TW1+e3vqZ6p18nbj
+QHelDYKi03V9S3rjbtLD9D5ZV7uj2mkH01yWg9UjHBa5GyFSxmsRYcXWYIq3pTvsgQC8hgZpIaf1
+kyg8kVQDLkX8E2WqxLninscYCI2E4p2E7k7V63urSz+ZeQErbNX+xpnXLbEPClqWp9bgvpGy/WyF
+8lY0XRA6w6c4d25KW002Vqy/RkZCmHEA+6q77l1tdGeKivgN6F/IcvrEa8ftvClPDy48WqxL1bOw
+V1+jDvHbdWoLAZuuHtcIX4wsuZaG9txN4AGcUM6Epqb7Qs1Yu48jAf1Z/xgRIA5K1vw+GRkFzi3C
+vx6P1Y6r682gapREzlNKhmSmz2i8KevwTbDDRyO1vUUdEz+Zq3tek0dZE39IWQD9XoZ+ndX/04Dj
+v3Qv4+vLP4zqPzhwaG4FhAovHK+d9sOkjqsY7rKqEQ74h/MbQBYpPxsNCR1pLS/8YS/B4pSqOGit
+v2zB+VIn+D3WuZqKYQOutbIGSRqW9evx/kOSoe9E2fNx4LCFmBjMZhtvh3ZAjrckKoATm5vQSo5L
+WjFnxYTLqti+ykO8xkvh1hgUBCYURxy0MsHVnkbLphum4sTdpPLmhsQOzdHhkQHV8WFyPHZNzSEK
+iqMyJR9PPa0gUzn2dd+QQe4pG4E8XKB0GAWE5NZq3qq6P6klt3e3Vj+V00zpSj2KW+B9n9daVL+P
+iQFW1Kt6VZwuSEucvHZRHju9q30jIRLefymcZ/3jFaVWIfNizZsShqDQqsdj3vbilg4ndKGhucsG
+uWyXBSZUrLTRJnaR/YFjB9XYOZ4mdXjUnOTYPzr+xgVnX1dlJMamjB/HujFW9PTNsJeXfqk+hoOr
+Jmc7613tpFnFSMpj7Ihg+SOnd1X+fv7+eP5WLfQ/7srxS/ePDrj1y75dlVcwE2jTVT79+QFc+z5p
+7Vj3ggZq7ZdSz+9XZYYa+Og8uX/Q7X56AFlnY1bj7r1GcH8pS+Su2u1PDyDBp/VgcG2N2C7j2s8P
+IK3OWV+Bp9nT0bsMdBxpxrBTuE0ligoDERsRmEVj7erKHwiaQwtfiQeg6A4RNHVlzj8thfZhbAG8
+ZWl6kc7yzSl5QuLlVQzxXa51V2z2DFbSBUQ44y4uSOkZbVcGaj1QZ67JN6tQomfRK4JpJkbEK91r
+Y6x4dbpwlPHdv2gNBXqDzJGH++ipVGKcUnlOF0bSKTt2iIJrEImchf7EJ37XmQgqZgtcr0qQohDv
+gD/hy6/Ci8ziDjoTQ0aaNNsAnk55hbHMOlFXH+MezaQvzFX5dDkKJuAAQQonCP+RNVDYV5hHd4lt
+QruWEjTzRGVeRGoWorFI6HCLEWjyh5yBhgysA2sDFBQLUYZjdafUKaNRTjfaPVmb6GSJQRm3UxJJ
+bs2TX+XTaWGvpmojjqOIcE7fDyABJucZy8mTVvXs6obwNXFoP37trUZaG52W6OkwLkKmzJbD8hs+
++X++PNLoaP/1SB9egAT946WIL/u26tfpOwMtDl9YgIz8AlT7filaUzyrgZVI+9+M60jN1KGzH4Me
+shYefH+pkuKB3MQdiwAQLotfWfbr5t8eatPi+CAXhIP9y+3o54fasgoj6oXh7iPFWaaDvVgOO5il
+YfPjQHBdjrYxPsyu+jleI+taOzyFcjK83sw+dOzjsYcaN1Ol8yzS9omAaJ9Z6Z9sdblk25LlO0Xa
+6PH1XpZgDA0eaNvJtq6a3xNaPSG5X1rddEKff04BnW8cB9YV+ORy3xA2C0k2+nrIUhco5QPg7hdt
+tIagibsn3apuSyLTZAmX6zZXXxS9mPwwL5oLCxSYz0mWeEpkHlKXeI6tNFeLy6pJJ/CIKU2hRryN
+jjlFPvYMeKbrAPoOk3C2EBUvUnM8TKY8Vr1BayKLIXCa6pWZJ5AjI+lbIrR2nQURhnpa4nNS3MuW
+JPXsTmowFppDpyXR8JQQjl6RtbYEY65dPKzhBk9qidzZgzwxbz3GdW1vgVjRKzpm7AsrqBihe9d2
+Cmtsykq9Fih8AB6k8zGjG16TWUYA6hkjZKgMnqY7tp8OGdC2VG5LtdWh4vLmH/OIVKCZ2zvVjD5o
+1I6xnFOobM1w7cli5FhjVFFtBNmm21CtaXokzQ44G7otuaxrcAJIysO62K/aO5BmNgYZ3eAiSt78
+/7F3JstxI1u2/ZeaIx8ahwMoq1eDAKJnsO+kCYwUKfR9j69/C2Qy1WTetKe5zO5ElyKpJCMcx/fZ
+e21VqS/Tdn4WhtyQLVyxkiGZniQBcGvGjHxiYIhU6xSlDrjc0r/TU0VySppHPYmDTR50L1FZ72VB
+7DOcB1AINAytbMffBnXOzSryzU+tyWulUudNEGrFlvv5p95Qb8OK+/OUNtCtozMih/5qrtXRreoF
+jReYzxGKlWsrfuD20spAmJqm19TWNkt1Ck11daHB2a7NFVQsd1F7uZVmgfJp5pqqcV0lQHZKub7O
+9UjcYbnRarHVuROX3M4HEmB1z/R1APFUTvFyG9bnsUQqzGsuZNauVuebdoDD2XOJ1rMYi2IiadkY
+9XpTTOD/a2kPJP25fsfLRRycd+rqZZmuguWaHmXNq7BG9lLlVo0hZiqRf6bH9lMMUcBVDO76KnQh
+2kSNc7noACOCQLcoA8WiEXSLWqAhG4yLfLDoCM0iKCzKgrFoDBNiA2gn4fYF2OkeY+Ucm5/Dvjxv
+F56cTKZkrQ+8Rjpz8DDl3IaLoDHjSE4XiaNRkkuutdE6WOSPzFavyrj7IhZhxEQhSRapBHNy5nWN
++WhrpEgDABq/B8f3pwztOP8yOO6ml9e/3dqQw/56xFjUYiwxJ54Sxkfk889HDLsX4goEwP+Rs8Iz
+hKQFUQdHt5YM1PePGKmxTjZsSQgLC8uvPGIYM3+aG9mw0AOqMnAY1HAg4P/4iLFiZcCEDZEBoC59
+ZsVr5NOWlqLmqqu+9oFoDzKpbrtM8Zttb6Xw1ot07Fy1xRYdB9Fa2CnIppHBRlGPUdKUzmYqLXoc
+F09Kv2xlM4/LG4buwXGOxiyzfVcryWbyp3irZVOzLxL1sq3U5xodEs1aOzCxXc7qdJURCLxIqkQ8
+yZwDbI2Iqa6iPr9tNeOepbN2U5spx71qR/A04HcYQEcKNjqEqJ6EsSgfcaStyU5eBZLKzhYKPve2
+yG1EHW8GspD+OKLoiBj6SCdu8kXieMMuB3N/lWj2/Uh8i2fQg22GoRfn0WNTd/VqMpzXwgYn4/vi
+ZCr5ib2U7/IddHdWqgKjdr+zoug42Q6xgPrcSA2eforn9PAL8+l2rpSDPXZ3TkR2oui2KaFPeBIP
+aqXdKZru2W194RcpxdK2du5nCPOTc8rbyzy/7EYb0GZ8rdoXJcuf6AEYoU8OlUdcruFjYavzaTKL
+lta8mP3DWLC/EOYliLmHOh6OwugEU3UUP6gdoCvPB9u6N6dcMvdalpmLw2QoYeMNfeOfaNDrNlUr
+CW9Rvbwfq/E+AWAKqRIpcelBUjJQj3l2Rv3vqg6/tJG+j0PnJSxhvoddnqxFYL8YZQ1uxyj2dSKl
+O/gZKXhdf26q6dUyQBi0glNNTdRn0evwNXqwp52+1JGbPYBFv2DgN2+CovmqJ/j8U2k8T9yljq3v
+VGciquqNKGvKVQ0sknvfwHnf1/RmQucJvYLWECyQ5iJDDtohLfBH5bOm7CzgKl5FB6oa5NqWEz25
+CuzeupiJ9JEOjsIRm+tba6GdpsOa/Il1Id5rDZtl9Te/bQEpHWEj2L9tB3+vMZY1BkfNv52mbvo0
+/e00ffucj4Hd+IM/6u8VIT/5q7l+S82ErmiwdP7OlsOimllroau/O6j/OkgXczVbDctk/b1k8X8J
+E28YmAp/vICDoeckZ+jXARuqkiP7ewWMmE+jKbWt7GRk3cZ+Xn4ufSPXCZ007APKgsh0N3ighVcB
+FO9c1x7Dets3I3i3ys1Hf2N04aoLWSL3w84IjYNPlTmvuQtfzddFD9JIJm4F9S4DqKFGoFl9x1VH
+cYx4f9VMJ3ES3sd5dq7b0YWhha4f++zxlCtjEXgb+kFg32KgacZHv4a8ZwynNBaU4eJOqYmrsQeE
+AHkFC4vGhP4gzek0JMq2pZqtRTqeHPsI1eBQF/wLZbNhh3NsfJD0lKOsh9H3YvXVWVRnZfIvamva
+lwRggqZjet21svaMbmAaAqkeh54izXOsdO7U0CDMECSz23gQuI/yTWOTT8kqNwwSr1xEbnuRu6lP
+9+ysPtHScc47+U41pzWyhttn0ZNM5/O613cxkrkzcttuYxVk7EuNli4JqKR54ppz51IhdKGkZCQy
+EFFjd0zqamMg7MvS2pB8BJnSH7hu7dgRBasIjb5uTShM5tGeAg91k042bcNQzPCO9QdNn6qTszJ7
+mROTv/pUCeXGjwkLm9aZJYIVRJqYQpH6MAb9lWBtUzAYjxNb5Fg9V9gmBwh9GluKoaMAdFklpJeq
+yMmGJQdjoJ6iyPfmWLgDBmczT8+HZDwmiuHh1biei3DPfmZVBfi3euNoxw1TKOIhY3vZLrFCHnG8
+kpJlSdAGmyTV7iBNempxhdX/3h5iOA7DSjWW6D/3KsG9jSf3moT03gznA+tpL261LQCHaRU51LMF
+Rrqv08pl33wDLHlfYJxv5mENLew4NYRMCDUqIUBqtdzCkN74Tk0ELaVST4ezfcoG6To9l0S5x7Dv
+WoutQchj1S5Q4syNmxh6N9wtm196mzyNQblW4gTptqILoD7IobzR4P13IxybSrJOT+NzApqPkjk2
+YtG9/LoysAvt0O+d5KZhYRWXwTqV8F/K2asbC/xNAnDgiorV13x54GS2qxTzy5gvoWKcTRRUw5NA
+lA3KzzqCVmZZ11HWkUor70a/d0VlSq7R+W1fO1eTktxg98T4SgkhV1i/wA42yfwasuOd37Y1tWHD
+Xi/wafHFT9R+p3AO46NoUt7uEGSqr8k4box84C58YcT5htqWPW4bsHOVa6nTNjRLL5vFGu4xcVGb
+7IPTYomjT4YhJE7aSwiz17o17wryF30/7dqSU0CzjrVfeWEC/zSFF1E++Fq0DWQFkabfTIA3Uyvd
+57qyTR1ii7z/d3327EO/arkoDknpqtERw5DXQ1Jul2SEE25zq7xV0+EimODcSRARquYVNMLoyysy
+nyndSS8Ho3VtXol6nx87WibUxZ8P4iZQgrNQj449KZM4nB/lKGXrmv6EfbnVA3NPKJ2pqbZkrq3b
+2MDu+vtJ+v4k5fnyL4J2+tq/pk/5yz88TvnEj8fpYq/HYbVIWW+PTj70oX9p1PlBnKHFSy4WrwVN
+9U3TJk0tSFojar/fQP56ppqYxpZ2LahtfHjxC/yCKcDk2//0SEX2MrnRoqvjyOUJ/cMjVYgQtCqM
+250Ra8a1bBtHIGLVwzYzbaVatWH2FEWKvjabTLs2mxgi8USem+6s6b6FEXmjI3Ol647S2q91IAZ7
+VcpJ0TyqqGA+wX65sGr7ruvK/cT6zNUCa7ocFwwOMx5iBBOqmVBdKkLzOqrAmLRm+4jD51LQjuuB
+bHyxoY/ITMs3oF6nhRS4YfEVUMaOd11L1yOB1a1YMCYWPJO+SOinWxAnHawTk0c9tp3+MLYqjYF9
+0gTqjnOMEr5C+Ll532gdShM/gyR7rgeMQr9TfO/CMGGMf31rFGmXPf8T0mT5vD/fGRYFHVLn5k1T
+JMXqqLl/vTPY9qhgrqHlYuZ+m0E/3heC4VTQemfgD9feuakfurDxh0PBpWBDhHS32G9+5X0Bu+Sn
+NwY8E1Ixy1aXZTCcKf7h38+aQypjIIMzVRo2VtoGWjEJrW0Gvdjos/sWmnEPAtuCbuy3KTyeJr9E
++/QwNDyJ2LhNhPSYKag1aKhYAPihLMTkQnuUC0LZX2DKujV8TuIqPAYLaBl1D3YQ7GUbBjNvlbXu
+Nwfa3bZBMnhlXZ1EN2wD2M02DOdKJhsfpnPK3JrDeM6s4q7j0SPsaacZ6WaGBV049pWI22tjrCAM
+NPsUlCjGvMch64g6F/s5yHvmEw2KKZzpvNIgg8bHTq8eiVC2KwGRGh102+sTg6VxOZrQRxzATiNR
+i5XV0g8STjsALR6i9md9zD6jeF45naW6DpTJFBo2GNCGLE7kVXCyGdw2mFf2E/zsCY62bRL9has9
+muqVOSShh43kovPlsVGNm7lnTGhhcmPL8HQmTNOvPhlOddfHVP3C8DaM+pAvUO/FzNhC+Z7K+Qtx
+lT0Fg48jFHArF3zJxKygzhiV27cdvM+iX6vmcIbh9arlK0IED55sAONvu64M5DjKQuRqC4V8DJlb
+VR0yeb8wyuOFVg5GGQsPAc0dvyy8d5ys4MGd+r4OwcjpaoqwX3b8ynPG7SPATYFzJuRejKmQNbwe
+zK+0Bdnk6wgFmNNS+dF0PWR2ucFs62+0VlTQMtETrGFG65FPamI5HhWF5cpHmwFFykukCCC6jyPN
+peFSfaDWlfbQ9qGBbiFR3SutVT0/kRgJ87fuBLnUKNC2lHv9Uq3g4/aay/A6pXMhGylfCDvmEdoY
+8tqw1yPe0RVRAhSCZHxM6G4YtOFCOqURrBXhO/4qHGVwWfbK6Mql9yFaGiBAx3KEL60QlcpUYxTN
+3nZUa1OG0WmKw4zfgYn6o9/5gvbEwD7LO/OpDuaXaeIigOWYEbR6ysP4xY40k7keSK9pnGSKlaGp
+pc4uU9snWvUlM7In0VSnPk/xD3fbjJ5lRTEetEx6WZy9RrNzXqr9yGvHOAvGEo0mxdXUVN7cNuuw
+ZC6e9QqwYHhjZ+Mu7M1NwFTmxOrNSAY1YekhW/0lxvQztuXZHAxbmfg3dTRsWRS7gaE/5237kBn1
+a9oUm35mQOVejDhEuD3OKO5K87O+qgJU8/E8RoIbCTySkTiPTS5dPAWlXm4o3DsvZ3pt7IYvR+VI
+X8MmI7optHPdt2ijFGcDBBQiUgbtrwN90KRhU7xNtfDXXAiPxjSsuD7f0iOzU8dkP4aGlwbTtYj6
+exwPu6JVzmqtv1FM3pKpdFmYkj6Jbi1WBeCFtr02bWerOxWT/jL389ZatkW0OR+5MZ3j99BXExuc
+2eZNno2ejTS06iZxPjfOPmzSc9jjbkl3dBFN5/Reb0Vd7Koo30Zi2k+FfyS9lSdfWjzT+nPPiBNc
+DuhYlduowWTtf0+f79Mn/p5/mT7rp/71735UGGDfHrCI39AS/sSovvNXP3Rx6w8gjCQIPpayjH0f
+j1iQQqD+kb/VN6DQ92hW8Qdauga5XLwJ5nzoF0ZPvtXfHrH82/BFEaekVoKE34+P2KYYRytn6NqZ
+s1NdUwFor4MisvM1dnBrZdVUS6HxjsdhsewDjXT9QFOnNes9loJKyFVZCaIVzpD72ZjK9RxyKEuS
+AIluNuc12YDkLSWQ99lENkn42SFXRHqXzmO8y9La8deZb1E0W1RJy8Hux9V9zq74TJTsFYvceSDO
+zOUcNyalHM4n22qu8mm+4kp5RJqluqra9AktPXTI03+5jfL22i7SnYVxkajFWhu0E3mI89pyNiin
+m0kUR2GVj8S9MfXbBdn7CDG9K7s1KdDzkJPK7OpNW6P9UmeYY6JUC9eKO2OhJAUQi4re8024Pnlz
+J9IZ5k3Boy0JnAsWoeQwldFclWg43IMthRYhLd6qqlNjd6VYIhko8+jhBnhZHcenqgDKXKZwv2kp
+Ahgb6XeyTW/znPv0iHlrxKZf8LOhX4G7zarp5v4yUbor3PG1N5QWLPeKM5RCvNQ818vwubTLnc9K
+cVWTGmZfWm5yWr1M6X+2m/lrXaef5WSyX9XibN1LJ4duKJGUSyq77Mp5isWUrceub7f1AEFh0yHn
+MdfrM6SRvgdttgwa4XgTz1G1ayR750m1biw/OIzsDFamXR5Ea+OBaUxaICRP4RIVgX8+kfjRBGgU
+WVbgqlZN1JTfj9TVaDfrMCgd6fMzx2C6KVqpnugVuyVawiq91zf50EaeNCq0GiWNlWzfdIs2xR36
+6whJdzWEDaIXfHaGl4HWKNE5K7Pot3WJiWbCXbdS4/A66rTMQ/4CM14TaEiNQt3Xtvzi50wAdWWQ
+vxjRL5s6AWlTzmeUHPLTGeS0dvIC8aWBBvRIeA+CZZ7k2XVRWpUbmT1RP3X0tTX3veT3lf7do+b8
+q6HFe+r/qXp7+aSP67wKeZbiU9XCgPmjRQ1E4yJN61zOP07Hv85UImAwZVFtFkyjjgvm+12jRern
+T0bb2yH9C2fqezb1B4+acLCHLmtGvg2J+Z/OVK3xdS3WZ203TbClTfXOArhaCOcLPhfCNLa2UL7u
+yJedtb6PdCbaYTsVRIi0Kl/PmnoskvLKkdGVDPIbtSj3gMOild92MQvLZTwVzb2eKPeg919Z6nzt
+Swob7IkA2IiEDNWxgNgYFxkqOBiloWgZPZOT3xM0RTSm4WW2QbbNRyOpj4PUTymsbafBOI/xxG3I
+HjnLuJ0PzmMnII7UpTcqCMa26iqg9O1ZVBuiXV/yUZxYZl3Eobm2ST55gUa+qeqiE1h+DzT9+ZTP
+mCFI/cCAJSxLBC3o73w4FgRdp1OAlXalFgGWUCWkgyU3UehbkEyy97qihJwESkna8Zd5Upj7F3db
+V59aKyLcr67rJDhpdAmQWiCXTlZ+rUvtTs4Jg6lYLzV7sYlQ2zdY8YLplOBN5XcG73XKzzTSR7mZ
+P3RlcM9DeJeoZYMkaK57XT6CuX6aKcDNo8ltZXjVtem+8WNzrTWVua6d+KIHyEqJNaezfVYvZ301
+0bin1/uqjjh20/q6NpjaaPaeOuwOQ0stK0u5ARqsgHIUhuehXfPIM8eZ3QBVdFZzVjTkfM34QSMr
+1OBQrBpxHZJdQmEkiVydRRriraPcE1p+Lf3+0WDtYMpgXVjsFivdpNhDMVnqgaeZbo2cSZvENO0z
++pje6CIOv+YG4n+nOuqGKuj2eRYW56OIbfFQFNVRUUeYbeSpF59RDW6svayqhWjgk6GezrTBPxDf
+u1ebbBuh2s81CpXQH0Juf5ZGnWSH7acfToqdb2OjWfmQ7qrqRs0Wi3+66lJge6rq1km/t5X+ehLj
+GT2zVBfJnr7DPPpc1QOXknFVNjClMi4kvKhuJD5jp9PO6g5bNVcEpQsExRb2l2rq90lZUxapr/jv
+30zmPbHGa6foQd0shUSJq+GuSYhNZ8VlNLwWieEW7aUBwcLoY0+V2sHEQZnnAW3G+XM6VNu42seG
+cWGqL5OoKK8F+szTRY/Mgz1XZ3qjqfiV7X1emfRqP0g8PY2W4MkuP2OJcFMzvahixyNVvyUp/DAP
+FpREidE6hImOfIww3oabyFrUeutcC+LtoKZPdjgsP889XDMqU6iTd8h60rvCwDO4jVNvkGHIWuAO
+L4Z0F4naqyE064NzaFL/wVRKfgTKMUXjJmdmqNVlGYgLG+9mZ5auZg73Y4KXbRqzr5mOUUjzpxMh
+CayvZda7v+8A73eAf42kuYhsr/V/kKC/5dIQ2kj4Ar5iafqWMmbY/7gHOH9oGDo0BilNw6ayRMa+
+3QN0jNgo0yhhRBgclOMPqY17AA85sCzYbnhU/FoAWedp+qMEjcyGOM5Sl1cr2+KflDZDTB0qCm+p
+BNEl3igtKzEva2OqCu2lLzTWcSCoZK7WltVthJ6fZ0K7F4Xt0aGZsOY1z9pQbDCJZAgFUcCOxtjP
+WnDfYRZbaVpdgLyiEJbOFT0M2nVchjc0pr6oXXNVixYLZ8K7DbxAw4g9QlkyAfVWHesuGO1EIzTV
+NURyiDPKbjmHt8K2rnxgIkNTbcYuqt0B06HbTjY7UyBNczRudR18ec037GzOk3ysn9XK2DZdOy6D
+3W0RYCMRY3wWjta+iZPXTMJZnwZxw4XgEEkh3ELBmpEsB1Q6uKNfqW4BdHVDTeCxlcpLrdIzG9dM
+mJ3kkMtnbuhBCtk0S++twb7WU/BW9JAfA1Vetw1AYnUyL8TUfy3T7Fkm/VejkLQh+rqnAvvKLDym
+k6PRg94NF1qob0gXhuhfrYpiIq6dGLuLBsIzjVhHa2ZMik0edK2964P2os2106zTAxTN7YVSMgCE
+iXWa06ijR4FS7oTCOYCMeZd6ShKjumsXRVpp3jzz0xwTbgBd5BAx9NMF22rcdLMGI9OIJxyeS1/F
+RHOFXzh3PU0WI40WCc0WYdV9AoxVc9poLxOh6HkMIfm13GVU0Z+DTvzka9kmahHr0A9nOjT4llcK
+nRoN3Rp4r8ATqsUj9thdrGletdRwUGtx7hCOy0R9gCtGEHooAD1jdyJ4xlXJp86jDIbTaPZP2G1o
+RDLNXavhp+kCdXL7gTaQqLfPdMUZoEyD2uJeFnlFz8UkE/bnYekTaTEUngpT/eQP+bM9ti6/mcVA
+dHBCsHAmpSRk0KknCemapEMWLbFkk0tOGPY7u9NEYbNIteoqUGLxUoG5dptKBR4paQNKqV+F6Vjc
+4ytC+fRxviZ9fpnl4X7W7ZF+PThv5Irv+3x+aBx1Wpll78GqvZjlolWbIQONzKmUqqtJ7ETAkywo
+k9YzNKveyGne+LZ9IFj3eQYCyd9sj4Wv3hqhrQYHOwifOi3QN4luvdpOkx5Tli+eTMCJtr7kGZZq
+sfh9U3k3RS7H5H+Wf06vX5L0NX/u6oC7yU/1PMunfruvcEjDOkEH0t7ROB9nP5k2diW21BbCzZJ1
++3bwm4Rm+Fdo7xUafLWPg9+kQYPsi02r+mIB+oWbiqb+vGAhFUfUDtibKoy33eiP6g8iva2lcazu
+6qq5xaoAYXkJzqdpWXoNe3IqJP1DGRbpyZExpvfBCNWWawIc4r1C+KO/mYvC1Lb9wj9v3lDogLAI
+B+ed7yaWRe3CMHj52AP5agu7JWsqrzHjdWsU4mYtFgp7DNKOjprSvgwNW5lWzZRG0ElNqrQgVttc
+d0wyZ23VHVgCnSexji7E/Ehw5ox/ISVnc0p9rK9W24zMEEBrxKvaCa4Zoe45inxPkAfySiAxKycs
+Wa7Qt2kW0XMoGXaniBo6Z1LkOivGz5bGJWMQVuh2BgO6MH2cCumMg0CZvnDSL3e1AjeI7CzPjkoG
++hBHPDaOre73owvpolgLMW5SwXBZJt11MNAcGrTztHUmaKsB/ifoBsocALedi3U1DcWd1efVcSjo
++8vLYjqmDTpY3w26G9swvZgXcH3jhTc7x3Ep7c53SmYerFIj8hS25gbHqX3obJV6OkHFfKnRea71
+mEMNPJxbp4m+4NmO7m32zsVZlZXZLTbvJLocHB7Pvw+C94MAmtW/HQRPNT/3v58By2d9LFolPgP2
+qbQ8OsafBREf8x86MIquoKFLfeuBYMj7OAbQLCzOBT5sfnzo2zHAmMYa9k8Dwi8OgBrz5w8DoAMm
+lZJFUn9sgumkWAbE74Kt9WymLIEpauCNopiPXBuc8ylLPzNA7WLJzqvqu+fUaEO3xzizUlu1wTnA
+Wq2p/JGEaP3FkXXtznlcbcwZaZDyYq5zDC3ubDbFKn0bSYqaIuYKXp3qs6/NpuRaCPtgGgEefoX5
+KmhVMjL+zdgmWxYX25pOWSVjFdKZCi3J+Se1da70odsgdNM2J0mOOAiklkKZe50FIMCx6e2NBKCw
+ggt61fZ9t/JT7k51psJJYdhBHkky+xhUpO1AiwzrIfE3XVISdMH5SGJjeGoNwxOkFVY9Vid6rg6F
+RR996OtHC9fcyi6FhmOOfEsijfNqKDWua9FaV4zOjRyT6GvVNR54g3A/EuxH67VSLy7bCjqB3ClR
+ROHNUIC2BozlU7C31qbu1gxTwjSlJPwH6D1LSHSkYwuqBDarb3YHI5gvCjP8VDu0mMELYibUAB5X
+HX3zRGS/Sjp1mGjVRa7ZZJV1bQZDsZ5tWGPkVr7Utp27ZYedaQRojwm8WhXtCIgwuCTg95yBKOCE
+SYFNBP25KAuEjqD62tb9Q2fpEqXBwOA25OdOOF2Hs3MjluhL3rReCcAGSzbFRU7EEaTOgUvt8AOi
+/5WqyIOmRRdRN9HrW5nboWofgyp7NuyBtSYXW9tAw2nbZl+SDt7g66b5K9WAXs+J4kq47BTYFWuQ
+Xe0uGKPYa5v0RhPjg8lIgycN79U8Yxbtx8EDuEJmpLitKiBwgVmAyecZVtjlozrZoM80Wg3hTgBz
+Ccx01fuDwPhVXRohypTKL31V95D9RdxYXhSN+V6Fd/TaGGZx2ZQSaGpqWuU+KOuXRunZDoKppTG8
+WzUD9r/DkCnrIskNZupEbMaAlu+xWwj2Q9V7GVbFlenX9lfcFPNyETE6Hp72oSyNaoPzZxcEGm3b
+cXJqs+aSoATIMYWtq6k12rYNQ6qHRsvfa9wiVKvfd+oEMS13PDXWbtSgtcEPKYpXzdWF73QqW0/V
+WBnmrE90RLWp2A5RZvw+6N+16YXH8p8nPu+pfv3bMf/GcPk45lnccUtfwpYs2e03afjjmOcs1y2C
+Lm9zloGv7PtjXjc44b8vKf52zGvo0rhTkQ5odvy1dd9i5/nplEdcZZFM0JOLvpA/nfKsaeZqhEK1
+TWKf2qu2Li6Yrmq5tnXBDUpp7em8UnLtIrAX/JcDZtiAUb/KqbVPNRGvzL59EtBWjkPbU5hhKdXk
+hWNgmBvdz6ELFnqN/Cfo1UV2bc3pZspiZzP41GV57VzEtGqJkZxebfg4xIdC1y56E9ZfwDvFnQJu
+sp4RgJRe6Xqa2FdOb4/DJX5u9INJUFEKxKwtNqQn+FgDzAYCyDzvq0io1ASU2cau/PrSqNoepssy
+PUVkCvWaXLY1ONlBU2LTo2YgeuVaj9xJcSDjY1e5EliBR4ttPzzwQ4GyHKrdVebozcnPw+GsrNQJ
+UHOOvhhDd7otCDOlq5kkt7rytXnZbHX9QmHVI/VLqDbm2dC3eHZyPEJe40/iiVtYdjGR9Umb9NIg
++1PxG1pzaXzOSQWNQdXQwaErWM7n6KAv4aFhAlX2lieiWG2JFo2WwrzaqtmLnbJRXKthUK/fXs3/
+58v438Frcfm+o2jebgxfCriuURC2P/3xf2+LjP/9z/I5f/2dHz/jf7evxflT9tr8/Jd++By+7p/f
+14P68cMf1m93pavutZ6uXxu4jx93mOVv/v9+8M8b1+1Uvv7f/3p6ySJEjKatoy8to83Pt7EF6PSf
+39aXTw3PyfYpT/75Mz/e3LyDF4HuI2KxvIO/vbkFH8FBik8Nv9b3Vzn5B3Rm/l+T/YPOFRBR8OPN
+zRfkE1hkseU33gCDHz+JH35X335331fco9P97d2NUw/AlQSLwEb4TeT7boZTOughnR+muzw3GlAe
+VGuvLTvqbqYEqrxCtvaYAN7YxjJ88kNUmqJxkqs6sfVdIjJENYCcbl0jE0GYT3fjEKeLrcReq9Eg
+N50Vfx3b6LKR82e7W0S2EYxUBHrOnYMl7JnEzIV+/AA5NFmrMNM2MEGfJiqSoa8H4doOnZMWGtdB
+mutelwfXmZZeJCrzQ5KQbCpiUKrTvJajuaXuEEpruSDr0m1nmAwC6FjEARoRXqDB7LlS0ixCsGsa
+SEfTO+iDmc86gs4yPbDfwF/vrNjruspAjBnWai7mPRiki2XoUmm6ALZyGWjZVqb9mrnkrlLEpS2n
+XWTQsdE1Z1zX5GowJqbX+axPWUao0aEehh5nVIRdfSm40c5EGO8DutEnyWY5w4peE2lrDFju43wr
+BrmgS1eZEp6KnAExjI6mykqAfU7gCmIv8ZDvpqw48538a9cpntaYFzVMPjua91bWcFPUvSzRPSlx
+Adv2RvHbddbFnHesWKTqFTPDZjRflNG05lJ9yktKCHT9S5cFHmE8ul1N/8ZohWfJg2G1O6ygG2zu
+q4Iyj1pB0uKI7NLRjSBnl8/tLtqP8pND+eFWx2A2KaEXKcD3SpLMeeUfVPxuStxtw7FdO7OBFkcv
+ZD2oS8nMZllSmAlNt+Bv8C8oI5pri43fPMTMgI18pTPanfyU0t3hnO5pIBLAIXPlfLKCYwu7dex7
+LywrQIj1Niyh/cYq2oDYNRjeeIEsmze38nfxqO19PI1jTqhEkYC9Rlc4+noq4psaQRHWNFBCnUxd
+yO5pdG3zEgMIZgi5iURM19O0rub8taMISxBbyhCsC4wddgVOau7F3gk0b0SHLFJ909vRLq/5ecPz
+kPG5pV9G0t6rvM5D68mZ5UWESIGxZl3pDd63aZd3Of+pFiICDXBrUTfNAzg6PNxxaYtPiS7uq7BU
+rXWbp/PJNLXhzsn03NmyrrmK4nQt1G5TYCoJ6Rwt0/bQ6NXZRDrDNspTqPRUZoo1FZ40xpP2Wbyw
+1Fx4HVhjW1EoBItddVZPdZUjNbS0vfgQhBuKr4ZW2yhxv8OMvTNAls0shSJTd6OICvC4+0w/HpGr
+hBxlt+nL5izBUqHX3YORfQpiBzAYqHXNePIzY0MDEn0umG7qwLPNyOU+uepH0pdwiDT/fujyjZ3W
+63K6nBq5kX231UJ5ZsrkRA4fEy6Ur6XlqZQ3Ql1Ue2eXK19NvTnaGtIPLX0wBfJ4vCiI8GsCxnNc
+kbYFkUJdsS6zrRrVtzOO0BEwl2JHE8/fidXZfOzxpOij3CQ9JGh7JOUfjZ/MQn5tCGpVBC/cIBD3
+Bt4m+tS7o0IQEkYLzBi+6rWepa+Q6zJW5w2U48Ha4WEBoopfLtKdrTTby6CtXhUiQF2q78oFvuBH
+ifV7h/Y+Vjv/iiVaLB8v/wQxAbb1l4KCtQORUmekZpGG6iV5zP/59OVD7HskBgRtGWvBF30/Wqs6
+/BJy5IuSYi82ko+n71LMyVfE9Y4Iymf/WkfCmxn9J9eHKXVhCmOBO0I8+klBsVReEch6OwcT7kkt
+1dpeiw7XAW3BOD7ZBWfPeWRVrVsN5mhf9LGvBktvh9xFNbE6ch5Jcu00jNl7X+/6ea3YJdzRIuRw
+qxzIdgW2h7zXo62VD5z1rKn/H3vnsRw30i7RJ8IEUPDbRqN9Nz0pcoOgJBIeBe+e/h5IIzPuj1Dc
+rTYzMRqSEkWg6jOZJ+ekeyDty7xkvQV4tmrfB4PVXM97XolhWsmR9MpAU6DAlhxIc13w5mjY6wo1
+AZlqKYkv9Om9RrMR9KCCBgOaRt2FxW0+Ra8SBUjd2wJjXgzf1gDyFxluiRVtCPc5khLLTI9FmFSr
+RkGNCj/o2KeS7lpSzOdWmB1Iz/2UZ6DQW1zOk+B7Hxedi1VmwXkEYsGGaW69cFgO4bFDXjdzTMs+
+GD1IU2STuqr4yDVkrvsaKXzShh8ZZQOgsFW50ZWKgPHUutdG1SCZs7sJlOqY2EqzE7UaQtIMUb73
+tUZs3tz7LD9Vr21JsGvtXNmk2lD6UzZxzmqNeqioSWI8gLW6GTW2MKmdZTd5LeAlKy3fkRPqx6bI
+nyo4wd6i2/PMVh/Rv3EpzfkUrPsGRiwo2Y+/K/IvW3WX1/e/K/J1V2b/MlHlHv9+HgDuxiio6svg
+8utK/ft5sLha8DxbhBt8X7h8m6ji3CIfF/ksAKMvHfqP88D4w8bOwjz1T6v0L5m6CCv4RzUOg5bl
+Du27RmuwtCA/T1QDfDLSydVi5yoGPGVmwEfFbdMN+DKi3LSJ/LzemBkrJu62T5MJgGn9jALsvisc
+UJdJvUl1dZ80iPzN9tYu2nvLKdYBiUT9VD/GDbr0HrXJYkOxy/SsFbOftyTb2qYfG+FDquG+hp6/
+MmJ+e5B9p2EubytbAQ1hHoey9AnzJvuIIM26+FhYxq0Mm6PVFN6AlctjAPBiT0yumiyHTxQ2X2oz
+RxFnGzQyhJzDaOYXIxyIvubVtd+CwoF4FA8k6VpF5KdieJnq1v5goowMtgaZMbtGGDCa6KrhuuIN
+eYCMwUq16bvq1jJgKWW59KKR5KEST3FutCnuiXj4mEZgRamiB4gSboOEi7qgAEERW3Kt6/kHdr/P
+qZJE5xy5IJaN2d7Gs8q2OlBXsid/0oQ07Q+tlW5R/ar8dSKmJdWJuRo+Tq+fy8BLFPNz1ZOuGbMZ
+Gp1AXdsdqGlV6a9cPZ9K9LuIxbZTWdSPZZmYO7yy5i0xUuEBBq52VlMmnT7AC8fdwooabLiNFUWs
+3jNs9+xhLK9+HwxfDwZ2lP/rYKj/FWC4cAK/tenOH3jWWIaDbV5u/KUa+Nam42lj+WJo+p9JvX9Z
+tSzUUY1W/KsIh5PmR6GAJ9O1l1PD5ZYgue4X2vTlyPrLDM5hF4yfFJY0bDWOhWUn+1OXLupJtoMV
+DViZKaN7YJxsLeJ4D2MJSfeoYVYfKhmxHVXgOqxSLbtMMRpkN55fahB6Thtj+3FB1qtjdS7NrgGF
+0DKhrscd/i35Ia6T8GBk2K7m0jVuyzl9j3NiVetq8FpXzOvKCUDLpMegL/dRbNaL8HDYhKa76kNH
+ZeNJ8kfRmh/7aIZzikrQrH07fmJd/XnGMIoJ/BJPFAzTa9JoO40MIScTB9HMHml5m65LN8rYr83Q
+QR2Ci6cfK/YUJtYf5oOJtccWv56HYzCK6Sbp0vkgMDWRDikz3SerRT8n6RC8LIJE01dbUZ5rJeqQ
+HmKVc0ZHPyq1dpPFqee0sNWjqcGBl3weK4PtgdUqSQ0Ocsje7bavvLYzQ38YgC904qO0iKF1tJeu
+L5plUPkp6QVsiUnjP/VXsn0dhnop39b696v69VVFsPDfr+pG1s3URv8YqTGZ+v6uLkU9FBHNtP6t
+qDd5Vxc21D8naozSgEMBJnS4sn9WxZl/uOyjCGL907n6S7AT7Kp/e1WpEJh8s7nlSsHLRTfy86sq
++94Kq7gSuzwecQOaSmyRSGr0KaFmXyr2pXjvvtTxSqgW4xOJCIo3IBxF3Zumpr3X8j7LmG3gs9jn
+vSgvVCfzRhT2xhoyCuEpfqJcueLrn3nysp3ScX9ohAnCJWFhF9bw7/LM9GqBIFU2ZX+Y4tlch105
+bFKmJIjbwmRdWGTK9kOdXrXETCME0mCsLSOVgAjLLzENInapeZPgrp3b5FiqyU2Hfok7PX7KXCWm
+SSH4G43olWkM7ooPJAtWzyRldbq8K638bDkMn3Cqk9rq6OtRm24xVaYo5wjV/P2+fH1fuIn+x/tS
+M4D+96qXz/txueGstngcuUaQaS7P/rfLzfkDfoGpalA0rcXMzdP8req1/kBHyq8zh0YDg3vsL5cb
+y3I0pHwGrDX7l94YErr+9sqww8T84ED75QXlEl5uv59uNyUWZt2Xotk5IKwgxRYKWOfKJj+QNM9R
+olAXbgWsQ1ZEX+Je3fZu68Gi9LPFdAndapnituvlA9HgnFPsZLoefHCjFpqNyzOn+KYRI6LWHxWY
+aFVt+1Gtbwx2uH7Cnqfs1M+jLUDzjFdWr8J8sa6rybw3wvjNccqto/NaSd7PnrGQEU6XMrGOPN9X
+EdatlQ4ev6n0TxOIL4aqk2eEXbUq1flhLpU7gvzIHU1DuDkTYVccDcN+xlN/Jlk6uI4AQxETFekb
+i5zrtdn3Hygvo1WiyYchRJ+0hneDzjzuqofQxjk0y65/T1tuJNS1aHiCUSLZs25GY9ooSnDquvZY
+qMyOyeRbSaXxSyJJd7Ol3BsgIQAOJeQEGIyCsxiITqWjaMTavI7H9j0U7TlSS6M+93YfEkgNdBt1
+RVlyCqgkwOceHjAV5ZIeUiWM4XSqgizdNrkBA6ixaD1Kdt4iLZ8Fo2K1Vz+qo7k2u/itD/Qb3H5v
+YexcUk3eCR1gA64941QOhHRrbvJaKFb/YGC8S/VmI4tmM7udr/Tt7wr4z2HZ/xScb1+BTf9TbMRW
+6vshwa3qom52l5xA/vnlgvw2KtNYUMMO+BqA8vOaarGcuqjAHNTk2FLFX46IpX/lgEB0+MtrKkZ1
+fzsiEB3CdaADR220dOiUAz8fEWnSxIUlem3nluC9KqYtUd29B/O0sXlB6ynFmOS8KGlEsLmB7iZk
+vNwYZBaFwZ3W9Yy1mX1BINT8otNVsCdMi0lY9+chQCCtlNtIAVeIO5thj2/2BWkYvMQywDc4VeXF
+UsHca5F9TNXijsisR7ZmT63VJf6U4pocgjnxjBGE7dipj+AMLtBqb2dn2Am1PkvRb8pC46OmTZCo
+J/SNcFNHIjr1dh9N9WlADGguqsBIWCuFgVyQ2Y9I8S6zUvqdBNvVumuGlc8F2VAU6ONWm4ozQSA3
+QRoRpaKf6yS+7h1918QcddZzvygR+8a5n4b6Au78QUuCp0hBGaIMl2rUUQ7bV/WUnSdSVK3AZKDF
+aC/J5se5kncsUB5m4R7DXjn2WX+taHEMT8vFSh+9GE3woemd2Utj5aK6A8HY8ix6A6R5ueicKnVk
+gke6QR3XkIh1OzU9CebT9RNn1k+5nmV3NS7Z55Ldv+LPZTIk62bUh9vSbrU9KT345021QIbfufom
+DOg9bFICGC5OexWIHMdFwI+zrJHWWN1jU6V7w84Nsq9ltILs9QrsYHqbJzKRC+VUinTYlqwUKLms
+4nkmT+rWSfv6dpJlGm7awnRjrwsb/aEUWpBu5DBDj90UAsPS7wplqVDQHP+vCuX0Vsi4/kdB/+Wz
+vtUn9h/M3zlzLFcH/8Kw6Ud9Yi+OFdbTLkEAdOV/O3yY0mOYdBnxfaXN/Gi+Ce9YShrYSBwcv1if
+iL+X9BhpdMzP0J6WyHlDUFr9fPh0aHGJnM2ZyrnZzLmS1qN2KnBOVEQEo471RtWCVzi3BzTC7jqX
+mFvG8aWQSLqyrtrkOX4W10kVoHktBH8vF1z4djUiBoxuFQLt4HHoNXP7DJdGazjlKVnMzg6T+mSx
+P0+LEXoY58bTluCQAGAyH+umG90MUQBC0hsWM7XelKQma4/tYrNGAFPtwoZBtDX0L3Yrd70zjIgw
+EyBjKqb8lOVeUChPbhzhyVsS+nhlvbSZzgLDiOLkJckCokYUMwfYR81z2GtEVbr5ttQtX63UQ1yV
++Nqt60aL93MbbAd+O2B7KE5MlomK8mxAXs4GOZGGxhfSYUgtmU/OKqwFireYFWfaXenk15N50l0X
+A8Fqat16jRUeSqU+N0mc+Jo2+KkOLzocxHVYJWLVKtEtcNqtUwT9p1YVx4kBhmh12zfrfK9nxklk
+ubIS5oI00aePdV0Xq1xLl2j1ybO7Ym1G3X2pExafpXq5NwqwLj1/SyQv2UdbDUlAWYgpAf0ZPrq6
+OyVNdFRFSMrD/Gyz0Vx1FcYtv7BC5SasEIJL6u9LUmjSvthlDncSflLvZcv4MfkyiTQaDRSIjRsX
+8i/DykB65jK+LIRV3vw+aL62QpQX/90KbV/bt+Yf54zh8knfzhmLOka3bOOrmHo5S761QRYJxd9F
+dsv586MJQkRNCQOfGugVfcqPJoj+iFNpyVCHqUt98ksTPhzCf6tw+A3gElJH0XUJvt7fDhk7SMni
+nAq5M8dWQVWgPieW4vVdD5ghWffDXU813tMkdI30BGM5TevXMp3XBnFcZNv6QeWspllfWfIyzZov
+sqeaEO96QJV7Ksp+g10WLcW0COt2gW0h07hZTGtVcyzlrZ6PrBbgsE43XfJUq+JS5ApmgY1twn+e
+a+JtYSc2zkZtXkuFPAJM3q0hsJAPL0pZP4DZ3Ey99KOo2bqj4av1fAhTJBQGK8Nxeo+79Jk3Y5PI
+YOvWIwLALL235vaWVOHrqnP3wEE2GlBHU0SbiDdQFO3agB2B1/lFHzoy1LN4h+/kHRt88kGvRhg4
+FalmyGzijV302trNBriVrcQAC7Ee6PIimiBH8xGbiPHsNGkToOQwUJ8rWuHJBpGsX1GkqL7jltlV
+HFdB4alZ9KnHBNcjqiO8TU1rr7NiBLLWvM4Mnbc5QJw7IkW6z5LqNKIx7PTpRi2j90rF1K0jN8pL
+T1ce+6jeDAJ5s0yuaaM9VPnH1B6vRUcmc9RZOx2sZuveaW62dtLA4zG8Q+tNUN6kH0PE6K4xXUWm
+CXUoBc6RCtzSTrNpA3kTS5N9LUtJRb+McwukpL3FDboSvfBDY2aqowK+4Pe2jcYf0WhCZ7kf8ZSp
+TZ17Xd+d2rD9CEsIJaKCoxvryTsA3MbrNOPZcN0nRYOnq7URwiVMdE+pZSNp0pmeEmSaBmq6GoV4
+mp2RtbVB+hm5cHUr0kMdqMeyD+4zeK+5Hj46MPfD1GjXVm+ThhxLsXIHZfJjdbg20+ICXv0qyZpT
+5ZgHtY0OkaIoKzuAZIQtfGrss1LYrheVBroXchNAeBFUQdm6V6sY4sdiGTVHkjbG2CBIID//Pke/
+FmzMV/77HD3ICA3+v3SL5uL/+HaUOoAxUC07LCNQBv/cLbJIBemvCexmxhfSH5/17TQ1/+B8+8vc
+6Kd9Cffxl2HSl1LuF5Yl2pct6c+qCo5S/kR0nrpJyQjb+q/1mtplE8TiEGOy3jrbspf6vC7IhgFZ
+Zjpjxikp5zVT1nEdqILUE1lH6yjSP0+O7N/ryMIfOs8InliU6vE6W+yoTSkJY2mOgN/O6lCy8Byy
+i6jEC22DsooDnLLBfIm1/Nh1VElaDHV21I95nV0C4Z47K9pZU3AHl/9+NqclGIOEWoV6Y+OK8RV4
+WsJzjiCpxcKsh5mztcM6605WwO5y32WIneALJ50/9bqFtMvutC08ACCC3Xgqu25VzuVlNMRL7Q4X
+QsgfacyvEImdylHe4cUmpDKbbhFQE3feuR+qMthWEyQJZdClp4z2DpSZ45XMyFl66J7IqcisTEe3
+qNF9lupTGtZ37Zh+rBE+cXR/Eop2rJT0kQzR1zFvNuCZ8UqQsQUWNwR4MGEDTIaI1lp9FlYzg4xT
+NdhCRuN8jNv8MdAG9kXhaGXvvdKN7aNBws2RrT0UuYJhGdMG4p9SpGtqoGJ0aAsc2KV7VA0GbOBB
+or0Fc8PP9MHdOUZXns0GvradlxrqvFL4OqYavCbTQW/5cdaZbfuJGEnGdEe54jQ61nb31LTjxZb2
+U2u7JwsSRrsKbC7XIebJyMviUYksJCvlnbDQrST9hC+jlVjGrQnNrv/7tPly2iyr1P8+bXZvxee3
++t90XLy6348bRzCLXsxmKtMmY4mY+1668b/o8QQTbBg9iDSMn9azi1hLNegEqamWOo1z4EeHyNcB
+hYD068/J1S+cOMaXJJCfTxyH2brLhH1hj6LMRhb2lw4xtEe6Ccabu6gc7rMWppnxrk0LCzplfThv
+TJg6os75b/cYh+GDSoOWJfq6q9V1KIVXwpKZjOQQZcVxqNG8Ws+2jfYKKHzhdAfiYu8zERLCZhKt
+G3vTxCS5calZMG8CRUOcyM4HNZcVuHuD9IlZ1H4PAJL2BnOoetS6eGvZdxUG+FXQdBtyqwiLd2AP
+2gAe9Xm3mOZgH/jq7G7JdVpJN/4UZSFJeNIflehhnJJ1Ng4IshjKcELuSid5r0wgXdI29rPe33Yp
+gmgmzzoQYQ7oVWjpe70YDxoplH3reMDbzmOc7zo4ZDZBe26Rrcd68po4v6vYQAXJTAGBvHNkTB0Z
+XtoxUbfWIHOmycCqJfye6JOpcDa58hTY95oWerm8VHZ5EMHgR2Qodb22YYh5nAzt6PSxn6RIUbAh
+ajUz5Sx/EbRfeRtdR1Xmi9Y9VlTQfZ2BdqnXbO22CZ+jSXkcHZRiUefR3hGwnK/sZDoG87iOg/lW
+KeEuiU+NtDyjdy5z6n5Qh/m5zaeNOj+bU+XRsW8x23lRDz+GphRNB4TQpzBV1xENpVG0O6OyPYyd
+Pq2+p9jWplF03yY/GHEP6IGyEHdOPfld+EWnZvnM1B4KuEvca3T5bq5uuZp3LUrkEdiZomefpgYe
+RJVRDg2fzMm5lbm2n03NE2FwbrP+MszGztQv0USL0CKYMZRFyEw/6uxG67VSwm2m4mhJ95FqA+xc
++OpIaauJ5GES0JrqYqbTGtnBARgf1wR9QuZ6wCmxKFYQ7EkUG5tVizHSCPXzPNcHNJRrpnb6Kol7
+5NSd7/bzvodpP9nKg9VFL1NW+S3pI3M61SgLC69OPgbi3tLQMOLK2Yo+OClzsYWYfuht86NVGh/y
+4Vkx+nDVzOJkVt12zuHm44cbBotJhrubxwDvo3KVFuolCDjtY2Xep03/4kjzGsLKxZmM/qaRthls
+kjk6C1PxEKtfOXXFhXxPgIEP+dWjiVrPSrKduxit0LaziIaMNKA7rEidQm6qSO4l6IlGS9amrX8q
+WIBE9pM6AzbkZ6MF/anQhnWuW7RIhKZZ9imvonXW38hIXadLHN1Y5mi+EWXGAfSlFMGVpuwnN/H1
+bt40swGbfwmjKZlJRLnlK8pJN54zBgdd3FwHU7Yuu3cVHUJvpBsaWJ7U8hQbBGo0GFjjBFKTyU+T
+6GZXXRUZvGHH2kdoxthBHbMs2U9ZcDT1+cTztJcCqdJcIctOuxzIFv7YDLNh/pnwmIPZoIrvkVo2
+WMASD5/vQxFrEKjuSC/buUPoCxKcOX0q62OY3AXlXg2mZ+EWh6gILOLbAPvzkhfS3eW2cZGGL7CP
+1ra9s5x5m7piY4fxddK4x9EcngwsIVOuXISi1usYOYsb18eJuobv+yXDOGU0zw4PkrCoWiLNWyLC
+CV86RjrgmSmGxKE/to7oCDugSSlkcKOl3fXUFcdymAjMRj5X6ru+njeZXd4oQfcpJBkhdd3Higi3
+xekwmMnKifPnDPoz9pszVpXTWNZs+uzMx725saRNzl+6TUOYZ5NaXqUz7s0hXCcDyTqUcV1ElJqu
+vLZQhlcp73Mj4qd0lB+mwd7EZn4j5IsulAsRfJR79n2nKz7wt5vCKrpVVTUYwOSWCUFFy9W9Wom6
+TaTyZvXmapTtStahZ+q44IzuekjNUxmkr26X3SLV/aCXok7XtWtihonoaVvqHiC/2uTuNUd5I67t
+sS2Nm7au/CKEUBIckzBbx0526Rpbe5SBBQb3YZ70wxzRbYWh0/hdFzAj0KzioioiLonE6I6Vi+4Y
+/snsnIhN20YTYuTUXsuQWaM6Dzu3gTJbyn1ft5vfRdLXIul/at23bPn7OMve/jHeor75XiQtuCh+
+9FChvsR1/jzecuC/oi5Hv0qS2dIb/WjJcJox0F5spIv5axG0f6+RcJoxV4c0SsDjkt37SyG8i5Lg
+LxI2lvxL/cbvjo6N3Le/6WIm0eiZLY1uZw8F+Ss6cD38HYtNmyT4cTPY9uz1eQAswMncVt0XhOga
+XlFY/TNqV1BoSrFPRoRdjXa27IiTdzxU8fSQOAQYxAO5iA07ONMJVw4GICPKj05Tv/N+e3Vnv5oi
+78F46nAJ0v0wGjt7cnl6HfJ77LWhqlfmhJBL5M25WE4+lXiPBDqaPt8yuznmobw2S7QHI55+dyoF
+JxFPOOEvwu6wTGXzkrFp04xiKsuVHgxINX4koiYYd5PVPYOYfLEXWRtMvGeOEgk1r3hyVHl2F0Fc
+m8crbAqfI9W6U7XUvetiYXxwyzz08Q1mpxnjyrAzOlsZ179fqK8vFB3Cf3cd2/rtrfi3t4nP+jbh
+WEjLtAga+ogvaR00D9+mxSylWDux8yYWUF2EZj9eJxOBuRDLA/6tr/j+Opl/sERi0UmPAKd5UeH8
+QssBbPsf75Nm2ILOZ1GGujiu/9pyJGbVxhgy5K6bU1QZpfvgihoXVrvVhxsQupsKj4XOOd5oDxOY
+91aFVhW8kvPmker5MI/qbh4i2pBSbgLkoYQKfhgn+6qbousWer9WBsfUHfyZF6SVw73D3gRawQm/
+N0xGZV+a7+jLTq5S+M2g3yJm9gZHXmcgLlSWTTpRsb2IPGFgtQuMzzzsVLYUzdVHotoB8mY7I2uf
+XWF/WIifUep4yeSuk8jaDeUOOv1LjoD17LjTxyYrNplUfRNgJHsi9lmdn5bTqp+xkjbzuXCQszBh
+jXt9RV4jlvCr1IYANxLcVwhuRPFYh2/EkLCCRlueaOfMjPbS7laqkzJG2ZjOIwXSJg4L3wwsD8ok
+bCCw83nHiSSPdZVv8rR7QhR7iqVz0MqrzAxuyn7eIJ7ZDCQ0aalznhTnU9IqvjCUlwxma9NXONPM
+HTsr2pDoLpwZ9rSfXQ2zKO1XMpIijK8z45uZ2T9VNzUBAYZe7QZ85WSf9fwBTan7I2Jwh5XA2ESe
+W5yF0xwGYW6LmagIoqYERjvH/azrmMudT6ka7tvMPrj1vAvhQSwQVdzoq4hCquzkLozGvduWpASQ
+PvmSSb5/POWkHq8zeS7xvpYq+NAI2BnUD6KhzJp/T4yeIY20BcRv7LsOdIlGvMT6J2bont1XVP0S
+ArizlqbxubX14+IbzRgvVTAmmvhcTmwpavsSQ+rLx9xvI3tpd04gASRofxrgzfKXkzbsCthBIPFY
+98RoZmW8aftrVFtt4a5yZ1d3j0yTeWKPMdpfDU4GYg9chI+TYq8DvPpsXREP8RGKoPSe8GQmZGm+
+DOFbQSJlRkJmQZQm4seSHjnSgGurcp03xRpWBjOmdyJx1kGJm6/o/czOoQmK9CQtSCqG/hBU2jE3
+5EaY0U7Y8tZC2jGxyVAtyC6de1Km+RA55cVJw7WYUgs5dLADdn0YtO6oD1HMvAsslDStjYaB2DCv
+zabIVkau740BsYkmu+varaBN5/mTGde4LqGdhkPKj6DUyepsovmubuJ7aYZexv9fLKix8yQL8U6S
+1iGaw+OY8v1Il6tuAibbvkamsYM7sTECYjecOv3sBL0CTrZUXH01uOJaG5rhPnadHUTGU1XGbwTE
++Go5vhrkEQYmIwx2z/D00ObQbc83BdjdlV4YEEQwam+GsXnpDareeApPjUogthrtcFvdB3Z8MYR6
+DtXumvbqc1haftcq5yKs19lkwmHMwd9Fd6IoF21JFBxrgFO5Glq2PzTITkVBgFq8KfPKn9i6EmB8
+4VRaZWG/6LdvkMkLP4tAj7u3v6/Er1ciN8h/X4m71yx+fx3/pcLk037ciYtEDAaIu4CfoM/9uBNZ
+CKgWSlHQ1Qt09K+kElYHCE8XkDY6MoPr8tsYjhKTBAFGdOZX7cf/+05UHYpZc5nAqcIw2P3+LNSQ
+baGE7RBW5LzAAij0/IF3j1FZEUXmTs4M5i0gPI412ytDaT/PhstgQyMoMB7dBbhLyqE9Zf6Us/Ds
+y57lPcCQnYPOIx6MN620a7yITezVLn7etM3XGbzmMY4zQuepJfu22cRO3WxbN6/WKegAr+jYNMy2
+s2bWoHq8giE8NoI8aPBovRreVDRmFUM0YMyirOf9gE7WL8OpXulI5dddPGBAqFP3nhjbPTrSlJVm
+E+6zDkVEroK+i+3Aepe5lD4YLdDJ1RitEXJ0nun07X3S2ekKLdt70nfdSVZ2vhmFAumqH4etUhrR
+bSe68jgy1+G9lMnFieJyZ9qtgh9DjFsZkJ8+qMHoJzkacqM3jFUQF+alMBBVpG3U+mTrDig+mLuU
+Mv6QCSKSWdRdm3anQlEYSEJIcVG6BkASpVQJ6OtSr+aIAweePOB+AhjQEoXjdkW2d52hI0E2Vfx8
+WEaERb0v2e+s7AYmVjskb7FgBRhZ1CX8tMRqGBRnV2kOK8bK7Q7W2Gj7ZiDFOKiSp97FET8kc7cq
+0ODaKYqa1HLQ2juZcYjnSNlquT4+aX1GooPRfmgV2OKtVCZPabqEQdscJPpOdarC4tbt1fXQFh+I
+REdUL6vn0hnZ9TDHrW2XWFDLeY9087UcxVM1yTuUTFeDVpJdD7ImaBQJeiX4MA/WeDtpRDtk9XBb
+4woP2/IyG/F2SpYo4Sp/rBxGxvm8MJ/l2Oxkx9I0EABeq4WHa8vstUwd5kQLyapIOTzHbDnuMe5b
+qfMUGBkU9Yi/ebOKTnVufKiyyETQG+dM2oi00aPoOZ7km4xteiSFmB4rITRJhhWW3+QtrXr++OFT
+gCxGt13GpDYAQ47lh4HsTDMBzxZxOQTcyRKio9dG0yUOXNVTG+0NDi6ZpDr6nxQzodfY0BPrLLwu
+pHjlGXkkwn1j1upDPXd3dppe+sl+tXL9ljUi/qD8Tob1UY9DDfSphcexCh4yNV5Hsbx2BHlwRNQb
+ObFadn5IcvVmYl7cVjXOoPoxtyoMwYzPnXhfU4KxFXhNLPx0+gxcHjoODuNNMZF6rOdb161YD4n1
+OMDssYN1lrrXYsgPWZ49xWWwk3xcYIWnDKi+OrBxN8xtHrs8LCDZOf3Oek5m0DD5zjidcjd9V6do
+7yTBDYnHfuoaT1PveHEd+51pbZmFHuF5oHvs9xgXGWhxn6ntnh7xlLglz66+h7C9cdKMcLH21GNu
+LHL5JMzRmxxG4X3S3JAuechoj7VCXo1a5FtBFW8iiMetXl94+LdIendprxEJpfIVqIcydcdp4OFD
+oXYnxCIHDKu7txFiSi1p9m3jkkbRf9Ii50DwGfsHORxzLX4IGYd6bVYfqFB3A9ksSRweOoSSjWXs
+e6b5iFBuWIO8tBqFDgQzHtnNqICI1bDgzc49cnU2hrJCuqKFPQG+oBWOMrcO3YR0tR3Rt6UGwBZp
+uuXq98X99eJGj/S/Lm6An/Lzv1zcfNqfF/fXJRlzn3+SJB39jyVwAgSB/S8k8UW+bTsCAOFCjuU6
+/XZxm4ifiLNkqcatz5f9pdmQWDgMfxkOsbZjHEqWguHQUX9BIf18cQObk8FMVBvhYLPiRW59NY+T
+5uNnOnMLnacK6aPbJQbIlfkYOs71jIN6pXCYiD65UhtupdbA4jEF7MKnqD3Juh0AKrPJsqqpgT5Q
+PHcJXU68QI5o7T0nFExhnOQ5Is2LF4lw3iKZPgitOXd5+ggMgN0EUYLrUM3uXZt+uu/zB8sF1V+5
+HwyrDf15no+lAm3abRQbfqK77oZZBTajvzMTVdbQMRv2UcExLys4AQ3Bgo2ZbhMjoWOz7UM7dBHk
+PfuOxJ9wF032m9WaZF52KoDWEd1X7gZbzMFyZff9vFb5BxbvpFvTIEZeo4nboomvZ6O+wk/BySv1
+wZdxjturrzfSaXJPDU280+383LSTSei1+uhGyZ0yGjXYnS5Z6yV9WmxUKIdm6eVBlRJC764jFZB7
+bU8DXOp2b5HM4ekj6qZp7DtvsJtLHkl9O1v0gaZLiq0aiLPQm3M7958rYlORR8YQJo3B9MOR6ywu
+p48D0Sa2phDKUQMuhI2AossW/OlRrRU2pM4444BI5nybmrhM0FtdN0F5a7Vqt5LY1Jup2de2sU1U
+iHKgnt7wK1wNefyJx2pCrxlsXLU8p4jRp5QRvVaXQIBHW93yy9BFi/RZZy20gqP94DYkK+Rm/USQ
+z7ObBBlhw8GSI8L9GFRdsB57l1BkZSQ3e7wqQLptbSdjMZfHj/VkVhfVaV9swolWXcF0Y8BYc0Q5
+lXpFVN8ZMTvbvq+h02sEQbKI6Dd6E75qOlSkQgj0vZos94Ns3owBl5/JlUuEdDqikVWgYjlOtnZD
+Wl8WhYO7XUI1Ane+s7KWN0DIJ1ZCoSfRpRw7QBn/x96ZLMeNJF33Vf4XQBmGwLTNRM7JmSIpbmCc
+hCEwz8DTfyek1i+purrMtNemrVoSxRQz4eHhfu+5K2Oq+2CJsOFa45ICNdVedV0SpWWI+2WBMpqP
+y41rlwaaY3AbZQaHqzIu2mK5TbL+uXT1t4xWK8DQx3EyteOmd8qrxnAZRBZVMBDcxy9XoMOnAWEE
+iyBEXkQ85sWdxxvF0LUTfHSNo9OM5xLXA64LSEJZqB10QynOuvAhErmzG3IGQwloU67gLfME5NDb
+ZJCv1RATcRdC8PEkZ2AtbcDtHl6IRAzkJrfkv1ZFXK041sdVFPp3pV0hsR7lrmJPHbB3j7b9Er/a
+zJukkWQ7D/YiDV/xyffmG6OaYYH2SMfSjjaoMEhK9FUHCXlzFXf+/cgaZtXavUt4IhtkuLGo5aJw
+lzSSfE2mutKGLjs30arsrWFrNMUpEeOxJt+zGUIZhAUilz/n2Ldz7F89SvuPhgFL808H2Q+Xkuv8
+hdBCoOZQyJxfhCCwPRDqYlPFysvw9WengNpxAJtFEsZRhiYNYcn3c8z5S91kLZ8kJ8vScTT+zlAW
+S8LfzjGEDSiFXQurMVAA/6uN6ScnI5BgvZBScoNamInWcTFvGZ9Ml844WzdFKLV4jSbNZZbJXET3
+o3HbjCDNWCaSHV5mLs9LY0KlNHczzwyr8UNHWDlhRNbzGEKgwK97NaN2dJTs8WtmhqGkkODP4Zvx
+uXaUTDJRgsmoRDq5oKG00VJ6aCoTJa5E03lsUFtKVJeunlwZdYZorb8OlSwTSyA3LSXVjJVo00e9
+WaDizFFz1qg6W9SdrZJ5YuZ9JaHKYXzKegMlaKYkoT7aUE0HrUtWzTqx8vrT0MRHV6/eIhM1qY2s
+dEBemsM3W+dKcBrOxKorDWqvxKiIUr15yHFbAear2yePpToJnZteaVn9GjEXq9Q+rDizzUAgeJ0R
+vtqOfRnq83ZO3ctYq2+SpN/iWDGBkpZQ7jRn6yGi1UhOrQv71Mw+dCDXvGsjDXkbfMzqHsUYHE5n
+P1ifSFplroZCl7P5hNpnHdfxdZQOpMU1W6E96GHFHSs9JHiTDPS+LTVeOhg5TJoPsjaG4r5hpOgt
+qIGC0hhTY9PYpb2zi6a7tDTkOm2iM18UMiB6gje+Rppoc9c2GQ4AFjWcQ5TJQ05nMdPkW3pGC/1U
+tM+I4g6J1h50h5MqdLcNXi2VG1I4j1XTfspxp9YS9WwRBXCVPkw7fF1Kb8GtSsxtDBo0uW/nL1Z+
+DsVnIwfYQKrI0pk7s+rIOnSgG79rJBakaP6AIlc4RDhW8pt6ZDiJHs8HotzHHUmiIUb2lPxEGTK1
+mK4nQ97CjgsK2CwtzvFCN446Aoiiv+hItxinh8InSUWHjVcw4PZRs5AoUddBlaYPXSf3oXXBx32D
+aC8YUAyZiFtS/1DWeuBb4OCyfm0kJo3OvUeyUSrnbRQRl2qUu9juV1n9LpvmKnEeGlmdTJs5f/VJ
+U2wGeTXlqJiaT3ZfrlL0npoLUJB2zwUcmBWMnzXuVnwkoTPb/COZMuCLF0Gtw3Qh4VXPN1ob4mwP
+/HTaAMdcZ7GDuxiVTXNMvc8qFVrOAyEsWYDvhkAsyLElxjruhwUNg3NFturaFZ8sImAbx0MzwIaS
+nw9amjrsDlGZQnme6M6Sz6R13DY2HyDmu01JRvJoPGqtpA/Lka7EyQs5rhvGXXdIdlSZgBdbGt26
+ypxdlI8krcDaKA6ACskf8EVPMuPUILPXS7wpiHdc76bR+37jVJOwGTmzKwrmvJt2YMQiYkDibvfn
+8Pp2eHH5+ZdLWCn/aZ3I13wfnUKRUVGpNrY0rkt/C01HrmX4eOlgs5iMQ39eJ5qsCwE5g3rmXOGa
+9f9PLpXlBLbVBbD/7cj7nZMLIs3fTi4y0z0OTuIseY3gI9S68aeTq9LKvGsZNu57JMfNdRJHRJYD
+kDpBeaKvJDlGI0HGJUlGGETKxCpcJkki3CUkJwauip6xv6bQUKWU1z2/YuQTdD5RNctiPM5k15QO
+OTkYt259Aym23lXXmQq6ab5G3hS1PHcqD6dRyTgCDdT71M7OCvAzorEwfhjY0pHjs4fZSIaPy8EA
+pQmhCkGeEaC7ZhgPhRffSAhyea59LjxmZrNtKXF2cvLz/j73i0+T4V9GnRY4ofeSV84x44SB0BGA
+W/1AkHhm53szpPPzWLesMtwHlGUbL5x2o8VoyrFPedkHA3ueTtbEm2cbOS7bLnEDjfkOI2V9l1ew
+Pkv4Ao5xWgyvDCpLHEJfHJIpLQO7xpc7RsVLHSG5HIBqgM/ywVMGsoneqza5tXWoPDAHTHKtBvWj
+E9ckEdybMt2QTfrUF2RoSxefv4NpNxbLexkhymxLnf7ZNg4I0N91nYl2n0Dkflvoe9bGNDWbubh0
+Kqyug+iJh+6/lEudB1wU8m2oskp4E5mS1mA8zCEmXxydlo5tmjiW/rNEMLepHYpklqSHIvT0YNCJ
+h9T8V60er+HdXnUadiDRCFZDVbweB7mzNGcf2ay3XNWJh7AzLQ2SVoh1w0iodqG+6Wj9V7U3Wruy
+Cw9plu8AYGerZsqubVito6m9mq581dx5V/fOzbgUt2ObbQmPuqim9jTn3lqnn/dIgO2t4jopK7O/
+/lPNvlYzBZD639XsWBb/YKWz1Rd9L2cuYE1YOsrO8a3f/rEJcv9CLIQkgZImlJ/313ImqII6/DLr
+m6Lop3LmIjWiQqKn+Bpt9FvlzGan9MtACbC2LQSvzcTXpyKzfy1nokpcQcxhSgKpSXxWbDy7YDbW
+lRR0AtNLPNAsk2j80Xf9VWjgRHWkaIPeDK8sxP0KybGrDLpbzd5OHZJT4ZPrhov1jGHiUjeLO1/X
+byFuxeu6b7QA/1fxYcHB9P22nWnH2DE92XpDm6LygCOPZOCeiGAdMxNsK5UaXJMfzIaTepKLNzY3
+X9KxeQolQqZYaowWpvnJaaGa6LF2s6hIYq2mfDqkFOe1RahYDHk2/BphHEPe7cwQPO/XhOMOZkET
+w1LYl8MsigAjDMEPEjsH2SajS2uhPMmpX+xzTMpIADYqOjzosS9n49LsWt7Apw6e/NpBBQFjbNAH
+4zx1E636JC2MsSRSi0/4ZVsqbF3oy6VdMB466mONBrqiDTURRW1j4Z2RkS+bcY6NlRa1t0aM5c3K
+9IcKovFaoyqaTkKv6B8BfvMupbT3g9u8cad5rRtGV1jsnjsRlltXNu6qbgeg2clTN2fPacR8rjTH
+Xd+4DXFu6C5HbYsKzl1jV96OzOVZqAt2Oi7o8nnttxYNsRWfXObjwD3FqVhIlPPCfAMB9M3M6lPU
+W9GuT4uCOxBBfnPXvESRiTMm+QIELhjkFFhgzOUiN7PD2i+EFCDtYAmnYxv1r90SXRYVQjXoUMRd
+wdxfoYKz1kaV3/G0RKtxJtfGycnNGvu7OpXVppvKSz80X1skJNBDw9dsip+G1N//qWLfqhil5X9X
+sfPHP7RkirD7vYZ5f2Hrpatiem0xHvCoId8VXj5p0cA+kW7o35M3f3jYlKXMxfHxH17Bj5YMhRdy
+MIPNuBJl/e5Q3P6voTgZTia+YkBnatmuwqd/bskcL2fF5nX9ftR0onYKYbG0SysNPLYwkWGMdmXY
+qy5qBvDaWs3/OqSWXVk87pvasIF9uSyE+UA/hRWSfuxTZ1fT78zMJSJoHO0gy72ZXEv9y6SFJMMQ
+b9YX5wh1Fbqi11AMiLdgEQlTcUXUOMxKUCRRHbjt8Yf0OjmH1vwRIbZiVwSSn0viXVKXhOiKYpfh
+kAj78kS+8XkAy9m4avPuvixh+JFP9pdaRFfmPN6PpnFpTdpxau0KT3L55LF/S+Kc6bxT3PON9iMQ
+ZBd3My1ffLZtoGaTg32WS8+6mMtdqvzNEYQFlv/XjCAZ51mtaiP5r9Z9Lyf9Iap6CN3xJvXfkZB2
+RCX1t1JYZ3/+4iTZyXR9RrboO2Ulb2U/3be1ezX5RdCHecuWwSTx2mZe2BJ/4DPiWLkMaGGQJ+9W
+bj9NKY7bSVz6RVOvoCyfUt/ZuTFDY+Inoro6MFcHyZ9maw+pN6TgdebPm3Cay1XlaJedWj3687El
+sbIFZ9zXzl2dKc69Oz827Rc7bE+6NwQaIQD5/N7l0KwaSRMNhl1wG/eG9DKskIvXsXdBbB3tIzkq
+hV5vyhy6P+TkqlguiCDZuWbCTZxmLy22Xd+ehsJCuZpdTZmNjTHeaxJ6siQ9ibjJD186H0Mu+REM
+LEzq4ZqpQbrS7foiQioPmvXCLdH/FPUns/RXcUYRnrA9WVFAKB+6yr0e5fBQN7XWr+vxbuynADq0
+HmPGAzRZJvt5GvH6ehdGiNbXnMnt2/pkfqmIgYoABzubA+m+Cf3W6G0k7wYoh2g9FgZjGWqpEu85
+EGK5SXvXc0kSMkampGNJyZ8qPcR/eH8AkzxWeXPw1YaDAHLbzPCNPBizWPXddHSXGxC3+COMLUKG
+faS/cd3CW/XclAvInYyxG5OQjA0yh0/fchdZmv2CwFCKZ13zAlk8VyRP95N8j9vpMxiP227iBeVy
+0w584KPlrvLlqQEPn5HZWoePDU4Gd2H5xE5m7+bcnoyOj6nomFRnzJibjC4j41WmTZWuR78Z2FLr
+7a01L82BUdS7OdnORxvaJ0NEl39OiW+nxL8aEM9J8UZR4FT4WxinmhJ/X5/qf3EjRvH7Izfv+0lB
+GCeSetS3uq2kTSi8f7680yBzSCA6V5NlpZb6PnYGnAWhxgR2hyrfpkH9nW736938V/ehCuCD0UXH
+zWsRLH5/PihCNoZNvZTmXhTafZFIPtMMEJOF2WWppZ/kwDrFY6LFlBnMQCGDqRqIcKEvrcOzAbax
+0HXM+jiJychsU/t5KsW9T3DmsCjXXfLSttVDVLLt0JIr3DAv7IE2fZzuallZ62ScL/Imv8OD9IJi
+cVfGLu69JDrTon6U43gjG+cDAyQPvguiBhnUgqlGYCyylorcNUQpCOaNvrkqOlSawhiTtekwhMwz
+7dR5F2kVtp+sxe4wIbn69HmaEmDYvds24QbNCq6gxc3RopoxnZ0tyHRmfMntdBPZuVet4258TpLh
+NWa4epzwkBIAp60z5qdO430CjmtsWSSt85q8zEX7aOYXa5HZqcgXycIpMtprHSjeaZr09LLJzc81
+jNooEO1L+RVgBf4q/ZwpqlWi+FbFV9QVtj+wVwouwWEAsMfFwXekbQc+8eeh/fbQ0uz879bu4uU9
++UfPsEJLfn9oTZ4xj+bOtkmAQBXI8/yf9g45BOQWBA88g1+XPj8J+FEkImP0fResgNLr/7QrQtvP
+UwydXXd+P/sBVNXfrqhoHlxCKXAh68zeuK/++tTOdtVPpAVoe6NMsX+GGFSYce2dPqS3wiU5R8ZG
+m1uV4sOdJC88bVXkrDOdxDkmfvalKaZ93DROkFUmH7FmYGym+9ez1VS7Kes+RFbWKBF5KHLfCYas
+eYyL/GPsPHJZNIySs/HWVNZtpo+PQNLunDaxV9po7pEYn718QdMWE3+JeAspdPWAc/kmNpJnvR8v
+pFuGm6bx/W0mmxEH8nBdtizPHQepnizc/dRpaLgZomEUVotXVPz0dEmeBLUVqqyWAl51nl/Du7py
+YSDMfXplaPXrGMcLxYlj1x6MN7fQuLGmaPcivSLnQeYXwgdqXYUTE8cSDYQk6xT+NO7VvnpLw+5Y
+yuxx6Hr0Di4oFJOATjMk12c5G2nkrMDf2wS4iXi7mCmhpDEaytrWjqyNs41jk/Gd6xnawWaxD2Vu
+16vYL2/EmGRwEpwGLZzOLrkiogd5RWzcVppNepDgbp3m3drPsMTa2SJWRdi1m2Yw3v3EvJlJgdtq
+XncvTetkFt6VYAAWgLA+MlukJnjDxocD1ZXZvTMJd2cPeni0kUWACpWXrkyNtT9yFU5k2ARhXPMG
+mrivJ5t8Smm9ZyY8A0MzHicrGUlSXbapYd7h3GaNXQ13IYs98BHGFR5ImNwtxbgWJ2cRH41JF2RT
+0Al2cs5i0fx9iiY8copraUbdodXMJ4wsCL6FTsMqjnkfswIy02bNuZYGyaDLm4T3LO6GFy/WnMBt
++ngVJfEVmSb3c4FQxgWPGOlX7TJ/cTVE85XxmM98lu1u0XdxaRAc5rA1zDqzWbV5fOdGItv2NiKD
+yVAxpkDzN8LpbzSJCqHEIUcuAXHtYRzhtE2Th7Kj/So7K13PY1XtltQ/jb5ODI/2EoXtqyVycpeG
+O0wZpMqOSIimVjfIieofayNvgsUuX7WkexisVq6jmvAvYDgvpqOddQ102DyBN+aufggtBw1t2xNr
+71bnPOUkLcbyGmjdoejyfN+yKGTIUTxBsHvuk3QPY8Rftw0xCbHk31fY8+fZ054SseSIcGZ0QDhf
+UoPBZek477oa3TgxolVWw8bKtyrWdVF1kXk++WAI7Enm2nmIW2rL3zLgwPiC7KX2rasGGcyg05bX
+CGM6BDJRNm9spZjx3OJ2QkKDIVVfJYhqkhivSeri3NT0Hu2+I66hQGerRKlxHKXLKQsdesH8KkYp
+V4PS7nRKxTPTcmC4Ht57rb7QMwO3N5LGP6fY11NMESf+5RRLurf4I8v+u/dUX/f9GDOgk/sK0EzY
+uvhF8cAxJkAmI6hnZ/N1TPGj93T+UgsjUBR0mTbUc0a3P3pPljyujkOCcasaLPxO7wlV57+OMSas
+NgFLJoBE5im89J+bT1MH9lK7En937pkbweWsYuecNtoXTUK+KpODWPQPJjFHMzNXtT4cBx2tlAPi
+wQck1uTu1jT7tYy8ey/0V9XEIliz9o1ivDoFq6cp3fQa+SQwyEuCem2syyFkr94yjzbZxH4lT6a/
+XBhWdJdh5CyBOCNC37aJ2JuRDBzALesa/ksB72sEPMwE8CaXs9o4vHZTtetDF4M9FNAlPZSOu3UH
+1Bc2YcYLQafFdUpNIo7zcxflG7H4j/iDnuiHdxXzgSKs10xhDoxh1VB0pVnOMZ5TvAHjp6qbtrPB
+AUZS4qJlr6ItP2m40tzS/lLVRoAVHExAcTTiNmgVZSNeuLCSZtA9mVaq3cfNwEw005lAJIxEriw/
+Kp4Qlm1qoKt6ghrYxA+jOeM6BOesJ9U1/LUT0WdHI3frVYEo3QPRip9n3DB5xH1HcuqWn+q488PW
+uWg7eQ3B4UJ35Asx7zvd7Bgpmf2TkzpBuBg7UCAXXhde1Cl6A1mWu97jG4V1vs4al7sxc3W/DPdZ
+Ju7HlHu8gX+9TLV4I4ZwLSrnUA4S1lIpt+m0fIrofWfDvVy85oHkhmXtaEUw60+RZx96syS21Fdo
+kINotZXeQ07y8iAtn6ZB21Vede8z/ikje1cO/rbJuos87Yk8xd0l0m0F1x66EcXvKJwhMHO5raPy
+Ye6GfV33l2D91uZ4DL3ymFv0GmAv9T6/i3AOzJNzHYYFq3RxjObsrZ9BG2jGmveEHMD6MIbW0R7Z
+yA25wbciLk/aD2hbBoYPCrbSbRKZr81CrGZgUUnd4+QXmwSih0gjlogaaYpDsfN79xLvV2Ca/LVO
+glxdv6rb7k7XuvVcDkCK072E886qEp3ZEH6OOuvY2pBLonD+ApJuHxXTi76Yu6QyD3Vm3g3uXZiQ
+5YPtBLG9PAG4uC/Dli9gCNR3OcwGiLwcpKBx+f/TlpBcNpVwUaK5PvmSBI6iOkAtBto93Jh4EL/+
+lBJKPx++bU1IiKll4ENAjWAdGAdejxg+eX16jxvzuu2NFNdkscsNBjETaDrbb44VKn1LMJzJH8Zo
+fuzscAM14pgjTk9sA3BxBKJDR5Zq+/0Xu/VpuQgF6SArJ50XaCFMwz6qb3vLOeikFCz6F6Z+67QZ
+b6Yef1xWlw9m2B7i0XlIW5I3M3gIS9HhhJxfkV09l574klvXxpJ8JpY86LUJE7d7CdjplBbILir1
+03ZOfZhsNcCdMCY2bTYBm7EuTbc5RVr1wmkalOqn5Npbe3BvciyQmHZWCatTJB4XRoR3mygfRnGk
+as9aswSjQ8yoaTbohPxlNTc699yRpn2mZxlS65C3+e2Cj8XuL2S1PJBblqGPz68TQ75Gfb/GahF4
+tXNGQfqUty8pNNHWsm87gey5D7eVaamFS3XjWE+++VANp3jML2zl/NCZ5Q1Oez85+Bvdct/lEbfg
+9K4dq89u6bEAkXJLkHmQR9bRs8Orto9fxsENKgxAogwvrdg69cA/4FlssA8Ab/ZXfpizkk+nq7GZ
+rxspLywYJP7cXmtyOIxLyKS3AHzGZ7PxpkPKRLRDIzSrW3SLzzCab4hhRYoTrixmmKk243eBd0on
+MRgJ4DLj1Vwe0ma+mGQNCwSFlrmQAeUbh0bm3IIMXKj+ZkFw4+eIMm0PaQ4SzRqITueMfPdPOlNF
+wPNrryGbJWc01xnjuz9x8HDknZuFjyuat5Vluo9tCjE3b3ZJhLrNuYfaenSN4SQ6ri/qWMkwnNL6
+jD7PQopWVgmsixDj6UVam/ca8JZubALf67aiAzFTH6ZUHpfW2df2dNSaMbCbLiB64EtBzB27n41R
+6UHtvLcWGyDD4ivbQGsefKe5tKjJEbQeswTa5s3ARYo1e7fdKBy2ktz/Em2dAsIVmnZLKKhJQw1j
+sm1h/EhnV0Vf+sLlhSMbCP0tQV87NUpN/Ne2zTaVR3T9fDsiYNVhaicz7uA83RWYZN0M4CdybwuE
+UW3icbaWTUeISJaFQZl7KyAGqyzTtk3XrYbu4U9f962v+9f1OcG8XVTmjIr+obP7aYfu/wUxzDJA
+JWJaBP6KmPT7gEL/S/0azouvg4uftaw2ydAY/3UXFaxLQiX7rB+NHUACLgAWU0WlMfJ/p7GDy/H3
+xs42BS8P5D6WTzWq/LWxG7K843FmyOASJ8WIf3HuDPSaaz2k5hvtDJpM955rJwajbPvYFC1OK5wC
+i9sBkLHiwJoY4vWSUAiRLLQojd9hXULshhKl3dUlEe4FBsuV1BYerngmhiLsI1ZXdXEWIw4Hk+dz
+SrSdreWIMn0S6ZbhcRoLbSWEcmHGiXmM/Mp4aItyN6QIZSeRPTsWjYwmWVN5obscZgsRHwocBvDe
+zBNbTin/FuShYijDVdoV1Zadfhu4tXcybO1pEj0HH4jaVWt5xcZ1ZYRzue3OcZfsslh21RFajuvQ
+U8TekyNq/alx5bGK7eQlscjwvWkjP+kfsWM4l1FflhfeWOuAcXvU8LL/3GhkUoUz8O9uSYZdZdl5
+YLRiYZ+m852isNqFiX8eyvStY/F3ZkFsbWoX+ziiI6Q+Vg5lH1PXuptnBKlcsgMv7Fk3dCE11jHr
+bVRH1aERTvRU6Vm4Rg7sPETdeGWSprx1U2HsQZE4Nz1641Mq7Xzj6YN2UfV2vy60RmwopdRBX2MU
+g1Vi28WiPthDUrzKHpZsjTox+FMnvtWJf11QX5Rl8w8ravOnFTWqQSaVLhPMbxYsfuvHitoFJgLO
++psB6+fkHlUjWDlwfDDJ/FXvbqtAXEUMQQ1mI475rRKhQrh+UdkgGrQd/iIXcKul8y1/LRGY/3qI
+poQrJBM3GqCYtfHmaXYDLi1/99GjoQPC3YKAZJ0N5nseethQfamdTa25MLwITw66NrO4Lxbn2tGI
+t8QhS0idZKiPz/q2jQlpQ3kWFIxZ9NK7ZI5OC1C9CCWki5Wkru8Ih9OzXV2ViAAd0IDCP1go8RbD
+oSXrcZNZxQlW8XuYcTdAw0c4xslF0ycWd1OlyYsoxZmz/C6LfQAo6TlDCyjQBNqRtinQCNpoBSNE
+2b7tXmZKQ9iN9/Q/AMsQF8oGUzkK6UeGrRfU7dPUGftEb++0pTwtTXvunKxc64RT0M+2LwhD9z1C
+xtk/xaV70+npdUTrxr2rLnm00d8l5lJ+MkemdTre31WdeWFQJZO2NrsRBXPfdyvYDTDXIqM7FAua
+9L5Aw5wvKf5zt8/vZTWzbh7iGk15LXIcu5PaI2qTFTKo5Lpoqk1jkdPYeGoD6atdpIEvHB9TsMBW
+IFBcBW/L235y211joix2Wwm1W+BfGrLV5JbPDjtK01cus+aG3u7R5Ie6tucYnTy2Ux22t54kGzGW
+bx4r3pou28u8fTrPN8iTt30/7Nqh+mh78nMr5tUwDYldsqDZrd0ei9CSGc12tgq5MUV2Cfaobnd2
+pesxRZxaa6uia6jy26aoNXl53CIBTRJB7ybd2VElu1HF21BlHFRattap7Jbm8+ZT6hNV9C1V/n0T
+trZQRwL3InJlbDi7kzowXHV0hOoQsdVx4pflszYz0giF4J/lMlAbeCdaPdxaFSb8oSoHgMHZdtHs
+mHazuM3SqVi31XBlNzW7a9sJ17gYWDrl3MeRnr7Bk+KCAJYysNPkaHQF11K9iLbgcMO95Pa3br2i
+Xk/2fM04cU/Q86lv2M0jVsOvGHLI/inC34owVet/D+EuX9r4H9o0vua7TIjMYMW59nGoALr+JZ3E
+U95ZZnNwX22ssKqD+y4Twlikq66OtazpUKUZi/3o09QqWQ3nkHYrs9JvFWEVsvRLEabCk0QOgYZi
+jIDGVr//k3LbZDAW22bScqUvTkNbQJIOcRIslamuRPXsdecChoG3KivDDQHGJ/U2iyAQRcIiyiwc
+iA5YZPQY6Y73EGPFNC+krGtltNe5jkwmOWtpRdQRV1ItIHqtPNlTIYJULq8jln4Cmd6WmLuGDDGX
+pMr6PxcoOTISfugT4QJMECOnfLzsErmsG+FfG2b/QkgaAw9YT2Yb3kMF+kizmcgvqzrURfiQASLI
+w+hjVmQC3ULraCtawWjYuA3Lj2YJn2DzU9zLErV5lHeX5JA9GYZ2AlArV6grT27aE5su7EfldG08
+hOiNk8MmqKxRCTTTzaI3b1M66Wtz4BJMDDEYKXIbh2JJdunCirssXDQZsXxYUugMOpgGweWX+cu+
+KvvbuGA+x2JIu2kX9wkPcIkWORfsLqoDWMab1J7OxJpJ4uVishy8L1rvcMlSyIgadkQFQ6JUfvje
+0z7Lso/SnUFxxE5oWyFLcWJZluTayu0qDnoBdKKVIoMLZR88hdkm3EoyaWm3jdRfYGE/9I1+YsX9
+VkPobiF1pxC7W8jdBORgyFcw75wrZgfdm6x5RkcDwO8Q8rdUf5FHbFxPS8/vNZSa7nYgB+FPfflW
+X1gR/0t9+Rj/3/6lKIeP5h/KDF/6o8xQEhRokfXzr+tqwI50bCiaUYrQZOg/8+bEX5bKV6MRY7jx
+q8bEItBN1S2qkyfUl/1OmcEC/19lhkW18Aw0kT7uSlets38qM4mYiWPVlnRvjGW4DefeBCzm5jcZ
+Y0lTXQIneDUX7PK2MQNXuMibcpHxPnOG5Ngkc/FWa+N5WixuLzpmqEVEe8MfHvQ6Olek/N50Vjtf
+x1U8njPYvdtGl+GnajFrKE8jQgzpr7vxo6umO8e66VvrDBvgVMVTvtOSTDuXmg7HWY/wBrrM7Ixm
+2S0tnA6nNORW5P1VwgJjYzD86uKzyVBt44K32haePQQLOt2Nx0gl6Vpr3bfyNh/vZq2/tnw2mhV0
+1dwmh8gaWafGX0rmVj0rsIVQObeTkGVjIsyrOzLoVjXEWMRGJ5PMw9bDEzHkNfA0P7ECF7F0Yl1m
+nbMuo3JNcV2jbfG1Z3s+zUySyE9eh9kei9dG7UgcmZ+SsF1L/2Rl7S6i10qi9rhgh55GTI642602
+3YUM51QLw5/Zuq5zVZvurnE7fHPDrcOsOExMnJkuSJ5sYaPqYBcPZA8mcMg/tHpm42n5r3NuvtPN
+fKJZmnFhpwQ1g9bOrZ1X9wezE49uE16H2he//eLlzJ5D/6KoQiKrUCXOda8x5RPvyyQIS9a2cXrj
+Tfqq8rxza45BNDAv5Q7QDNGmLNs16OZVPTo3zE/IroceDpiMmn/RGCG30hCIuXf2mgUQAE3VSCxz
+5KOM9DcxDsDFy2j1IzacSqBvcwGeNgnH0Wqx8pPFBSRsRlSaGR39HbWP8aE7iXXjjZthch9SYT5o
+YcrUJjrYXbNdDP86NfvNYrYbmTGQH6DxVM1+ksSexEt9V2UuYHWCsuiSe2WkvCBcKDAK/Tr3+Jyq
+fKm9iHwoTs7aLpKNW9jveomB04t2jmiZTXvzda7VVwQeH62F58ER0BRNnIz9vccOIWVasdLa5C6e
+dJ803XIrp/kg3eHZ0fNdnoIP1EfCTbTbOS+hMxlw09NLvAAXhUMz6AM4Z7nS+jDaYgYbFuNYMR8Z
+MO4q2zrMYJZyX6klcFExBd7gXdqB9N62dnrLyU8oTBmItOLX3Pdx4G4UG0zhR3EKIRmXuLMcq99M
+s3NP0h9upP6SNO2dPfNedPouAjQX4abgMw11wUELJi0c/S3EgT7Nb6xqeC5l/B7HAA/Aa2JqaIAL
+ArLhttQyCYF5ikPAKeWl9DP7WLe2c86nrj6GY6YIeHj856kpLpcmjbe63T1lug3eWeSAOyqxKXsb
+RGOcidWfQ+rbIUW5/pdDChwKfJ7qH2NfTL70xyGlk9HLiBHnz3/Ujt/nEUBRUU05ZAkL9OpfYTE/
+emFlwQFL/J+F80+9MHtqYrzJbWDMyPn3e1BUuuv/OqSQ82M9R53vMRFUmq+fD6m0cL20grm17wQt
+cJL2LDdS2JZOfelFLJMmWT3pRfdZb/Xr2NIfRFzjuxX0rTIaDho2eUCNzcaJ5VuV4bKpQpsMYSff
+8K+jhg4RCgw2oRppD0Thpazm8KARM3IBWzJizYwtN1f+XJWEtyIheNlZA51zWXiPset9CB+8RGML
+5qcUgY05zsl6Ksbr2W+PaBX3WelfNpV973bDJWbQfWP8H3vn0Rw3si7RX4QJeLNttG92k2waidog
+aOEKHiiYX/8OqOETNaM7Edprd2PitoZDVZfJL/NkfQoVcebyegnZczO7yW2qrloSyIUhbgUBaGXK
+7tu+uen7AeWvOPR6v+tNF+lCw4GVQfmCG2BzfPYEsG0u3mmpLKsmvC9D9ZjMoShRNkdJtlu+h7w1
+5WLoxoCpcrIL84biAW0jI23bx+O6UNUHZBi48nU7bDNZwFo1ntWee21CQD1s3cu+LaEQsNuQsqQo
+ZhdnFkS2bqcxjo8cBdWmir8atRyeysKJh4s2B/ZQ+pmTefG3iWqiN7Ka9co1yhecU7dyxrd1M8jN
+g+iWTnbsl0mgnBWCR8y2VPtlBGi5NxId3wGaPFUz+RKDt74gtlXv4HXejTNOzp3BciBsxS52DeKo
+M3ZOzgC6ChJdPCPpHEMHOgCkzp5xddSSFr45I+zcmWVnkbYsoNthv1Yusxl4FyB5LZO2pI1xdAHb
+w89eGFprLYvJHMB84YHtMLtuzRmlh3pbbvk53X2k09oYmEZ5cJQkPidYQjetTMAb8KVb9lodnNAS
+XHBvM8IvmmF+iYriCxOMcrUZ9UdfBBs7BIGFnbTtmlE+gyzYgIWeYknLCsyzMziwmBGCYZp4zKTA
+CoLYmXzm6njulXAX6+WDNRMI/+ye33dPLsP/e/e8zBtR9L+43fOpTxsn6sEvC07xiGOkcxysNT+H
+v82/gG7Nt+3ZVo4g8aEfmH/NxExc5zZQcGSH32tff9cHPrvH5weCxjOBTLg7b9FMqD7vmfEkqg70
+BV3JsRyZrKsKKR+ZWnLjkvoJl1VcAKUl3pYNy6iewhJ7NSANI1fvR1yV3JwH3HLl7NQea9BQ8jGh
+PvyyKlyqUcB9wF8XXGDVbzJngBqHul8Z2SrOsbeG/HduS071Ne2rCq/vGL9FlJtoraLbl6VK229c
+KnhIBQ5IJXqw5zxLZ+NtKdgGcWe/xYX5GhqBS2W6t0EU3dQKD+y+o+qlzWzSmeqdGtDboYfszNaj
+x2UNKW3Dz4V5Ru8fB4MvG5zrnWIgQaQgo5mMvwSk8trJuhBzB72jQ5qMJ22LOkxtpwGnSifUZ0iL
+G83AmD8t2QCxUW7IUL10aN4LgJl7DUUWPSBdTjHjXhKEZiHeIhKFE8lCd44Y6jnHQdQROzTIH2Za
++9zOgcRJNa4bEooGLMhFT2YxCp0J1Ag1qpq90Uk1WnO8UWSIykHd3rZF4ZeKxjDcwNqXunSbBtZz
+TVrSnWOT3Ryg5Db5bWy0gChP/NSTsVQbYJeMtLRFlLh7gxzm1Bm7tsaBLxRxGjnilzUALpBLaPGO
+O6680LnAT1pQ0zhnPFUkWvs99zm9Z0DHykPIHcaSE0439Xn+nxZbL6HiZDMOiv0VNxL9aamYBsJZ
+ut1ciyRCLaGYVT3HQ7BRvZgZm3mVK8NL7eRX/MrWjWtdKb11qvWY218IuVi4WC2zJcipZeIBCslZ
+dvRN9BSGtGH6xbTLJ73E1do5mvVHIdW+b2/olv+xvdE+Eb7+YnvjUx/bG1FKXIAGnApESIOi5s9z
+Kp24N39ZGiNuNpifJFKuiRYYCxohvm99H1scRYE2jV4cxd9r53/Lo2hwv/xJIaWTi3E4dYSQcoAX
+q/+cZIc1XKag7Ld5rTJCbW0J2shys6b9Ql8zQwt7NC4S4iJcCSSMcSzIwclKlDC6UkonvPdi65mU
+smatqzG+1awSCnDU65uUDifejXig60C+TtEA3c5V12DqbrwpqjeabKVfGqW3n7Q+vJYlGmw2XOgh
+0Lg4FHcmVkRSmm4QXvw5iN9X6vxX+79X6tV7mdy/V+r8qY+V6syzUSrF1e9m2vlc/XjBoOajvGF6
+gBrwzhD7sVRNmAb8U47c/0e0fCxVcyZhzroYI9f3BNhvyWzvrop/nMbEQehj4ewH9fzeNPdJZhMN
+FCCzztKtSnz9rcW+W/kGoDrEdanvy7zHRSXnvY25U7yw2O46tr2B7U/iXBo6+8g7a4nBfgkCfqmx
+XWKXRxBnA50049SyoRaGuW7YYAs2WiKTV00RXVQOPsvIa/XrqcWgTiERG3SSJ+XKaszaebXCHvFY
+SU+adPeu1x3cTDuGZUUTlFMvmxELIsVii8h1voUjrnynyX2zqQ78ws92nT8BzFzWpgqpqFzFvXGo
+HeUMG/I8NMOFFZv5ooimiBKUdJWY4R333FWOGBBhnHDL9BjrybpX1c3INgL6qrxXGuSxMF+6eXsb
+G/U5behSL5jYJfU6UEzOoVTcZm790KfMBykGplBTmtjzMAPDAsvhLlZMG/K8N1eiNXPbl1bJ7yor
+k9w6Dl3t7hjelwugYw5ekuBo0+wZKfVN65acqF51mppm32n63ksZN2vNzquVk+b1d50b8R+O9bBT
+1HWsxUfoX6OP34TyYSXf2gUFk3XWfk1gvzWB+GYkwSrXp6+uFhDQhRPa9IXj5425zztJn7x2l8Qd
+TsD4FjfOESYXQeNAiGKXa6yMKSclGxT3Xums1JTOhikly6wq9qPd4yiZgJ2qLVmSvKuCtS3tdWkE
+FD0nsMlUgyoz0ZFC1sLpVWiBQfsl9VOQbFRwn8Yh1GBVmCMJZaFyDSgt5MOKnqsEozMgnn1RGAcJ
+9GjV67NfJKhPUZ8AILdnFRFRSrG0eqFG5j4w8cHaFP3khFnXVQn5t6XM3p+keqNJ/Vkdumsp3Msi
+Mh6SMbjTE7yg0MDUK2Gqd4YCStnxyDSL0d2SRn5j4vWaJN690zIAVuAiIxwJv81nkdY1L6ek58eR
+ySP+mHzpGAyfBzwG5HTxx7Yjtrkc0TGqi32NEIkocaCCEMz49ATaeq9agXfQGS0tdGeIeGiRakaC
+x+FrcFspGXZtDK2nxlDE7Sqg9vo6clt4Pt5GhJC0OTUuTSfKkYa9bJlp4dMog0vFk0chsxs3r8uY
+13lxcJvpPs3rG3Iur2nNrTMKssfCU/n99Ya1psftbBaR8P+cC9/PBR4t/3Uu1FUXZ49584uzgU9+
+nA1zaALRiGuCycSXloMfZwMISYguJt1VMz/wJ0aX/RdPMXqCwWdBhni/+3ycDYQJZ64XNwNuAvps
+1vuNyh+g3f+4xzB3ISYIqsJGTZsluJ9fauQriBLbqtjqwOQXpOS1RRLiH40nr71vEn28VYYxeIS8
+M+541+S+ZjflhaUE/alJHSaNAT1tfhVYG/mOnm+2UVu9OlaLEE43oI51o0dX7+Pe2eqk1tuQuauR
+iVeDmWIvID5iLwcDa3UHEvzugpa4+xrAE0p8cGkX1BDEw0PjDuFayJ49xF73cbWVunpQ6BDBFUdj
+HvF8VTZE7upb/tQN3xU8aKMvk+owYBGp2T4nTwVUQXaZoymIOKbe+sLdWmoN4924FHPUDHWtM4al
+TmMjnEVfj+wLR1II2dhr7OmeqFdDl6/1gF4/d9kzj3DhQ3hW7Pd1SFE87g8wDHqorwvNeOxo0IkS
+IpTm19xh4jMW9bEq613N7MQ1OFi6b0kMbSGhaFGNk4UZkBbsMOWnkqSjhkGuu1A09WQFGUlBkDCl
+TsWjNlFRHlA5kEd4E2lqoW41HQHQNCT2otC4jBV57aGeT1m3bfXqotW7fYzQRc3QwlK7dZKIFafS
+dZDpubdBKw930kbUg1VgxmtMOs0qGeUxLaJXql8gyKuXg9FjSZL2SMJshjg226F75mY8IWrl921V
+3FWKe1dohAdDqtbYFyFgNuWT3ZGXkRqBQGhAoN9xqKt2vLBHGpWE01zrGecIG6Ua9bumya9yx65u
+k7qjjHUUqc1ZR3dr5R0Zej3n0tMWTm/ni1INbqOxfWyz/EmQakAy+zYG7S0TjZU6iENYz0MgsjKQ
+lSs/zryD0vETD8pDJt0lEprfenJZ1qLctJNcjwWQCQu4IWwlkjPWwijs2yKJltUAeMPGJxA7pFZ0
+5dC0rz0MHoOiQzofcS+QrVNGu1wUXv7QF+nDpEx3gyoom9UphqjQKyk2THCSJxoh2155aIS87Saj
+XdKN+y0rGxCWWvTwZzP+vhn/p+vx6vXXdc+zk/ljI3b/wt5M1JqgNRFsfIo/NmKPPdpgwGDgrJnn
+DHzq85hB4ykJgBAIzfv2/WMjJiLHmEHFIuO879G/sRFr8z77+Y7Oe5Ihh8cGPZMcPZcj5LNiNhlW
+OLWR0WP0M430stM6lxbcuQOQ7HakUnprWNU36iLs8iTMwGiuC8CDr6acxFJ3k4Rv1Z+l9H0p8Tz7
+j3M9bttfnOh85mMhganjGYUT1v7/JfHx2gNTN2cgXWQJTFNYJ34sJNQHDLdsaHho/15+HwsJxBM0
+IGxbDs6K9ynXbywkFt8/VhKqK+ia2abhEuTU9PnE//Taq20HBhjdO9sg7rGwswVH676T7Qa7BWmY
+ynussUZBxQXsiuxJPU1XZisIm926qcU3xvFvth18K8zisQXqRrDf5ZSn5blimsQDhr60ifFyu2NC
+8DXXALiNzTlPufRHUUgvmxh2kVZ8Tc2IMt8S6iN0oRMk/m/amNeL1uUlZVpjipFIZvswT3Ou/8XM
+eJeEMPNQouN2nrGh7mg8mwL/bCUJa5n+ZHu+G6hXmqslvhvLyU+kfamVxn4ohjfLzvZSEO2aqqfM
+xPRlwWQyB+uYTEIsytA+GKmk5TxT72wn2suJbI5UeH9SQm7E8sEJxBwwfLMrlWdhcjUDnPMaKHE1
+fS0V9ZRODhG+y0Tjqj4d1FjcDIiYtmI8huZ0PUzyLs04/HLnCwbZfc40alFFTrtA+d5RhLBl2Rw9
+rR18JkS8TuVZmP0y0d3TEJQXZtxsZOCEWO958RVetXO1XGJ0COPFZDW3Tp2cFWVaj3JwF603bcck
+AXiVngMMI73anWYJWKI4L4Kadyj+u31nQXIoeQQzKuXiRglynKq8O+vG4p1KF10YGFsDazRZP7kP
+G52Oi4A6RksT+Gsok1BCCMRA/oK+o++XZFppuueMUjsaYQil2bjwNlOZ6QvN47Nd1lwVSXqMQrLf
+XuRuW9ur1nUR7AsaUrsd5ua28qNOOSUZLp/Q1ltAFHh55BQS2VCz8cLIcR+4lWLspt4CiJf1Q3vP
+vzQTW6R6JbgotQ5C01Td2hEB1gD4ot95QAxN3YLJzG2dR6rS7yo2xq9D56Zfqrn5zmJocGHmCcyC
+1rN32ig77D8Bg0zCHWyugEWRRriGlvaxzXOs1N6xtWPATtOykdFuULxnPbOv9UnfJ1NC/FBhWSYX
+ai/uR8KGExAwP6KFcKAPlu8CGIrOKUt8zcEtvzZkPTKHYjxYbnSqkFBUSe1h2A9vGh1ZIGxBSnmq
+pBcEVpde1/vW9C6y0L0zhK0QVnZPXRDuMy0haQdfJjWV2z4E+T7QDBkP8RFhkS+VGGs/7YvR76do
+VTjiUZTPFgTKcETht2J+g1W6ZSuhpr5cNq62x/qwsj3uytHI0Nm0jgGIQ5K/0Hww1PNFtOAhMoOG
+tFb75dQxTFTHV94IXzlqtnmRw1qMXEE4RtMo0OMmrFJTxLBayq2h69P6z2H0/TBC1f6Pw6gQ6S8O
+Iz7z92EEKmp+IKocHajaqjabE/4+jEjycz3hcUfiy0FM/HyrmVFRiOtwnr8bK7jw/DiM0DOYG9oq
+h9L8sd96Xlqckz9fa0ymf6ijPC7fgQL/SHOUVSDmEh5nm9TW0mp6gPMNVDkoS2Z2WWDLT1AL+QaX
+9SKpzemQtYm5nkbNTdah0wUv814zsglLy145kWPfF1a1RaHKCRMl7EKZuI6nYhfFbkb6O2KyKNJr
+M+58u4665ahhJ7bSA12iPob3JY/YExYPFqyzKavMWNSNfumW4VKxxZeK4fkS9smKPrP7MSgeq4FK
+aRkvAmlehm5+P5d1elpKILptHoh4k5Fq3vLB3DnUJaR6/BQU+tGQPVqqt+mm5iUs+muN11gAqVMZ
+usWU3DIyfyh0mtuGYxyaFJGVnJo8ufVu3VKSYIjsGjvahWIGSyiN+5h8eB+8OMaj8IRPFcXB6VMQ
+Mo2f98mCLQlaYsX2iccplDdkHZaSN1akZkfoy0u9mo/vfm92jR8Erq8AgNM0NDwEyCmEOyipZLAm
+bT0V2saVzTLibQkLeWuo6TJLtbferU/9lO08qsvSKd5VXbUpsnqtygKJlM6WQpcXHspA21C/0mFW
+aTT81O0Ar6FewStd1/l14+UzPS9dRYSkI+DYIRWbQVMC39F5vBfNfat615YQx7g1aL45GpG2Cqz+
+S6Yp13pt34MQpIpPX3fuY41Q0ZbkdItsX5UjbEf1QI/Tekha35GgwKr2wbY5m2PPhvUVLjXOAqgo
+PDkF3YJt1z5PnXuTEDOOxloskPTPbkkxgtWfOtiy+FA341ROq666bZKnmlVlBE29tLJ6MYiKqGEA
+Xt+7Szp7GUUY60zi+jHjHwp9CBZrXCWqvZlrR3hiq4m8vORoUvrimKv20i1dv2VEHOYA/oIKPyZC
+a1OdwqzcRsPgi4lov4kHTnUoSNpSJeC///3bj0rkbCOc1g0sl1HLaUZ1F7aB7d5EM5QnOE5HCQOt
+MKadkPa5ddtnWqEWQ6NztyLzV2prOikBCaQXGnJ4gCcGRk9aH5RM3IEisqrOXpnWdV6nl049rvq+
+bM96WZEL4gYh7jTxlKpkqLI3qQ/rigBMHBFgHzxe6dKPHXdtcEkQhQKf8krnGlJUL8JJb9rA3TWl
+tUw0mkUwo888iz8Hw/eD4T/NdefH/KUQZfSLw+GTs86jowZ8HzAXTZtZtD+evK4KkgzFjyzud+zY
+pyevhcdbhW6tEzb5+9z4cTgwkeWxSwuqyVyW2MhvvFS0f50N/GH8FESSScBwS+TH+/xQGQ1RdLEd
+jFuQo4SxbKNvwuvSKRLoEFFQm3JV5glTqahRLXEcEm96y7taV7kFVenoCpJOqtf5hjnW7DDw/PNZ
+aTfd25BE8Z9l9n2Z/acL6Rw/A8XNX36xzD75kLy/oFE6pMTfoUDvLUkfdxCWmUNufF6FM7b9c4Ov
+RRwdwYW/dsx433NOH8uMGgpkcWjitoYniSfxby2zf0Px5hATaQZkbFY2K/fndWbauQkwseu2Mmlr
+X+2DcGk3jORRWrbQ5aqbuKT4mWBitbJq7XEMg4P09AMOJHbbRLtWyumSitjXTNgOuSDtiuqNldK5
+3HkzgDvcotQdr9cErlW8rgcFw38QplcKaW1uKa7jp2QDwT4yICqpi5N2bzFUNcC4ZdZCNeRN1QYI
+o2FCYMhyN7FKFzcJsGGRNIq3kUbsrksTD3/ZljPMlhf/SjRgfRaRpNbPk+PGq6jPaQw6SQMUSQIR
+by2juIWtQ0Gfc352fwXwr8LnTI1D/x4GrKJwrc8BQXoz9v0cGbTn8CDh1GdnjhNGdMIvJqB+FAZ1
+2qIldUgeN2cbz8/qHEhUMuKdc0TRnMOKTeutkzm+GMUB0dNOpSBd2UQVtUD4NdR7qYztXlPD3rca
+SJuKIe6ixmAYqrSUTymbds7lW8Qe4izKL5I5s6/M6X03goxRzIn+es7226nebJw576/NyX9rZgB0
+Kawzc+YCkNuMlkRw271jcUT62TtCoCJxzsTZGhd6or6lZPEX+swc0Frzpg8dLFGCrGZKY5GnyVfX
+i0ASl9QPETIhnq51xqJ0IAIJRtbzrQnS0RB+1cN4vC76yj4rXnGjAqzHMN+MmwlG+4mYvLnObO51
+3URQMwgr0weRRtogDaLtGHMvIsYKDBGyM0WEXiEWlUPBawoeCpaTk15lutPttWa4ZJ5ZQBB0o8uh
+HfEr5fLNsKPxyjAI3Kaalc7OLse3Aj24sJlsrNIpe3L7iNM6HR39ZJDv37l9aV/kVZldtaVerG0V
+HnKVOk3oh3GeqMDvEq3f/tkxv++Y6Gn/+8V2Lp5ef0kRNfjYh4Losr8xESThbhLafB/8fSiI7KV4
+4SmZ0KjNIZXFmfghRWPdZN6nYzJhE2NT/PRom/0inm6SGiUPP9vUf2fDJJ/+z0ebxV5NvIugP1RS
+/E0/b5gWQ7NaqaxyO3rKgfzHru+yTatYe8h/YMziyzBPDrSv+iLLT9INdnRCnJq6bhYjfs7RzUis
+W0dcyjoG5/JUVgkZaQCco5w2fWm9hGp9CiKPJ5iyTih4UPTsrBh82QXGSEe5pgriLJrsmLbOFqns
+vkzUcx/R4TikOzvKt1PNA6Yyg5VFdU4+pbCJacVSBuwGiHIXoxtcDLNZMK6vHLzocef6elBexm7z
+1JqW71KR4OjlWrrQuGirQdMqlkMDrq00h4Oro0KZnli2OQQ5hmGqxZc/rFaJrd7mpvxi5uVzMVK8
+Xg8bxfM2qcvLSvJHRco+rSw/FtZLKtLD2Gd+VALObPGZShS1cdwGZnQj6X7HatqBGVCXPHyhyQ1n
+gkFiwWTg2MzxK9Xhf2i0aZlm8azY4xU0rU09ZltL6V8tFXBW1T7HnbYjwgaF0ljy2GX8yT5QECCD
+3booLOMo1OrkxAy1eIC/CK96dNppN4w9NK2ErBc/yzkP3QsSeNvIMO8Ep1GVpbjizeSo0EOySQuk
+LoMdY8SOu6hUttBkaACR15tsCHN/DGydRyg9H0VJuc5oPpU6bXVtGD0MZXRX5ZBjQT0vjKg+Z1H5
+bMt07/GXUbgFzylsC9hgyKbWTrDVu2rLzrsBW77GRZr5NH7aEMeKhyyJOh8T7Law5LDILHky3fjW
+lKi6SU+IKtBwX0BHhRftXlWW9RrnLlo1RvQON44GGT1IS5pIXDTCrLm3hLOsqvrQkmqrbPNZjc2n
+IdBHZoI89SvVATxHVQox/Su74ZfR6RnqJjVWdHBY54n87HIIhbIzXUmprawf6WwP5+rugnJDTSz6
+IQc9n8a+66jTIlAiStUUcBKunSwdEW6Kpl+idEMaU+7tXL8MLEwsQdNVKxAvL60Tf3PBfS4wQF83
+g3efxXD0C6faTIV57Dryzg15/doIVPhoY6AunJT+uwSBeGWqFdR/3XmVGkNoL4wezchVw31Vl1G3
+bQAYFFdh1jXmlZvE+coIx3WqEoligcR2vg4NqL4hfkO/TRuC2BnxNP3YReRQcmKIWlVcc026yKYK
+nIDGPNpe4rPdG92cAYDywoO3bRPf9DoIMkm7yi1+rnQ6MZuO9EeMVMaeQIjcM9cvNiEmoZUYJNP7
+3nXq8hCZQvfuLDPKtO2EtX26ti13cv68Fr+7bedS0P86lJ5TvO+ksf59kZ8/+XEu8V7EAvL3nfsz
+lGB+LmJgQV4kj/seHfhxLM1FqMQSPc34XnbKzOvjHg+vgP+3zjV/xj4RCfidY2keW/00IMUoAxcW
+ry2mSGZs/3gt1lEeQFOx4IpQARYRmLEjcU0JEvl/zFeyHF74HXT6kVxt4x3JctoMT8ImM7jv/bna
+vF9t+Av6z1XUP/6i02D+0Ica/Y4Yo+GGTsKfoBasH+AUjN2ZJNh0Z/0MFkJJIE7+HSv0Ppf/WD8w
+h/A6fS7m/R25QZuvLf9YQVxsDMRofOBgyP4xGJVgKa2e8MbWjXWSaDw3nNeEARPPuDFYTqqHOhrY
+1H4UzkicAMtkm2dfnHTmPii0yOVwa7CuCHGd5vLbQCHAphY5uJlKa9T9JEbSfFpfrjonU9Zdqw1r
+h3yMTy82W6NZPqMD4rulBX5B9Va7RSE+KHV3zdPSZEO0b2s1NhiUdaQhXDXD6+g99jUa2yjJTbDh
+P9ET4sWLcRwtRkzDNjf6bhFnHXWDOr16XDiTZWu2NIUoznOsddESVG+8aQLlocubJwa81rJJMiAw
+8TiQ6IJqiGHlUUeY42V/AiLBVk+NeZKltKK0OeMjAD1rghcN2NfyttT6Iz9Gv62r6lKlJj4e7Bt7
+4FGMw+qiUOvbalTvBje8GAqx7Vt554zOeXTHW0EGuq7INrcFLqt6QFSceGD6Zhe5FMNU8XJKUuDZ
+VEW48Ximev4645uuzPVho3tQR5qJG1sqi0BrLvWuv9f7YK+Z1Zs5V7OYWc7gt26qTMPSHLXTyhBe
+A+HCaL/i+uXVJrPch36nrvUqwro15YOfV64TEoIs2mr1Z3v4vj2w5f7HIdO10Wv967Ztk09+7BEa
+6Bvd4DAw2c6ZT/Et/FCL9L8YZc1yJRSbWV38yT5BgR92SR45cx2Jxpzrxy7B1wHqNKAaDqLZdPE7
+u4T9712C8hX2HPzyHDeEPH5+/Hi9EhSA90ySnXE4LIqurKz7ZlAzuqgA1VjbXPXKamm4A56BAHxM
+2J/NxMlmK/Y68MhKJh64zzHY5KnByMs9llbmQ+VaqWXwzal6JsyhtRqn6JAJcQCqqi6EB11qmMqE
+MbALBdCxbyZpnLQoXmlj8tgN1SHS7U1gTr3vMTXHd6BUCydrVXqICXRxSb/qXS7jdtfA0o+T+0YD
+iazJ+6Kn3VQRuzGxILirwwnmUAlCntqSSH+riulSQM4nxByC5guKLPZbfIW2Rh1E19VMi+z0brJ6
+k8ZPp1zVFUKZYokVckvv94ZAQworZ6kpKnXXWKx3CAkCgiw+UlpYssH1w7JorsIgT6h9SDLqoCXB
+fdcTd6WHYqN3CGKukhv8cGIYV7nadvwZfp1SxTxpVbcFUW3xmkkGRilcQ12FudfQQARO9OhlNNmz
+YcU+kKxlax4JxPWJ86prauzHysBgnIAZgQZxU6bhMdOVb4PVSSSWbN8b1QW/xdtGWoyBYDVMzvjN
+KaytUQ2Ppa5cDwymUp0nj+QvfzEAelxblUuFdG8e3RgMUTQPwCYmYUbf8nKKtAtwPdUqUqZr+Ec3
+jjOs0sISO+AeG6trH2PRnsapemn0CF7FhD5X1PbGNONw0UHnSBXJlpY9V2414BxUbvSxTPHipmsc
+3sMhKh24s3juF6op39pQVjzWIAqXZfsYVE61duu63lXMMwuwm7Q6dBxYdnCvepKqtYk+Vmmk2j5W
+o/1o6QrZysRZJmZDDUSAm2T40/z0902b/eJ/b4I3AA9+Kf+YfOzjmu3+NY9j/p6ufL5mA+WxybPh
+UOSy/ffe+KH+YBKDamB5tgUZ8TvY9WMDNP9CovmR9kVk/40NUPdmOfzzNYmbPJN/hG+POxs4WAZK
+n8cyoTpMfPVlvrWaUAICFVERnYy6bgk+NLq5osRZPUYOHWNuP5SXpiSqR/8RcP2VHiejs2+MGr1I
+zIDaFZxP7RgUWrhvyfGdKzjXW23IqQCUCdeKsM1VayNqGOi7eiiocNaiCuONWmaka2hNVcnsFAQt
+UjnKpWH36bFV6bKR4ObJ42TxQtASULbyq9KgDrjT+FV1gi/T0J74j9tDlrjXlOigDNCzhwZSfmXU
+L/Q+aYe4yO+nnu73uHEB5Df9zeQ6h2Aagfk7xk1Jh9RSzy17IeABLcap4Qk+osooFLLKJLptYvPa
+KByCF+rDKDAcUFl4TGoQ7tGEpI0lCZ/0dOzD9rJr6ztT2AynkpsQCct06ovQDg4WRYNugg4se/08
+6S1C7Kjj7HHgnw0d3B0IYl1NvH6qx30c6Mspo8xgKLwXLoQvodW8pZpx2TRo7H1vnvtpumwK8ZC3
+9tnTg6fG7jZOgazeQlaklAOnFLY1E6NOvGts5QV2C0XcmbvWaqBsMhe9L9J4GWbSjwi6+bbVoR3o
+N8LWx41aR6/h4OxiZcboG7AZei6sUOAXU2VsJq94al2EpXy0feYTCIHxsJms0Fs0o3sn6c/y+w4n
+UT/Uay/Rb4HYXXcav9M4Sw66iSwUqXMjn53ARqJf3iKLnBQDhGASNr4zK/xdMp37xEJTado3Xg0o
+hgkLgX9hLXB+aQSX2xgf0qiF9wbLqTSb88iimcqRWpu648TQ+IBRuEthaveGjnTpjOFi4HqMs4OQ
+lHCOrozWYZNfDNbgj0l1X0j7qFZWexxr7WGq+i9ULe7KuAWpryeXiRU+qFDKx6A8EFi9iCzlzQCr
+P3sZ77hux3gEunVQoq1NRryEw7SWkXcDPDT0G63fpS3qVytIk4UY+z2R3eQJQYzKPCWmsUoynfZI
+UBoRapnlJXdR1AOLowt7rjQrOEY4q8mHOw1oLGDFWtpcRExNF5SPCyZQQCgVscUW1y01YFVpZh90
+Q7mpFQ4xWQ9IbtneqeJDFgxnomjnKSOE7ijeziTjnlSC7zFpwBxuU9BZJxpu/Glw9rFNt3aGhQ0J
+0VmMbXzWQfl0Vr9Su+lc0hBaY29xunSrlUy1ytq+9abgMVLVrROJZaF092ow3pGyOERTgrEC32U2
+OedCVPpCcfOtcLujFMOWQhocE9XekHz/gjy6S5UUCKvYO2Z2HcXFNQUzB7Xvt7gZdiRpqGYLV01u
+8RAQl7W8DTv7bNX2SS3yYxkFhxo/a172MZELuap6gxXPuAke0LrDjpSKemubMR7WTnz1EGd7OkSk
+3t0UZn1BU2pKj2K0JvZ+XXWo2R1cea+AD/Ln6fD96cCw4j9OzeeiFTgaOCL/UZg4Dzk+jk36cw1w
+dCoH02yRn1PfP6YmUDCIMX2aQP84N/HLqx560TxN4TM/Tk2bWQniFArV+zzld07NuV3x51OT+TI5
+rjlcbpClAqv386nZYNfXFddstqVGtqSCabUo6SbxHQqol63G4k6LMs42PC68R2HosDLxyy6m7FtL
+PKj2ngaaV2p6/eL6m0DS7bMvxQBoO7yu68q3gWOo8yTli2e/WMOzYuBQY5+Z4H/Hd+qMmkxuBkOy
+D7Z+k1Jjndwr0wnLkq/rb1bJSLagLeyrotIQMD119W2C484yzlFwHad7Nb2yp50bKMu0RmCo+gXQ
+H5cZx6Tt0/TKVIHpuF/xM/kDKaQ+erOo0v0/9s5kOW5j26JfhBfom2kB1Vex7ycIUqISfQ8kgK9/
+C5JpSbauIzRXOK4nvEUXq5CZJ8/Ze234ekp4bVUXs3VImyvXPU/jM2kZyuTT8E5ruDnI+7AhNmjM
+C/oL4k7iBJvDDBOQ6kcgmFMUrWr6Zk8vRMitivlxwEobdVxAjE+5h8FTv00F0xNitorYJGvtJWTI
+VNe3uXEc7XtcZoiO7gqMYJ39hvaLsGLWerIqjDeNGFc1vlLFa4osJHsT+rTzTMB1GmT3V73juoCO
+jGET7q1lNr/KWpyl+iEazk1zR9xHYbNDghpmuLCIe+crszypYEDsjhQYa1M2j7G296Ttp9XNoNd+
+m/CzCIk6/KXceXbluVdOgp24E58r5a7SH8fozVIEEu23Ut9bE+EhJGdVd3F6qfY3jn2y413cvzry
+s0Ee16j1m3x6SUbwxy9Ze20mb7p2t+TlxgkQnv6cx9GqDJVdNd0MDoe8cemEJF2mh5AhciPfe+dp
+NnNyb/i4lXZVDIJv8wTQDen9PCm+ghbLSV/s4qasr/JBMkN6so3A7EdYyzfMU9T4UkGQN1UvQ92t
+u6oPBMB4Dy8gnldsBatChUNK9FphlEvICkPoU1U9uzZa/rjjE3sr+bJyR8Jg4UZj+kJ5sjhi3dto
+eqAqRIjhz7jGUuZcRfw62/dyAt5XfAnxeovpnsg4wP98Oe7DZLsr2mj83iYYdU6WytfUN7KgfAJy
+/cxeW85rm8C9Gh5767qn8Yu+ORjVcK/XbwOHfEEgTKaZ28l8XsiBnXElInU/GA+xfJbt51xAK7mJ
+xsWy5flJXrMSDyZ0585l9IQ3kGzDlL9W5xstb8L+JqYbILM0ECWJ7ByGRlLvcx6OihmSO9736cMQ
+Rb6lPtZjxXhkr/Ip0H9cOyzyuR2D0LscsqdGRfVakTvXvCsg8fIdnm2yngXpLX1yOzvvsvgyc+0L
+Md6pxXOWvk6KDvUqYQ54whZZle8tX1wOVatAcqrVbwbom6RYJ9HLyNcrCOqICU7q2r2ZXdnOtgS5
+FfYHWWlHWnS+Xdzy+wYdGV8Ctgu3YvXJqy81cz7EyXmmOInhnffD3ZSVF4V8Keaj0XvHsP08eTcE
+6fkJYt4EHYyCSU5WRzfivZ9jMhzb7OiGydqBLuuJUzk9a2EYNJgBY/u2JEK2SJlKYoDoPFB+8GJM
+NLhmQsZSD649gaqN/AKtacHolLUsoc8O7JUjHzj5yvygjUfkh9M6yV4xnm+7/qGzYeYosz9Bnu2K
+i7RmdMeXrnnVBnDwdiRAxvPi3VR0zM1eYn6cj8e0ei0FVDYrmBVk7sVedk9Rd5uaN7C2AsEThQEx
+Trk7518qUniEcx/lEwjE94nwJoe7Qt7syonQnvdGEA2eleuhf3cGbdcrKfJjzC5BbjtBVodPHtCb
+m6GViHd6/d7qw6dBKTAeFpq5GYB8QQtY/kV5lYzhxk2yIKmkTR8ZHZByUUX6Iv0hCUYW+8iYjvOi
+FEoqvyans0+Lc6GBMXSadWGXe0Qna82Ra1F4d6o3HyZieRvTDPpFeTQv5KQq2Tl5vRYjrlm+NSjM
+xwUN0PaL61EFkdjn+zx+89iucnXaDpjeJf6MT4NXmVczMqfUQshqNFLdI2DKobvx19todjzlthZt
+oFVfZJ4EtWqSrTbeNNN0BnnPqhRBM9FvQZDbWQMOWUqxGPsM2Z84ZHdkY9LXudPEowZVmdDNlaZ8
+rrEZaO6DUJXtyF7UDDthu5soh/vWWfUrptOLpvRKP29iGs4jyKcBnKo26ccEzc3GQeoFFeKO8uCz
+l0ycyqixe52k+mgiy7RlnLRGH7a0vDMEaassNknqmmTCVWAYy+JZHWBJ/anzvtV5lD3/Ued1r0U2
+/aLK41Uf7WEmjRYqFs1w/6mNYYiEXJTcwR/mS9+rPFQPMH9cW/0LX/Z3nYfOEJUrP/477uI3uiP0
+nP9d51HmqYbKNdZiFLm0j39w13G647Ysh3Fn5aLZ25bSsXd4VC0ONUSeq0+8e+CGrV37ZeOl72Rr
+Fmco/fa1ESrazljyUkQ9XcYycx7qJUvFQGrxJJFQ7OcGz9Rg8Ph5S/oK0OEEEQOJLABpaSEvKS2O
+zL+YGuFwUWpPm34Jc2m87FNuh6dhiXlJBatQX6Jf6iUEpl/iYPQ4H/12iYjRyIqJl9AYb4mPCRGK
+YEvSCn2X1kI1FLqGMsMLMWzNNtMDWOllUCi0W/Qm0QINAYhfD8JeSUbzPo6UBzs1XqAUxr7AGW+E
+PfCYFDO/64HFrCX+LCkpWNpCAWNM9541LnaRDN+niI1FL3B+GVH8ltdV5Jf8yWu7mj95CX9/bnS7
+khR0cmqnFGw5gMR2es6t6M6rCuSVVXGZtV0Ditnc0vttVoXW3llhW+7idnidbJP2c02GmlUA3CzG
+8FaLimt1Nm/5S5CepOalbsy3nTM8oDN5MMz2XEqg794QywOoGbbakXQ1XC0IAEUUKJX2qThpuU07
+aEA81+ASVwzu97KO1JNljM4Ku9etNUwnrUcEkcbmVZU3pwKAm193mbOin3UzSuaCkEavtSwjD61q
+YagQ3xD0eneyTCrzSqUYIN7sNtacs5A8KX1mVwccV9PGa/TsT0TqXz1apkP/tQuV6Xv7i12IV/2w
+CyG1+3tcjaDu467JLrT4mVxUEMA5Fi3ET1IINicd2y0Thm8D8I/bJlIIEOxYfx0HHzBnze/cNhcV
+4E8tWvRnNFUdnXhURlXwzn7ehOY5HTyvinXuC5250ZJQ689VMbbZhd1CQTpkZoJUpwhbCBJKWVj9
+JYrDZDzLJjFEuzLzOr4EOzNP2z/n2rdzjev+fzxRffOrXLalR/D9gTKRZ6qa/dUF95NPTyWMF/qA
+ikIG5g/6hJ8eKF6AGwPhuv7z1JMHihkpzCNOPEQTvxW69O/MJdgHEAxggxEJpSMU+Pl56sphGEal
+t3aqTuCqWaXEUtOS5K5uGXdhVFJst2Pvd7UKgaMi48bsEloUVkxxLcyEsg8twZQgyYOlgR9JV/e5
+ASfd8CDU9wv/RDEUuUL7mfqdqe6yTrrrpEE37mZ6FlQo/na2GzV+7CGiEOokqbGNmL6yp4NKr56F
+pkxB3bikoU/FHYFmez0sPL8wnctGlBsv18ddD3z4NlHq+rpu43QLl/aJ8EWV4B9y2ipRv6QEhXMp
+SAoYSs5NGArvQh/EPrNglRmVdZEvN5MyArQk7anwC3V4CS2ahYZw+5rAHCUer5xIkhCiDH1ZvDR5
+pnEiCt27MqbBfheoMLhHdqBOtNqUdHy04kEdy/iGU9GZgqK3+40ZphlnuVN6ryAA10aH/lorlAdU
+mw9133B2ddeiJQzIkkQG2SUYmLkyVqarP6ilvVWccvTdzn3IECHeS9QkOxLU9l3mkZvJwFaUWlb/
+qVb/OifY1v9jVcvX+Fd6J170saoNwCFw/RZ/yVcCCPv0h5aBpAzLIK79q1qO/fl7pQoGEE0Txg/E
+SF83go8zwoIVCO+cYETuGV/lD79RqXIU/OuQMDiLtMVbZRlMyjiofqxU6WaPaObaaO8YIZAi7Jnp
+oyFESpQPhO/R7YNIm5/qPuUW6xLkoFrx525UMgh2A9c+jQbhNNPnnrOGTAnVDBTQQwuz9p0WXrue
+dO1LrdKC4Xr9FMMBWtkSAFKq1wwKdJg3Lqph3xrgoIt5fg9T7Oxd42wZTTGlt0GfuyKJ/CQjYbTR
+nLemEVDrXBNlkiDZtSJ2TDOr27hu7dUsp7uhNJ+xypbbMnLmTW/Fey9t7Weo6IbveOGW6prNaRoN
+gEMhZtOq2Usld/zRVUr2FeuYG6mzhMjeT3CwIWA7Z8fAT+N0SoInhvum1EZicVH6MofacOF+a1P7
+NVNapCBgfwEEtLcWscorlAuM0hrvUvZztSl75TDGVOSj03RrB+FDNrrn1I3oo5EIBH+gum1DpAKE
+ECybpA6+M24OSU3Dgnxr7Pgawct6fcmkixQvT/G4Rsg8qBz1k63Jl66Yb4iPqP189OguQu+DOqdd
+DyVeUFpadxrQJkgV3pspZ9pEwvJWbFp9oLNDLH2V5FhLen+hXj46WUczyRyZAXVXViFxKWeRc6lx
+uq1kw0y206fST4xawRUsX1TL6oPGrW7afnjIFUPFCW2xJ6nquLW9MQxIDKE3NeabTHGvmmE+emAD
++bxNQjVhhSQW+13kTPecfamvp+7kE5dGKkVjyc9J3e2skg5o6GT0OLPR3gubx0r3hsofKu1qiNGc
+Yx48R3ptbUhJwdCrLSnZsCwwwzZ3it7otL4Jn0UVHzi6+Tg6pbG249g5qPaYBZnUaWIPmp9rg4rG
+YqIpGVHl66FZ+VUZkxtutevZrZ/qpLt0luPLGSd6VApvIVF5ODnXXofB4YNhKu9XVncSoniVBpPr
+JrWOVtJfyShS/XEMn+LKFcFYhBa2rTJdObN4xF5tBYObip1ltnKVqNURwGG8tpIou7BihB/0TuqD
+50BvMLU+XEMf1pDCxdW67kR3mpTqPIY2R1inCQR0dgS1BVVLlZNS0jPgRnXibsu4yNYu72XTq1BH
+MijbQVxLmI55ebLT7l4m08zKgi1vDgIlTw72BCs5rvN+iC40BbaKW2MXDlWp+tOMiSuNXI/oVVAh
+3tSftFK5NkYveh+7aNjCvY1vREQz0xO1vfVGT3sz8udEL66TqXzNAXZwwbIkJk17kyPKW/Vt1axz
+MzpPdSMwQtVW4HoMZWcumXxO46cGlbkfq0kG1Z/Hf6iJavSs6QJs4ZXXeU99az86AuGPq+XRidRz
+gg2y+26QeONVnHMt4TNmaZ2VMo53KFrKM9sYCSJ1tC9CRqRK2n0iyiDzsZzBt6ymgsEs1YnTbWUS
+0kZ34nSVh+QfF+ElL+Dx1/Q/gpi/DlEEcv/7EL0D9NxO2fBKB/8XVy5e+3GW6v+H9MxTrcVw9Ffq
+1PezVLXgKXG3sjzN8X5WD8Oq9zg3kaYvtTMn8PfjVCXldPEVo+b7ajD9jeMUePS/jlMOeTJOCU5F
+3qzq/2j8OCP9J8XqPAyTg5CM7RWz3NVtF3+uVIH7n4gOtkUOUHZ1EDxxe2WobVDmNinhkg55uLEA
+BFUJEVf9pUUTQXGH28mNtot/iUELY7cWu2NBh3c4SzKoqmI6YRFdm068HplvZ/WL6eWbvOsOuRDH
+AcysZedBRi8qclu4sPaXZryw1Z5uKTqaqkZDWAZRhTxeTNuahx7ozqZqzi69bfyWa3cmXQ4uwzR1
+N33j+SpUgYYF4hn1MU7pgdawSiHZhzI/qqG3djN5TDtj46jp3hXDGnQPLedqRRjBykRRbCTloVdJ
+gtAIBI28YI5SBjygcvvmXmj1WrE/J5G8Se3sBrorlFt9C9F6bWXmXenpG6vb531x60lxKyVnoyj3
+rVpvNcp0xyr2WVFv69BYq2UOG9g81WzsWuqcaIT7ZTd/Tl2JMIF5J+/EbkyY9iAjG2xoSnZMQnE5
+lPq2MOyjQNkkU1CDKtcdVCHpwNyPyY+c24NVs8OWxa62OxxjdNs47fXKOElbhx+CUhGWUlVel5hx
+4yTzmylZW5GzEZx4oegvFdJdFaVbTRZJhtHrnI1U8QPMQmdrdAJ0d+GHinrrRcBz9OmKx31dOMSo
+krKiIynJkZuaUb8NKX3C8jMNuYPe1LtqYMAA/EGb5a4S6NAT6ph4snf0ItcmDpqwlAEqBwYo5RZK
+B0M6YUzmzdCH8hAJt12rQDXZzvWDYYLxt4NwLPWHxM0uOEoDIzyWgoETYMO+Mq8jMTxYWvzFtJ/q
+JaupEbkfux4wrdazRmtrVnqTIswQT71HqvQyWVbdM2Fyl8Aan1DwbucivVfHaN3V1YbL9WVJcAxh
+Lxu9HXeohraDDGUw0OpchW70APf43OTR1WQ0a2V27qsmOTWT+hppFja8/L6c5D4T6Ewn45CX41Fz
+XL9OKs5znEdBJIvnWAzQoKplfN5wgyzbx2QY98NkrRt+UJs3aVr5eizXZRYdjbk6LmOi2E2PVLFB
+loZ7bQ43Akha4uBOco1NL8iXSKZ74TgB9mPsTsqhdO0rr56PUa/toPTujDG6IsJhy8F8TXCsl7rr
+ZdzUZtO6G4yztGyISXH10In6sq6Kba9UAkJxvsJXsJ2H4TW09K03dI8Nn1if9Me4FUfFS541tzyT
+4IrPvAgMaR3tJj3WXfllZFhRpsN2phBPSdy1ixKnZReUhHPPpdy2lnZKoHnz31g3tnXZ9YXpV3gi
+V1kCSRraDWqBTyiOSXGhVJ88HGINcZ3uzp3HV8UcDvGcbEpdZ7Ze3Chz/YQd/FSm7TZW6EOO5iYS
+8jyWDEND4ry9cjN21X7E0C1pOzdMI0cPNCr2MVCu29K1wLcku9Gd3oxK2WYW/5NviWWt0vTcu1tT
++6SX9rFTjMDLoXVCKFsJnS1KhY2j149J76wZnp8wQtxNuK9j4thwne5iRr8DrMMUT/rEVFbk9sMw
+RlRGMuSW0w1Y6QiRG89WanBz7ldpI1e6WgObMXaamBiXnzPF2kh3DExFOZuqtyHqnJxRruvS29Sd
+ce3oAD2jje4qm+w1OnlJszec4p5tkAEUyi2GeiJFB2EQWCpKsMz0JpavzOB5GZoCI7i+Ci2q4bbe
+lEm+7VWJAFj1Za2/yGzCWA5AnQy6ppg+gxncwtry//ThvvbhrP/0ud1NTfOeZf+uM5aX/VVnOIAY
+6cQBufouCfqQEdlgsRabgcU29VUv9P3abi+h6WT20m718Cstgbnf64yvZH3wKn81fn+vtYvC6afe
+LkBm4CtL2hjJZTi+ees/XtuJ+a1TUXfJTpU53PFsWOd1eWXGQ9Al3V2bhlxgyvDkkLxXTeqzN/b3
+hSeOfTHdjTnlda4ETaPjsW0uRpeHO46PQBV3RkGyVl3kuh92qQIrqzjnpn3GvTqz+Lx3vAEQfYr4
+ybMicEuO8TghNs2+Dl7H66hmcZWqRGIx23CmYLLn9DKucILeNWaTbAbsQoGR23t7IXEJxd0MGZky
+YB99/j9inUbmc2wwB3JL8y0aoyQoss7iSMy0W6vwwpXVu+Vjrsfqp9hRVBqG2sxE2zAaiosShB/L
+C5n9na21OJ1sLFXw4mt5AprYMbtR+utKZp+Mse2Tg+tW1jtlfAq9TlgXw6Rlt9xxm3t3JFJ8zWcK
+sE9hMMdFuaPwiudZSt+NJuV55Gg5gcUqfIPoWqQR0KLQAIwmu3kPEHpImhm+HeMpxuRM1SITH1Zk
+9lD6gC0dUsOIdrWnmJvQKJWdKKpdqDKJ3xi1Ja4zGWlybbkK79EjeX0PAHzmhs0d5tEwuIXViWSv
+dx9L07rKMzj7SgRAuGbStWqj6IWMMArIAcUNM3dwU7RV5+HYVS/O1N3qaAWEc+3UT7Oyz1O8tn2+
++rOrfNtVaLn/7yvMfYEW/Bd7Ci/6uLuodO6ANvyFbKDb93FzUZfNZon4wCGL2c79obdPtw8WjYrR
+yDYYI1tchT52FPg3YJlI52W3WaJvfmtYtICNf9pQmBss9lwTMxPeWexVP28oBGvIwklR1Oop0qe4
+0c3qRYsWStqsjyGZTxUuu2am9l8mplM0QyK3WkxHiYFaUXuGK9lgmTG3ACUbBGvF5YhR0S8YxpaT
+i568Vl3fsfMvpJwuCPUladVM0IOICP99rCNKY8irC6flRsDcN2YAbBUzwLk4vu86FY34zLTcXibH
+jqD9FjFMrpapsoUJENclcIg2fzKFsq8IXiVtijl0NRFFp6pJ8SXvmuZUjlaU75WuCWeWCCBTUkrC
+lIiL8NDiyuG6DwNAEQYFtjLJnZLUd5EJh+4wz/ZYHUOvnUIYnEkJngdign73Z+V8Wzk8bP975Ty8
+Fp/ef7FyeNHHabzk4zjgo4g0+Ljaf5zGLm50RBY/Gss/muiL5xwRBtBkY8FDLVipj7VjE/5J39ux
+dca0X30yv3Hrx5P4j8XjaaqxzHvp76EgYYn/vHgkG7A6KXa/g7BwtuMwKMAkLjDaLpw3quJe9zKq
+3o1pJsHGoL6byn74IgZV8wvbru+5s6VIL4Zb1TUeFfpZFKwJOSRavAjnuL/kzUXWDmJjyawPsq7K
+EEVxcgb0CSpo9EZ0b8M8RIGvqSAcsIJMA5jYIr5NS8nSMwbB8di1SK5U/AIIMeKbPrzOFtTDKFEx
+QmaqnsP0ldya7YLVsLunxnAgjeA6mTnNhfPe9/W5k8QG90RGqjh3opkrYusE7uSddHCSaU9+Anf5
+sF8wKTE5oxEoC05Pr7qzizuY6v5oZ9sMRVjq3rfZq4oGU7lR/MxEkQ8VMlWcYJ65groqkcPIOFV9
+F4b5nVXDoiRdYJgOQ89xF3vNztTgJ+XVyrW79SibYAL4ZDlRwD66S+cvcXiXla4PAskvxnwvQuUp
+K4egTvJnTNzHRoxAUGqr8Md82jedvUwsMnqEpX3ozTFbz/Jhcs9lWzbqmnZxfdeTWRD5dYnSEA8A
+eJux9oJcqe4XUU9bypOTN5+SITTp/zfoANVg9toL165GhKvzfQmdd6UV6ZXjxFgxsAbo1nmuow0k
+liu8TzvmrpRD8c5rqS4mZ9NVKupI79ImEMDofNfc1/Rk56Z/+rPlfNtyaLz97y3n8TX91Y7Da37Y
+cThSkWl8P6bx3XlU2hYL/RtElw3q+1ajOjY7DJErENXBIn3fasATLN3FBVT3dQxv/07hby/juJ9t
+d7gU2PAWVwK/75++4yymsk9E0zFs6mrtTp+1AZ11PwLttvXywWjdt7q36an0XunGJ5mVtGeE7C4H
+ZQEltpvW7TZmZZxLBFz3upe8MgOIA44682TgqKeWL2/h5F7QTX2XoXFt9/G7Syw3w5E3xCGBkVbP
+abWw1BCgYsyxynUTZulWHQWNSGGIehVrCZJa6WFodlNbMKag9E2u1NEQcqeRf3KyVCFIvCJPkgDk
+YWsj9D1VbniXZI0JWNfJTlPl4VXDLrGqkwRIrCtSJhFe086r3IRsEIvePFoKmWkr6eSixavkeGOQ
+jIq1avte3boyHHI/9EKVnj0KUrI3ga7dz2RdfobDNsFUq/MOw8WfBfVtQfFI/9eC4k79q/KXV30s
+KWeJ6eYSTCLCP4w5LtEGLDaWDQKFb5DH7wsLjyslMytuIT06rLnvZzjmWEAhgCMXHsDv4cy+KjL/
+sbAWyKhnMERguG7yxn+8UE+m0zvIK1lYQ6NjZ00BvVtxkxm72QsTUj1LHCu9goJZ5PKJ6RHdKDWd
+HrmBjTsndMUu9DL5RVbFrJw5Mmqo/rXe9TGKzrod93YRmde5ZjxRDTs7T4ghQIqpgmX2KACGZazq
+jVyFpz5I2sjYoLRkmDxP03XntMo+MZQrh67eIqyZN57TvY+2PftK4t2W6nxvCCzfIBOiIOu7vdrO
+W1PWdKCPnZbekkq3K4bkxZEsfWe+IGP7shthFbtc9jnOtoaI3ycLphXod2tQN+TVXUpHv6ybku5B
+wvFF3EJHc69qnHXjGtvUNh6YHO+aIt86o3czom9N8ugZ7+q+M5qzUrQPoia4iAW8nULtMg1xAdJz
+nFMIzHxWedi2f1bet9HZQkv/r5XXRlCbul9ePnnlx+ojK4wEUpg6LJifgRqOzfUTHS4Tq+Xo+mo1
+/778VAIpWXpU39/q5L+XnwWhg8KagZuJq45n63fOteWK+49zjSPNc3SPrhtTOu0f2rI0xa1a53O6
+Q9Ck4xLFwnLUettJERkjlI6rZN8sHZNs6Z0MSxelqyxOKabWuzhrRr/MzO7dwrd7Jew6f3ayJjss
+2WnBBD+MPkzbtRe2ZEEHBCBP9x6i7XMxRgTSJ0W81a1c3TfupOwGSxQ4SdU+ulFLHRU273WTLx2q
+qccOWuN1YUAs4XXzwndHwEXF7ewFlrB9SDsAFpzrts2InFI4ePpTRvp52kIK0lxac+jFkmqTDuYG
+RuA2T41rugGOr5TW0TTQTMN6A44258VKyYxT5qCzq2rc4qi7CA9MyHyfKvBC5oyLSNHdikQqphld
+V34qkga/s577JGW1PlpjOtU2yovJad4Mr6QPXZu7Mc9eVGm6F9WghuvRqAvzEYAQlhUlVJj+a04v
+Lv8ciN8OREqz/1qW3WsvXll///CqLtkLf61JYhlMi2fdoylMTQfc+ntLSPs/j4QaAmH/Hkv/UGvS
+69H4Vr4hHhbV8fcjkamxZXCKGcYSzuD9zppEU/6PRQk9lAsy5leXfvJy+v58JtqK6+RzGbo7IYDu
+B8okdMvXlBxjl9g2dnFhdtHBBlbvO1Rw2lqv3XkjW1NbD0rZrTXX/mRCtidvvbuzZT08zVOF07HX
+TT8hLCXhvqWtjNw8ObLF4FX3CybnIJcAuay+MioT2U1y6aDvCAsyAAjptj4PZb7Y7FcEVm5BTtyT
+wPk+Ws2Dppvds4e4Sxi3Lk7XFmKXoyXOJprSL+FsnbNu+GzPNTKZ0Ej3MzvaSkkUYC7K+9Q1J5TP
+gSyxFhqVPMoq9mdnsNd5CU2mzZPDSFoSNnX3vsnxqtbJhKvcnQqF4B3y3aXUe4ABVpvTj9eswGi0
+bVezwvDmyrE/mHF26NR61zLHGSr9eXRqZrsyaIkLnFMzcNvx2Mr5uXHUtWyqdVmjdOnO7dD5hm7d
+mHZDWo4VrQqH3zPYz+FoPpcxYF5d7gsr3Bglq73b9twPJ2HdaNFMDoy67ZLJd8Kn3LK2VRrvhOK9
+JIa9b4xm045WvcpTGuy62MxuC4GHFIgkfyxIlu2qBiGWtRU4PyekThIiUWQFGiAxWbM15T3o4ezS
+W7xWJIpaUsEJisjJG46GsAJFTQ9lHO4cMA4KXQ2rQT47iXUxmcHoPhfCIQywOxLQdyOa3oNyAxa5
+dbGbGBehUhyclBl93dFpk/Xsu5pEpqC9TAq/uYh6mtw5DGT3bBspFGz1GDeRtS7V8WBIxHYt88O0
+3WegoUnYujeYwiYmI2bN2Yo095vBJL1DBG6s7Pr8pcL4oZnZjSgmfZWVNUKzqgwoBR/VGvlgW5N7
+7J1Vhf3TwftXJM6zbY2ntm43Wp1sdYISIVn7kxB+OVsMPfPNMJ09HRjR9KWfHrME9dby6bpxEBoE
+EIMkEl0fmGG7mSwV+JN2VSVijXzhXFXTBpnyA/zxoBHVQ0koZVamB0v2+yYbg3RwrjPHWbcoIjJ7
+/JQuuAxynNo8963RW1d2D+INM3UBUhuIlJZPO9nCR4thbHauuDAzAEq5gmhrBmZNXENMXUtzed3j
+G1qSNPQm6GvlUDgWX0wOE6NeNyCpVqVseVQn78tQlOX6z/nw7Xxgt/yv82Eq3n9xOvCij4qNmDjk
+v4iTHOsrKpEbyfemJ0Jdrkvut3yFRc/0UbHRbvCWW8wvWAaLx20xAzBN+PYbf+d0+Ooe+fnCZCCk
+ovaD0QZyyOHw+vHClCZj15ZqV+70oXh20uppyGmhJ5OcdL8IPW+XTbLrLgH8IFbK5yNjBPEwh7YI
+YmnniEvj+K0p+p5k+kqhhVFp146Vj3t4+7MWLHS4/FavJkKs9Ar8sWa0hTwprpr0p3FiKSWYCNm1
+EFtoVuKP6fBKteRsGkNPg8niTczhhChA3HV2tIMVcc7H5CLytKMeT7t8CbRKSNYWyXSRhPle05Fk
+La1ZqScX4BlJllXbs6O0aJyy0o+i+nqwpq0yz+tUtltjQpgfFdaXODI+h6g21hWBL0HlVmNgF8kc
+NLBTgKt/RRYp7YIvCue53fQ1/oPtqJgLi8EdL+0e77yj8oIuKj61TaQFWNzeNGiSQKpnGpQeJxaj
+6EXdSQZegzwYHa2FJGhA29B70OP1CJmXZwy7DFfkOlGS6PxniX5bopRO/7FE4+yXDrAlSvGjgmNy
+RwwntRvmUcw5y1TtY6inMX3gHy5UEKzgdfGqjzWKgsCkX+jxfVD/LVenvys4ix6j6eDXAnv4NQzj
+d9aori5ywx8XKRvEMjahM8l0j+vfcu36wYcaGl3Y625j70BuPdfCuSh14yRq6wgFYt22Vh2Uahhk
+mVms8yxc03R4HMJoK1DDSVfGxPwimEqR6wXwgK6MVrm0w/S9VMtzFaJlSYv2VsmsfSmn0J/MTvGL
+bD5VMVmQocJRZ0vSk+ZQ3sNmRyRWaIE+UT7NeX0rtTa+BS4uiCkWx9A26LrD4NJm7z0trNe+tj4Z
+FkmDukumoAjRSs8ED+8MSSNyXU2NPQPeYTB6NcsmNvfpYmvp8bdk+FzGxfBiV25xP+pYv93FDBOa
+W3Ds+MOxyaCKONmLcSZaLDSz3V03eGq8mMDdOL2WMU2ePLFe0En7pcNdbLCIQ3Ln5MawZj2wOygl
+ppdutDbqL9rWrNfD2Civcd5eZEBWAo+0sndsP29tVp3hP2TIwLv9WNQNtnqzZqujEbtCGHWoW6X3
+PWcEzBEB1CpqbR+jxWY2WYHetuInsGTJZaoqxhXI4/7NbYxymyT1ZcMOsqvRRzS988U2rMcmHC+n
+MHlEYfkaWdWV9//sXVlv48aa/StB3jXDfRlMAlxJ1GZblpe223khaFnmvu/89XOobsWSTKtuLokM
+CshjOnKJH8UqnvrqLLB7shocc/JxNAc97RbkSKhJsW8AHdJyseZK+Rj7jKDNc1zFADycX20trrmv
+uWjBgXWhwRjee8vixirgayjeZ575rrBg5+MsTNJGnA0Sue5lyNR2dRDF/fko9MMrMCP8ccyW94Xt
+QE4IfwKvhGFlgLb1NJScBcuaG7R84VnfettbTrVRGnNtC0CjJTYDOfbYWhJjJ2xangBdCGsuq4KN
+p5zurQFTbhjBfod1PjfFn6+4dssAdcRTgD9VR5BezR0dFLkpF3LWe5RZEYgQiKeCV4EIe5H4pXbj
+u1SsbkF9AVOkQPyFE8vXfhmh38ZFDeQB/kspQQvR6pcDri6n7Xt4rEb5g1P58HeRRQVnTAU6EPk7
+TgORNs4gJdvfiLn65DrlE1zu4BGTIetctxF77cQFNvKjOXK/xFkB6j/87E28F8xAWIqIhdzxCpb3
+f1brH6s1EMbF1brTUrFlTHwgKknC4Q3oWVyrlmw1lB+ICs0RhmF/Zm2cRhBh58uCHY7WNQuGxMlq
+LSo4+MVaLWHNbpvGf+UYubWnPVmt8SKBXBevBJzztpostO+OV2vZs5oYXxQtKlMsH01V2DA5g7iK
+1LOg0oEIULMcBQ4iuZ1ZmzirWGzlxNE0ZAVELihzoPp0J9lyhRRXGbs/5N/kozqWxkLgK0bEueF1
+gMmsjGDF576gg7B2RuWKY0oQhtiQZV8UvMCwMqT+BHHo6qRKZWECa8HRUwyrUi0PYOUGFlI4Rajr
+UjSxeVRttKAKSDXgmIe1NJzAtTJ5YNXYvJcYuDaCHC7B4cS0YVCEJKAYtkZ8BpGHbFQjE9vL8A8W
+mizk5owbOG3zgf4Nzl4LH35PVbQSpWtLxiY1W6nxNVdC1eS9q+5aDm84x9LM5oGDAxWTctjGwvyv
+ZGZ8+q1irurguwrvDhC7YTB7DXugmewhVY9jNQnqs7CJ1iYY7FyzlNJ1zLk4z5Vg4veixvAGCZFz
+j1tpCfxUlnN2HsRS9WjZDKx+Aj+qv+l1nkyjAKKkskQaQuvDy2upIy8UzwYz3rlj94DV80RmZbM4
+rxdSR4NnIsLIqhIMrJSNHxH+PnWQ6phi48bsLNxYaKx3jOVeW6qy+Gct2K8F0kWG54vRuvh/3l21
+f/WB3GB3jGUA8KjlhsiYawfkBlCntPMdyjWAsz2o+0BurZiewaIPkznAOuC9j94bDqFgvcpi+6Xi
+QEr+S2tBCw9P1gIgN7Tf2hB6FioSkTk/j2KUQndHFlx5HTAEXbyOHf1B8WHGWPkvCvTB47yop4qL
+161t1luO9TasWz5jkZqVcA1iY4WFYombRiI/LbyRxogKrIy5MByLgYXjWWTk4XQULAM/g3GOzUzi
+GrpmxKV+DwoEbgopJrYLzRqMTBUYa00RwrflsnAiNvazp0atohkmcJblYZJnMhSJOj7f3PFluFKd
+bKnaVYacGfBOBA6m1WkIa1L32a7h4cGA2yHh9MliEQaC/IVrva7174yTrsDXGEtVhsgzZTtqypXs
+mFc+w716KTCqwnzPkP3NcdU0guH0POKtuxxdHMEaaUpWp1NuhMahLiUbKNeWlhPPhMa5DnV/5VrO
+ldequn2YkLq2PmNarXcG+isMTt4LKMBjeKjMvQwycDZrkrkIjAgrWc2R+ac6Yu9tFbERJYzlgxj2
+jh4PN5UmmGY2tIZlMLd4ODw2TrkpdbhDCSYCuetJBhOtGElE0JQ2C5uNJzm4JJBk+i+g8y4LF6w4
+ESA0gbt1BYEi7scNDOdnUVR9T/RkGkuwCMx9bEBdxECj3++gq8Y9+br4jPgYa6y2gni3lcabTfFk
+ezD+U5VQcwvkiTPpxKp9AcSbPyQLyypnA+bw7qzAyimaymPdgICugxYqI2taqiNtJMA4LwUpxUwL
+kI4gHYCnzdQv+Vs3CK/50lnmsoOMnmjuxMh6SUFBMms0bCsVxufgBcKrDuy8PLr14YPFOModaMta
+DIr9hKugWoKrIcBdYT+zowo76UDYVlnLcxdMCPsjFzDUT5p1EifvUpawEWxkYJUz4SD+XZUBnj2t
+sfkQC7DahuexgmO94xnwHqDGdBZckKWaVNv1YzMSodHzHCb7hyX/41xRApD5Gk+9tKy8umMNxV8d
+1lDuvxDnwgkyVs8Db/WwhkKnB5EedHAwadpL7o53v2C0Yl2FOm5v0YmV77CG7s8UcZIPaR8DC0/5
+L3lUw1rz0xraGq2AWQs7FaA05Ywkz5QNU8u6rS7gjTABow5SD+Qij6p4rdr89zhkN3kda65izwTB
+vIvi5MnSq3WWBBpskGZ43HBCh/DzSkSsXqTxQfINDd5vcVPP5CyAYVL+GJnyJhltg8KfhSmiuaR6
+kRX+ArHLmK+RBg0gVO6lPG5N4MQoWrhcDjGdt4HODt6N2aQ1mlO4uzh0limvPAhYSQP0kQSwA8IR
+2ty5DZWztWhCboZSxmrqrFUFDLqqMNEbbhahZM10zlrgPbcCHwiA5K20Obg/j7SmZqcF8E3AVjc8
+UuNh73YvJeVMVJBBpZgPKnRmQRBMsQYiO4RbReGTg26xX/CzyMUxhOz9gQOcsYV3B7R3bX4ibKWQ
+o+wJCx1GbLCn57QGshoTshhvNGMFKGQRqYU2AtpgUOxDcZ1w0gyprVetw6MCl8GwXTB8Z27V4jxN
+TDhcIWizvkfQF8Ivfc1Ot21KV5SmSCNRofTD1SjKVWy+1640dwseUOqRH0lTt4a14ejehTVkoY8m
+sctrZYMtFwvFECgNjdRM+TDQQpYH3wECMilZO+KTrqTTEotb1tLyox0XwSZP9bQwzCe+Xb5nrXUl
+YrekuFkxiJNUG2/lN0s+kxaRXeBq0qkpenM35h6j0XUFfKwDK44cFo26aAmVkMaBbDxC00TMdI2P
+qqsiVlcinhe70awiRQJcOoGb2TNyHaSx6CDrs4wQHAE/7wrAuNKzt5yVxmoipdgzIrxazDTB+5ZK
+5QLGijPPwpGvJSoz3ZfHjCVN4xhaS529QfyYhm0LOpiggiKEZYpO1QwbXc1N6hu+eXJL4RX5AAsV
+NpI2rNDtUX3v8DgPhi4KiaI4uK7vlFScNbCozqG8CnLkbSYoPE6sFgYgP1pfQPuw1Ot0I0ComEKb
+VSX1Jo2idx1vajVWEUTGodPgaRn6mpzFX/Ghvg6hdzQLnHrnlqGK+m1g8qsG5yCc6874AEryrIxe
+Ms55wOHFq1MGC9XW30opfXRxdV6ASzVL/yYsrsToyY6/V3J0F3O8Pq4DPBsjGLDy4n2MPIoUPNCM
+Fb7LsXStSwjGxrxyWPcVYrYNlH9wm6mEtd/GwwXJMkj9exaJG2kDcljr4sCHDRhrZvsrNmOegzS+
+kkBwh9NjM4Xschk7OHcDLT1EE0QdsxKLZravQTcDd0D4fOXiHZ6pmekyVzJ8F7HnMVg5ueItfs2A
+Wts0SAQE/7dAqHkDJZsVZUgiTmBioF+VAVQnI8hQc2/KwUq2yjjspZgVV0L1rsTYpKheCJV9KmzQ
+MX9CwvgSGh/4YrMvcaWgFV1o0KfPePfdhfuZHohLXQ3ukWJTToDI0AMHzFPrZFahlyylqiap+Xs4
+Qh6dI7LWGGngC3ckrSCE1wqzfi78pwZbJlb00HtPVizUaVwg5JDtBnOxKN9DPYa1uWpiJgfhWAAT
+Lxyncn5nO/wutIqZ4hc4vQpm2CovLTRrArXUMh/dct7SVLtEVoe4Kkt1tGJAqmBLcZU4uE7GemY8
+95b1/fEo2VXyImmtcJGIi/Clu0hnFokId/wifeAgBIXNIn5ptJnGo1E4Y+xoYtn1S4R1wfQt2PuX
+88Lhbwo9vEMY4ixNlQk80aehDts9T56wEvza9JEWWOw9cgpmaRFr/GiXwUeuqlngQnjaVcFDEkRL
+D0hZlydFW5bN3JRlAX9SZh7i8FqE0XkgvgZIUBwp8Qy9x4lXcdciohNNfgkkM+OjHNgSaUu1tIZd
++QS2GRMnCJcwzbgRRQtwmWsmYZHOAt+FLYh5xZeveakDEusrGAqtkOx0VWOHO+FyHEm6UHU3jIaz
+6CcpbBAAZSgJe1OkNUKh9G9VJqMFdduM/FuQy9cMq16ho7lj4UQ0TmCSqthI7lM4kNcELAkikpri
+R+z7cQIK1oyerSyPn9eweNUDeLkDCbqsDFjOTnSehTKrfNXBUBnLVn0dNexWquolTO5XMOu7tWDJ
+YcrRowMTkKjh5mhHTtgSPE0xm4pueZfFpQbu13Omq9MRAkVCU5nktv+txFLJxSI8Bgt7WoAMluD0
+PKgKEWro+CYu9DnauVnbevuGzIcpgP86kvPvHvqvpVt6Ewd4sgiKm8hRb9k8HMd1qglVMEtqKE0T
+SEP0APb5uW8aCnqpEL5vOT1egNJ9JcOgFwmEszpU1qnrwbgiQEwzbE/VQLjjPP7KkYqrwIoXme/e
+44RlCaH9TAX/RuYmGXB8GEH1Tcvu/L+31f+Yu3BqZIa256fc5bukvt+lObxdDi0szB7vbf+/7V36
+Vz7w9QBHbBiOl9gPytj+ux7raPfj23+QZtr//t148+0A8RpZYm8z7n/bKz/6v/v/RiXHf/+zuM+X
+33ldh39c2LvESLYW0oMyO6t/Xuna8He//fovz/A7RSqgxxwQcnuxv/16erVH+Pry8LsKvva75DDW
+8u23X/cYHce1h3/rNb63Q6xj8BnNA4YPMT68mz53W/YqmI+f6j+9N6n1+ZhckFoS1f536nNbCjzz
+h3GObnl7BN937PHOwMs0yQ5DHQ2P7c4AwyeZ3XVf2mZ372v3jLcOLjcookMMniBEsLS37mGsjzsj
+tzvL3hefB9vQf+24N22vboDhkw7lCHbAA4w9MV6NJMnTw1BHd2aIWToxvLeyS/cutL3P3ndmYvjd
+T80QU3ViJDgx3XVMpzZ3aoBrT7+4M0NM1gnesuWrcbjOo591iNk6sYysK7IXmojDN/ZYIycIa4QP
+bsd0ahnc/W+8FXalxUIFMsTgntGxvLfCj/7X7e2KXWcWDfgWQ4wfern/2rUUtDSs/pefGEXXCq8M
+Mldx5bvki5szyGyFj66d5V2vkPYUpffdmRpJ1/M+xGSdGoX91gmW1CFmazt8x6XDGWCAu5JHXseZ
+GqQkgwyedK5h6hCTVXszd19gglan2ft5maF9WWfWYaSP9b09v+8/Oqzx3O47P8RsnRtpl3QIKeoD
+XPvcyHYdcKbNkux9X+aJ0f3IDDFPMXhQ2J73eTKJzBATdZ7sdl30X2aImTrPbQ97j7fDTf7zgcSB
+y+HfekCCheHZ70Z1GOlo9CEm68JIgl32GejtD8B7PzQLoy7DsOvODDFVF7t2E9+1vOMY6nC/+tz5
+XZJ98cMOMVsXAHqHqzz6VYeYrIv6rWvoIabqMtm9de1qRHaIiboytm7nD4reVf81bBVaQefyC+PY
+QYYPOpZfkR1inl537AlEdojX6fUuCO3kUP7Hg8gOMUWvbbQHvM/NKrACD9/YY4LeGNuORpjYill7
+L103xpvd/SQOMUFvsMHuQHdwrhji0rfTsHN/vbet639ndlvX2wWveWIeLvbjqeGGmKc3dra1OhcZ
+boh5ehMGmRn6Xd1IsTUQ7n+HwrBjSyNyQ0zXtZFah0s8uu1DTNb1rvxlYeAoraMzLnJDTNg1WrRA
+kVEXBN7TSXrf+tsAcX5lxw0aYtbeAqaaHS/W1hWm95VvDN+zt+FhpI/flh/ixbox0hhuGtjbdHzB
+EHN2swdjHYMPMWM3uwSJ2DgT+ry7QZzH4Ut7vEnwBZ2LPT/ElN3YXQCbH2LKbkKv6wcdYq7e44gM
+bMKOxaYNIur9uN/bW8sPu9KlWy1A/+HD1133LzrEXL0PtyA844zPP1zqx3QVhpiu9519WrHVQvS/
+NXmGLnP3xkYYYrY+YIXvvPfCEFP14XIsed8DrYdLaZj9B78Qctd78At5Z73HvpC61HfsfyOMovdX
+XLSg7jv6JSvavmNfMuvsO/YFV77+Q1/wJ+s/eHrZgqn/F1wyk+k/+tdWBL3HvqShHmDwzmV9L/nr
+O/hFDVH/wS+Q6y8P3sVu+v2EBqW1A5xStogf+JP0tcHhV5B1DEH+xIFJ1THET5DwJyjZ86b+1B7s
+v+0y44oApY++8jBO+10/OGatyOHnXTv63PkN+sGI+08+8Lk4wIrLxZ3xveiqDluQy9Wdsc3oqg67
+oIvVHXPd6KoMm7CLlR0x7egqDNu/i4Ud8/zoqgw7z0uVnbMM6SoOG9/LxR1zHKkqrWVKXizthGFJ
+V2nY8V8s7ZzfSVd1aDdcrO6MXUpXcQRYMs6PuK10VUaAJOfMWrqKIyCSc14vXcURQMkpq5iu0giw
+5JzTTFdxBGQyMU4Y1XTVRgAmZ3xuqmprSeGXXnBnbHK6aiNAk3MuO13FEZAJpKxHTHq6SiPgkskR
+j5+uwkiw5FxFQFd1JFxypmGgqzgSLjlRUNBVGgmXfNJv0FUeCZmcq0foqo6ATY61K1QV1upfLgGT
+c+UMXcURkMmJboeuygiwZHqiGqKrNAIsQdb9Ed+GrtIIwOSTYoqu6gjA5EyvRVdtBFwyO1OL0VUc
+AZmcatXoKo2ASk6UcnRVRkAkpzo9mkrbS/0uYZJPKkG6qiOAklONIl2lEVDJuUKSruIIuORMn0lX
+bQRgcqYOpas2Aiw506bSVRsBlnxSxtJVHQGXLM50uXQVR0Amx6pgugojAJNjTTJVhbXC5kuw5EwR
+TVdtBFBypsemqzYCKjlXg9NVHAGVrMIjLTpdlREwyZESnq66CHjkVIdPV2kEOHLmAkBXbQQwcuJB
+QFdlBCRy5oBAV20EMHLqv0BVaRwBjtycuT/QVRwBj9x89p6gqz4CJjl3vqCrOAIm+ey7QVd5BGBy
+c+z6QVdlBGhy7DlCV2EEYNLheEJXfQRw0uG3Qld9BIhy6vZCV2kEhHLqNUNVaa1hzaWGyZnTDV21
+EQDKZ58dusoj4JPNicsPXaUR0MlnjyG6yiOgk1OHI7pKI8CTY38lugojwJNjdye6CiPgknNvKbqK
+I4CSc2cruoojwJL7U18tqmprnbku4ZLPrl50lUeAJieeYnRVRkAl958czegqj4BMzvzU6KqNAEvO
+3dzoKo4ATE695OgqjQBNHrJjJzu6SiOAk4djHz26KiMgk4djFz+6KiPAki4PQaoKFAnY5PHUwZCu
+2gjA5MQ/ka7KCMDkxL2RrsoImOTYO5KuwgiA5BmZgB9ZXXSVRoAjz7COh2vxkfk6XeURIMkzcv9y
+0/g3HZKPnAf//y0MRZGASZ6NI89Qun41AiZ5PnEspas0AihBaUd+qVSVJhHgyKlbK12lEdDIS5s8
+XVO2inC82AaEXupu7c+Cf/kXYk/s7dkiuUUgih3Ah/ZohC/WR15lfrrt/U0Wrx+esj8cYzvMa39U
+Bn+nELl9Z6WdBISTy+OEH/Dg7yru59d9WRqgcbZ7+wWNhKNkvx/TbRvmQdaGyJt2G4L050//xQ/3
+8YT8TbV9PClfVnc6ySJkmLaRw6iEfImkT8A+uf3I1tsZye//BwAA//8=</cx:binary>
+              </cx:geoCache>
+            </cx:geography>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="r" align="min" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="entityId">
+        <cx:lvl ptCount="101">
+          <cx:pt idx="0">10036462</cx:pt>
+          <cx:pt idx="1">10036463</cx:pt>
+          <cx:pt idx="2">10036464</cx:pt>
+          <cx:pt idx="3">10036465</cx:pt>
+          <cx:pt idx="4">10036466</cx:pt>
+          <cx:pt idx="5">10036467</cx:pt>
+          <cx:pt idx="6">10036468</cx:pt>
+          <cx:pt idx="7">10036469</cx:pt>
+          <cx:pt idx="8">10036470</cx:pt>
+          <cx:pt idx="9">10036471</cx:pt>
+          <cx:pt idx="10">10036472</cx:pt>
+          <cx:pt idx="11">10036473</cx:pt>
+          <cx:pt idx="12">10036474</cx:pt>
+          <cx:pt idx="13">10036475</cx:pt>
+          <cx:pt idx="14">10036476</cx:pt>
+          <cx:pt idx="15">10036477</cx:pt>
+          <cx:pt idx="16">10036478</cx:pt>
+          <cx:pt idx="17">10036479</cx:pt>
+          <cx:pt idx="18">10036480</cx:pt>
+          <cx:pt idx="19">10036481</cx:pt>
+          <cx:pt idx="20">10036482</cx:pt>
+          <cx:pt idx="21">10036483</cx:pt>
+          <cx:pt idx="22">10036484</cx:pt>
+          <cx:pt idx="23">10036485</cx:pt>
+          <cx:pt idx="24">10036486</cx:pt>
+          <cx:pt idx="25">10036487</cx:pt>
+          <cx:pt idx="26">10036488</cx:pt>
+          <cx:pt idx="27">10036489</cx:pt>
+          <cx:pt idx="28">10036490</cx:pt>
+          <cx:pt idx="29">10036491</cx:pt>
+          <cx:pt idx="30">10036492</cx:pt>
+          <cx:pt idx="31">10036493</cx:pt>
+          <cx:pt idx="32">10036494</cx:pt>
+          <cx:pt idx="33">10036495</cx:pt>
+          <cx:pt idx="34">10036496</cx:pt>
+          <cx:pt idx="35">10036497</cx:pt>
+          <cx:pt idx="36">10036498</cx:pt>
+          <cx:pt idx="37">10036499</cx:pt>
+          <cx:pt idx="38">10036500</cx:pt>
+          <cx:pt idx="39">10036501</cx:pt>
+          <cx:pt idx="40">10036502</cx:pt>
+          <cx:pt idx="41">10036503</cx:pt>
+          <cx:pt idx="42">10036504</cx:pt>
+          <cx:pt idx="43">10036505</cx:pt>
+          <cx:pt idx="44">10036506</cx:pt>
+          <cx:pt idx="45">10036507</cx:pt>
+          <cx:pt idx="46">10036508</cx:pt>
+          <cx:pt idx="47">10036509</cx:pt>
+          <cx:pt idx="48">10036510</cx:pt>
+          <cx:pt idx="49">10036511</cx:pt>
+          <cx:pt idx="50">10036512</cx:pt>
+          <cx:pt idx="51">10036513</cx:pt>
+          <cx:pt idx="52">10036514</cx:pt>
+          <cx:pt idx="53">10036515</cx:pt>
+          <cx:pt idx="54">10036516</cx:pt>
+          <cx:pt idx="55">10036517</cx:pt>
+          <cx:pt idx="56">10036518</cx:pt>
+          <cx:pt idx="57">10036519</cx:pt>
+          <cx:pt idx="58">10036520</cx:pt>
+          <cx:pt idx="59">10036521</cx:pt>
+          <cx:pt idx="60">10036522</cx:pt>
+          <cx:pt idx="61">10036523</cx:pt>
+          <cx:pt idx="62">10036524</cx:pt>
+          <cx:pt idx="63">10036525</cx:pt>
+          <cx:pt idx="64">10036526</cx:pt>
+          <cx:pt idx="65">10036527</cx:pt>
+          <cx:pt idx="66">10036528</cx:pt>
+          <cx:pt idx="67">10036529</cx:pt>
+          <cx:pt idx="68">10036530</cx:pt>
+          <cx:pt idx="69">10036531</cx:pt>
+          <cx:pt idx="70">10036532</cx:pt>
+          <cx:pt idx="71">10036533</cx:pt>
+          <cx:pt idx="72">10036534</cx:pt>
+          <cx:pt idx="73">10036535</cx:pt>
+          <cx:pt idx="74">10036536</cx:pt>
+          <cx:pt idx="75">10036537</cx:pt>
+          <cx:pt idx="76">10036538</cx:pt>
+          <cx:pt idx="77">10036539</cx:pt>
+          <cx:pt idx="78">10036540</cx:pt>
+          <cx:pt idx="79">10036541</cx:pt>
+          <cx:pt idx="80">10036542</cx:pt>
+          <cx:pt idx="81">10036543</cx:pt>
+          <cx:pt idx="82">10036544</cx:pt>
+          <cx:pt idx="83">10036545</cx:pt>
+          <cx:pt idx="84">10036546</cx:pt>
+          <cx:pt idx="85">10036547</cx:pt>
+          <cx:pt idx="86">10036548</cx:pt>
+          <cx:pt idx="87">10036549</cx:pt>
+          <cx:pt idx="88">10036550</cx:pt>
+          <cx:pt idx="89">10036551</cx:pt>
+          <cx:pt idx="90">10036552</cx:pt>
+          <cx:pt idx="91">10036553</cx:pt>
+          <cx:pt idx="92">10036554</cx:pt>
+          <cx:pt idx="93">10036555</cx:pt>
+          <cx:pt idx="94">10036556</cx:pt>
+          <cx:pt idx="95">10036557</cx:pt>
+          <cx:pt idx="96">10036558</cx:pt>
+          <cx:pt idx="97">10036559</cx:pt>
+          <cx:pt idx="98">10036560</cx:pt>
+          <cx:pt idx="99">10036561</cx:pt>
+          <cx:pt idx="100"/>
+        </cx:lvl>
+      </cx:strDim>
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v6.122</cx:f>
+        <cx:nf>_xlchart.v6.121</cx:nf>
+      </cx:strDim>
+      <cx:numDim type="colorVal">
+        <cx:f>_xlchart.v6.124</cx:f>
+        <cx:nf>_xlchart.v6.123</cx:nf>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>% Not Seeking Work</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>% Not Seeking Work</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="regionMap" uniqueId="{72DC0072-129F-4853-B91F-0930A975E290}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v6.123</cx:f>
+              <cx:v>% Not Seeking Work</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -4645,6 +9174,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="494">
   <cs:axisTitle>
@@ -5671,20 +10280,1046 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="494">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="850"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="3175">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="494">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="850"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="3175">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" Requires="cx6">
@@ -5720,7 +11355,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6370320" y="720090"/>
+              <a:off x="10683240" y="674370"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5753,16 +11388,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" Requires="cx6">
@@ -5798,7 +11433,163 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6461760" y="3630930"/>
+              <a:off x="10660380" y="3798570"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" Requires="cx6">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C769A2-CFC4-4C65-91D8-083D5E364578}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17800320" y="3798570"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" Requires="cx6">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC60EAF-DB7E-4A66-ACE1-19184C36D24E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18303240" y="643890"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -14513,11 +20304,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" activeCellId="1" sqref="A1:A1048576 E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14526,10 +20317,13 @@
     <col min="2" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="70.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14548,8 +20342,20 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+    <row r="2" spans="1:10" s="2" customFormat="1">
       <c r="A2" s="11" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -14568,9 +20374,24 @@
       <c r="F2" s="4">
         <v>4.9000000000000004</v>
       </c>
+      <c r="G2" s="4" cm="1" vm="2">
+        <f t="array" ref="G2">_FV(A2,"Population")</f>
+        <v>171415</v>
+      </c>
+      <c r="H2" s="15">
+        <v>77064</v>
+      </c>
+      <c r="I2" s="17">
+        <f>G2-H2-E2</f>
+        <v>90392</v>
+      </c>
+      <c r="J2" s="2">
+        <f>I2/G2 * 100</f>
+        <v>52.732841349940209</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="A3" s="9" t="e" vm="2">
+    <row r="3" spans="1:10" s="1" customFormat="1">
+      <c r="A3" s="9" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -14588,9 +20409,24 @@
       <c r="F3" s="5">
         <v>4.3</v>
       </c>
+      <c r="G3" s="5" cm="1" vm="4">
+        <f t="array" ref="G3">_FV(A3,"Population")</f>
+        <v>36444</v>
+      </c>
+      <c r="H3" s="16">
+        <v>16630</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" ref="I3:I66" si="0">G3-H3-E3</f>
+        <v>19069</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J66" si="1">I3/G3 * 100</f>
+        <v>52.32411370870377</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
-      <c r="A4" s="8" t="e" vm="3">
+    <row r="4" spans="1:10" s="2" customFormat="1">
+      <c r="A4" s="8" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -14608,9 +20444,24 @@
       <c r="F4" s="4">
         <v>4.7</v>
       </c>
+      <c r="G4" s="4" cm="1" vm="6">
+        <f t="array" ref="G4">_FV(A4,"Population")</f>
+        <v>10888</v>
+      </c>
+      <c r="H4" s="15">
+        <v>4026</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="0"/>
+        <v>6662</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>61.186627479794268</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="9" t="e" vm="4">
+    <row r="5" spans="1:10" s="1" customFormat="1">
+      <c r="A5" s="9" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -14628,9 +20479,24 @@
       <c r="F5" s="5">
         <v>6.4</v>
       </c>
+      <c r="G5" s="5" cm="1" vm="8">
+        <f t="array" ref="G5">_FV(A5,"Population")</f>
+        <v>22055</v>
+      </c>
+      <c r="H5" s="16">
+        <v>9439</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="0"/>
+        <v>11972</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>54.282475629109051</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
-      <c r="A6" s="8" t="e" vm="5">
+    <row r="6" spans="1:10" s="2" customFormat="1">
+      <c r="A6" s="8" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -14648,9 +20514,24 @@
       <c r="F6" s="4">
         <v>4.0999999999999996</v>
       </c>
+      <c r="G6" s="4" cm="1" vm="10">
+        <f t="array" ref="G6">_FV(A6,"Population")</f>
+        <v>26577</v>
+      </c>
+      <c r="H6" s="15">
+        <v>12078</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="0"/>
+        <v>13986</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>52.62444971215713</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
-      <c r="A7" s="9" t="e" vm="6">
+    <row r="7" spans="1:10" s="1" customFormat="1">
+      <c r="A7" s="9" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -14668,9 +20549,24 @@
       <c r="F7" s="5">
         <v>4.0999999999999996</v>
       </c>
+      <c r="G7" s="5" cm="1" vm="12">
+        <f t="array" ref="G7">_FV(A7,"Population")</f>
+        <v>17806</v>
+      </c>
+      <c r="H7" s="16">
+        <v>7049</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="0"/>
+        <v>10458</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>58.733011344490627</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1">
-      <c r="A8" s="8" t="e" vm="7">
+    <row r="8" spans="1:10" s="2" customFormat="1">
+      <c r="A8" s="8" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -14688,9 +20584,24 @@
       <c r="F8" s="4">
         <v>4.9000000000000004</v>
       </c>
+      <c r="G8" s="4" cm="1" vm="14">
+        <f t="array" ref="G8">_FV(A8,"Population")</f>
+        <v>44652</v>
+      </c>
+      <c r="H8" s="15">
+        <v>18485</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="0"/>
+        <v>25208</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>56.454358147451401</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
-      <c r="A9" s="9" t="e" vm="8">
+    <row r="9" spans="1:10" s="1" customFormat="1">
+      <c r="A9" s="9" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -14708,9 +20619,24 @@
       <c r="F9" s="5">
         <v>6.1</v>
       </c>
+      <c r="G9" s="5" cm="1" vm="16">
+        <f t="array" ref="G9">_FV(A9,"Population")</f>
+        <v>17934</v>
+      </c>
+      <c r="H9" s="16">
+        <v>6722</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="0"/>
+        <v>10779</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>60.103713616594177</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
-      <c r="A10" s="8" t="e" vm="9">
+    <row r="10" spans="1:10" s="2" customFormat="1">
+      <c r="A10" s="8" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -14728,9 +20654,24 @@
       <c r="F10" s="4">
         <v>5.9</v>
       </c>
+      <c r="G10" s="4" cm="1" vm="18">
+        <f t="array" ref="G10">_FV(A10,"Population")</f>
+        <v>29606</v>
+      </c>
+      <c r="H10" s="15">
+        <v>13385</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="0"/>
+        <v>15386</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>51.969195433358109</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1">
-      <c r="A11" s="9" t="e" vm="10">
+    <row r="11" spans="1:10" s="1" customFormat="1">
+      <c r="A11" s="9" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -14748,9 +20689,24 @@
       <c r="F11" s="5">
         <v>6.1</v>
       </c>
+      <c r="G11" s="5" cm="1" vm="20">
+        <f t="array" ref="G11">_FV(A11,"Population")</f>
+        <v>136693</v>
+      </c>
+      <c r="H11" s="16">
+        <v>50708</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="0"/>
+        <v>82696</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>60.497611435845286</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="8" t="e" vm="11">
+    <row r="12" spans="1:10" s="2" customFormat="1">
+      <c r="A12" s="8" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -14768,9 +20724,24 @@
       <c r="F12" s="4">
         <v>4.2</v>
       </c>
+      <c r="G12" s="4" cm="1" vm="22">
+        <f t="array" ref="G12">_FV(A12,"Population")</f>
+        <v>269452</v>
+      </c>
+      <c r="H12" s="15">
+        <v>130767</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="0"/>
+        <v>132893</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>49.319730415806895</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1">
-      <c r="A13" s="9" t="e" vm="12">
+    <row r="13" spans="1:10" s="1" customFormat="1">
+      <c r="A13" s="9" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -14788,9 +20759,24 @@
       <c r="F13" s="5">
         <v>4.5999999999999996</v>
       </c>
+      <c r="G13" s="5" cm="1" vm="24">
+        <f t="array" ref="G13">_FV(A13,"Population")</f>
+        <v>87570</v>
+      </c>
+      <c r="H13" s="16">
+        <v>37656</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="0"/>
+        <v>48093</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>54.919492977046936</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
-      <c r="A14" s="8" t="e" vm="13">
+    <row r="14" spans="1:10" s="2" customFormat="1">
+      <c r="A14" s="8" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -14808,9 +20794,24 @@
       <c r="F14" s="4">
         <v>4.4000000000000004</v>
       </c>
+      <c r="G14" s="4" cm="1" vm="26">
+        <f t="array" ref="G14">_FV(A14,"Population")</f>
+        <v>225804</v>
+      </c>
+      <c r="H14" s="15">
+        <v>105406</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="0"/>
+        <v>115504</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>51.152326796690936</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1">
-      <c r="A15" s="9" t="e" vm="14">
+    <row r="15" spans="1:10" s="1" customFormat="1">
+      <c r="A15" s="9" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -14828,9 +20829,24 @@
       <c r="F15" s="5">
         <v>5</v>
       </c>
+      <c r="G15" s="5" cm="1" vm="28">
+        <f t="array" ref="G15">_FV(A15,"Population")</f>
+        <v>80652</v>
+      </c>
+      <c r="H15" s="16">
+        <v>33497</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="0"/>
+        <v>45395</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>56.285027029707877</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
-      <c r="A16" s="8" t="e" vm="15">
+    <row r="16" spans="1:10" s="2" customFormat="1">
+      <c r="A16" s="8" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -14848,9 +20864,24 @@
       <c r="F16" s="4">
         <v>4.0999999999999996</v>
       </c>
+      <c r="G16" s="4" cm="1" vm="30">
+        <f t="array" ref="G16">_FV(A16,"Population")</f>
+        <v>10355</v>
+      </c>
+      <c r="H16" s="15">
+        <v>4326</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="0"/>
+        <v>5844</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>56.436504104297434</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1">
-      <c r="A17" s="9" t="e" vm="16">
+    <row r="17" spans="1:10" s="1" customFormat="1">
+      <c r="A17" s="9" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -14868,9 +20899,24 @@
       <c r="F17" s="5">
         <v>4.2</v>
       </c>
+      <c r="G17" s="5" cm="1" vm="32">
+        <f t="array" ref="G17">_FV(A17,"Population")</f>
+        <v>67686</v>
+      </c>
+      <c r="H17" s="16">
+        <v>29818</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="0"/>
+        <v>36553</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>54.003782170611345</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
-      <c r="A18" s="8" t="e" vm="17">
+    <row r="18" spans="1:10" s="2" customFormat="1">
+      <c r="A18" s="8" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -14888,9 +20934,24 @@
       <c r="F18" s="4">
         <v>5.4</v>
       </c>
+      <c r="G18" s="4" cm="1" vm="34">
+        <f t="array" ref="G18">_FV(A18,"Population")</f>
+        <v>22736</v>
+      </c>
+      <c r="H18" s="15">
+        <v>8899</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="0"/>
+        <v>13328</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>58.620689655172406</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="9" t="e" vm="18">
+    <row r="19" spans="1:10" s="1" customFormat="1">
+      <c r="A19" s="9" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -14908,9 +20969,24 @@
       <c r="F19" s="5">
         <v>4.7</v>
       </c>
+      <c r="G19" s="5" cm="1" vm="36">
+        <f t="array" ref="G19">_FV(A19,"Population")</f>
+        <v>160610</v>
+      </c>
+      <c r="H19" s="16">
+        <v>73221</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="0"/>
+        <v>83764</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>52.153664155407512</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
-      <c r="A20" s="8" t="e" vm="19">
+    <row r="20" spans="1:10" s="2" customFormat="1">
+      <c r="A20" s="8" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -14928,9 +21004,24 @@
       <c r="F20" s="4">
         <v>3.7</v>
       </c>
+      <c r="G20" s="4" cm="1" vm="38">
+        <f t="array" ref="G20">_FV(A20,"Population")</f>
+        <v>76285</v>
+      </c>
+      <c r="H20" s="15">
+        <v>34339</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="0"/>
+        <v>40613</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>53.238513469227243</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1">
-      <c r="A21" s="9" t="e" vm="20">
+    <row r="21" spans="1:10" s="1" customFormat="1">
+      <c r="A21" s="9" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -14948,9 +21039,24 @@
       <c r="F21" s="5">
         <v>5.0999999999999996</v>
       </c>
+      <c r="G21" s="5" cm="1" vm="40">
+        <f t="array" ref="G21">_FV(A21,"Population")</f>
+        <v>28774</v>
+      </c>
+      <c r="H21" s="16">
+        <v>10045</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="0"/>
+        <v>18188</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>63.209842218669635</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
-      <c r="A22" s="8" t="e" vm="21">
+    <row r="22" spans="1:10" s="2" customFormat="1">
+      <c r="A22" s="8" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -14968,9 +21074,24 @@
       <c r="F22" s="4">
         <v>5.0999999999999996</v>
       </c>
+      <c r="G22" s="4" cm="1" vm="42">
+        <f t="array" ref="G22">_FV(A22,"Population")</f>
+        <v>13708</v>
+      </c>
+      <c r="H22" s="15">
+        <v>5210</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="0"/>
+        <v>8220</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>59.964983950977533</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1">
-      <c r="A23" s="9" t="e" vm="22">
+    <row r="23" spans="1:10" s="1" customFormat="1">
+      <c r="A23" s="9" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -14988,9 +21109,24 @@
       <c r="F23" s="5">
         <v>5.0999999999999996</v>
       </c>
+      <c r="G23" s="5" cm="1" vm="44">
+        <f t="array" ref="G23">_FV(A23,"Population")</f>
+        <v>11089</v>
+      </c>
+      <c r="H23" s="16">
+        <v>3757</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="0"/>
+        <v>7131</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>64.30697087203535</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1">
-      <c r="A24" s="8" t="e" vm="23">
+    <row r="24" spans="1:10" s="2" customFormat="1">
+      <c r="A24" s="8" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -15008,9 +21144,24 @@
       <c r="F24" s="4">
         <v>5.4</v>
       </c>
+      <c r="G24" s="4" cm="1" vm="46">
+        <f t="array" ref="G24">_FV(A24,"Population")</f>
+        <v>99519</v>
+      </c>
+      <c r="H24" s="15">
+        <v>45125</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="0"/>
+        <v>51841</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>52.091560405550695</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1">
-      <c r="A25" s="9" t="e" vm="24">
+    <row r="25" spans="1:10" s="1" customFormat="1">
+      <c r="A25" s="9" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -15028,9 +21179,24 @@
       <c r="F25" s="5">
         <v>6.3</v>
       </c>
+      <c r="G25" s="5" cm="1" vm="48">
+        <f t="array" ref="G25">_FV(A25,"Population")</f>
+        <v>50623</v>
+      </c>
+      <c r="H25" s="16">
+        <v>20918</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="0"/>
+        <v>28301</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>55.905418485668569</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
-      <c r="A26" s="8" t="e" vm="25">
+    <row r="26" spans="1:10" s="2" customFormat="1">
+      <c r="A26" s="8" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -15048,9 +21214,24 @@
       <c r="F26" s="4">
         <v>4.8</v>
       </c>
+      <c r="G26" s="4" cm="1" vm="50">
+        <f t="array" ref="G26">_FV(A26,"Population")</f>
+        <v>100720</v>
+      </c>
+      <c r="H26" s="15">
+        <v>39000</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="0"/>
+        <v>59774</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>59.346703733121522</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1">
-      <c r="A27" s="9" t="e" vm="26">
+    <row r="27" spans="1:10" s="1" customFormat="1">
+      <c r="A27" s="9" t="e" vm="51">
         <v>#VALUE!</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -15068,9 +21249,24 @@
       <c r="F27" s="5">
         <v>6.9</v>
       </c>
+      <c r="G27" s="5" cm="1" vm="52">
+        <f t="array" ref="G27">_FV(A27,"Population")</f>
+        <v>334728</v>
+      </c>
+      <c r="H27" s="16">
+        <v>116860</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="0"/>
+        <v>209240</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>62.510456251045618</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
-      <c r="A28" s="8" t="e" vm="27">
+    <row r="28" spans="1:10" s="2" customFormat="1">
+      <c r="A28" s="8" t="e" vm="53">
         <v>#VALUE!</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -15088,9 +21284,24 @@
       <c r="F28" s="4">
         <v>4.2</v>
       </c>
+      <c r="G28" s="4" cm="1" vm="54">
+        <f t="array" ref="G28">_FV(A28,"Population")</f>
+        <v>28100</v>
+      </c>
+      <c r="H28" s="15">
+        <v>13645</v>
+      </c>
+      <c r="I28" s="17">
+        <f t="shared" si="0"/>
+        <v>13860</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>49.323843416370103</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
-      <c r="A29" s="9" t="e" vm="28">
+    <row r="29" spans="1:10" s="1" customFormat="1">
+      <c r="A29" s="9" t="e" vm="55">
         <v>#VALUE!</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -15108,9 +21319,24 @@
       <c r="F29" s="5">
         <v>5.9</v>
       </c>
+      <c r="G29" s="5" cm="1" vm="56">
+        <f t="array" ref="G29">_FV(A29,"Population")</f>
+        <v>36915</v>
+      </c>
+      <c r="H29" s="16">
+        <v>18487</v>
+      </c>
+      <c r="I29" s="17">
+        <f t="shared" si="0"/>
+        <v>17260</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>46.756061221725588</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1">
-      <c r="A30" s="8" t="e" vm="29">
+    <row r="30" spans="1:10" s="2" customFormat="1">
+      <c r="A30" s="8" t="e" vm="57">
         <v>#VALUE!</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -15128,9 +21354,24 @@
       <c r="F30" s="4">
         <v>4.5999999999999996</v>
       </c>
+      <c r="G30" s="4" cm="1" vm="58">
+        <f t="array" ref="G30">_FV(A30,"Population")</f>
+        <v>168930</v>
+      </c>
+      <c r="H30" s="15">
+        <v>75166</v>
+      </c>
+      <c r="I30" s="17">
+        <f t="shared" si="0"/>
+        <v>90109</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>53.341028828508854</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1">
-      <c r="A31" s="9" t="e" vm="30">
+    <row r="31" spans="1:10" s="1" customFormat="1">
+      <c r="A31" s="9" t="e" vm="59">
         <v>#VALUE!</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -15148,9 +21389,24 @@
       <c r="F31" s="5">
         <v>4.4000000000000004</v>
       </c>
+      <c r="G31" s="5" cm="1" vm="60">
+        <f t="array" ref="G31">_FV(A31,"Population")</f>
+        <v>42712</v>
+      </c>
+      <c r="H31" s="16">
+        <v>19183</v>
+      </c>
+      <c r="I31" s="17">
+        <f t="shared" si="0"/>
+        <v>22650</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>53.029593556845853</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
-      <c r="A32" s="8" t="e" vm="31">
+    <row r="32" spans="1:10" s="2" customFormat="1">
+      <c r="A32" s="8" t="e" vm="61">
         <v>#VALUE!</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -15168,9 +21424,24 @@
       <c r="F32" s="4">
         <v>4.5</v>
       </c>
+      <c r="G32" s="4" cm="1" vm="62">
+        <f t="array" ref="G32">_FV(A32,"Population")</f>
+        <v>48715</v>
+      </c>
+      <c r="H32" s="15">
+        <v>23060</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" si="0"/>
+        <v>24563</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>50.421841321974746</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1">
-      <c r="A33" s="9" t="e" vm="32">
+    <row r="33" spans="1:10" s="1" customFormat="1">
+      <c r="A33" s="9" t="e" vm="63">
         <v>#VALUE!</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -15188,9 +21459,24 @@
       <c r="F33" s="5">
         <v>4.3</v>
       </c>
+      <c r="G33" s="5" cm="1" vm="64">
+        <f t="array" ref="G33">_FV(A33,"Population")</f>
+        <v>324833</v>
+      </c>
+      <c r="H33" s="16">
+        <v>163761</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="0"/>
+        <v>153767</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>47.337247139299272</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1">
-      <c r="A34" s="8" t="e" vm="33">
+    <row r="34" spans="1:10" s="2" customFormat="1">
+      <c r="A34" s="8" t="e" vm="65">
         <v>#VALUE!</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -15208,9 +21494,24 @@
       <c r="F34" s="4">
         <v>8.4</v>
       </c>
+      <c r="G34" s="4" cm="1" vm="66">
+        <f t="array" ref="G34">_FV(A34,"Population")</f>
+        <v>48900</v>
+      </c>
+      <c r="H34" s="15">
+        <v>18605</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="0"/>
+        <v>28578</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>58.441717791411044</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1">
-      <c r="A35" s="9" t="e" vm="34">
+    <row r="35" spans="1:10" s="1" customFormat="1">
+      <c r="A35" s="9" t="e" vm="67">
         <v>#VALUE!</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -15228,9 +21529,24 @@
       <c r="F35" s="5">
         <v>5</v>
       </c>
+      <c r="G35" s="5" cm="1" vm="68">
+        <f t="array" ref="G35">_FV(A35,"Population")</f>
+        <v>382590</v>
+      </c>
+      <c r="H35" s="16">
+        <v>173726</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="0"/>
+        <v>199729</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>52.20444862646697</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1">
-      <c r="A36" s="8" t="e" vm="35">
+    <row r="36" spans="1:10" s="2" customFormat="1">
+      <c r="A36" s="8" t="e" vm="69">
         <v>#VALUE!</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -15248,9 +21564,24 @@
       <c r="F36" s="4">
         <v>4.8</v>
       </c>
+      <c r="G36" s="4" cm="1" vm="70">
+        <f t="array" ref="G36">_FV(A36,"Population")</f>
+        <v>68573</v>
+      </c>
+      <c r="H36" s="15">
+        <v>30545</v>
+      </c>
+      <c r="I36" s="17">
+        <f t="shared" si="0"/>
+        <v>36488</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>53.210447260583614</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1">
-      <c r="A37" s="9" t="e" vm="36">
+    <row r="37" spans="1:10" s="1" customFormat="1">
+      <c r="A37" s="9" t="e" vm="71">
         <v>#VALUE!</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -15268,9 +21599,24 @@
       <c r="F37" s="5">
         <v>5.2</v>
       </c>
+      <c r="G37" s="5" cm="1" vm="72">
+        <f t="array" ref="G37">_FV(A37,"Population")</f>
+        <v>227943</v>
+      </c>
+      <c r="H37" s="16">
+        <v>103827</v>
+      </c>
+      <c r="I37" s="17">
+        <f t="shared" si="0"/>
+        <v>118411</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>51.947636031814973</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1">
-      <c r="A38" s="8" t="e" vm="37">
+    <row r="38" spans="1:10" s="2" customFormat="1">
+      <c r="A38" s="8" t="e" vm="73">
         <v>#VALUE!</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -15288,9 +21634,24 @@
       <c r="F38" s="4">
         <v>4.4000000000000004</v>
       </c>
+      <c r="G38" s="4" cm="1" vm="74">
+        <f t="array" ref="G38">_FV(A38,"Population")</f>
+        <v>10478</v>
+      </c>
+      <c r="H38" s="15">
+        <v>4753</v>
+      </c>
+      <c r="I38" s="17">
+        <f t="shared" si="0"/>
+        <v>5505</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>52.538652414582934</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1">
-      <c r="A39" s="9" t="e" vm="38">
+    <row r="39" spans="1:10" s="1" customFormat="1">
+      <c r="A39" s="9" t="e" vm="75">
         <v>#VALUE!</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -15308,9 +21669,24 @@
       <c r="F39" s="5">
         <v>6.9</v>
       </c>
+      <c r="G39" s="5" cm="1" vm="76">
+        <f t="array" ref="G39">_FV(A39,"Population")</f>
+        <v>8030</v>
+      </c>
+      <c r="H39" s="16">
+        <v>2798</v>
+      </c>
+      <c r="I39" s="17">
+        <f t="shared" si="0"/>
+        <v>5024</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
+        <v>62.5653798256538</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1">
-      <c r="A40" s="8" t="e" vm="39">
+    <row r="40" spans="1:10" s="2" customFormat="1">
+      <c r="A40" s="8" t="e" vm="77">
         <v>#VALUE!</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -15328,9 +21704,24 @@
       <c r="F40" s="4">
         <v>4.0999999999999996</v>
       </c>
+      <c r="G40" s="4" cm="1" vm="78">
+        <f t="array" ref="G40">_FV(A40,"Population")</f>
+        <v>60992</v>
+      </c>
+      <c r="H40" s="15">
+        <v>28036</v>
+      </c>
+      <c r="I40" s="17">
+        <f t="shared" si="0"/>
+        <v>31755</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="1"/>
+        <v>52.064205141657929</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1">
-      <c r="A41" s="9" t="e" vm="40">
+    <row r="41" spans="1:10" s="1" customFormat="1">
+      <c r="A41" s="9" t="e" vm="79">
         <v>#VALUE!</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -15348,9 +21739,24 @@
       <c r="F41" s="5">
         <v>4.2</v>
       </c>
+      <c r="G41" s="5" cm="1" vm="80">
+        <f t="array" ref="G41">_FV(A41,"Population")</f>
+        <v>20451</v>
+      </c>
+      <c r="H41" s="16">
+        <v>8924</v>
+      </c>
+      <c r="I41" s="17">
+        <f t="shared" si="0"/>
+        <v>11134</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="1"/>
+        <v>54.442325558652392</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1">
-      <c r="A42" s="8" t="e" vm="41">
+    <row r="42" spans="1:10" s="2" customFormat="1">
+      <c r="A42" s="8" t="e" vm="81">
         <v>#VALUE!</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -15368,9 +21774,24 @@
       <c r="F42" s="4">
         <v>5.7</v>
       </c>
+      <c r="G42" s="4" cm="1" vm="82">
+        <f t="array" ref="G42">_FV(A42,"Population")</f>
+        <v>541299</v>
+      </c>
+      <c r="H42" s="15">
+        <v>239373</v>
+      </c>
+      <c r="I42" s="17">
+        <f t="shared" si="0"/>
+        <v>287524</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="1"/>
+        <v>53.117408308531886</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1">
-      <c r="A43" s="9" t="e" vm="42">
+    <row r="43" spans="1:10" s="1" customFormat="1">
+      <c r="A43" s="9" t="e" vm="83">
         <v>#VALUE!</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -15388,9 +21809,24 @@
       <c r="F43" s="5">
         <v>7.5</v>
       </c>
+      <c r="G43" s="5" cm="1" vm="84">
+        <f t="array" ref="G43">_FV(A43,"Population")</f>
+        <v>48622</v>
+      </c>
+      <c r="H43" s="16">
+        <v>17708</v>
+      </c>
+      <c r="I43" s="17">
+        <f t="shared" si="0"/>
+        <v>29486</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="1"/>
+        <v>60.643330179754017</v>
+      </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1">
-      <c r="A44" s="8" t="e" vm="43">
+    <row r="44" spans="1:10" s="2" customFormat="1">
+      <c r="A44" s="8" t="e" vm="85">
         <v>#VALUE!</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -15408,9 +21844,24 @@
       <c r="F44" s="4">
         <v>5.4</v>
       </c>
+      <c r="G44" s="4" cm="1" vm="86">
+        <f t="array" ref="G44">_FV(A44,"Population")</f>
+        <v>133568</v>
+      </c>
+      <c r="H44" s="15">
+        <v>50080</v>
+      </c>
+      <c r="I44" s="17">
+        <f t="shared" si="0"/>
+        <v>80642</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="1"/>
+        <v>60.375239578342118</v>
+      </c>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1">
-      <c r="A45" s="9" t="e" vm="44">
+    <row r="45" spans="1:10" s="1" customFormat="1">
+      <c r="A45" s="9" t="e" vm="87">
         <v>#VALUE!</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -15428,9 +21879,24 @@
       <c r="F45" s="5">
         <v>4.3</v>
       </c>
+      <c r="G45" s="5" cm="1" vm="88">
+        <f t="array" ref="G45">_FV(A45,"Population")</f>
+        <v>62089</v>
+      </c>
+      <c r="H45" s="16">
+        <v>27737</v>
+      </c>
+      <c r="I45" s="17">
+        <f t="shared" si="0"/>
+        <v>33100</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="1"/>
+        <v>53.310570310360937</v>
+      </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1">
-      <c r="A46" s="8" t="e" vm="45">
+    <row r="46" spans="1:10" s="2" customFormat="1">
+      <c r="A46" s="8" t="e" vm="89">
         <v>#VALUE!</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -15448,9 +21914,24 @@
       <c r="F46" s="4">
         <v>4.2</v>
       </c>
+      <c r="G46" s="4" cm="1" vm="90">
+        <f t="array" ref="G46">_FV(A46,"Population")</f>
+        <v>116281</v>
+      </c>
+      <c r="H46" s="15">
+        <v>51013</v>
+      </c>
+      <c r="I46" s="17">
+        <f t="shared" si="0"/>
+        <v>63059</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="1"/>
+        <v>54.229839784659575</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1">
-      <c r="A47" s="9" t="e" vm="46">
+    <row r="47" spans="1:10" s="1" customFormat="1">
+      <c r="A47" s="9" t="e" vm="91">
         <v>#VALUE!</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -15468,9 +21949,24 @@
       <c r="F47" s="5">
         <v>6.6</v>
       </c>
+      <c r="G47" s="5" cm="1" vm="92">
+        <f t="array" ref="G47">_FV(A47,"Population")</f>
+        <v>21552</v>
+      </c>
+      <c r="H47" s="16">
+        <v>7932</v>
+      </c>
+      <c r="I47" s="17">
+        <f t="shared" si="0"/>
+        <v>13057</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="1"/>
+        <v>60.583704528582039</v>
+      </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1">
-      <c r="A48" s="8" t="e" vm="47">
+    <row r="48" spans="1:10" s="2" customFormat="1">
+      <c r="A48" s="8" t="e" vm="93">
         <v>#VALUE!</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -15488,9 +21984,24 @@
       <c r="F48" s="4">
         <v>6.5</v>
       </c>
+      <c r="G48" s="4" cm="1" vm="94">
+        <f t="array" ref="G48">_FV(A48,"Population")</f>
+        <v>52082</v>
+      </c>
+      <c r="H48" s="15">
+        <v>18595</v>
+      </c>
+      <c r="I48" s="17">
+        <f t="shared" si="0"/>
+        <v>32200</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="1"/>
+        <v>61.825582734918015</v>
+      </c>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1">
-      <c r="A49" s="9" t="e" vm="48">
+    <row r="49" spans="1:10" s="1" customFormat="1">
+      <c r="A49" s="9" t="e" vm="95">
         <v>#VALUE!</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -15508,9 +22019,24 @@
       <c r="F49" s="5">
         <v>6.6</v>
       </c>
+      <c r="G49" s="5" cm="1" vm="96">
+        <f t="array" ref="G49">_FV(A49,"Population")</f>
+        <v>4589</v>
+      </c>
+      <c r="H49" s="16">
+        <v>1635</v>
+      </c>
+      <c r="I49" s="17">
+        <f t="shared" si="0"/>
+        <v>2838</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="1"/>
+        <v>61.84353889736326</v>
+      </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1">
-      <c r="A50" s="8" t="e" vm="49">
+    <row r="50" spans="1:10" s="2" customFormat="1">
+      <c r="A50" s="8" t="e" vm="97">
         <v>#VALUE!</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -15528,9 +22054,24 @@
       <c r="F50" s="4">
         <v>4.7</v>
       </c>
+      <c r="G50" s="4" cm="1" vm="98">
+        <f t="array" ref="G50">_FV(A50,"Population")</f>
+        <v>186693</v>
+      </c>
+      <c r="H50" s="15">
+        <v>85931</v>
+      </c>
+      <c r="I50" s="17">
+        <f t="shared" si="0"/>
+        <v>96559</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="1"/>
+        <v>51.720739395692391</v>
+      </c>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1">
-      <c r="A51" s="9" t="e" vm="50">
+    <row r="51" spans="1:10" s="1" customFormat="1">
+      <c r="A51" s="9" t="e" vm="99">
         <v>#VALUE!</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -15548,9 +22089,24 @@
       <c r="F51" s="5">
         <v>4.5999999999999996</v>
       </c>
+      <c r="G51" s="5" cm="1" vm="100">
+        <f t="array" ref="G51">_FV(A51,"Population")</f>
+        <v>43109</v>
+      </c>
+      <c r="H51" s="16">
+        <v>18493</v>
+      </c>
+      <c r="I51" s="17">
+        <f t="shared" si="0"/>
+        <v>23718</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="1"/>
+        <v>55.018673594840983</v>
+      </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1">
-      <c r="A52" s="8" t="e" vm="51">
+    <row r="52" spans="1:10" s="2" customFormat="1">
+      <c r="A52" s="8" t="e" vm="101">
         <v>#VALUE!</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -15568,9 +22124,24 @@
       <c r="F52" s="4">
         <v>4.3</v>
       </c>
+      <c r="G52" s="4" cm="1" vm="102">
+        <f t="array" ref="G52">_FV(A52,"Population")</f>
+        <v>215999</v>
+      </c>
+      <c r="H52" s="15">
+        <v>97424</v>
+      </c>
+      <c r="I52" s="17">
+        <f t="shared" si="0"/>
+        <v>114208</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="1"/>
+        <v>52.874318862587323</v>
+      </c>
     </row>
-    <row r="53" spans="1:6" s="1" customFormat="1">
-      <c r="A53" s="9" t="e" vm="52">
+    <row r="53" spans="1:10" s="1" customFormat="1">
+      <c r="A53" s="9" t="e" vm="103">
         <v>#VALUE!</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -15588,9 +22159,24 @@
       <c r="F53" s="5">
         <v>4.3</v>
       </c>
+      <c r="G53" s="5" cm="1" vm="104">
+        <f t="array" ref="G53">_FV(A53,"Population")</f>
+        <v>9172</v>
+      </c>
+      <c r="H53" s="16">
+        <v>3998</v>
+      </c>
+      <c r="I53" s="17">
+        <f t="shared" si="0"/>
+        <v>4994</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="1"/>
+        <v>54.44832097688618</v>
+      </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1">
-      <c r="A54" s="8" t="e" vm="53">
+    <row r="54" spans="1:10" s="2" customFormat="1">
+      <c r="A54" s="8" t="e" vm="105">
         <v>#VALUE!</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -15608,9 +22194,24 @@
       <c r="F54" s="4">
         <v>5.5</v>
       </c>
+      <c r="G54" s="4" cm="1" vm="106">
+        <f t="array" ref="G54">_FV(A54,"Population")</f>
+        <v>63285</v>
+      </c>
+      <c r="H54" s="15">
+        <v>23809</v>
+      </c>
+      <c r="I54" s="17">
+        <f t="shared" si="0"/>
+        <v>38091</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="1"/>
+        <v>60.189618392984123</v>
+      </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1">
-      <c r="A55" s="9" t="e" vm="54">
+    <row r="55" spans="1:10" s="1" customFormat="1">
+      <c r="A55" s="9" t="e" vm="107">
         <v>#VALUE!</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -15628,9 +22229,24 @@
       <c r="F55" s="5">
         <v>5.0999999999999996</v>
       </c>
+      <c r="G55" s="5" cm="1" vm="108">
+        <f t="array" ref="G55">_FV(A55,"Population")</f>
+        <v>55122</v>
+      </c>
+      <c r="H55" s="16">
+        <v>25477</v>
+      </c>
+      <c r="I55" s="17">
+        <f t="shared" si="0"/>
+        <v>28289</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="1"/>
+        <v>51.320706795834695</v>
+      </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1">
-      <c r="A56" s="8" t="e" vm="55">
+    <row r="56" spans="1:10" s="2" customFormat="1">
+      <c r="A56" s="8" t="e" vm="109">
         <v>#VALUE!</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -15648,9 +22264,24 @@
       <c r="F56" s="4">
         <v>4.0999999999999996</v>
       </c>
+      <c r="G56" s="4" cm="1" vm="110">
+        <f t="array" ref="G56">_FV(A56,"Population")</f>
+        <v>86810</v>
+      </c>
+      <c r="H56" s="15">
+        <v>42258</v>
+      </c>
+      <c r="I56" s="17">
+        <f t="shared" si="0"/>
+        <v>42733</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="1"/>
+        <v>49.225895634143527</v>
+      </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1">
-      <c r="A57" s="9" t="e" vm="56">
+    <row r="57" spans="1:10" s="1" customFormat="1">
+      <c r="A57" s="9" t="e" vm="111">
         <v>#VALUE!</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -15668,9 +22299,24 @@
       <c r="F57" s="5">
         <v>4.3</v>
       </c>
+      <c r="G57" s="5" cm="1" vm="112">
+        <f t="array" ref="G57">_FV(A57,"Population")</f>
+        <v>37014</v>
+      </c>
+      <c r="H57" s="16">
+        <v>14640</v>
+      </c>
+      <c r="I57" s="17">
+        <f t="shared" si="0"/>
+        <v>21714</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="1"/>
+        <v>58.664289187874864</v>
+      </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1">
-      <c r="A58" s="8" t="e" vm="57">
+    <row r="58" spans="1:10" s="2" customFormat="1">
+      <c r="A58" s="8" t="e" vm="113">
         <v>#VALUE!</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -15688,9 +22334,24 @@
       <c r="F58" s="4">
         <v>4.4000000000000004</v>
       </c>
+      <c r="G58" s="4" cm="1" vm="114">
+        <f t="array" ref="G58">_FV(A58,"Population")</f>
+        <v>21193</v>
+      </c>
+      <c r="H58" s="15">
+        <v>9236</v>
+      </c>
+      <c r="I58" s="17">
+        <f t="shared" si="0"/>
+        <v>11536</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="1"/>
+        <v>54.433067522295097</v>
+      </c>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1">
-      <c r="A59" s="9" t="e" vm="58">
+    <row r="59" spans="1:10" s="1" customFormat="1">
+      <c r="A59" s="9" t="e" vm="115">
         <v>#VALUE!</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -15708,9 +22369,24 @@
       <c r="F59" s="5">
         <v>5.7</v>
       </c>
+      <c r="G59" s="5" cm="1" vm="116">
+        <f t="array" ref="G59">_FV(A59,"Population")</f>
+        <v>22031</v>
+      </c>
+      <c r="H59" s="16">
+        <v>8018</v>
+      </c>
+      <c r="I59" s="17">
+        <f t="shared" si="0"/>
+        <v>13527</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="1"/>
+        <v>61.399845672007622</v>
+      </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1">
-      <c r="A60" s="8" t="e" vm="59">
+    <row r="60" spans="1:10" s="2" customFormat="1">
+      <c r="A60" s="8" t="e" vm="117">
         <v>#VALUE!</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -15728,9 +22404,24 @@
       <c r="F60" s="4">
         <v>4.5999999999999996</v>
       </c>
+      <c r="G60" s="4" cm="1" vm="118">
+        <f t="array" ref="G60">_FV(A60,"Population")</f>
+        <v>44578</v>
+      </c>
+      <c r="H60" s="15">
+        <v>18991</v>
+      </c>
+      <c r="I60" s="17">
+        <f t="shared" si="0"/>
+        <v>24672</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="1"/>
+        <v>55.345686212930147</v>
+      </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1">
-      <c r="A61" s="9" t="e" vm="60">
+    <row r="61" spans="1:10" s="1" customFormat="1">
+      <c r="A61" s="9" t="e" vm="119">
         <v>#VALUE!</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -15748,9 +22439,24 @@
       <c r="F61" s="5">
         <v>4.9000000000000004</v>
       </c>
+      <c r="G61" s="5" cm="1" vm="120">
+        <f t="array" ref="G61">_FV(A61,"Population")</f>
+        <v>1115482</v>
+      </c>
+      <c r="H61" s="16">
+        <v>591711</v>
+      </c>
+      <c r="I61" s="17">
+        <f t="shared" si="0"/>
+        <v>493242</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="1"/>
+        <v>44.217835877226172</v>
+      </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1">
-      <c r="A62" s="8" t="e" vm="61">
+    <row r="62" spans="1:10" s="2" customFormat="1">
+      <c r="A62" s="8" t="e" vm="121">
         <v>#VALUE!</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -15768,9 +22474,24 @@
       <c r="F62" s="4">
         <v>5.2</v>
       </c>
+      <c r="G62" s="4" cm="1" vm="122">
+        <f t="array" ref="G62">_FV(A62,"Population")</f>
+        <v>14903</v>
+      </c>
+      <c r="H62" s="15">
+        <v>5595</v>
+      </c>
+      <c r="I62" s="17">
+        <f t="shared" si="0"/>
+        <v>8999</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="1"/>
+        <v>60.383815339193447</v>
+      </c>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1">
-      <c r="A63" s="9" t="e" vm="62">
+    <row r="63" spans="1:10" s="1" customFormat="1">
+      <c r="A63" s="9" t="e" vm="123">
         <v>#VALUE!</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -15788,9 +22509,24 @@
       <c r="F63" s="5">
         <v>4.8</v>
       </c>
+      <c r="G63" s="5" cm="1" vm="124">
+        <f t="array" ref="G63">_FV(A63,"Population")</f>
+        <v>25751</v>
+      </c>
+      <c r="H63" s="16">
+        <v>10473</v>
+      </c>
+      <c r="I63" s="17">
+        <f t="shared" si="0"/>
+        <v>14752</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="1"/>
+        <v>57.287095646771</v>
+      </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1">
-      <c r="A64" s="8" t="e" vm="63">
+    <row r="64" spans="1:10" s="2" customFormat="1">
+      <c r="A64" s="8" t="e" vm="125">
         <v>#VALUE!</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -15808,9 +22544,24 @@
       <c r="F64" s="4">
         <v>4.7</v>
       </c>
+      <c r="G64" s="4" cm="1" vm="126">
+        <f t="array" ref="G64">_FV(A64,"Population")</f>
+        <v>99727</v>
+      </c>
+      <c r="H64" s="15">
+        <v>38278</v>
+      </c>
+      <c r="I64" s="17">
+        <f t="shared" si="0"/>
+        <v>59566</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="1"/>
+        <v>59.729060334713765</v>
+      </c>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1">
-      <c r="A65" s="9" t="e" vm="64">
+    <row r="65" spans="1:10" s="1" customFormat="1">
+      <c r="A65" s="9" t="e" vm="127">
         <v>#VALUE!</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -15828,9 +22579,24 @@
       <c r="F65" s="5">
         <v>6.3</v>
       </c>
+      <c r="G65" s="5" cm="1" vm="128">
+        <f t="array" ref="G65">_FV(A65,"Population")</f>
+        <v>94970</v>
+      </c>
+      <c r="H65" s="16">
+        <v>39540</v>
+      </c>
+      <c r="I65" s="17">
+        <f t="shared" si="0"/>
+        <v>52754</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="1"/>
+        <v>55.548067810887645</v>
+      </c>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1">
-      <c r="A66" s="8" t="e" vm="65">
+    <row r="66" spans="1:10" s="2" customFormat="1">
+      <c r="A66" s="8" t="e" vm="129">
         <v>#VALUE!</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -15848,9 +22614,24 @@
       <c r="F66" s="4">
         <v>4.3</v>
       </c>
+      <c r="G66" s="4" cm="1" vm="130">
+        <f t="array" ref="G66">_FV(A66,"Population")</f>
+        <v>225702</v>
+      </c>
+      <c r="H66" s="15">
+        <v>117253</v>
+      </c>
+      <c r="I66" s="17">
+        <f t="shared" si="0"/>
+        <v>103149</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="1"/>
+        <v>45.701411595821043</v>
+      </c>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1">
-      <c r="A67" s="9" t="e" vm="66">
+    <row r="67" spans="1:10" s="1" customFormat="1">
+      <c r="A67" s="9" t="e" vm="131">
         <v>#VALUE!</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -15868,9 +22649,24 @@
       <c r="F67" s="5">
         <v>6.3</v>
       </c>
+      <c r="G67" s="5" cm="1" vm="132">
+        <f t="array" ref="G67">_FV(A67,"Population")</f>
+        <v>17471</v>
+      </c>
+      <c r="H67" s="16">
+        <v>6716</v>
+      </c>
+      <c r="I67" s="17">
+        <f t="shared" ref="I67:I102" si="2">G67-H67-E67</f>
+        <v>10302</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" ref="J67:J100" si="3">I67/G67 * 100</f>
+        <v>58.966286989868919</v>
+      </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1">
-      <c r="A68" s="8" t="e" vm="67">
+    <row r="68" spans="1:10" s="2" customFormat="1">
+      <c r="A68" s="8" t="e" vm="133">
         <v>#VALUE!</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -15888,9 +22684,24 @@
       <c r="F68" s="4">
         <v>5.2</v>
       </c>
+      <c r="G68" s="4" cm="1" vm="134">
+        <f t="array" ref="G68">_FV(A68,"Population")</f>
+        <v>204576</v>
+      </c>
+      <c r="H68" s="15">
+        <v>62160</v>
+      </c>
+      <c r="I68" s="17">
+        <f t="shared" si="2"/>
+        <v>138994</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="3"/>
+        <v>67.942476145784454</v>
+      </c>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1">
-      <c r="A69" s="9" t="e" vm="68">
+    <row r="69" spans="1:10" s="1" customFormat="1">
+      <c r="A69" s="9" t="e" vm="135">
         <v>#VALUE!</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -15908,9 +22719,24 @@
       <c r="F69" s="5">
         <v>3.6</v>
       </c>
+      <c r="G69" s="5" cm="1" vm="136">
+        <f t="array" ref="G69">_FV(A69,"Population")</f>
+        <v>148696</v>
+      </c>
+      <c r="H69" s="16">
+        <v>74759</v>
+      </c>
+      <c r="I69" s="17">
+        <f t="shared" si="2"/>
+        <v>71120</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="3"/>
+        <v>47.829127885080972</v>
+      </c>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1">
-      <c r="A70" s="8" t="e" vm="69">
+    <row r="70" spans="1:10" s="2" customFormat="1">
+      <c r="A70" s="8" t="e" vm="137">
         <v>#VALUE!</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -15928,9 +22754,24 @@
       <c r="F70" s="4">
         <v>4.4000000000000004</v>
       </c>
+      <c r="G70" s="4" cm="1" vm="138">
+        <f t="array" ref="G70">_FV(A70,"Population")</f>
+        <v>12276</v>
+      </c>
+      <c r="H70" s="15">
+        <v>5095</v>
+      </c>
+      <c r="I70" s="17">
+        <f t="shared" si="2"/>
+        <v>6948</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="3"/>
+        <v>56.598240469208214</v>
+      </c>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1">
-      <c r="A71" s="9" t="e" vm="70">
+    <row r="71" spans="1:10" s="1" customFormat="1">
+      <c r="A71" s="9" t="e" vm="139">
         <v>#VALUE!</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -15948,9 +22789,24 @@
       <c r="F71" s="5">
         <v>5.5</v>
       </c>
+      <c r="G71" s="5" cm="1" vm="140">
+        <f t="array" ref="G71">_FV(A71,"Population")</f>
+        <v>40568</v>
+      </c>
+      <c r="H71" s="16">
+        <v>15363</v>
+      </c>
+      <c r="I71" s="17">
+        <f t="shared" si="2"/>
+        <v>24314</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="3"/>
+        <v>59.933938079274306</v>
+      </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1">
-      <c r="A72" s="8" t="e" vm="71">
+    <row r="72" spans="1:10" s="2" customFormat="1">
+      <c r="A72" s="8" t="e" vm="141">
         <v>#VALUE!</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -15968,9 +22824,24 @@
       <c r="F72" s="4">
         <v>4.3</v>
       </c>
+      <c r="G72" s="4" cm="1" vm="142">
+        <f t="array" ref="G72">_FV(A72,"Population")</f>
+        <v>60203</v>
+      </c>
+      <c r="H72" s="15">
+        <v>27780</v>
+      </c>
+      <c r="I72" s="17">
+        <f t="shared" si="2"/>
+        <v>31169</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="3"/>
+        <v>51.773167450127069</v>
+      </c>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1">
-      <c r="A73" s="9" t="e" vm="72">
+    <row r="73" spans="1:10" s="1" customFormat="1">
+      <c r="A73" s="9" t="e" vm="143">
         <v>#VALUE!</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -15988,9 +22859,24 @@
       <c r="F73" s="5">
         <v>5.5</v>
       </c>
+      <c r="G73" s="5" cm="1" vm="144">
+        <f t="array" ref="G73">_FV(A73,"Population")</f>
+        <v>13005</v>
+      </c>
+      <c r="H73" s="16">
+        <v>4559</v>
+      </c>
+      <c r="I73" s="17">
+        <f t="shared" si="2"/>
+        <v>8183</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="3"/>
+        <v>62.921953094963477</v>
+      </c>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1">
-      <c r="A74" s="8" t="e" vm="73">
+    <row r="74" spans="1:10" s="2" customFormat="1">
+      <c r="A74" s="8" t="e" vm="145">
         <v>#VALUE!</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -16008,9 +22894,24 @@
       <c r="F74" s="4">
         <v>5.2</v>
       </c>
+      <c r="G74" s="4" cm="1" vm="146">
+        <f t="array" ref="G74">_FV(A74,"Population")</f>
+        <v>39097</v>
+      </c>
+      <c r="H74" s="15">
+        <v>17109</v>
+      </c>
+      <c r="I74" s="17">
+        <f t="shared" si="2"/>
+        <v>21059</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="3"/>
+        <v>53.863467785252062</v>
+      </c>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1">
-      <c r="A75" s="9" t="e" vm="74">
+    <row r="75" spans="1:10" s="1" customFormat="1">
+      <c r="A75" s="9" t="e" vm="147">
         <v>#VALUE!</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -16028,9 +22929,24 @@
       <c r="F75" s="5">
         <v>5.3</v>
       </c>
+      <c r="G75" s="5" cm="1" vm="148">
+        <f t="array" ref="G75">_FV(A75,"Population")</f>
+        <v>170243</v>
+      </c>
+      <c r="H75" s="16">
+        <v>80446</v>
+      </c>
+      <c r="I75" s="17">
+        <f t="shared" si="2"/>
+        <v>85316</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="3"/>
+        <v>50.114248456617894</v>
+      </c>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1">
-      <c r="A76" s="8" t="e" vm="75">
+    <row r="76" spans="1:10" s="2" customFormat="1">
+      <c r="A76" s="8" t="e" vm="149">
         <v>#VALUE!</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -16048,9 +22964,24 @@
       <c r="F76" s="4">
         <v>4.8</v>
       </c>
+      <c r="G76" s="4" cm="1" vm="150">
+        <f t="array" ref="G76">_FV(A76,"Population")</f>
+        <v>19328</v>
+      </c>
+      <c r="H76" s="15">
+        <v>8605</v>
+      </c>
+      <c r="I76" s="17">
+        <f t="shared" si="2"/>
+        <v>10292</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="3"/>
+        <v>53.24917218543046</v>
+      </c>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1">
-      <c r="A77" s="9" t="e" vm="76">
+    <row r="77" spans="1:10" s="1" customFormat="1">
+      <c r="A77" s="9" t="e" vm="151">
         <v>#VALUE!</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -16068,9 +22999,24 @@
       <c r="F77" s="5">
         <v>4.8</v>
       </c>
+      <c r="G77" s="5" cm="1" vm="152">
+        <f t="array" ref="G77">_FV(A77,"Population")</f>
+        <v>144171</v>
+      </c>
+      <c r="H77" s="16">
+        <v>60378</v>
+      </c>
+      <c r="I77" s="17">
+        <f t="shared" si="2"/>
+        <v>80759</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="3"/>
+        <v>56.016119746689697</v>
+      </c>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1">
-      <c r="A78" s="8" t="e" vm="77">
+    <row r="78" spans="1:10" s="2" customFormat="1">
+      <c r="A78" s="8" t="e" vm="153">
         <v>#VALUE!</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -16088,9 +23034,24 @@
       <c r="F78" s="4">
         <v>7.3</v>
       </c>
+      <c r="G78" s="4" cm="1" vm="154">
+        <f t="array" ref="G78">_FV(A78,"Population")</f>
+        <v>42946</v>
+      </c>
+      <c r="H78" s="15">
+        <v>15115</v>
+      </c>
+      <c r="I78" s="17">
+        <f t="shared" si="2"/>
+        <v>26645</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="3"/>
+        <v>62.043030782843566</v>
+      </c>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1">
-      <c r="A79" s="9" t="e" vm="78">
+    <row r="79" spans="1:10" s="1" customFormat="1">
+      <c r="A79" s="9" t="e" vm="155">
         <v>#VALUE!</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -16108,9 +23069,24 @@
       <c r="F79" s="5">
         <v>7.6</v>
       </c>
+      <c r="G79" s="5" cm="1" vm="156">
+        <f t="array" ref="G79">_FV(A79,"Population")</f>
+        <v>116530</v>
+      </c>
+      <c r="H79" s="16">
+        <v>44307</v>
+      </c>
+      <c r="I79" s="17">
+        <f t="shared" si="2"/>
+        <v>68591</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="3"/>
+        <v>58.861237449583804</v>
+      </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1">
-      <c r="A80" s="8" t="e" vm="79">
+    <row r="80" spans="1:10" s="2" customFormat="1">
+      <c r="A80" s="8" t="e" vm="157">
         <v>#VALUE!</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -16128,9 +23104,24 @@
       <c r="F80" s="4">
         <v>5.6</v>
       </c>
+      <c r="G80" s="4" cm="1" vm="158">
+        <f t="array" ref="G80">_FV(A80,"Population")</f>
+        <v>91096</v>
+      </c>
+      <c r="H80" s="15">
+        <v>36292</v>
+      </c>
+      <c r="I80" s="17">
+        <f t="shared" si="2"/>
+        <v>52648</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="3"/>
+        <v>57.793975586194776</v>
+      </c>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1">
-      <c r="A81" s="9" t="e" vm="80">
+    <row r="81" spans="1:10" s="1" customFormat="1">
+      <c r="A81" s="9" t="e" vm="159">
         <v>#VALUE!</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -16148,9 +23139,24 @@
       <c r="F81" s="5">
         <v>5.0999999999999996</v>
       </c>
+      <c r="G81" s="5" cm="1" vm="160">
+        <f t="array" ref="G81">_FV(A81,"Population")</f>
+        <v>146875</v>
+      </c>
+      <c r="H81" s="16">
+        <v>61390</v>
+      </c>
+      <c r="I81" s="17">
+        <f t="shared" si="2"/>
+        <v>82200</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="3"/>
+        <v>55.96595744680851</v>
+      </c>
     </row>
-    <row r="82" spans="1:6" s="2" customFormat="1">
-      <c r="A82" s="8" t="e" vm="81">
+    <row r="82" spans="1:10" s="2" customFormat="1">
+      <c r="A82" s="8" t="e" vm="161">
         <v>#VALUE!</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -16168,9 +23174,24 @@
       <c r="F82" s="4">
         <v>6.5</v>
       </c>
+      <c r="G82" s="4" cm="1" vm="162">
+        <f t="array" ref="G82">_FV(A82,"Population")</f>
+        <v>64444</v>
+      </c>
+      <c r="H82" s="15">
+        <v>22475</v>
+      </c>
+      <c r="I82" s="17">
+        <f t="shared" si="2"/>
+        <v>40409</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="3"/>
+        <v>62.704053131400904</v>
+      </c>
     </row>
-    <row r="83" spans="1:6" s="1" customFormat="1">
-      <c r="A83" s="9" t="e" vm="82">
+    <row r="83" spans="1:10" s="1" customFormat="1">
+      <c r="A83" s="9" t="e" vm="163">
         <v>#VALUE!</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -16188,9 +23209,24 @@
       <c r="F83" s="5">
         <v>4.5999999999999996</v>
       </c>
+      <c r="G83" s="5" cm="1" vm="164">
+        <f t="array" ref="G83">_FV(A83,"Population")</f>
+        <v>59036</v>
+      </c>
+      <c r="H83" s="16">
+        <v>26416</v>
+      </c>
+      <c r="I83" s="17">
+        <f t="shared" si="2"/>
+        <v>31341</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="3"/>
+        <v>53.087946337827759</v>
+      </c>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1">
-      <c r="A84" s="8" t="e" vm="83">
+    <row r="84" spans="1:10" s="2" customFormat="1">
+      <c r="A84" s="8" t="e" vm="165">
         <v>#VALUE!</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -16208,9 +23244,24 @@
       <c r="F84" s="4">
         <v>9.5</v>
       </c>
+      <c r="G84" s="4" cm="1" vm="166">
+        <f t="array" ref="G84">_FV(A84,"Population")</f>
+        <v>34174</v>
+      </c>
+      <c r="H84" s="15">
+        <v>9995</v>
+      </c>
+      <c r="I84" s="17">
+        <f t="shared" si="2"/>
+        <v>23135</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="3"/>
+        <v>67.697664891437938</v>
+      </c>
     </row>
-    <row r="85" spans="1:6" s="1" customFormat="1">
-      <c r="A85" s="9" t="e" vm="84">
+    <row r="85" spans="1:10" s="1" customFormat="1">
+      <c r="A85" s="9" t="e" vm="167">
         <v>#VALUE!</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -16228,9 +23279,24 @@
       <c r="F85" s="5">
         <v>4.4000000000000004</v>
       </c>
+      <c r="G85" s="5" cm="1" vm="168">
+        <f t="array" ref="G85">_FV(A85,"Population")</f>
+        <v>62504</v>
+      </c>
+      <c r="H85" s="16">
+        <v>28162</v>
+      </c>
+      <c r="I85" s="17">
+        <f t="shared" si="2"/>
+        <v>33032</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="3"/>
+        <v>52.847817739664663</v>
+      </c>
     </row>
-    <row r="86" spans="1:6" s="2" customFormat="1">
-      <c r="A86" s="8" t="e" vm="85">
+    <row r="86" spans="1:10" s="2" customFormat="1">
+      <c r="A86" s="8" t="e" vm="169">
         <v>#VALUE!</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -16248,9 +23314,24 @@
       <c r="F86" s="4">
         <v>4.3</v>
       </c>
+      <c r="G86" s="4" cm="1" vm="170">
+        <f t="array" ref="G86">_FV(A86,"Population")</f>
+        <v>44520</v>
+      </c>
+      <c r="H86" s="15">
+        <v>20023</v>
+      </c>
+      <c r="I86" s="17">
+        <f t="shared" si="2"/>
+        <v>23591</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="3"/>
+        <v>52.989667565139264</v>
+      </c>
     </row>
-    <row r="87" spans="1:6" s="1" customFormat="1">
-      <c r="A87" s="9" t="e" vm="86">
+    <row r="87" spans="1:10" s="1" customFormat="1">
+      <c r="A87" s="9" t="e" vm="171">
         <v>#VALUE!</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -16268,9 +23349,24 @@
       <c r="F87" s="5">
         <v>4.5</v>
       </c>
+      <c r="G87" s="5" cm="1" vm="172">
+        <f t="array" ref="G87">_FV(A87,"Population")</f>
+        <v>71359</v>
+      </c>
+      <c r="H87" s="16">
+        <v>30488</v>
+      </c>
+      <c r="I87" s="17">
+        <f t="shared" si="2"/>
+        <v>39447</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="3"/>
+        <v>55.279642371670001</v>
+      </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1">
-      <c r="A88" s="8" t="e" vm="87">
+    <row r="88" spans="1:10" s="2" customFormat="1">
+      <c r="A88" s="8" t="e" vm="173">
         <v>#VALUE!</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -16288,9 +23384,24 @@
       <c r="F88" s="4">
         <v>4.5999999999999996</v>
       </c>
+      <c r="G88" s="4" cm="1" vm="174">
+        <f t="array" ref="G88">_FV(A88,"Population")</f>
+        <v>14117</v>
+      </c>
+      <c r="H88" s="15">
+        <v>6477</v>
+      </c>
+      <c r="I88" s="17">
+        <f t="shared" si="2"/>
+        <v>7327</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="3"/>
+        <v>51.90196217326627</v>
+      </c>
     </row>
-    <row r="89" spans="1:6" s="1" customFormat="1">
-      <c r="A89" s="9" t="e" vm="88">
+    <row r="89" spans="1:10" s="1" customFormat="1">
+      <c r="A89" s="9" t="e" vm="175">
         <v>#VALUE!</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -16308,9 +23419,24 @@
       <c r="F89" s="5">
         <v>4.2</v>
       </c>
+      <c r="G89" s="5" cm="1" vm="176">
+        <f t="array" ref="G89">_FV(A89,"Population")</f>
+        <v>32986</v>
+      </c>
+      <c r="H89" s="16">
+        <v>13536</v>
+      </c>
+      <c r="I89" s="17">
+        <f t="shared" si="2"/>
+        <v>18856</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="3"/>
+        <v>57.163645182804821</v>
+      </c>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1">
-      <c r="A90" s="8" t="e" vm="89">
+    <row r="90" spans="1:10" s="2" customFormat="1">
+      <c r="A90" s="8" t="e" vm="177">
         <v>#VALUE!</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -16328,9 +23454,24 @@
       <c r="F90" s="4">
         <v>6.9</v>
       </c>
+      <c r="G90" s="4" cm="1" vm="178">
+        <f t="array" ref="G90">_FV(A90,"Population")</f>
+        <v>3245</v>
+      </c>
+      <c r="H90" s="15">
+        <v>1194</v>
+      </c>
+      <c r="I90" s="17">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="3"/>
+        <v>60.462249614791986</v>
+      </c>
     </row>
-    <row r="91" spans="1:6" s="1" customFormat="1">
-      <c r="A91" s="9" t="e" vm="90">
+    <row r="91" spans="1:10" s="1" customFormat="1">
+      <c r="A91" s="9" t="e" vm="179">
         <v>#VALUE!</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -16348,9 +23489,24 @@
       <c r="F91" s="5">
         <v>4</v>
       </c>
+      <c r="G91" s="5" cm="1" vm="180">
+        <f t="array" ref="G91">_FV(A91,"Population")</f>
+        <v>238267</v>
+      </c>
+      <c r="H91" s="16">
+        <v>118702</v>
+      </c>
+      <c r="I91" s="17">
+        <f t="shared" si="2"/>
+        <v>114658</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="3"/>
+        <v>48.121645045264344</v>
+      </c>
     </row>
-    <row r="92" spans="1:6" s="2" customFormat="1">
-      <c r="A92" s="8" t="e" vm="91">
+    <row r="92" spans="1:10" s="2" customFormat="1">
+      <c r="A92" s="8" t="e" vm="181">
         <v>#VALUE!</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -16368,9 +23524,24 @@
       <c r="F92" s="4">
         <v>7.9</v>
       </c>
+      <c r="G92" s="4" cm="1" vm="182">
+        <f t="array" ref="G92">_FV(A92,"Population")</f>
+        <v>42578</v>
+      </c>
+      <c r="H92" s="15">
+        <v>15312</v>
+      </c>
+      <c r="I92" s="17">
+        <f t="shared" si="2"/>
+        <v>25951</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" si="3"/>
+        <v>60.949316548452245</v>
+      </c>
     </row>
-    <row r="93" spans="1:6" s="1" customFormat="1">
-      <c r="A93" s="9" t="e" vm="92">
+    <row r="93" spans="1:10" s="1" customFormat="1">
+      <c r="A93" s="9" t="e" vm="183">
         <v>#VALUE!</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -16388,9 +23559,24 @@
       <c r="F93" s="5">
         <v>4.0999999999999996</v>
       </c>
+      <c r="G93" s="5" cm="1" vm="184">
+        <f t="array" ref="G93">_FV(A93,"Population")</f>
+        <v>1129410</v>
+      </c>
+      <c r="H93" s="16">
+        <v>570431</v>
+      </c>
+      <c r="I93" s="17">
+        <f t="shared" si="2"/>
+        <v>534862</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="3"/>
+        <v>47.357646912989971</v>
+      </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1">
-      <c r="A94" s="8" t="e" vm="93">
+    <row r="94" spans="1:10" s="2" customFormat="1">
+      <c r="A94" s="8" t="e" vm="185">
         <v>#VALUE!</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -16408,9 +23594,24 @@
       <c r="F94" s="4">
         <v>7.8</v>
       </c>
+      <c r="G94" s="4" cm="1" vm="186">
+        <f t="array" ref="G94">_FV(A94,"Population")</f>
+        <v>18642</v>
+      </c>
+      <c r="H94" s="15">
+        <v>5875</v>
+      </c>
+      <c r="I94" s="17">
+        <f t="shared" si="2"/>
+        <v>12271</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="3"/>
+        <v>65.824482351679009</v>
+      </c>
     </row>
-    <row r="95" spans="1:6" s="1" customFormat="1">
-      <c r="A95" s="9" t="e" vm="94">
+    <row r="95" spans="1:10" s="1" customFormat="1">
+      <c r="A95" s="9" t="e" vm="187">
         <v>#VALUE!</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -16428,9 +23629,24 @@
       <c r="F95" s="5">
         <v>7</v>
       </c>
+      <c r="G95" s="5" cm="1" vm="188">
+        <f t="array" ref="G95">_FV(A95,"Population")</f>
+        <v>11003</v>
+      </c>
+      <c r="H95" s="16">
+        <v>3974</v>
+      </c>
+      <c r="I95" s="17">
+        <f t="shared" si="2"/>
+        <v>6732</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="3"/>
+        <v>61.183313641734074</v>
+      </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1">
-      <c r="A96" s="8" t="e" vm="95">
+    <row r="96" spans="1:10" s="2" customFormat="1">
+      <c r="A96" s="8" t="e" vm="189">
         <v>#VALUE!</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -16448,9 +23664,24 @@
       <c r="F96" s="4">
         <v>3.8</v>
       </c>
+      <c r="G96" s="4" cm="1" vm="190">
+        <f t="array" ref="G96">_FV(A96,"Population")</f>
+        <v>54086</v>
+      </c>
+      <c r="H96" s="15">
+        <v>27127</v>
+      </c>
+      <c r="I96" s="17">
+        <f t="shared" si="2"/>
+        <v>25888</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="3"/>
+        <v>47.864512073364637</v>
+      </c>
     </row>
-    <row r="97" spans="1:6" s="1" customFormat="1">
-      <c r="A97" s="9" t="e" vm="96">
+    <row r="97" spans="1:10" s="1" customFormat="1">
+      <c r="A97" s="9" t="e" vm="191">
         <v>#VALUE!</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -16468,9 +23699,24 @@
       <c r="F97" s="5">
         <v>5.0999999999999996</v>
       </c>
+      <c r="G97" s="5" cm="1" vm="192">
+        <f t="array" ref="G97">_FV(A97,"Population")</f>
+        <v>117333</v>
+      </c>
+      <c r="H97" s="16">
+        <v>47751</v>
+      </c>
+      <c r="I97" s="17">
+        <f t="shared" si="2"/>
+        <v>66992</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="3"/>
+        <v>57.095616748911212</v>
+      </c>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1">
-      <c r="A98" s="8" t="e" vm="97">
+    <row r="98" spans="1:10" s="2" customFormat="1">
+      <c r="A98" s="8" t="e" vm="193">
         <v>#VALUE!</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -16488,9 +23734,24 @@
       <c r="F98" s="4">
         <v>4.8</v>
       </c>
+      <c r="G98" s="4" cm="1" vm="194">
+        <f t="array" ref="G98">_FV(A98,"Population")</f>
+        <v>65969</v>
+      </c>
+      <c r="H98" s="15">
+        <v>25716</v>
+      </c>
+      <c r="I98" s="17">
+        <f t="shared" si="2"/>
+        <v>38944</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="3"/>
+        <v>59.033788597674665</v>
+      </c>
     </row>
-    <row r="99" spans="1:6" s="1" customFormat="1">
-      <c r="A99" s="9" t="e" vm="98">
+    <row r="99" spans="1:10" s="1" customFormat="1">
+      <c r="A99" s="9" t="e" vm="195">
         <v>#VALUE!</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -16508,9 +23769,24 @@
       <c r="F99" s="5">
         <v>6.8</v>
       </c>
+      <c r="G99" s="5" cm="1" vm="196">
+        <f t="array" ref="G99">_FV(A99,"Population")</f>
+        <v>78784</v>
+      </c>
+      <c r="H99" s="16">
+        <v>31080</v>
+      </c>
+      <c r="I99" s="17">
+        <f t="shared" si="2"/>
+        <v>45450</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="3"/>
+        <v>57.689378554021118</v>
+      </c>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1">
-      <c r="A100" s="8" t="e" vm="99">
+    <row r="100" spans="1:10" s="2" customFormat="1">
+      <c r="A100" s="8" t="e" vm="197">
         <v>#VALUE!</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -16528,9 +23804,24 @@
       <c r="F100" s="4">
         <v>4.3</v>
       </c>
+      <c r="G100" s="4" cm="1" vm="198">
+        <f t="array" ref="G100">_FV(A100,"Population")</f>
+        <v>37214</v>
+      </c>
+      <c r="H100" s="15">
+        <v>16290</v>
+      </c>
+      <c r="I100" s="17">
+        <f t="shared" si="2"/>
+        <v>20185</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="3"/>
+        <v>54.240339657118284</v>
+      </c>
     </row>
-    <row r="101" spans="1:6" s="1" customFormat="1">
-      <c r="A101" s="12" t="e" vm="100">
+    <row r="101" spans="1:10" s="1" customFormat="1">
+      <c r="A101" s="12" t="e" vm="199">
         <v>#VALUE!</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -16548,6 +23839,24 @@
       <c r="F101" s="5">
         <v>4.4000000000000004</v>
       </c>
+      <c r="G101" s="5" cm="1" vm="200">
+        <f t="array" ref="G101">_FV(A101,"Population")</f>
+        <v>18470</v>
+      </c>
+      <c r="H101" s="16">
+        <v>7630</v>
+      </c>
+      <c r="I101" s="17">
+        <f t="shared" si="2"/>
+        <v>10488</v>
+      </c>
+      <c r="J101" s="2">
+        <f>I101/G101 * 100</f>
+        <v>56.783974011911212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="I102" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/D4 unemployment 2021.xlsx
+++ b/D4 unemployment 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cozzieae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C96B97-5B06-4B63-ACFC-0E5BB03E00D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF566CB-FD39-440C-9849-E5C7CD826745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20306,8 +20306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
